--- a/Data/DWA_JH.xlsx
+++ b/Data/DWA_JH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0C6A04-1A77-4139-9C40-9ECFD37F35EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E332B796-0C3F-4ACC-AE7F-A0BA3FA11E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="1580" windowWidth="14400" windowHeight="7250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="14400" windowHeight="7250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="324">
   <si>
     <t>ID</t>
   </si>
@@ -618,9 +618,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>[K]ietsch</t>
-  </si>
-  <si>
     <t>II_55_0127</t>
   </si>
   <si>
@@ -760,6 +757,243 @@
   </si>
   <si>
     <t>II_55_0129</t>
+  </si>
+  <si>
+    <t>identisch mit 0128</t>
+  </si>
+  <si>
+    <t>II_55_0130</t>
+  </si>
+  <si>
+    <t>g-o</t>
+  </si>
+  <si>
+    <t>Schippach</t>
+  </si>
+  <si>
+    <t>b. Obernburg/Bayern</t>
+  </si>
+  <si>
+    <t>Parzheemeze</t>
+  </si>
+  <si>
+    <t>Atzel</t>
+  </si>
+  <si>
+    <t>Enterisch</t>
+  </si>
+  <si>
+    <t>Flärämaus</t>
+  </si>
+  <si>
+    <t>Fliesche</t>
+  </si>
+  <si>
+    <t>Kummern</t>
+  </si>
+  <si>
+    <t>Grummbiern</t>
+  </si>
+  <si>
+    <t>Köerä</t>
+  </si>
+  <si>
+    <t>Hoarüssel</t>
+  </si>
+  <si>
+    <t>Pettär</t>
+  </si>
+  <si>
+    <t>Gaschel</t>
+  </si>
+  <si>
+    <t>Schbatz</t>
+  </si>
+  <si>
+    <t>Schtachelbärn</t>
+  </si>
+  <si>
+    <t>Schtecknodel</t>
+  </si>
+  <si>
+    <t>Schtricknodel</t>
+  </si>
+  <si>
+    <t>Krobbe, Gibbe</t>
+  </si>
+  <si>
+    <t>geproppt</t>
+  </si>
+  <si>
+    <t>Schwichertochter</t>
+  </si>
+  <si>
+    <t>Kaufer</t>
+  </si>
+  <si>
+    <t>Wörth/Main</t>
+  </si>
+  <si>
+    <t>II_55_0131</t>
+  </si>
+  <si>
+    <t>g-u</t>
+  </si>
+  <si>
+    <t>Leich</t>
+  </si>
+  <si>
+    <t>Trumpln</t>
+  </si>
+  <si>
+    <t>deistl</t>
+  </si>
+  <si>
+    <t>Flettermaus, Fleddermaus</t>
+  </si>
+  <si>
+    <t>Kummern (d)</t>
+  </si>
+  <si>
+    <t>Grumbern, Kartoffln</t>
+  </si>
+  <si>
+    <t>Kater, Katr</t>
+  </si>
+  <si>
+    <t>Maulwof</t>
+  </si>
+  <si>
+    <t>Gele Rüben</t>
+  </si>
+  <si>
+    <t>Petter</t>
+  </si>
+  <si>
+    <t>Pfloume</t>
+  </si>
+  <si>
+    <t>sie kreische</t>
+  </si>
+  <si>
+    <t>Stecknodl</t>
+  </si>
+  <si>
+    <t>Stricknodl</t>
+  </si>
+  <si>
+    <t>Hafa, Häfele</t>
+  </si>
+  <si>
+    <t>Schwiegertachter</t>
+  </si>
+  <si>
+    <t>prappe</t>
+  </si>
+  <si>
+    <t>II_55_0132</t>
+  </si>
+  <si>
+    <t>g-y</t>
+  </si>
+  <si>
+    <t>Mönchberg</t>
+  </si>
+  <si>
+    <t>Pätzammesse (w)</t>
+  </si>
+  <si>
+    <t>Begräbnis (w) &lt;ältereF.&gt;</t>
+  </si>
+  <si>
+    <t>Drumbel</t>
+  </si>
+  <si>
+    <t>Deistel (w)</t>
+  </si>
+  <si>
+    <t>Elster (w)</t>
+  </si>
+  <si>
+    <t>Speckmaus (w)</t>
+  </si>
+  <si>
+    <t>Mugge (w)</t>
+  </si>
+  <si>
+    <t>Kummern (w)</t>
+  </si>
+  <si>
+    <t>Hiffde (w)</t>
+  </si>
+  <si>
+    <t>Amm (die, w)</t>
+  </si>
+  <si>
+    <t>Grummbrn (w)</t>
+  </si>
+  <si>
+    <t>A°ndr (m)</t>
+  </si>
+  <si>
+    <t>Ka°dr (m)</t>
+  </si>
+  <si>
+    <t>Moudwerfer (m)</t>
+  </si>
+  <si>
+    <t>gelbe Rübe {durchgestrichen}</t>
+  </si>
+  <si>
+    <t>Moug (w)</t>
+  </si>
+  <si>
+    <t>Göahlsveddr (m)</t>
+  </si>
+  <si>
+    <t>Gaäschl</t>
+  </si>
+  <si>
+    <t>Grische (w)</t>
+  </si>
+  <si>
+    <t>kraeische</t>
+  </si>
+  <si>
+    <t>Stachelbeer</t>
+  </si>
+  <si>
+    <t>brobbe, zinke &lt;älter&gt;</t>
+  </si>
+  <si>
+    <t>Gaäs</t>
+  </si>
+  <si>
+    <t>Fischer</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>mit Hilfe Eingeborener</t>
+  </si>
+  <si>
+    <t>Eschau-Sommerau</t>
+  </si>
+  <si>
+    <t>Mittelfranken</t>
+  </si>
+  <si>
+    <t>Dietsch</t>
+  </si>
+  <si>
+    <t>Petzhämmrlchen, Sächhämmelschn</t>
+  </si>
+  <si>
+    <t>Moauk</t>
+  </si>
+  <si>
+    <t>prapfn, propfn</t>
   </si>
 </sst>
 </file>
@@ -1178,10 +1412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA9"/>
+  <dimension ref="A1:BA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AE9" sqref="AE9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1566,6 +1800,9 @@
       <c r="L3" t="s">
         <v>112</v>
       </c>
+      <c r="M3">
+        <v>999</v>
+      </c>
       <c r="N3" t="s">
         <v>89</v>
       </c>
@@ -1587,8 +1824,11 @@
       <c r="T3" t="s">
         <v>56</v>
       </c>
-      <c r="V3">
-        <v>888</v>
+      <c r="U3" s="1">
+        <v>999</v>
+      </c>
+      <c r="V3" t="s">
+        <v>321</v>
       </c>
       <c r="W3" t="s">
         <v>97</v>
@@ -1665,8 +1905,8 @@
       <c r="AW3" t="s">
         <v>110</v>
       </c>
-      <c r="AX3">
-        <v>888</v>
+      <c r="AX3" t="s">
+        <v>323</v>
       </c>
       <c r="AY3" s="1" t="s">
         <v>111</v>
@@ -1712,6 +1952,9 @@
       <c r="L4" t="s">
         <v>136</v>
       </c>
+      <c r="M4">
+        <v>999</v>
+      </c>
       <c r="N4" t="s">
         <v>89</v>
       </c>
@@ -1784,8 +2027,8 @@
       <c r="AL4" t="s">
         <v>125</v>
       </c>
-      <c r="AM4">
-        <v>888</v>
+      <c r="AM4" t="s">
+        <v>322</v>
       </c>
       <c r="AN4" t="s">
         <v>126</v>
@@ -1861,6 +2104,9 @@
       <c r="L5" t="s">
         <v>141</v>
       </c>
+      <c r="M5">
+        <v>999</v>
+      </c>
       <c r="N5" t="s">
         <v>89</v>
       </c>
@@ -1881,6 +2127,9 @@
       </c>
       <c r="T5" s="6" t="s">
         <v>56</v>
+      </c>
+      <c r="U5" s="1">
+        <v>999</v>
       </c>
       <c r="V5" t="s">
         <v>142</v>
@@ -2007,6 +2256,9 @@
       <c r="L6" t="s">
         <v>173</v>
       </c>
+      <c r="M6">
+        <v>999</v>
+      </c>
       <c r="N6" t="s">
         <v>89</v>
       </c>
@@ -2014,7 +2266,7 @@
         <v>90</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>198</v>
+        <v>320</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>195</v>
@@ -2139,7 +2391,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>56</v>
@@ -2151,13 +2403,16 @@
         <v>49.45</v>
       </c>
       <c r="K7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L7" t="s">
         <v>200</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7">
+        <v>999</v>
+      </c>
+      <c r="N7" t="s">
         <v>201</v>
-      </c>
-      <c r="N7" t="s">
-        <v>202</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>90</v>
@@ -2166,7 +2421,7 @@
         <v>888</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R7" s="6">
         <v>999</v>
@@ -2181,25 +2436,25 @@
         <v>888</v>
       </c>
       <c r="V7" t="s">
+        <v>202</v>
+      </c>
+      <c r="W7" t="s">
         <v>203</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>204</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>205</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>206</v>
       </c>
       <c r="Z7" t="s">
         <v>144</v>
       </c>
       <c r="AA7" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB7" t="s">
         <v>207</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>208</v>
       </c>
       <c r="AC7" t="s">
         <v>65</v>
@@ -2208,37 +2463,37 @@
         <v>66</v>
       </c>
       <c r="AE7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF7" t="s">
         <v>147</v>
       </c>
       <c r="AH7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AI7" t="s">
+        <v>210</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>211</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AK7" t="s">
         <v>212</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AL7" t="s">
         <v>213</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AM7" t="s">
         <v>214</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AN7" t="s">
         <v>215</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AO7" t="s">
         <v>216</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AP7" t="s">
         <v>217</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>218</v>
       </c>
       <c r="AQ7" t="s">
         <v>158</v>
@@ -2247,25 +2502,25 @@
         <v>79</v>
       </c>
       <c r="AS7" t="s">
+        <v>218</v>
+      </c>
+      <c r="AT7" t="s">
         <v>219</v>
       </c>
-      <c r="AT7" t="s">
+      <c r="AU7" t="s">
         <v>220</v>
       </c>
-      <c r="AU7" t="s">
+      <c r="AW7" t="s">
         <v>221</v>
       </c>
-      <c r="AW7" t="s">
+      <c r="AX7" t="s">
         <v>222</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="AY7" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AY7" s="1" t="s">
+      <c r="AZ7" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="AZ7" s="1" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
@@ -2288,7 +2543,7 @@
         <v>7</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>56</v>
@@ -2303,22 +2558,22 @@
         <v>172</v>
       </c>
       <c r="L8" t="s">
+        <v>227</v>
+      </c>
+      <c r="M8" t="s">
         <v>228</v>
       </c>
-      <c r="M8" t="s">
-        <v>229</v>
-      </c>
       <c r="N8" t="s">
+        <v>240</v>
+      </c>
+      <c r="O8" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="P8" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="Q8" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="R8" s="6">
         <v>999</v>
@@ -2333,16 +2588,16 @@
         <v>999</v>
       </c>
       <c r="V8" t="s">
+        <v>229</v>
+      </c>
+      <c r="W8" t="s">
         <v>230</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>231</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>232</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>233</v>
       </c>
       <c r="Z8">
         <v>999</v>
@@ -2351,25 +2606,25 @@
         <v>63</v>
       </c>
       <c r="AB8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AC8" t="s">
         <v>99</v>
       </c>
       <c r="AD8" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE8" t="s">
         <v>235</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>236</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>237</v>
       </c>
       <c r="AH8" t="s">
         <v>181</v>
       </c>
       <c r="AI8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ8" t="s">
         <v>71</v>
@@ -2384,7 +2639,7 @@
         <v>999</v>
       </c>
       <c r="AN8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AO8">
         <v>999</v>
@@ -2414,7 +2669,7 @@
         <v>999</v>
       </c>
       <c r="AY8" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AZ8" s="1">
         <v>999</v>
@@ -2440,7 +2695,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>56</v>
@@ -2455,22 +2710,22 @@
         <v>999</v>
       </c>
       <c r="L9" t="s">
+        <v>227</v>
+      </c>
+      <c r="M9" t="s">
         <v>228</v>
       </c>
-      <c r="M9" t="s">
-        <v>229</v>
-      </c>
       <c r="N9" t="s">
+        <v>240</v>
+      </c>
+      <c r="O9" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="P9" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="Q9" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="R9" s="6">
         <v>999</v>
@@ -2485,16 +2740,16 @@
         <v>999</v>
       </c>
       <c r="V9" t="s">
+        <v>229</v>
+      </c>
+      <c r="W9" t="s">
         <v>230</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>231</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>232</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>233</v>
       </c>
       <c r="Z9">
         <v>999</v>
@@ -2503,13 +2758,532 @@
         <v>63</v>
       </c>
       <c r="AB9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AC9" t="s">
         <v>99</v>
       </c>
       <c r="AD9" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE9" t="s">
         <v>235</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>236</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>237</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK9">
+        <v>999</v>
+      </c>
+      <c r="AL9">
+        <v>999</v>
+      </c>
+      <c r="AM9">
+        <v>999</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>238</v>
+      </c>
+      <c r="AO9">
+        <v>999</v>
+      </c>
+      <c r="AP9">
+        <v>999</v>
+      </c>
+      <c r="AQ9">
+        <v>999</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS9">
+        <v>999</v>
+      </c>
+      <c r="AT9">
+        <v>999</v>
+      </c>
+      <c r="AU9">
+        <v>999</v>
+      </c>
+      <c r="AW9">
+        <v>999</v>
+      </c>
+      <c r="AX9">
+        <v>999</v>
+      </c>
+      <c r="AY9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AZ9" s="1">
+        <v>999</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>44833</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10">
+        <v>26.5</v>
+      </c>
+      <c r="J10">
+        <v>49.45</v>
+      </c>
+      <c r="K10" t="s">
+        <v>247</v>
+      </c>
+      <c r="L10" t="s">
+        <v>248</v>
+      </c>
+      <c r="M10" t="s">
+        <v>249</v>
+      </c>
+      <c r="N10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="R10" s="6">
+        <v>999</v>
+      </c>
+      <c r="S10" s="6">
+        <v>999</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="U10" s="1">
+        <v>999</v>
+      </c>
+      <c r="V10" t="s">
+        <v>250</v>
+      </c>
+      <c r="W10" t="s">
+        <v>143</v>
+      </c>
+      <c r="X10" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>252</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>253</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>256</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>260</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>158</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>261</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>262</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>263</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>264</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>265</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>266</v>
+      </c>
+      <c r="AY10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ10" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>44833</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11">
+        <v>26.5</v>
+      </c>
+      <c r="J11">
+        <v>49.45</v>
+      </c>
+      <c r="K11" t="s">
+        <v>271</v>
+      </c>
+      <c r="L11" t="s">
+        <v>318</v>
+      </c>
+      <c r="M11">
+        <v>999</v>
+      </c>
+      <c r="N11" t="s">
+        <v>89</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="R11" s="6">
+        <v>999</v>
+      </c>
+      <c r="S11" t="s">
+        <v>319</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="U11" s="1">
+        <v>999</v>
+      </c>
+      <c r="V11" t="s">
+        <v>174</v>
+      </c>
+      <c r="W11" t="s">
+        <v>272</v>
+      </c>
+      <c r="X11" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>275</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>276</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>278</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>280</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>281</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>216</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>282</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>283</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>190</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>284</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>285</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>288</v>
+      </c>
+      <c r="AY11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AZ11" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>44833</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12">
+        <v>22</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12">
+        <v>26.5</v>
+      </c>
+      <c r="J12">
+        <v>49.45</v>
+      </c>
+      <c r="K12" t="s">
+        <v>290</v>
+      </c>
+      <c r="L12" t="s">
+        <v>291</v>
+      </c>
+      <c r="M12" t="s">
+        <v>249</v>
+      </c>
+      <c r="N12" t="s">
+        <v>89</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q12">
+        <v>999</v>
+      </c>
+      <c r="R12">
+        <v>999</v>
+      </c>
+      <c r="S12">
+        <v>999</v>
+      </c>
+      <c r="T12" t="s">
+        <v>316</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="V12" t="s">
+        <v>292</v>
+      </c>
+      <c r="W12" t="s">
+        <v>293</v>
+      </c>
+      <c r="X12" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>296</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>297</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>298</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>299</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>300</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>301</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>302</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>304</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>305</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>306</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>307</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>308</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>309</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>310</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>311</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>284</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>193</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>313</v>
+      </c>
+      <c r="AY12" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="AZ12" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Data/DWA_JH.xlsx
+++ b/Data/DWA_JH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E332B796-0C3F-4ACC-AE7F-A0BA3FA11E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB295E2-FC67-45B0-9A96-D952CCC90FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="14400" windowHeight="7250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="795">
   <si>
     <t>ID</t>
   </si>
@@ -153,9 +153,6 @@
     <t>169. Stricknadel</t>
   </si>
   <si>
-    <t>170. Tasse (Ober-, Unter-)</t>
-  </si>
-  <si>
     <t>173. Topf (Irdener Topf)</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
     <t>188. Die Ziege</t>
   </si>
   <si>
-    <t>159. Schwiegertochter</t>
-  </si>
-  <si>
     <t>Zusatz Info.</t>
   </si>
   <si>
@@ -282,9 +276,6 @@
     <t>Gas</t>
   </si>
   <si>
-    <t>Schwiegertochter</t>
-  </si>
-  <si>
     <t>Trennfurt</t>
   </si>
   <si>
@@ -429,9 +420,6 @@
     <t>Gaas</t>
   </si>
   <si>
-    <t>Schwiechschetochte</t>
-  </si>
-  <si>
     <t>Mechenhard</t>
   </si>
   <si>
@@ -519,9 +507,6 @@
     <t>Gaiß</t>
   </si>
   <si>
-    <t>Schwiechetochts</t>
-  </si>
-  <si>
     <t>Timmy [H]öger</t>
   </si>
   <si>
@@ -606,9 +591,6 @@
     <t>Haffe</t>
   </si>
   <si>
-    <t>Schwischertochtr</t>
-  </si>
-  <si>
     <t>Rosenbirkach</t>
   </si>
   <si>
@@ -696,9 +678,6 @@
     <t>Gaß</t>
   </si>
   <si>
-    <t>Schwiegertochtn</t>
-  </si>
-  <si>
     <t>Gailbach b. A'burg</t>
   </si>
   <si>
@@ -825,9 +804,6 @@
     <t>geproppt</t>
   </si>
   <si>
-    <t>Schwichertochter</t>
-  </si>
-  <si>
     <t>Kaufer</t>
   </si>
   <si>
@@ -885,9 +861,6 @@
     <t>Hafa, Häfele</t>
   </si>
   <si>
-    <t>Schwiegertachter</t>
-  </si>
-  <si>
     <t>prappe</t>
   </si>
   <si>
@@ -994,13 +967,1683 @@
   </si>
   <si>
     <t>prapfn, propfn</t>
+  </si>
+  <si>
+    <t>q'</t>
+  </si>
+  <si>
+    <t>III_29_0001</t>
+  </si>
+  <si>
+    <t>III_29_0002</t>
+  </si>
+  <si>
+    <t>III_29_0003</t>
+  </si>
+  <si>
+    <t>III_29_0004</t>
+  </si>
+  <si>
+    <t>III_29_0005</t>
+  </si>
+  <si>
+    <t>III_29_0006</t>
+  </si>
+  <si>
+    <t>III_29_0007</t>
+  </si>
+  <si>
+    <t>III_29_0008</t>
+  </si>
+  <si>
+    <t>III_29_0009</t>
+  </si>
+  <si>
+    <t>III_29_0010</t>
+  </si>
+  <si>
+    <t>III_29_0011</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>u-d</t>
+  </si>
+  <si>
+    <t>Kaltbrunn</t>
+  </si>
+  <si>
+    <t>Wolfach</t>
+  </si>
+  <si>
+    <t>Omeis (w)</t>
+  </si>
+  <si>
+    <t>Leicht (w)</t>
+  </si>
+  <si>
+    <t>Brummber (w)</t>
+  </si>
+  <si>
+    <t>Deisel (w)</t>
+  </si>
+  <si>
+    <t>Fli͜eg (w)</t>
+  </si>
+  <si>
+    <t>Ehmd (s)</t>
+  </si>
+  <si>
+    <t>Gurke, Gugummer (w)</t>
+  </si>
+  <si>
+    <t>Hewamm (w)</t>
+  </si>
+  <si>
+    <t>Erdepfel (m)</t>
+  </si>
+  <si>
+    <t>Katzeroller (m)</t>
+  </si>
+  <si>
+    <t>Schermaus (w)</t>
+  </si>
+  <si>
+    <t>Gälrieb (w)</t>
+  </si>
+  <si>
+    <t>Mohr &lt;Moar&gt;</t>
+  </si>
+  <si>
+    <t>Götti (m)</t>
+  </si>
+  <si>
+    <t>Geißel (w)</t>
+  </si>
+  <si>
+    <t>Pflume (w)</t>
+  </si>
+  <si>
+    <t>moule, schelte</t>
+  </si>
+  <si>
+    <t>Spatz (m)</t>
+  </si>
+  <si>
+    <t>Gifli (s), Guf (w)</t>
+  </si>
+  <si>
+    <t>Hafe (m)</t>
+  </si>
+  <si>
+    <t>zweige</t>
+  </si>
+  <si>
+    <t>Gaiß (w)</t>
+  </si>
+  <si>
+    <t>Gau Baden</t>
+  </si>
+  <si>
+    <t>Hedwig Zimmermann</t>
+  </si>
+  <si>
+    <t>Brandenburg (Neustadt)</t>
+  </si>
+  <si>
+    <t>u-l</t>
+  </si>
+  <si>
+    <t>Omeise</t>
+  </si>
+  <si>
+    <t>Leicht &lt;Leiche&gt;</t>
+  </si>
+  <si>
+    <t>Muck, Flieg</t>
+  </si>
+  <si>
+    <t>Ehmd</t>
+  </si>
+  <si>
+    <t>Gurke</t>
+  </si>
+  <si>
+    <t>Hagenbutzen</t>
+  </si>
+  <si>
+    <t>Hebomm</t>
+  </si>
+  <si>
+    <t>Krammbirn</t>
+  </si>
+  <si>
+    <t>Rolle</t>
+  </si>
+  <si>
+    <t>Scher</t>
+  </si>
+  <si>
+    <t>Mohr</t>
+  </si>
+  <si>
+    <t>Ditte</t>
+  </si>
+  <si>
+    <t>Geißel</t>
+  </si>
+  <si>
+    <t>Pflom</t>
+  </si>
+  <si>
+    <t>schelten</t>
+  </si>
+  <si>
+    <t>Stachelbeere</t>
+  </si>
+  <si>
+    <t>Gluf, Stecknadel</t>
+  </si>
+  <si>
+    <t>Stricknadel</t>
+  </si>
+  <si>
+    <t>irdene Schüssel</t>
+  </si>
+  <si>
+    <t>abzweigen</t>
+  </si>
+  <si>
+    <t>Geiß</t>
+  </si>
+  <si>
+    <t>Reinerzau</t>
+  </si>
+  <si>
+    <t>Freudenstadt</t>
+  </si>
+  <si>
+    <t>Würtemberg</t>
+  </si>
+  <si>
+    <t>Otto Köhler</t>
+  </si>
+  <si>
+    <t>Metzingen</t>
+  </si>
+  <si>
+    <t>Reutlingen</t>
+  </si>
+  <si>
+    <t>und Erwachsene</t>
+  </si>
+  <si>
+    <t>u-c</t>
+  </si>
+  <si>
+    <t>Leicht</t>
+  </si>
+  <si>
+    <t>Brãũbēr</t>
+  </si>
+  <si>
+    <t>ɤmo̜ɤs</t>
+  </si>
+  <si>
+    <t>Daisɤl</t>
+  </si>
+  <si>
+    <t>Elštr</t>
+  </si>
+  <si>
+    <t>entɤrich̄</t>
+  </si>
+  <si>
+    <t>Flĕ̜drmous</t>
+  </si>
+  <si>
+    <t>MuK</t>
+  </si>
+  <si>
+    <t>ēmdɤd</t>
+  </si>
+  <si>
+    <t>gurK, gugommɤr</t>
+  </si>
+  <si>
+    <t>būthēKɤ</t>
+  </si>
+  <si>
+    <t>Hēbɤmm</t>
+  </si>
+  <si>
+    <t>grombīrɤ</t>
+  </si>
+  <si>
+    <t>rollɤr, rälling</t>
+  </si>
+  <si>
+    <t>še̜ɤr</t>
+  </si>
+  <si>
+    <t>ge̜ɤlriɤbɤ</t>
+  </si>
+  <si>
+    <t>mōr</t>
+  </si>
+  <si>
+    <t>dĕde</t>
+  </si>
+  <si>
+    <t>goɤsl</t>
+  </si>
+  <si>
+    <t>pflŏm</t>
+  </si>
+  <si>
+    <t>še̜ldɤ</t>
+  </si>
+  <si>
+    <t>špaz</t>
+  </si>
+  <si>
+    <t>štachlbēr</t>
+  </si>
+  <si>
+    <t>glūfɤ, glīfe</t>
+  </si>
+  <si>
+    <t>štriKno̜dɤl</t>
+  </si>
+  <si>
+    <t>hāfɤ</t>
+  </si>
+  <si>
+    <t>goɤs</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;Gebrauchte Schreibweise: ɤ = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>mittel zw. A und e wie in Anna</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> o̜ = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>offenes o</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  au = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>au wie in Staub</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ou = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>au wie in Bau</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> s = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>s,ss,ß</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> š = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sch</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> e̜ = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>offenes e, wie ä geschprochen z.B. heben</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ĭ = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>kurzes i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ī =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> langes i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ã = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>nasales a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ai = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ei gesprochen ae</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ei = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ei wie in Seite </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Loßburg</t>
+  </si>
+  <si>
+    <t>Weeber</t>
+  </si>
+  <si>
+    <t>Eßlingen a. Neckar</t>
+  </si>
+  <si>
+    <t>u-b</t>
+  </si>
+  <si>
+    <t>Amoas (w), Amuas</t>
+  </si>
+  <si>
+    <t>Leich (w)</t>
+  </si>
+  <si>
+    <t>Brombeer</t>
+  </si>
+  <si>
+    <t>Disel (w)</t>
+  </si>
+  <si>
+    <t>Elschter (w)</t>
+  </si>
+  <si>
+    <t>Eterich (m)</t>
+  </si>
+  <si>
+    <t>Fleddemaus (w)</t>
+  </si>
+  <si>
+    <t>Flieg (w),Muck (w)</t>
+  </si>
+  <si>
+    <t>Ahme (w9</t>
+  </si>
+  <si>
+    <t>Gugoumr (w), Gurk (w)</t>
+  </si>
+  <si>
+    <t>Hagabutz' (w)</t>
+  </si>
+  <si>
+    <t>Grombirn &lt;bei älteren Leuten auch Erdäpfel&gt;</t>
+  </si>
+  <si>
+    <t>Relleng</t>
+  </si>
+  <si>
+    <t>Sche?r (m)</t>
+  </si>
+  <si>
+    <t>Galrrüab' (w)</t>
+  </si>
+  <si>
+    <t>Moor (w), [Kosd]</t>
+  </si>
+  <si>
+    <t>Däte (w)</t>
+  </si>
+  <si>
+    <t>Goaßel (w)</t>
+  </si>
+  <si>
+    <t>Pflomm (w)</t>
+  </si>
+  <si>
+    <t>scheltr</t>
+  </si>
+  <si>
+    <t>Stachelbeer (w)</t>
+  </si>
+  <si>
+    <t>Stecknödel (w), Gluf</t>
+  </si>
+  <si>
+    <t>Stricknödel (w)</t>
+  </si>
+  <si>
+    <t>Hafa (m)</t>
+  </si>
+  <si>
+    <t>zweiga</t>
+  </si>
+  <si>
+    <t>Goaß (w)</t>
+  </si>
+  <si>
+    <t>Schömberg</t>
+  </si>
+  <si>
+    <t>Gau Würtemberg Schwarzwald</t>
+  </si>
+  <si>
+    <t>Fr. Hu[t]schler</t>
+  </si>
+  <si>
+    <t>Horb am Neckar</t>
+  </si>
+  <si>
+    <t>Marschalkenzimmern</t>
+  </si>
+  <si>
+    <t>u-la</t>
+  </si>
+  <si>
+    <t>Amoase (w)</t>
+  </si>
+  <si>
+    <t>Leich't (w)</t>
+  </si>
+  <si>
+    <t>Braubeer (w)</t>
+  </si>
+  <si>
+    <t>Deihsel (w)</t>
+  </si>
+  <si>
+    <t>Räch (s)</t>
+  </si>
+  <si>
+    <t>Mucck (m und w)</t>
+  </si>
+  <si>
+    <t>ehmde</t>
+  </si>
+  <si>
+    <t>Gugummer (w)</t>
+  </si>
+  <si>
+    <t>Hagebutze (w)</t>
+  </si>
+  <si>
+    <t>Hebamm (w)</t>
+  </si>
+  <si>
+    <t>Grombir' (w)</t>
+  </si>
+  <si>
+    <t>Relling (m), Mulle (w)</t>
+  </si>
+  <si>
+    <t>Schär (w), Schärmaus (w)</t>
+  </si>
+  <si>
+    <t>Mohr (w)</t>
+  </si>
+  <si>
+    <t>Dette (m)</t>
+  </si>
+  <si>
+    <t>Pflomme (w)</t>
+  </si>
+  <si>
+    <t>schelte</t>
+  </si>
+  <si>
+    <t>Kluf (w)</t>
+  </si>
+  <si>
+    <t>Stricknodl (w)</t>
+  </si>
+  <si>
+    <t>Ehlenbogen</t>
+  </si>
+  <si>
+    <t>Zeuner</t>
+  </si>
+  <si>
+    <t>Wiesenbronn</t>
+  </si>
+  <si>
+    <t>u-g</t>
+  </si>
+  <si>
+    <t>Ameise (w)</t>
+  </si>
+  <si>
+    <t>Leichd (w)</t>
+  </si>
+  <si>
+    <t>Braumbeern (w)</t>
+  </si>
+  <si>
+    <t>Distel (w)</t>
+  </si>
+  <si>
+    <t>Etrecht (m)</t>
+  </si>
+  <si>
+    <t>flachrmaus (w)</t>
+  </si>
+  <si>
+    <t>Muck (w)</t>
+  </si>
+  <si>
+    <t>Ähmd (s)</t>
+  </si>
+  <si>
+    <t>Hebamme (w)</t>
+  </si>
+  <si>
+    <t>Hagenbutze (w)</t>
+  </si>
+  <si>
+    <t>Krombir (w), Erdipfel (m)</t>
+  </si>
+  <si>
+    <t>Rölle (m)</t>
+  </si>
+  <si>
+    <t>Schäer (m)</t>
+  </si>
+  <si>
+    <t>Gelbe Rübn (w)</t>
+  </si>
+  <si>
+    <t>Mor (w)</t>
+  </si>
+  <si>
+    <t>Döte (m)</t>
+  </si>
+  <si>
+    <t>Pflaume (w)</t>
+  </si>
+  <si>
+    <t>Stachelbeere (w)</t>
+  </si>
+  <si>
+    <t>Stecknadel (w)</t>
+  </si>
+  <si>
+    <t>Stricknadel (w)</t>
+  </si>
+  <si>
+    <t>Hafen (m)</t>
+  </si>
+  <si>
+    <t>zweigen</t>
+  </si>
+  <si>
+    <t>Gaiße (w)</t>
+  </si>
+  <si>
+    <t>Reutin</t>
+  </si>
+  <si>
+    <t>Rottweil</t>
+  </si>
+  <si>
+    <t>Ernst Dauner</t>
+  </si>
+  <si>
+    <t>Ulm a/d.</t>
+  </si>
+  <si>
+    <t>u-h</t>
+  </si>
+  <si>
+    <t>Ameise (f) &lt;(oa) gespr.&gt;</t>
+  </si>
+  <si>
+    <t>Leich (f)</t>
+  </si>
+  <si>
+    <t>Braubeere &lt;au genäselt&gt;</t>
+  </si>
+  <si>
+    <t>Daisel (f)</t>
+  </si>
+  <si>
+    <t>Elster (f) &lt;kommt selten vor&gt;</t>
+  </si>
+  <si>
+    <t>Entrech (m) &lt;offenes e, en genäselt&gt;</t>
+  </si>
+  <si>
+    <t>Fledermaus (f)</t>
+  </si>
+  <si>
+    <t>Muck (f)</t>
+  </si>
+  <si>
+    <t>Öhmdgras (s), Schabe[d]e (f)</t>
+  </si>
+  <si>
+    <t>Gugummere (f)</t>
+  </si>
+  <si>
+    <t>Hagebutze (f)</t>
+  </si>
+  <si>
+    <t>Hebamm (f)</t>
+  </si>
+  <si>
+    <t>Grumbir (f)&lt;i=langgeszs.&gt;</t>
+  </si>
+  <si>
+    <t>Roelling (m)</t>
+  </si>
+  <si>
+    <t>Schär (m)</t>
+  </si>
+  <si>
+    <t>Gälrüebe (die)</t>
+  </si>
+  <si>
+    <t>Mohr (die)</t>
+  </si>
+  <si>
+    <t>Goasel (f)</t>
+  </si>
+  <si>
+    <t>Pflomme (f)</t>
+  </si>
+  <si>
+    <t>schaufel (f)</t>
+  </si>
+  <si>
+    <t>Spatz (der)</t>
+  </si>
+  <si>
+    <t>Stachelbeere (die)</t>
+  </si>
+  <si>
+    <t>Glüfle (das)</t>
+  </si>
+  <si>
+    <t>Stricknadel, Stricknodel</t>
+  </si>
+  <si>
+    <t>Hafe (der)</t>
+  </si>
+  <si>
+    <t>Goaß (f)</t>
+  </si>
+  <si>
+    <t>Betzweiler</t>
+  </si>
+  <si>
+    <t>Haagen (Baden)</t>
+  </si>
+  <si>
+    <t>und Leute aus demDorf</t>
+  </si>
+  <si>
+    <t>Alfred [Scherer]</t>
+  </si>
+  <si>
+    <t>u-hb</t>
+  </si>
+  <si>
+    <t>Amoisa (w)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Braubeer (w), Broamel </t>
+  </si>
+  <si>
+    <t>Deisel (m)</t>
+  </si>
+  <si>
+    <t>Etrecht (m), Etrech (m), Eterich (m) &lt;Etrecht am häufigsten&gt;</t>
+  </si>
+  <si>
+    <t>Fleadarmaus (w)</t>
+  </si>
+  <si>
+    <t>Öhmd (s)</t>
+  </si>
+  <si>
+    <t>Gugommar (w)</t>
+  </si>
+  <si>
+    <t>Gugommer (w)</t>
+  </si>
+  <si>
+    <t>Hagabutz (w)</t>
+  </si>
+  <si>
+    <t>Grombir (w)</t>
+  </si>
+  <si>
+    <t>Rölleng (m)</t>
+  </si>
+  <si>
+    <t>Schear (m)</t>
+  </si>
+  <si>
+    <t>Riab (w)</t>
+  </si>
+  <si>
+    <t>dödde (m)</t>
+  </si>
+  <si>
+    <t>schelta</t>
+  </si>
+  <si>
+    <t>Glifla (s)</t>
+  </si>
+  <si>
+    <t>Stricknodel (w)</t>
+  </si>
+  <si>
+    <t>azweiha</t>
+  </si>
+  <si>
+    <t>Buenweiler</t>
+  </si>
+  <si>
+    <t>Otto Keck</t>
+  </si>
+  <si>
+    <t>Wittershausen</t>
+  </si>
+  <si>
+    <t>u-k</t>
+  </si>
+  <si>
+    <t>Amoasl (w)</t>
+  </si>
+  <si>
+    <t>Leicha (w)</t>
+  </si>
+  <si>
+    <t>Braubeer (m)</t>
+  </si>
+  <si>
+    <t>Enträch (m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fleadermaus </t>
+  </si>
+  <si>
+    <t>Ühmd (s)</t>
+  </si>
+  <si>
+    <t>Gugemmer</t>
+  </si>
+  <si>
+    <t>Krombir (w)</t>
+  </si>
+  <si>
+    <t>Relling (m)</t>
+  </si>
+  <si>
+    <t>Gäulrübä (w)</t>
+  </si>
+  <si>
+    <t>Goasel (w)</t>
+  </si>
+  <si>
+    <t>Pflomm</t>
+  </si>
+  <si>
+    <t>Stachelbeer (m)</t>
+  </si>
+  <si>
+    <t>Klifte (s)</t>
+  </si>
+  <si>
+    <t>Stricknȏdel</t>
+  </si>
+  <si>
+    <t>Hafen</t>
+  </si>
+  <si>
+    <t>verzweiga</t>
+  </si>
+  <si>
+    <t>Go͡aß</t>
+  </si>
+  <si>
+    <t>Wälde</t>
+  </si>
+  <si>
+    <t>Gau Würtemberg</t>
+  </si>
+  <si>
+    <t>Hauptl. Epp</t>
+  </si>
+  <si>
+    <t>Durch den Lehrer unter Mithilfe der Schüler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u-i </t>
+  </si>
+  <si>
+    <t>Amoas (w)</t>
+  </si>
+  <si>
+    <t>Braobeer (w)</t>
+  </si>
+  <si>
+    <t>Deisel (w) &lt;ei=ae&gt;</t>
+  </si>
+  <si>
+    <t>E't (w) &lt;n wird weggelassen&gt;</t>
+  </si>
+  <si>
+    <t>Fleadermaus (w)</t>
+  </si>
+  <si>
+    <t>Gurk' (w)</t>
+  </si>
+  <si>
+    <t>Hagêbutzê (w)</t>
+  </si>
+  <si>
+    <t>Hebamm' (w)</t>
+  </si>
+  <si>
+    <t>Krombie (w)</t>
+  </si>
+  <si>
+    <t>Rälleng (m)</t>
+  </si>
+  <si>
+    <t>Schäêr (m)</t>
+  </si>
+  <si>
+    <t>Gōêsel (w)</t>
+  </si>
+  <si>
+    <t>Pflomm' (w) &lt;Mehrz.:Pflommê&gt;</t>
+  </si>
+  <si>
+    <t>Spatz (m) &lt;Mehrz.: Spatzê&gt;</t>
+  </si>
+  <si>
+    <t>Stachelbeer (w) &lt;Mehrz.: Stachelbeer'&gt;</t>
+  </si>
+  <si>
+    <t>Gliefle (s) &lt;Mehrz.: Gliefle&gt;</t>
+  </si>
+  <si>
+    <t>Stricknôdel (w)</t>
+  </si>
+  <si>
+    <t>zweigê</t>
+  </si>
+  <si>
+    <t>Gōêß (w) &lt;Mehrz.: Gōêßê&gt;o</t>
+  </si>
+  <si>
+    <t>Gundelshausen</t>
+  </si>
+  <si>
+    <t>Horb a. N.</t>
+  </si>
+  <si>
+    <t>Hptl. Lander</t>
+  </si>
+  <si>
+    <t>Nürtingen a. N</t>
+  </si>
+  <si>
+    <t>Leich' (w)</t>
+  </si>
+  <si>
+    <t>Braubeere (w)</t>
+  </si>
+  <si>
+    <t>Enterich (m)</t>
+  </si>
+  <si>
+    <t>Muck</t>
+  </si>
+  <si>
+    <t>Gurke (w)</t>
+  </si>
+  <si>
+    <t>Rälling (m)</t>
+  </si>
+  <si>
+    <t>Maulwurt (m)</t>
+  </si>
+  <si>
+    <t>Mohrribe (w)</t>
+  </si>
+  <si>
+    <t>Dote (m)</t>
+  </si>
+  <si>
+    <t>Pflome (w)</t>
+  </si>
+  <si>
+    <t>Stricken</t>
+  </si>
+  <si>
+    <t>Schüssel (w)</t>
+  </si>
+  <si>
+    <t>gezweigt</t>
+  </si>
+  <si>
+    <t>Geiß (w)</t>
+  </si>
+  <si>
+    <t>Oberbrändi</t>
+  </si>
+  <si>
+    <t>H. Bäuerle</t>
+  </si>
+  <si>
+    <t>Heilbronn a. N</t>
+  </si>
+  <si>
+    <t>III_29_0012</t>
+  </si>
+  <si>
+    <t>u-f</t>
+  </si>
+  <si>
+    <t>Amoase &lt;Waldameise: Klemmer&gt;</t>
+  </si>
+  <si>
+    <t>Braubeer</t>
+  </si>
+  <si>
+    <t>Rech, Entrecht</t>
+  </si>
+  <si>
+    <t>Fleadermaus</t>
+  </si>
+  <si>
+    <t>Öhmd</t>
+  </si>
+  <si>
+    <t>Gugommer</t>
+  </si>
+  <si>
+    <t>Budde</t>
+  </si>
+  <si>
+    <t>Hebamm</t>
+  </si>
+  <si>
+    <t>Grombiere, Erdäpfel, Äardäpf</t>
+  </si>
+  <si>
+    <t>Roller</t>
+  </si>
+  <si>
+    <t>Schear</t>
+  </si>
+  <si>
+    <t>Geala Rübe</t>
+  </si>
+  <si>
+    <t>Dötte</t>
+  </si>
+  <si>
+    <t>Pflomme</t>
+  </si>
+  <si>
+    <t>schempfe</t>
+  </si>
+  <si>
+    <t>Spaz</t>
+  </si>
+  <si>
+    <t>Glifle, Steckgifle, Glefe</t>
+  </si>
+  <si>
+    <t>Hafe</t>
+  </si>
+  <si>
+    <t>zwogfe</t>
+  </si>
+  <si>
+    <t>Goaß</t>
+  </si>
+  <si>
+    <t>Alpasbach</t>
+  </si>
+  <si>
+    <t>Friedr. Süßer.</t>
+  </si>
+  <si>
+    <t>Stachenhausen</t>
+  </si>
+  <si>
+    <t>Künzelsau</t>
+  </si>
+  <si>
+    <t>Umfrage bei älteren eingeborenen Alpasbachern und durch Umfragen bei Kindern.</t>
+  </si>
+  <si>
+    <t>III_30_0001</t>
+  </si>
+  <si>
+    <t>III_30_0002</t>
+  </si>
+  <si>
+    <t>III_30_0003</t>
+  </si>
+  <si>
+    <t>III_30_0004</t>
+  </si>
+  <si>
+    <t>III_30_0005</t>
+  </si>
+  <si>
+    <t>III_30_0006</t>
+  </si>
+  <si>
+    <t>III_30_0007</t>
+  </si>
+  <si>
+    <t>III_30_0008</t>
+  </si>
+  <si>
+    <t>III_30_0009</t>
+  </si>
+  <si>
+    <t>III_30_0010</t>
+  </si>
+  <si>
+    <t>r'</t>
+  </si>
+  <si>
+    <t>w-H</t>
+  </si>
+  <si>
+    <t>Ämoas (f)</t>
+  </si>
+  <si>
+    <t>Braobeer (f)</t>
+  </si>
+  <si>
+    <t>Gifez (m)</t>
+  </si>
+  <si>
+    <t>Entrech (m)</t>
+  </si>
+  <si>
+    <t>hagabutz (m), hagabutza (m)</t>
+  </si>
+  <si>
+    <t>Gurka (f), Gugommer &lt;alt&gt;</t>
+  </si>
+  <si>
+    <t>Eardäpfel (m)</t>
+  </si>
+  <si>
+    <t>Rolle (m)</t>
+  </si>
+  <si>
+    <t>Schar</t>
+  </si>
+  <si>
+    <t>Gealriaba (w)</t>
+  </si>
+  <si>
+    <t>Mohr (m)</t>
+  </si>
+  <si>
+    <t>Gluf (w)</t>
+  </si>
+  <si>
+    <t>Stricknădel (w)</t>
+  </si>
+  <si>
+    <t>Goas (m)</t>
+  </si>
+  <si>
+    <t>Hügle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bondorf </t>
+  </si>
+  <si>
+    <t>Böblingen</t>
+  </si>
+  <si>
+    <t>Rötenberg</t>
+  </si>
+  <si>
+    <t>w-K</t>
+  </si>
+  <si>
+    <t>Daesel (m)</t>
+  </si>
+  <si>
+    <t>Hagebutz (w)</t>
+  </si>
+  <si>
+    <t>Grombier (w)</t>
+  </si>
+  <si>
+    <t>Rolle (m), Rälleng (m)</t>
+  </si>
+  <si>
+    <t>Mohrrüeb (w)</t>
+  </si>
+  <si>
+    <t>Dedde (m)</t>
+  </si>
+  <si>
+    <t>schelte, Krach macha, wettera</t>
+  </si>
+  <si>
+    <t>Stecknodel (w)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stricknodel </t>
+  </si>
+  <si>
+    <t>Goas (w)</t>
+  </si>
+  <si>
+    <t>Peterzell</t>
+  </si>
+  <si>
+    <t>Willy Knans</t>
+  </si>
+  <si>
+    <t>Dornhan</t>
+  </si>
+  <si>
+    <t>Horb</t>
+  </si>
+  <si>
+    <t>w-L</t>
+  </si>
+  <si>
+    <t>Ameise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Braubeere &lt;eigentlich Braunbeere&gt; </t>
+  </si>
+  <si>
+    <t>Entrecht (m)</t>
+  </si>
+  <si>
+    <t>Gugrinere</t>
+  </si>
+  <si>
+    <t>Hegebutze (m)</t>
+  </si>
+  <si>
+    <t>Hebamme</t>
+  </si>
+  <si>
+    <t>Krombiere, Erdäpfel</t>
+  </si>
+  <si>
+    <t>Pflaume</t>
+  </si>
+  <si>
+    <t>Glüfle (s)</t>
+  </si>
+  <si>
+    <t>zweigen, pfropfen</t>
+  </si>
+  <si>
+    <t>Geiße  (w)</t>
+  </si>
+  <si>
+    <t>Römlinsdorf</t>
+  </si>
+  <si>
+    <t>F. Möhrle</t>
+  </si>
+  <si>
+    <t>Tonbach, Baiersbronn</t>
+  </si>
+  <si>
+    <t>w-O</t>
+  </si>
+  <si>
+    <t>Amuasa (m + w)</t>
+  </si>
+  <si>
+    <t>Sischt an Leich</t>
+  </si>
+  <si>
+    <t>Braõbeera</t>
+  </si>
+  <si>
+    <t>Brau(n)baern</t>
+  </si>
+  <si>
+    <t>nb</t>
+  </si>
+  <si>
+    <t>Goasel &lt;Geißel&gt;</t>
+  </si>
+  <si>
+    <t>Hafê (m) &lt;Mehrz.: Häfê&gt;</t>
+  </si>
+  <si>
+    <t>Daẽsl</t>
+  </si>
+  <si>
+    <t>Etama &lt;,,e'' u. letzte ,,a'' nasal</t>
+  </si>
+  <si>
+    <t>Fleadrmaus</t>
+  </si>
+  <si>
+    <t>Fliaga</t>
+  </si>
+  <si>
+    <t>Gugommr, &lt;jetzt&gt; Guarka</t>
+  </si>
+  <si>
+    <t>Hagäbutza</t>
+  </si>
+  <si>
+    <t>Heebamm</t>
+  </si>
+  <si>
+    <t>Häardepfl</t>
+  </si>
+  <si>
+    <t>Katzarolle</t>
+  </si>
+  <si>
+    <t>Schäar</t>
+  </si>
+  <si>
+    <t>Kohlraba</t>
+  </si>
+  <si>
+    <t>Saumohra</t>
+  </si>
+  <si>
+    <t>Dötta</t>
+  </si>
+  <si>
+    <t>Goasl</t>
+  </si>
+  <si>
+    <t>Pflomma</t>
+  </si>
+  <si>
+    <t>schälda</t>
+  </si>
+  <si>
+    <t>Stachlbeera</t>
+  </si>
+  <si>
+    <t>Gliifle</t>
+  </si>
+  <si>
+    <t>Schdriggnodla</t>
+  </si>
+  <si>
+    <t>Haafa</t>
+  </si>
+  <si>
+    <t>azweiga</t>
+  </si>
+  <si>
+    <t>Waldmössingen</t>
+  </si>
+  <si>
+    <t>Rottweil/Neck.</t>
+  </si>
+  <si>
+    <t>Josef Maier, Hptl.</t>
+  </si>
+  <si>
+    <t>Schwäbisch Gmünd</t>
+  </si>
+  <si>
+    <t>Württemberg</t>
+  </si>
+  <si>
+    <t>w-N</t>
+  </si>
+  <si>
+    <t>Ameis (w), Amoas</t>
+  </si>
+  <si>
+    <t>Brombeer (w)</t>
+  </si>
+  <si>
+    <t>Diesel (m)</t>
+  </si>
+  <si>
+    <t>Fledermaus (w)</t>
+  </si>
+  <si>
+    <t>Flieg (w)</t>
+  </si>
+  <si>
+    <t>Erdepfel (m), Grun(d)bier</t>
+  </si>
+  <si>
+    <t>Gellrüeb</t>
+  </si>
+  <si>
+    <t>Saumohr (w), Mutterschwein (s)</t>
+  </si>
+  <si>
+    <t>Gede</t>
+  </si>
+  <si>
+    <t>Goasl (w)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[?] Zwetschg (w),Pflum(e) (w) &lt;=Mirabelle&gt; </t>
+  </si>
+  <si>
+    <t>schelde</t>
+  </si>
+  <si>
+    <t>Sptz (m)</t>
+  </si>
+  <si>
+    <t>Stecknodel (w), Gluf (w)</t>
+  </si>
+  <si>
+    <t>abzweige</t>
+  </si>
+  <si>
+    <t>Heiligenbronn</t>
+  </si>
+  <si>
+    <t>Asprion</t>
+  </si>
+  <si>
+    <t>Amoas</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>Ähmd</t>
+  </si>
+  <si>
+    <t>Hagabutta</t>
+  </si>
+  <si>
+    <t>Erdepfl</t>
+  </si>
+  <si>
+    <t>Sc̆heer</t>
+  </si>
+  <si>
+    <t>[Sch]abe</t>
+  </si>
+  <si>
+    <t>Geisel</t>
+  </si>
+  <si>
+    <t>Pflumme</t>
+  </si>
+  <si>
+    <t>Stecknodla</t>
+  </si>
+  <si>
+    <t>Hafa</t>
+  </si>
+  <si>
+    <t>nunpfropfen</t>
+  </si>
+  <si>
+    <t>Pflaume sehr unübersichtlich</t>
+  </si>
+  <si>
+    <t>Alois Riedlinger</t>
+  </si>
+  <si>
+    <t>w-F</t>
+  </si>
+  <si>
+    <t>Schenkenzell</t>
+  </si>
+  <si>
+    <t>Omeis</t>
+  </si>
+  <si>
+    <t>Beerdigung, Leich</t>
+  </si>
+  <si>
+    <t>Brumber</t>
+  </si>
+  <si>
+    <t>Elschder, Atzel</t>
+  </si>
+  <si>
+    <t>Endemā</t>
+  </si>
+  <si>
+    <t>Fledermous</t>
+  </si>
+  <si>
+    <t>Fliäge, Muck</t>
+  </si>
+  <si>
+    <t>Gugummer, Gurk</t>
+  </si>
+  <si>
+    <t>Hagebutze,Hagebudde</t>
+  </si>
+  <si>
+    <t>Hewamm</t>
+  </si>
+  <si>
+    <t>Ärdepfel</t>
+  </si>
+  <si>
+    <t>Katzerolle</t>
+  </si>
+  <si>
+    <t>Schermaus</t>
+  </si>
+  <si>
+    <t>Knahrüewe</t>
+  </si>
+  <si>
+    <t>Geddi</t>
+  </si>
+  <si>
+    <t>Geißel, Gaißel</t>
+  </si>
+  <si>
+    <t>Geis</t>
+  </si>
+  <si>
+    <t>Wilhelm Schneider</t>
+  </si>
+  <si>
+    <t>Urloffen [a. Kohl]</t>
+  </si>
+  <si>
+    <t>Guller, Henne</t>
+  </si>
+  <si>
+    <t>170a. Obertasse</t>
+  </si>
+  <si>
+    <t>170b. Untertasse</t>
+  </si>
+  <si>
+    <t>[Schüsse]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1037,19 +2680,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1081,19 +2725,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1412,10 +3059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA12"/>
+  <dimension ref="A1:BA41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BA1" sqref="BA1:BA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1438,13 +3085,12 @@
     <col min="24" max="24" width="17.08203125" customWidth="1"/>
     <col min="25" max="31" width="10.75" customWidth="1"/>
     <col min="32" max="32" width="16.58203125" customWidth="1"/>
-    <col min="33" max="33" width="10.75" style="5" customWidth="1"/>
+    <col min="33" max="33" width="10.75" style="14" customWidth="1"/>
     <col min="34" max="34" width="21.25" customWidth="1"/>
-    <col min="35" max="47" width="10.75" customWidth="1"/>
-    <col min="48" max="48" width="10.75" style="5" customWidth="1"/>
-    <col min="49" max="50" width="10.75" customWidth="1"/>
-    <col min="51" max="51" width="10.75" style="1" customWidth="1"/>
-    <col min="52" max="52" width="19" style="1" customWidth="1"/>
+    <col min="35" max="48" width="10.75" customWidth="1"/>
+    <col min="49" max="49" width="14.4140625" style="14" customWidth="1"/>
+    <col min="50" max="51" width="10.75" customWidth="1"/>
+    <col min="52" max="52" width="10.75" style="1" customWidth="1"/>
     <col min="53" max="1022" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1471,7 +3117,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
@@ -1501,16 +3147,16 @@
         <v>15</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>17</v>
@@ -1545,7 +3191,7 @@
       <c r="AF1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="12" t="s">
         <v>28</v>
       </c>
       <c r="AH1" s="2" t="s">
@@ -1590,191 +3236,189 @@
       <c r="AU1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AV1" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="AW1" s="12" t="s">
+        <v>793</v>
+      </c>
+      <c r="AX1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="BA1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AZ1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>48</v>
-      </c>
     </row>
-    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+    <row r="2" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="6">
         <v>44827</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="4">
+        <v>22</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="6">
-        <v>22</v>
-      </c>
-      <c r="F2" s="6">
-        <v>1</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="I2" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="J2" s="4">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="L2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R2" s="4">
+        <v>999</v>
+      </c>
+      <c r="S2" s="4">
+        <v>999</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="V2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="6">
-        <v>6.5</v>
-      </c>
-      <c r="J2" s="6">
-        <v>9.4499999999999993</v>
-      </c>
-      <c r="K2" s="6" t="s">
+      <c r="W2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="R2" s="6">
-        <v>999</v>
-      </c>
-      <c r="S2" s="6">
-        <v>999</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="V2" s="6" t="s">
+      <c r="X2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="Y2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Z2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="AA2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="AB2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AC2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AD2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AE2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AF2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AI2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="10" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AK2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AL2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AK2" s="10" t="s">
+      <c r="AM2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AL2" s="10" t="s">
+      <c r="AN2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AM2" s="10" t="s">
+      <c r="AO2" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AN2" s="10" t="s">
+      <c r="AP2" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="AO2" s="10" t="s">
+      <c r="AQ2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AP2" s="10" t="s">
+      <c r="AR2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AQ2" s="10" t="s">
+      <c r="AS2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AR2" s="10" t="s">
+      <c r="AT2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="AS2" s="10" t="s">
+      <c r="AU2" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="AT2" s="10" t="s">
+      <c r="AV2" s="7"/>
+      <c r="AW2" s="13"/>
+      <c r="AX2" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="AU2" s="10" t="s">
+      <c r="AY2" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="AV2" s="8"/>
-      <c r="AW2" s="10" t="s">
+      <c r="AZ2" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="AX2" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY2" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ2" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="8">
         <v>44827</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E3">
         <v>22</v>
@@ -1782,11 +3426,11 @@
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>56</v>
+      <c r="G3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="I3">
         <v>6.5</v>
@@ -1795,138 +3439,135 @@
         <v>9.4499999999999993</v>
       </c>
       <c r="K3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M3">
+        <v>999</v>
+      </c>
+      <c r="N3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>110</v>
+      </c>
+      <c r="R3">
+        <v>999</v>
+      </c>
+      <c r="S3">
+        <v>999</v>
+      </c>
+      <c r="T3" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" s="1">
+        <v>999</v>
+      </c>
+      <c r="V3" t="s">
+        <v>312</v>
+      </c>
+      <c r="W3" t="s">
+        <v>94</v>
+      </c>
+      <c r="X3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y3">
+        <v>999</v>
+      </c>
+      <c r="Z3">
+        <v>999</v>
+      </c>
+      <c r="AA3">
+        <v>999</v>
+      </c>
+      <c r="AB3">
+        <v>999</v>
+      </c>
+      <c r="AC3" t="s">
         <v>96</v>
       </c>
-      <c r="L3" t="s">
-        <v>112</v>
-      </c>
-      <c r="M3">
-        <v>999</v>
-      </c>
-      <c r="N3" t="s">
-        <v>89</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>113</v>
-      </c>
-      <c r="R3">
-        <v>999</v>
-      </c>
-      <c r="S3">
-        <v>999</v>
-      </c>
-      <c r="T3" t="s">
-        <v>56</v>
-      </c>
-      <c r="U3" s="1">
-        <v>999</v>
-      </c>
-      <c r="V3" t="s">
-        <v>321</v>
-      </c>
-      <c r="W3" t="s">
+      <c r="AD3" t="s">
         <v>97</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AE3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH3" t="s">
         <v>98</v>
       </c>
-      <c r="Y3">
-        <v>999</v>
-      </c>
-      <c r="Z3">
-        <v>999</v>
-      </c>
-      <c r="AA3">
-        <v>999</v>
-      </c>
-      <c r="AB3">
-        <v>999</v>
-      </c>
-      <c r="AC3" t="s">
+      <c r="AI3" t="s">
         <v>99</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AJ3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL3" t="s">
         <v>100</v>
       </c>
-      <c r="AE3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AI3" t="s">
+      <c r="AM3" t="s">
         <v>102</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK3" t="s">
+      <c r="AN3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP3" t="s">
         <v>104</v>
       </c>
-      <c r="AL3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AM3" t="s">
+      <c r="AQ3" t="s">
         <v>105</v>
       </c>
-      <c r="AN3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO3" t="s">
+      <c r="AR3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS3">
+        <v>999</v>
+      </c>
+      <c r="AT3">
+        <v>999</v>
+      </c>
+      <c r="AU3" t="s">
         <v>106</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AX3" t="s">
         <v>107</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AY3" t="s">
+        <v>314</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS3">
-        <v>999</v>
-      </c>
-      <c r="AT3">
-        <v>999</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>323</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AZ3" s="1">
-        <v>999</v>
       </c>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="6">
         <v>44827</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E4">
         <v>22</v>
@@ -1934,11 +3575,11 @@
       <c r="F4">
         <v>3</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>56</v>
+      <c r="G4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="I4">
         <v>26.5</v>
@@ -1947,25 +3588,25 @@
         <v>49.45</v>
       </c>
       <c r="K4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M4">
         <v>999</v>
       </c>
       <c r="N4" t="s">
-        <v>89</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="P4">
         <v>888</v>
       </c>
       <c r="Q4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="R4">
         <v>999</v>
@@ -1974,111 +3615,108 @@
         <v>999</v>
       </c>
       <c r="T4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="V4" t="s">
+        <v>113</v>
+      </c>
+      <c r="W4" t="s">
+        <v>114</v>
+      </c>
+      <c r="X4" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z4">
+        <v>999</v>
+      </c>
+      <c r="AA4" t="s">
         <v>116</v>
       </c>
-      <c r="W4" t="s">
+      <c r="AB4" t="s">
         <v>117</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AC4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD4" t="s">
         <v>118</v>
       </c>
-      <c r="Y4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z4">
-        <v>999</v>
-      </c>
-      <c r="AA4" t="s">
+      <c r="AE4" t="s">
         <v>119</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AF4">
+        <v>999</v>
+      </c>
+      <c r="AH4">
+        <v>999</v>
+      </c>
+      <c r="AI4" t="s">
         <v>120</v>
       </c>
-      <c r="AC4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD4" t="s">
+      <c r="AJ4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK4" t="s">
         <v>121</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AL4" t="s">
         <v>122</v>
       </c>
-      <c r="AF4">
-        <v>999</v>
-      </c>
-      <c r="AH4">
-        <v>999</v>
-      </c>
-      <c r="AI4" t="s">
+      <c r="AM4" t="s">
+        <v>313</v>
+      </c>
+      <c r="AN4" t="s">
         <v>123</v>
       </c>
-      <c r="AJ4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK4" t="s">
+      <c r="AO4" t="s">
         <v>124</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AP4" t="s">
         <v>125</v>
       </c>
-      <c r="AM4" t="s">
-        <v>322</v>
-      </c>
-      <c r="AN4" t="s">
+      <c r="AQ4" t="s">
         <v>126</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AR4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS4" t="s">
         <v>127</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AT4" t="s">
         <v>128</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AU4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AX4" t="s">
         <v>129</v>
       </c>
-      <c r="AR4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS4" t="s">
+      <c r="AY4" t="s">
         <v>130</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AZ4" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>132</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>133</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AZ4" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="8">
         <v>44827</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E5">
         <v>22</v>
@@ -2086,11 +3724,11 @@
       <c r="F5">
         <v>4</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>56</v>
+      <c r="G5" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="I5">
         <v>6.5</v>
@@ -2099,138 +3737,135 @@
         <v>9.4499999999999993</v>
       </c>
       <c r="K5" t="s">
+        <v>136</v>
+      </c>
+      <c r="L5" t="s">
+        <v>137</v>
+      </c>
+      <c r="M5">
+        <v>999</v>
+      </c>
+      <c r="N5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U5" s="1">
+        <v>999</v>
+      </c>
+      <c r="V5" t="s">
+        <v>138</v>
+      </c>
+      <c r="W5" t="s">
+        <v>139</v>
+      </c>
+      <c r="X5" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z5" t="s">
         <v>140</v>
       </c>
-      <c r="L5" t="s">
+      <c r="AA5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB5" t="s">
         <v>141</v>
       </c>
-      <c r="M5">
-        <v>999</v>
-      </c>
-      <c r="N5" t="s">
-        <v>89</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="U5" s="1">
-        <v>999</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="AC5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE5" t="s">
         <v>142</v>
       </c>
-      <c r="W5" t="s">
+      <c r="AF5" t="s">
         <v>143</v>
       </c>
-      <c r="X5" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z5" t="s">
+      <c r="AH5" t="s">
         <v>144</v>
       </c>
-      <c r="AA5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB5" t="s">
+      <c r="AI5" t="s">
         <v>145</v>
       </c>
-      <c r="AC5" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE5" t="s">
+      <c r="AJ5" t="s">
         <v>146</v>
       </c>
-      <c r="AF5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH5" t="s">
+      <c r="AK5" t="s">
         <v>148</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AL5" t="s">
         <v>149</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AM5" t="s">
         <v>150</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AN5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO5" t="s">
         <v>152</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AP5" t="s">
         <v>153</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AQ5" t="s">
         <v>154</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AR5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS5" t="s">
         <v>155</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AT5" t="s">
         <v>156</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AU5" t="s">
         <v>157</v>
       </c>
-      <c r="AQ5" t="s">
+      <c r="AX5" t="s">
         <v>158</v>
       </c>
-      <c r="AR5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS5" t="s">
+      <c r="AY5" t="s">
         <v>159</v>
       </c>
-      <c r="AT5" t="s">
+      <c r="AZ5" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>161</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>162</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AY5" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="6">
         <v>44832</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E6">
         <v>22</v>
@@ -2238,11 +3873,11 @@
       <c r="F6">
         <v>5</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>56</v>
+      <c r="G6" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="I6">
         <v>26.5</v>
@@ -2251,138 +3886,135 @@
         <v>49.45</v>
       </c>
       <c r="K6" t="s">
+        <v>167</v>
+      </c>
+      <c r="L6" t="s">
+        <v>168</v>
+      </c>
+      <c r="M6">
+        <v>999</v>
+      </c>
+      <c r="N6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="R6" s="4">
+        <v>999</v>
+      </c>
+      <c r="S6" s="4">
+        <v>999</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="V6" t="s">
+        <v>169</v>
+      </c>
+      <c r="W6" t="s">
+        <v>57</v>
+      </c>
+      <c r="X6" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z6" t="s">
         <v>172</v>
       </c>
-      <c r="L6" t="s">
+      <c r="AA6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB6" t="s">
         <v>173</v>
       </c>
-      <c r="M6">
-        <v>999</v>
-      </c>
-      <c r="N6" t="s">
-        <v>89</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="R6" s="6">
-        <v>999</v>
-      </c>
-      <c r="S6" s="6">
-        <v>999</v>
-      </c>
-      <c r="T6" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="AC6" t="s">
         <v>174</v>
       </c>
-      <c r="W6" t="s">
-        <v>59</v>
-      </c>
-      <c r="X6" t="s">
+      <c r="AD6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE6" t="s">
         <v>175</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="AF6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH6" t="s">
         <v>176</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AI6" t="s">
         <v>177</v>
       </c>
-      <c r="AA6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB6" t="s">
+      <c r="AJ6" t="s">
         <v>178</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AK6" t="s">
         <v>179</v>
       </c>
-      <c r="AD6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE6" t="s">
+      <c r="AL6" t="s">
         <v>180</v>
       </c>
-      <c r="AF6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH6" t="s">
+      <c r="AM6" t="s">
         <v>181</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AN6" t="s">
         <v>182</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AO6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP6" t="s">
         <v>183</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AQ6" t="s">
         <v>184</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AR6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS6" t="s">
         <v>185</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AT6" t="s">
         <v>186</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AU6" t="s">
         <v>187</v>
       </c>
-      <c r="AO6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AP6" t="s">
+      <c r="AX6" t="s">
         <v>188</v>
       </c>
-      <c r="AQ6" t="s">
-        <v>189</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>190</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>191</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>192</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>193</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>163</v>
-      </c>
-      <c r="AY6" s="1" t="s">
-        <v>85</v>
+      <c r="AY6" t="s">
+        <v>159</v>
       </c>
       <c r="AZ6" s="1" t="s">
-        <v>194</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="6">
         <v>44832</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E7">
         <v>22</v>
@@ -2390,11 +4022,11 @@
       <c r="F7">
         <v>6</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>56</v>
+      <c r="G7" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="I7">
         <v>26.5</v>
@@ -2403,138 +4035,135 @@
         <v>49.45</v>
       </c>
       <c r="K7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="L7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="M7">
         <v>999</v>
       </c>
       <c r="N7" t="s">
-        <v>201</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>90</v>
+        <v>195</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="P7">
         <v>888</v>
       </c>
-      <c r="Q7" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="R7" s="6">
-        <v>999</v>
-      </c>
-      <c r="S7" s="6">
-        <v>999</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>93</v>
+      <c r="Q7" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="R7" s="4">
+        <v>999</v>
+      </c>
+      <c r="S7" s="4">
+        <v>999</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="U7" s="1">
         <v>888</v>
       </c>
       <c r="V7" t="s">
+        <v>196</v>
+      </c>
+      <c r="W7" t="s">
+        <v>197</v>
+      </c>
+      <c r="X7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH7" t="s">
         <v>202</v>
       </c>
-      <c r="W7" t="s">
-        <v>203</v>
-      </c>
-      <c r="X7" t="s">
+      <c r="AI7" t="s">
         <v>204</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="AJ7" t="s">
         <v>205</v>
       </c>
-      <c r="Z7" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA7" t="s">
+      <c r="AK7" t="s">
         <v>206</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AL7" t="s">
         <v>207</v>
       </c>
-      <c r="AC7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE7" t="s">
+      <c r="AM7" t="s">
+        <v>208</v>
+      </c>
+      <c r="AN7" t="s">
         <v>209</v>
       </c>
-      <c r="AF7" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>208</v>
-      </c>
-      <c r="AI7" t="s">
+      <c r="AO7" t="s">
         <v>210</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AP7" t="s">
         <v>211</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AQ7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS7" t="s">
         <v>212</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AT7" t="s">
         <v>213</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AU7" t="s">
         <v>214</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AX7" t="s">
         <v>215</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AY7" t="s">
         <v>216</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="AZ7" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>158</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>218</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>219</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>220</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>221</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>222</v>
-      </c>
-      <c r="AY7" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AZ7" s="1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="6">
         <v>44832</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E8">
         <v>22</v>
@@ -2542,11 +4171,11 @@
       <c r="F8">
         <v>7</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>56</v>
+      <c r="G8" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="I8">
         <v>6.5</v>
@@ -2555,138 +4184,135 @@
         <v>9.4499999999999993</v>
       </c>
       <c r="K8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="L8" t="s">
+        <v>220</v>
+      </c>
+      <c r="M8" t="s">
+        <v>221</v>
+      </c>
+      <c r="N8" t="s">
+        <v>233</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="R8" s="4">
+        <v>999</v>
+      </c>
+      <c r="S8" s="4">
+        <v>999</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="U8" s="1">
+        <v>999</v>
+      </c>
+      <c r="V8" t="s">
+        <v>222</v>
+      </c>
+      <c r="W8" t="s">
+        <v>223</v>
+      </c>
+      <c r="X8" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z8">
+        <v>999</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD8" t="s">
         <v>227</v>
       </c>
-      <c r="M8" t="s">
+      <c r="AE8" t="s">
         <v>228</v>
       </c>
-      <c r="N8" t="s">
-        <v>240</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="R8" s="6">
-        <v>999</v>
-      </c>
-      <c r="S8" s="6">
-        <v>999</v>
-      </c>
-      <c r="T8" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="U8" s="1">
-        <v>999</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="AF8" t="s">
         <v>229</v>
       </c>
-      <c r="W8" t="s">
+      <c r="AH8" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI8" t="s">
         <v>230</v>
       </c>
-      <c r="X8" t="s">
+      <c r="AJ8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK8">
+        <v>999</v>
+      </c>
+      <c r="AL8">
+        <v>999</v>
+      </c>
+      <c r="AM8">
+        <v>999</v>
+      </c>
+      <c r="AN8" t="s">
         <v>231</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="AO8">
+        <v>999</v>
+      </c>
+      <c r="AP8">
+        <v>999</v>
+      </c>
+      <c r="AQ8">
+        <v>999</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS8">
+        <v>999</v>
+      </c>
+      <c r="AT8">
+        <v>999</v>
+      </c>
+      <c r="AU8">
+        <v>999</v>
+      </c>
+      <c r="AX8">
+        <v>999</v>
+      </c>
+      <c r="AY8">
+        <v>999</v>
+      </c>
+      <c r="AZ8" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="Z8">
-        <v>999</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>233</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>234</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>235</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>236</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>237</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK8">
-        <v>999</v>
-      </c>
-      <c r="AL8">
-        <v>999</v>
-      </c>
-      <c r="AM8">
-        <v>999</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>238</v>
-      </c>
-      <c r="AO8">
-        <v>999</v>
-      </c>
-      <c r="AP8">
-        <v>999</v>
-      </c>
-      <c r="AQ8">
-        <v>999</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS8">
-        <v>999</v>
-      </c>
-      <c r="AT8">
-        <v>999</v>
-      </c>
-      <c r="AU8">
-        <v>999</v>
-      </c>
-      <c r="AW8">
-        <v>999</v>
-      </c>
-      <c r="AX8">
-        <v>999</v>
-      </c>
-      <c r="AY8" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AZ8" s="1">
-        <v>999</v>
       </c>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="6">
         <v>44832</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E9">
         <v>22</v>
@@ -2694,11 +4320,11 @@
       <c r="F9">
         <v>7</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>56</v>
+      <c r="G9" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="I9">
         <v>999</v>
@@ -2710,138 +4336,135 @@
         <v>999</v>
       </c>
       <c r="L9" t="s">
+        <v>220</v>
+      </c>
+      <c r="M9" t="s">
+        <v>221</v>
+      </c>
+      <c r="N9" t="s">
+        <v>233</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="R9" s="4">
+        <v>999</v>
+      </c>
+      <c r="S9" s="4">
+        <v>999</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="U9" s="1">
+        <v>999</v>
+      </c>
+      <c r="V9" t="s">
+        <v>222</v>
+      </c>
+      <c r="W9" t="s">
+        <v>223</v>
+      </c>
+      <c r="X9" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z9">
+        <v>999</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD9" t="s">
         <v>227</v>
       </c>
-      <c r="M9" t="s">
+      <c r="AE9" t="s">
         <v>228</v>
       </c>
-      <c r="N9" t="s">
-        <v>240</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="R9" s="6">
-        <v>999</v>
-      </c>
-      <c r="S9" s="6">
-        <v>999</v>
-      </c>
-      <c r="T9" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="U9" s="1">
-        <v>999</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="AF9" t="s">
         <v>229</v>
       </c>
-      <c r="W9" t="s">
+      <c r="AH9" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI9" t="s">
         <v>230</v>
       </c>
-      <c r="X9" t="s">
+      <c r="AJ9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK9">
+        <v>999</v>
+      </c>
+      <c r="AL9">
+        <v>999</v>
+      </c>
+      <c r="AM9">
+        <v>999</v>
+      </c>
+      <c r="AN9" t="s">
         <v>231</v>
       </c>
-      <c r="Y9" t="s">
-        <v>232</v>
-      </c>
-      <c r="Z9">
-        <v>999</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>233</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>234</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>235</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>236</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>237</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK9">
-        <v>999</v>
-      </c>
-      <c r="AL9">
-        <v>999</v>
-      </c>
-      <c r="AM9">
-        <v>999</v>
-      </c>
-      <c r="AN9" t="s">
+      <c r="AO9">
+        <v>999</v>
+      </c>
+      <c r="AP9">
+        <v>999</v>
+      </c>
+      <c r="AQ9">
+        <v>999</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS9">
+        <v>999</v>
+      </c>
+      <c r="AT9">
+        <v>999</v>
+      </c>
+      <c r="AU9">
+        <v>999</v>
+      </c>
+      <c r="AX9">
+        <v>999</v>
+      </c>
+      <c r="AY9">
+        <v>999</v>
+      </c>
+      <c r="AZ9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA9" t="s">
         <v>238</v>
-      </c>
-      <c r="AO9">
-        <v>999</v>
-      </c>
-      <c r="AP9">
-        <v>999</v>
-      </c>
-      <c r="AQ9">
-        <v>999</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS9">
-        <v>999</v>
-      </c>
-      <c r="AT9">
-        <v>999</v>
-      </c>
-      <c r="AU9">
-        <v>999</v>
-      </c>
-      <c r="AW9">
-        <v>999</v>
-      </c>
-      <c r="AX9">
-        <v>999</v>
-      </c>
-      <c r="AY9" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AZ9" s="1">
-        <v>999</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="8">
         <v>44833</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E10">
         <v>22</v>
@@ -2849,11 +4472,11 @@
       <c r="F10">
         <v>8</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>56</v>
+      <c r="G10" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="I10">
         <v>26.5</v>
@@ -2862,138 +4485,135 @@
         <v>49.45</v>
       </c>
       <c r="K10" t="s">
+        <v>240</v>
+      </c>
+      <c r="L10" t="s">
+        <v>241</v>
+      </c>
+      <c r="M10" t="s">
+        <v>242</v>
+      </c>
+      <c r="N10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="R10" s="4">
+        <v>999</v>
+      </c>
+      <c r="S10" s="4">
+        <v>999</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="U10" s="1">
+        <v>999</v>
+      </c>
+      <c r="V10" t="s">
+        <v>243</v>
+      </c>
+      <c r="W10" t="s">
+        <v>139</v>
+      </c>
+      <c r="X10" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>245</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC10" t="s">
         <v>247</v>
       </c>
-      <c r="L10" t="s">
+      <c r="AD10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE10" t="s">
         <v>248</v>
       </c>
-      <c r="M10" t="s">
+      <c r="AF10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI10" t="s">
         <v>249</v>
       </c>
-      <c r="N10" t="s">
-        <v>89</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="R10" s="6">
-        <v>999</v>
-      </c>
-      <c r="S10" s="6">
-        <v>999</v>
-      </c>
-      <c r="T10" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="U10" s="1">
-        <v>999</v>
-      </c>
-      <c r="V10" t="s">
+      <c r="AJ10" t="s">
         <v>250</v>
       </c>
-      <c r="W10" t="s">
-        <v>143</v>
-      </c>
-      <c r="X10" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z10" t="s">
+      <c r="AK10" t="s">
         <v>251</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AL10" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN10" t="s">
         <v>252</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AO10" t="s">
         <v>253</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AP10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>154</v>
+      </c>
+      <c r="AR10" t="s">
         <v>254</v>
       </c>
-      <c r="AD10" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE10" t="s">
+      <c r="AS10" t="s">
         <v>255</v>
       </c>
-      <c r="AF10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>181</v>
-      </c>
-      <c r="AI10" t="s">
+      <c r="AT10" t="s">
         <v>256</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AU10" t="s">
         <v>257</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AX10" t="s">
         <v>258</v>
       </c>
-      <c r="AL10" t="s">
-        <v>153</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>186</v>
-      </c>
-      <c r="AN10" t="s">
+      <c r="AY10" t="s">
         <v>259</v>
       </c>
-      <c r="AO10" t="s">
-        <v>260</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>158</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>261</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>262</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>263</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>264</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>265</v>
-      </c>
-      <c r="AX10" t="s">
-        <v>266</v>
-      </c>
-      <c r="AY10" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="AZ10" s="1" t="s">
-        <v>267</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="8">
         <v>44833</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E11">
         <v>22</v>
@@ -3001,11 +4621,11 @@
       <c r="F11">
         <v>9</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>56</v>
+      <c r="G11" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="I11">
         <v>26.5</v>
@@ -3014,138 +4634,135 @@
         <v>49.45</v>
       </c>
       <c r="K11" t="s">
+        <v>263</v>
+      </c>
+      <c r="L11" t="s">
+        <v>309</v>
+      </c>
+      <c r="M11">
+        <v>999</v>
+      </c>
+      <c r="N11" t="s">
+        <v>86</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="R11" s="4">
+        <v>999</v>
+      </c>
+      <c r="S11" t="s">
+        <v>310</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="U11" s="1">
+        <v>999</v>
+      </c>
+      <c r="V11" t="s">
+        <v>169</v>
+      </c>
+      <c r="W11" t="s">
+        <v>264</v>
+      </c>
+      <c r="X11" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>268</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>269</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>270</v>
+      </c>
+      <c r="AK11" t="s">
         <v>271</v>
       </c>
-      <c r="L11" t="s">
-        <v>318</v>
-      </c>
-      <c r="M11">
-        <v>999</v>
-      </c>
-      <c r="N11" t="s">
-        <v>89</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="R11" s="6">
-        <v>999</v>
-      </c>
-      <c r="S11" t="s">
-        <v>319</v>
-      </c>
-      <c r="T11" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="U11" s="1">
-        <v>999</v>
-      </c>
-      <c r="V11" t="s">
-        <v>174</v>
-      </c>
-      <c r="W11" t="s">
+      <c r="AL11" t="s">
         <v>272</v>
       </c>
-      <c r="X11" t="s">
+      <c r="AM11" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN11" t="s">
         <v>273</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="AO11" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP11" t="s">
         <v>274</v>
       </c>
-      <c r="Z11" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB11" t="s">
+      <c r="AQ11" t="s">
         <v>275</v>
       </c>
-      <c r="AC11" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE11" t="s">
+      <c r="AR11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>185</v>
+      </c>
+      <c r="AT11" t="s">
         <v>276</v>
       </c>
-      <c r="AF11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>181</v>
-      </c>
-      <c r="AI11" t="s">
+      <c r="AU11" t="s">
         <v>277</v>
       </c>
-      <c r="AJ11" t="s">
+      <c r="AX11" t="s">
         <v>278</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AY11" t="s">
         <v>279</v>
       </c>
-      <c r="AL11" t="s">
-        <v>280</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>186</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>281</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>216</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>282</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>283</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>190</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>284</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>285</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>286</v>
-      </c>
-      <c r="AX11" t="s">
-        <v>288</v>
-      </c>
-      <c r="AY11" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="AZ11" s="1" t="s">
-        <v>287</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="8">
         <v>44833</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E12">
         <v>22</v>
@@ -3153,11 +4770,11 @@
       <c r="F12">
         <v>10</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>56</v>
+      <c r="G12" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="I12">
         <v>26.5</v>
@@ -3166,124 +4783,3065 @@
         <v>49.45</v>
       </c>
       <c r="K12" t="s">
+        <v>281</v>
+      </c>
+      <c r="L12" t="s">
+        <v>282</v>
+      </c>
+      <c r="M12" t="s">
+        <v>242</v>
+      </c>
+      <c r="N12" t="s">
+        <v>86</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q12">
+        <v>999</v>
+      </c>
+      <c r="R12">
+        <v>999</v>
+      </c>
+      <c r="S12">
+        <v>999</v>
+      </c>
+      <c r="T12" t="s">
+        <v>307</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="V12" t="s">
+        <v>283</v>
+      </c>
+      <c r="W12" t="s">
+        <v>284</v>
+      </c>
+      <c r="X12" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>288</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>289</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE12" t="s">
         <v>290</v>
       </c>
-      <c r="L12" t="s">
+      <c r="AF12" t="s">
         <v>291</v>
       </c>
-      <c r="M12" t="s">
-        <v>249</v>
-      </c>
-      <c r="N12" t="s">
-        <v>89</v>
-      </c>
-      <c r="O12" s="6" t="s">
+      <c r="AH12" t="s">
+        <v>292</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>293</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>295</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>296</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>297</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>298</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>299</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>300</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>301</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>302</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>303</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>276</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>106</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>188</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>304</v>
+      </c>
+      <c r="AZ12" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8">
+        <v>44833</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>315</v>
+      </c>
+      <c r="E13">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K13" t="s">
+        <v>328</v>
+      </c>
+      <c r="L13" t="s">
+        <v>329</v>
+      </c>
+      <c r="M13">
+        <v>999</v>
+      </c>
+      <c r="N13" t="s">
+        <v>330</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="R13">
+        <v>999</v>
+      </c>
+      <c r="S13">
+        <v>999</v>
+      </c>
+      <c r="T13" t="s">
+        <v>54</v>
+      </c>
+      <c r="U13" s="1">
+        <v>999</v>
+      </c>
+      <c r="V13" t="s">
+        <v>331</v>
+      </c>
+      <c r="W13" t="s">
+        <v>332</v>
+      </c>
+      <c r="X13" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z13">
+        <v>999</v>
+      </c>
+      <c r="AA13">
+        <v>999</v>
+      </c>
+      <c r="AB13">
+        <v>999</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>335</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>337</v>
+      </c>
+      <c r="AF13">
+        <v>999</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>338</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>339</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>340</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>341</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>342</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>343</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>344</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>345</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>346</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>347</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>348</v>
+      </c>
+      <c r="AS13">
+        <v>999</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AU13">
+        <v>999</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>350</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>351</v>
+      </c>
+      <c r="AZ13" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8">
+        <v>44833</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>315</v>
+      </c>
+      <c r="E14">
+        <v>17</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I14">
+        <v>60</v>
+      </c>
+      <c r="J14">
+        <v>820</v>
+      </c>
+      <c r="K14" t="s">
+        <v>356</v>
+      </c>
+      <c r="L14" t="s">
+        <v>378</v>
+      </c>
+      <c r="M14">
+        <v>999</v>
+      </c>
+      <c r="N14" t="s">
+        <v>379</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="S14">
+        <v>999</v>
+      </c>
+      <c r="T14" t="s">
+        <v>54</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="V14" t="s">
+        <v>357</v>
+      </c>
+      <c r="W14" t="s">
+        <v>358</v>
+      </c>
+      <c r="X14" t="s">
+        <v>708</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>359</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>360</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>361</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>362</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>363</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>364</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>365</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>366</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>709</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>367</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>368</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>369</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>370</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>371</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>372</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>373</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>374</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>375</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>376</v>
+      </c>
+      <c r="AZ14" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8">
+        <v>44833</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>315</v>
+      </c>
+      <c r="E15">
+        <v>17</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I15">
+        <v>60</v>
+      </c>
+      <c r="J15">
+        <v>820</v>
+      </c>
+      <c r="K15" t="s">
+        <v>385</v>
+      </c>
+      <c r="L15" t="s">
+        <v>414</v>
+      </c>
+      <c r="M15">
+        <v>999</v>
+      </c>
+      <c r="N15" t="s">
+        <v>379</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="R15" s="4">
+        <v>999</v>
+      </c>
+      <c r="S15">
+        <v>999</v>
+      </c>
+      <c r="T15" t="s">
         <v>90</v>
       </c>
-      <c r="P12" s="6" t="s">
+      <c r="U15" s="1">
+        <v>999</v>
+      </c>
+      <c r="V15" t="s">
+        <v>388</v>
+      </c>
+      <c r="W15" t="s">
+        <v>386</v>
+      </c>
+      <c r="X15" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>391</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>392</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>393</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>394</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>395</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>396</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>397</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>398</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>399</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>400</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>401</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>402</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>403</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>404</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>405</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>406</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>407</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>408</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>409</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>410</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>411</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>351</v>
+      </c>
+      <c r="AZ15" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="BA15" s="9" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8">
+        <v>44833</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
         <v>315</v>
       </c>
-      <c r="Q12">
-        <v>999</v>
-      </c>
-      <c r="R12">
-        <v>999</v>
-      </c>
-      <c r="S12">
-        <v>999</v>
-      </c>
-      <c r="T12" t="s">
-        <v>316</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="V12" t="s">
-        <v>292</v>
-      </c>
-      <c r="W12" t="s">
-        <v>293</v>
-      </c>
-      <c r="X12" t="s">
-        <v>294</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>295</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>296</v>
-      </c>
-      <c r="AA12" t="s">
+      <c r="E16">
+        <v>17</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I16">
+        <v>26</v>
+      </c>
+      <c r="J16">
+        <v>48.2</v>
+      </c>
+      <c r="K16" t="s">
+        <v>417</v>
+      </c>
+      <c r="L16" t="s">
+        <v>444</v>
+      </c>
+      <c r="M16">
+        <v>999</v>
+      </c>
+      <c r="N16" t="s">
+        <v>379</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="R16" t="s">
+        <v>447</v>
+      </c>
+      <c r="S16">
+        <v>999</v>
+      </c>
+      <c r="T16" t="s">
+        <v>307</v>
+      </c>
+      <c r="U16" s="1">
+        <v>999</v>
+      </c>
+      <c r="V16" t="s">
+        <v>418</v>
+      </c>
+      <c r="W16" t="s">
+        <v>419</v>
+      </c>
+      <c r="X16" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>421</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>423</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>424</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>425</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>426</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>427</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>428</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>338</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>429</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>430</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>431</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>432</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>433</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>434</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>435</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>436</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>437</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>348</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>439</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>440</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>441</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>442</v>
+      </c>
+      <c r="AZ16" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8">
+        <v>44833</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>315</v>
+      </c>
+      <c r="E17">
+        <v>17</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I17">
+        <v>26</v>
+      </c>
+      <c r="J17">
+        <v>48.2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>449</v>
+      </c>
+      <c r="L17" t="s">
+        <v>469</v>
+      </c>
+      <c r="M17">
+        <v>999</v>
+      </c>
+      <c r="N17" t="s">
+        <v>379</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="R17">
+        <v>999</v>
+      </c>
+      <c r="S17">
+        <v>999</v>
+      </c>
+      <c r="T17" t="s">
+        <v>90</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="V17" t="s">
+        <v>450</v>
+      </c>
+      <c r="W17" t="s">
+        <v>451</v>
+      </c>
+      <c r="X17" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>453</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>454</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>455</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>456</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>457</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>458</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>459</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>460</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>461</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>462</v>
+      </c>
+      <c r="AL17">
+        <v>999</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>463</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>464</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>435</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>465</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>466</v>
+      </c>
+      <c r="AR17">
+        <v>999</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>467</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>468</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>350</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>351</v>
+      </c>
+      <c r="AZ17" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8">
+        <v>44834</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>315</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I18">
+        <v>60</v>
+      </c>
+      <c r="J18">
+        <v>820</v>
+      </c>
+      <c r="K18" t="s">
+        <v>472</v>
+      </c>
+      <c r="L18" t="s">
+        <v>496</v>
+      </c>
+      <c r="M18">
+        <v>999</v>
+      </c>
+      <c r="N18" t="s">
+        <v>497</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="R18">
+        <v>999</v>
+      </c>
+      <c r="S18">
+        <v>999</v>
+      </c>
+      <c r="T18" t="s">
+        <v>90</v>
+      </c>
+      <c r="U18" s="1">
+        <v>999</v>
+      </c>
+      <c r="V18" t="s">
+        <v>473</v>
+      </c>
+      <c r="W18" t="s">
+        <v>474</v>
+      </c>
+      <c r="X18" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>476</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>478</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>479</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>480</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>539</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>482</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>481</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>483</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>484</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>485</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>486</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>487</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>488</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>345</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>489</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>371</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>348</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>490</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>491</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>492</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>493</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>494</v>
+      </c>
+      <c r="AZ18" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="19" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8">
+        <v>44834</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>315</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I19">
+        <v>60</v>
+      </c>
+      <c r="J19">
+        <v>820</v>
+      </c>
+      <c r="K19" t="s">
+        <v>500</v>
+      </c>
+      <c r="L19" t="s">
+        <v>527</v>
+      </c>
+      <c r="M19">
+        <v>999</v>
+      </c>
+      <c r="N19" t="s">
+        <v>379</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="R19">
+        <v>999</v>
+      </c>
+      <c r="S19" t="s">
+        <v>234</v>
+      </c>
+      <c r="T19" t="s">
+        <v>54</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="V19" t="s">
+        <v>501</v>
+      </c>
+      <c r="W19" t="s">
+        <v>502</v>
+      </c>
+      <c r="X19" t="s">
+        <v>503</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>504</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>505</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>506</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>507</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>508</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>509</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>510</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>511</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>512</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>513</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>514</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>515</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>516</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>517</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>488</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>518</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>519</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>520</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>521</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>522</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>523</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>524</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>525</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>494</v>
+      </c>
+      <c r="AZ19" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="20" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8">
+        <v>44834</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" t="s">
+        <v>315</v>
+      </c>
+      <c r="E20">
+        <v>17</v>
+      </c>
+      <c r="F20">
+        <v>9</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I20">
+        <v>26</v>
+      </c>
+      <c r="J20">
+        <v>48.2</v>
+      </c>
+      <c r="K20" t="s">
+        <v>531</v>
+      </c>
+      <c r="L20" t="s">
+        <v>550</v>
+      </c>
+      <c r="M20">
+        <v>999</v>
+      </c>
+      <c r="N20" t="s">
+        <v>379</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="R20">
+        <v>999</v>
+      </c>
+      <c r="S20">
+        <v>999</v>
+      </c>
+      <c r="T20" t="s">
+        <v>90</v>
+      </c>
+      <c r="U20" s="1">
+        <v>999</v>
+      </c>
+      <c r="V20" t="s">
+        <v>532</v>
+      </c>
+      <c r="W20" t="s">
+        <v>419</v>
+      </c>
+      <c r="X20" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>534</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>535</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>536</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>479</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>537</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>538</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>540</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>459</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>541</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>542</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>543</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>544</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>463</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>545</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>435</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>436</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>546</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>348</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>547</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>548</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>441</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>549</v>
+      </c>
+      <c r="AZ20" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="21" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8">
+        <v>44834</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>315</v>
+      </c>
+      <c r="E21">
+        <v>17</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I21">
+        <v>60</v>
+      </c>
+      <c r="J21">
+        <v>820</v>
+      </c>
+      <c r="K21" t="s">
+        <v>553</v>
+      </c>
+      <c r="L21" t="s">
+        <v>572</v>
+      </c>
+      <c r="M21">
+        <v>999</v>
+      </c>
+      <c r="N21" t="s">
+        <v>379</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="R21">
+        <v>999</v>
+      </c>
+      <c r="S21">
+        <v>999</v>
+      </c>
+      <c r="T21" t="s">
+        <v>90</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="V21" t="s">
+        <v>554</v>
+      </c>
+      <c r="W21" t="s">
+        <v>555</v>
+      </c>
+      <c r="X21" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>534</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>557</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>558</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>479</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>559</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>560</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>540</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>459</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>561</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>562</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>515</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>563</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>463</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>488</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>564</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>565</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>546</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>566</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>567</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>568</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>569</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>570</v>
+      </c>
+      <c r="AZ21" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="22" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8">
+        <v>44834</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" t="s">
+        <v>315</v>
+      </c>
+      <c r="E22">
+        <v>17</v>
+      </c>
+      <c r="F22">
+        <v>11</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I22">
+        <v>60</v>
+      </c>
+      <c r="J22">
+        <v>820</v>
+      </c>
+      <c r="K22" t="s">
+        <v>576</v>
+      </c>
+      <c r="L22" t="s">
+        <v>596</v>
+      </c>
+      <c r="M22">
+        <v>999</v>
+      </c>
+      <c r="N22" t="s">
+        <v>597</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="R22">
+        <v>999</v>
+      </c>
+      <c r="S22">
+        <v>999</v>
+      </c>
+      <c r="T22" t="s">
+        <v>54</v>
+      </c>
+      <c r="U22" s="1">
+        <v>999</v>
+      </c>
+      <c r="V22" t="s">
+        <v>577</v>
+      </c>
+      <c r="W22" t="s">
+        <v>419</v>
+      </c>
+      <c r="X22" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>579</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>580</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>581</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>479</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>537</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>582</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>583</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>584</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>585</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>586</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>587</v>
+      </c>
+      <c r="AL22">
+        <v>999</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>463</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>545</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>588</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>589</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>466</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>590</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>591</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>592</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>593</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>711</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>594</v>
+      </c>
+      <c r="AZ22" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="23" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8">
+        <v>44834</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" t="s">
+        <v>315</v>
+      </c>
+      <c r="E23">
+        <v>17</v>
+      </c>
+      <c r="F23">
+        <v>12</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I23">
+        <v>26</v>
+      </c>
+      <c r="J23">
+        <v>48.2</v>
+      </c>
+      <c r="K23" t="s">
+        <v>356</v>
+      </c>
+      <c r="L23" t="s">
+        <v>614</v>
+      </c>
+      <c r="M23">
+        <v>999</v>
+      </c>
+      <c r="N23" t="s">
+        <v>379</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="R23">
+        <v>999</v>
+      </c>
+      <c r="S23">
+        <v>999</v>
+      </c>
+      <c r="T23" t="s">
+        <v>54</v>
+      </c>
+      <c r="U23" s="1">
+        <v>999</v>
+      </c>
+      <c r="V23" t="s">
+        <v>473</v>
+      </c>
+      <c r="W23" t="s">
+        <v>600</v>
+      </c>
+      <c r="X23" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>602</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>479</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>537</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>604</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>458</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>459</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>561</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>605</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>606</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>607</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>463</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>608</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>564</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>609</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>466</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>348</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>490</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>610</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>492</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>611</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>612</v>
+      </c>
+      <c r="AZ23" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="24" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8">
+        <v>44834</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>315</v>
+      </c>
+      <c r="E24">
+        <v>17</v>
+      </c>
+      <c r="F24">
+        <v>13</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I24">
+        <v>60</v>
+      </c>
+      <c r="J24">
+        <v>820</v>
+      </c>
+      <c r="K24" t="s">
+        <v>618</v>
+      </c>
+      <c r="L24" t="s">
+        <v>639</v>
+      </c>
+      <c r="M24">
+        <v>999</v>
+      </c>
+      <c r="N24" t="s">
+        <v>379</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="S24">
+        <v>999</v>
+      </c>
+      <c r="T24" t="s">
+        <v>191</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="V24" t="s">
+        <v>619</v>
+      </c>
+      <c r="W24" t="s">
+        <v>264</v>
+      </c>
+      <c r="X24" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>621</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>622</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>603</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>623</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>624</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>625</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>626</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>627</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>628</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>629</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>630</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>367</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>631</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>710</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>632</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>633</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>634</v>
+      </c>
+      <c r="AS24" t="s">
         <v>303</v>
       </c>
-      <c r="AB12" t="s">
-        <v>297</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>298</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>299</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>300</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>301</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>302</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>304</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>305</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>306</v>
-      </c>
-      <c r="AM12" t="s">
+      <c r="AT24" t="s">
+        <v>635</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>374</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>636</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>637</v>
+      </c>
+      <c r="AZ24" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="25" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8">
+        <v>44834</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>654</v>
+      </c>
+      <c r="E25">
+        <v>17</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I25">
+        <v>60</v>
+      </c>
+      <c r="J25">
+        <v>815</v>
+      </c>
+      <c r="K25" t="s">
+        <v>655</v>
+      </c>
+      <c r="L25" t="s">
+        <v>673</v>
+      </c>
+      <c r="M25">
+        <v>999</v>
+      </c>
+      <c r="N25" t="s">
+        <v>497</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="S25">
+        <v>999</v>
+      </c>
+      <c r="T25" t="s">
         <v>307</v>
       </c>
-      <c r="AN12" t="s">
-        <v>308</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>309</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>310</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>311</v>
-      </c>
-      <c r="AR12" t="s">
+      <c r="U25" s="1">
+        <v>999</v>
+      </c>
+      <c r="V25" t="s">
+        <v>656</v>
+      </c>
+      <c r="W25" t="s">
+        <v>502</v>
+      </c>
+      <c r="X25" t="s">
+        <v>657</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>534</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>658</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>659</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>581</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>479</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>661</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>660</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>459</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>662</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>663</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>664</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>665</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>666</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>464</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>564</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>436</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>546</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>348</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>667</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>668</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>493</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>442</v>
+      </c>
+      <c r="AZ25" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="26" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8">
+        <v>44834</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" t="s">
+        <v>654</v>
+      </c>
+      <c r="E26">
+        <v>17</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I26">
+        <v>60</v>
+      </c>
+      <c r="J26">
+        <v>815</v>
+      </c>
+      <c r="K26" t="s">
+        <v>674</v>
+      </c>
+      <c r="L26" t="s">
+        <v>685</v>
+      </c>
+      <c r="M26">
+        <v>999</v>
+      </c>
+      <c r="N26" t="s">
+        <v>497</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="S26">
+        <v>999</v>
+      </c>
+      <c r="T26" t="s">
+        <v>307</v>
+      </c>
+      <c r="U26" s="1">
+        <v>999</v>
+      </c>
+      <c r="V26" t="s">
+        <v>577</v>
+      </c>
+      <c r="W26" t="s">
+        <v>600</v>
+      </c>
+      <c r="X26" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>675</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>581</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>479</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>537</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>539</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>676</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>459</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>677</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>678</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>543</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>679</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>463</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>680</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>564</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>436</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>681</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>348</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>682</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>683</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>441</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>442</v>
+      </c>
+      <c r="AZ26" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="27" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8">
+        <v>44834</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" t="s">
+        <v>654</v>
+      </c>
+      <c r="E27">
+        <v>17</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I27">
+        <v>60</v>
+      </c>
+      <c r="J27">
+        <v>815</v>
+      </c>
+      <c r="K27" t="s">
+        <v>689</v>
+      </c>
+      <c r="L27" t="s">
+        <v>701</v>
+      </c>
+      <c r="M27">
+        <v>999</v>
+      </c>
+      <c r="N27" t="s">
+        <v>497</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="R27">
+        <v>999</v>
+      </c>
+      <c r="S27">
+        <v>999</v>
+      </c>
+      <c r="T27" t="s">
+        <v>54</v>
+      </c>
+      <c r="U27" s="1">
+        <v>999</v>
+      </c>
+      <c r="V27" t="s">
+        <v>690</v>
+      </c>
+      <c r="W27" t="s">
+        <v>419</v>
+      </c>
+      <c r="X27" t="s">
+        <v>691</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>692</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>479</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>623</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>693</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>694</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>695</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>696</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>365</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>515</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>463</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>488</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>345</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>697</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>371</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>348</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>372</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>698</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>374</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>493</v>
+      </c>
+      <c r="AY27" t="s">
+        <v>699</v>
+      </c>
+      <c r="AZ27" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="28" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8">
+        <v>44834</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" t="s">
+        <v>654</v>
+      </c>
+      <c r="E28">
+        <v>17</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I28">
+        <v>60</v>
+      </c>
+      <c r="J28">
+        <v>815</v>
+      </c>
+      <c r="K28" t="s">
+        <v>704</v>
+      </c>
+      <c r="L28" t="s">
+        <v>733</v>
+      </c>
+      <c r="M28">
+        <v>999</v>
+      </c>
+      <c r="N28" t="s">
+        <v>734</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="R28">
+        <v>999</v>
+      </c>
+      <c r="S28" t="s">
+        <v>737</v>
+      </c>
+      <c r="T28" t="s">
+        <v>307</v>
+      </c>
+      <c r="U28" s="1">
+        <v>999</v>
+      </c>
+      <c r="V28" t="s">
+        <v>705</v>
+      </c>
+      <c r="W28" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="X28" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>712</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>713</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>714</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>715</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>360</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>716</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>717</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>718</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>719</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>720</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>721</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>722</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>723</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>724</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>725</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>726</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>727</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>254</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>728</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>729</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>730</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>731</v>
+      </c>
+      <c r="AY28" t="s">
+        <v>732</v>
+      </c>
+      <c r="AZ28" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="29" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8">
+        <v>44834</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" t="s">
+        <v>654</v>
+      </c>
+      <c r="E29">
+        <v>17</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I29">
+        <v>60</v>
+      </c>
+      <c r="J29">
+        <v>815</v>
+      </c>
+      <c r="K29" t="s">
+        <v>738</v>
+      </c>
+      <c r="L29" t="s">
+        <v>754</v>
+      </c>
+      <c r="M29">
+        <v>999</v>
+      </c>
+      <c r="N29" t="s">
+        <v>497</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>888</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="S29">
+        <v>999</v>
+      </c>
+      <c r="T29" t="s">
+        <v>54</v>
+      </c>
+      <c r="U29" s="1">
+        <v>999</v>
+      </c>
+      <c r="V29" t="s">
+        <v>739</v>
+      </c>
+      <c r="W29" t="s">
+        <v>419</v>
+      </c>
+      <c r="X29" t="s">
+        <v>740</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>741</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>602</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>742</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>743</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>537</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>604</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>676</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>459</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>744</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>543</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>745</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>746</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>747</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>748</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>749</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>750</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>751</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>752</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>548</v>
+      </c>
+      <c r="AX29" t="s">
+        <v>350</v>
+      </c>
+      <c r="AY29" t="s">
+        <v>753</v>
+      </c>
+      <c r="AZ29" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="BA29" s="11" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="30" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8">
+        <v>44834</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" t="s">
+        <v>654</v>
+      </c>
+      <c r="E30">
+        <v>17</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I30">
+        <v>60</v>
+      </c>
+      <c r="J30">
+        <v>815</v>
+      </c>
+      <c r="K30" t="s">
+        <v>738</v>
+      </c>
+      <c r="L30" t="s">
+        <v>754</v>
+      </c>
+      <c r="M30">
+        <v>999</v>
+      </c>
+      <c r="N30" t="s">
+        <v>497</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="P30">
+        <v>999</v>
+      </c>
+      <c r="Q30">
+        <v>999</v>
+      </c>
+      <c r="R30">
+        <v>999</v>
+      </c>
+      <c r="S30">
+        <v>999</v>
+      </c>
+      <c r="T30" t="s">
+        <v>54</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="V30" t="s">
+        <v>756</v>
+      </c>
+      <c r="W30" t="s">
+        <v>386</v>
+      </c>
+      <c r="X30">
+        <v>999</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>757</v>
+      </c>
+      <c r="Z30">
+        <v>999</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB30">
+        <v>999</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>715</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>758</v>
+      </c>
+      <c r="AE30">
+        <v>999</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>759</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>626</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>760</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>720</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>761</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>762</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>367</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>763</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>764</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>371</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS30">
+        <v>999</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>765</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>766</v>
+      </c>
+      <c r="AY30" t="s">
+        <v>767</v>
+      </c>
+      <c r="AZ30" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="31" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8">
+        <v>44834</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" t="s">
+        <v>654</v>
+      </c>
+      <c r="E31">
+        <v>17</v>
+      </c>
+      <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I31">
+        <v>26</v>
+      </c>
+      <c r="J31">
+        <v>8.15</v>
+      </c>
+      <c r="K31" t="s">
+        <v>770</v>
+      </c>
+      <c r="L31" t="s">
+        <v>771</v>
+      </c>
+      <c r="N31" t="s">
+        <v>330</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="R31">
+        <v>999</v>
+      </c>
+      <c r="S31">
+        <v>999</v>
+      </c>
+      <c r="T31" t="s">
+        <v>90</v>
+      </c>
+      <c r="U31" s="1">
+        <v>999</v>
+      </c>
+      <c r="V31" t="s">
+        <v>772</v>
+      </c>
+      <c r="W31" t="s">
+        <v>773</v>
+      </c>
+      <c r="X31" t="s">
+        <v>774</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>775</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>776</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>777</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>778</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>360</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>779</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>780</v>
+      </c>
+      <c r="AG31" s="14" t="s">
+        <v>791</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>781</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>782</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>783</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>784</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>785</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>367</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>786</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>787</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>764</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>371</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>303</v>
+      </c>
+      <c r="AT31" t="s">
         <v>79</v>
       </c>
-      <c r="AS12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>284</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>109</v>
-      </c>
-      <c r="AW12" t="s">
-        <v>193</v>
-      </c>
-      <c r="AX12" t="s">
-        <v>313</v>
-      </c>
-      <c r="AY12" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="AZ12" s="1" t="s">
-        <v>86</v>
+      <c r="AU31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>794</v>
+      </c>
+      <c r="AX31" t="s">
+        <v>569</v>
+      </c>
+      <c r="AY31" t="s">
+        <v>753</v>
+      </c>
+      <c r="AZ31" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="32" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" t="s">
+        <v>654</v>
+      </c>
+      <c r="E32">
+        <v>17</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" t="s">
+        <v>654</v>
+      </c>
+      <c r="E33">
+        <v>17</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" t="s">
+        <v>654</v>
+      </c>
+      <c r="E34">
+        <v>17</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Data/DWA_JH.xlsx
+++ b/Data/DWA_JH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB295E2-FC67-45B0-9A96-D952CCC90FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA048DA5-BC88-466E-8FC3-B42153D29767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="1056">
   <si>
     <t>ID</t>
   </si>
@@ -2207,436 +2207,1219 @@
     <t>III_30_0007</t>
   </si>
   <si>
+    <t>r'</t>
+  </si>
+  <si>
+    <t>w-H</t>
+  </si>
+  <si>
+    <t>Ämoas (f)</t>
+  </si>
+  <si>
+    <t>Braobeer (f)</t>
+  </si>
+  <si>
+    <t>Gifez (m)</t>
+  </si>
+  <si>
+    <t>Entrech (m)</t>
+  </si>
+  <si>
+    <t>hagabutz (m), hagabutza (m)</t>
+  </si>
+  <si>
+    <t>Gurka (f), Gugommer &lt;alt&gt;</t>
+  </si>
+  <si>
+    <t>Eardäpfel (m)</t>
+  </si>
+  <si>
+    <t>Rolle (m)</t>
+  </si>
+  <si>
+    <t>Schar</t>
+  </si>
+  <si>
+    <t>Gealriaba (w)</t>
+  </si>
+  <si>
+    <t>Mohr (m)</t>
+  </si>
+  <si>
+    <t>Gluf (w)</t>
+  </si>
+  <si>
+    <t>Stricknădel (w)</t>
+  </si>
+  <si>
+    <t>Goas (m)</t>
+  </si>
+  <si>
+    <t>Hügle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bondorf </t>
+  </si>
+  <si>
+    <t>Böblingen</t>
+  </si>
+  <si>
+    <t>Rötenberg</t>
+  </si>
+  <si>
+    <t>w-K</t>
+  </si>
+  <si>
+    <t>Daesel (m)</t>
+  </si>
+  <si>
+    <t>Hagebutz (w)</t>
+  </si>
+  <si>
+    <t>Grombier (w)</t>
+  </si>
+  <si>
+    <t>Rolle (m), Rälleng (m)</t>
+  </si>
+  <si>
+    <t>Mohrrüeb (w)</t>
+  </si>
+  <si>
+    <t>Dedde (m)</t>
+  </si>
+  <si>
+    <t>schelte, Krach macha, wettera</t>
+  </si>
+  <si>
+    <t>Stecknodel (w)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stricknodel </t>
+  </si>
+  <si>
+    <t>Goas (w)</t>
+  </si>
+  <si>
+    <t>Peterzell</t>
+  </si>
+  <si>
+    <t>Willy Knans</t>
+  </si>
+  <si>
+    <t>Dornhan</t>
+  </si>
+  <si>
+    <t>Horb</t>
+  </si>
+  <si>
+    <t>w-L</t>
+  </si>
+  <si>
+    <t>Ameise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Braubeere &lt;eigentlich Braunbeere&gt; </t>
+  </si>
+  <si>
+    <t>Entrecht (m)</t>
+  </si>
+  <si>
+    <t>Gugrinere</t>
+  </si>
+  <si>
+    <t>Hegebutze (m)</t>
+  </si>
+  <si>
+    <t>Hebamme</t>
+  </si>
+  <si>
+    <t>Krombiere, Erdäpfel</t>
+  </si>
+  <si>
+    <t>Pflaume</t>
+  </si>
+  <si>
+    <t>Glüfle (s)</t>
+  </si>
+  <si>
+    <t>zweigen, pfropfen</t>
+  </si>
+  <si>
+    <t>Geiße  (w)</t>
+  </si>
+  <si>
+    <t>Römlinsdorf</t>
+  </si>
+  <si>
+    <t>F. Möhrle</t>
+  </si>
+  <si>
+    <t>Tonbach, Baiersbronn</t>
+  </si>
+  <si>
+    <t>w-O</t>
+  </si>
+  <si>
+    <t>Amuasa (m + w)</t>
+  </si>
+  <si>
+    <t>Sischt an Leich</t>
+  </si>
+  <si>
+    <t>Braõbeera</t>
+  </si>
+  <si>
+    <t>Brau(n)baern</t>
+  </si>
+  <si>
+    <t>nb</t>
+  </si>
+  <si>
+    <t>Goasel &lt;Geißel&gt;</t>
+  </si>
+  <si>
+    <t>Hafê (m) &lt;Mehrz.: Häfê&gt;</t>
+  </si>
+  <si>
+    <t>Daẽsl</t>
+  </si>
+  <si>
+    <t>Etama &lt;,,e'' u. letzte ,,a'' nasal</t>
+  </si>
+  <si>
+    <t>Fleadrmaus</t>
+  </si>
+  <si>
+    <t>Fliaga</t>
+  </si>
+  <si>
+    <t>Gugommr, &lt;jetzt&gt; Guarka</t>
+  </si>
+  <si>
+    <t>Hagäbutza</t>
+  </si>
+  <si>
+    <t>Heebamm</t>
+  </si>
+  <si>
+    <t>Häardepfl</t>
+  </si>
+  <si>
+    <t>Katzarolle</t>
+  </si>
+  <si>
+    <t>Schäar</t>
+  </si>
+  <si>
+    <t>Kohlraba</t>
+  </si>
+  <si>
+    <t>Saumohra</t>
+  </si>
+  <si>
+    <t>Dötta</t>
+  </si>
+  <si>
+    <t>Goasl</t>
+  </si>
+  <si>
+    <t>Pflomma</t>
+  </si>
+  <si>
+    <t>schälda</t>
+  </si>
+  <si>
+    <t>Stachlbeera</t>
+  </si>
+  <si>
+    <t>Gliifle</t>
+  </si>
+  <si>
+    <t>Schdriggnodla</t>
+  </si>
+  <si>
+    <t>Haafa</t>
+  </si>
+  <si>
+    <t>azweiga</t>
+  </si>
+  <si>
+    <t>Waldmössingen</t>
+  </si>
+  <si>
+    <t>Rottweil/Neck.</t>
+  </si>
+  <si>
+    <t>Josef Maier, Hptl.</t>
+  </si>
+  <si>
+    <t>Schwäbisch Gmünd</t>
+  </si>
+  <si>
+    <t>Württemberg</t>
+  </si>
+  <si>
+    <t>w-N</t>
+  </si>
+  <si>
+    <t>Ameis (w), Amoas</t>
+  </si>
+  <si>
+    <t>Brombeer (w)</t>
+  </si>
+  <si>
+    <t>Diesel (m)</t>
+  </si>
+  <si>
+    <t>Fledermaus (w)</t>
+  </si>
+  <si>
+    <t>Flieg (w)</t>
+  </si>
+  <si>
+    <t>Erdepfel (m), Grun(d)bier</t>
+  </si>
+  <si>
+    <t>Gellrüeb</t>
+  </si>
+  <si>
+    <t>Saumohr (w), Mutterschwein (s)</t>
+  </si>
+  <si>
+    <t>Gede</t>
+  </si>
+  <si>
+    <t>Goasl (w)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[?] Zwetschg (w),Pflum(e) (w) &lt;=Mirabelle&gt; </t>
+  </si>
+  <si>
+    <t>schelde</t>
+  </si>
+  <si>
+    <t>Sptz (m)</t>
+  </si>
+  <si>
+    <t>Stecknodel (w), Gluf (w)</t>
+  </si>
+  <si>
+    <t>abzweige</t>
+  </si>
+  <si>
+    <t>Heiligenbronn</t>
+  </si>
+  <si>
+    <t>Asprion</t>
+  </si>
+  <si>
+    <t>Amoas</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>Ähmd</t>
+  </si>
+  <si>
+    <t>Hagabutta</t>
+  </si>
+  <si>
+    <t>Erdepfl</t>
+  </si>
+  <si>
+    <t>Sc̆heer</t>
+  </si>
+  <si>
+    <t>[Sch]abe</t>
+  </si>
+  <si>
+    <t>Geisel</t>
+  </si>
+  <si>
+    <t>Pflumme</t>
+  </si>
+  <si>
+    <t>Stecknodla</t>
+  </si>
+  <si>
+    <t>Hafa</t>
+  </si>
+  <si>
+    <t>nunpfropfen</t>
+  </si>
+  <si>
+    <t>Pflaume sehr unübersichtlich</t>
+  </si>
+  <si>
+    <t>Alois Riedlinger</t>
+  </si>
+  <si>
+    <t>w-F</t>
+  </si>
+  <si>
+    <t>Schenkenzell</t>
+  </si>
+  <si>
+    <t>Omeis</t>
+  </si>
+  <si>
+    <t>Beerdigung, Leich</t>
+  </si>
+  <si>
+    <t>Brumber</t>
+  </si>
+  <si>
+    <t>Elschder, Atzel</t>
+  </si>
+  <si>
+    <t>Endemā</t>
+  </si>
+  <si>
+    <t>Fledermous</t>
+  </si>
+  <si>
+    <t>Fliäge, Muck</t>
+  </si>
+  <si>
+    <t>Gugummer, Gurk</t>
+  </si>
+  <si>
+    <t>Hagebutze,Hagebudde</t>
+  </si>
+  <si>
+    <t>Hewamm</t>
+  </si>
+  <si>
+    <t>Ärdepfel</t>
+  </si>
+  <si>
+    <t>Katzerolle</t>
+  </si>
+  <si>
+    <t>Schermaus</t>
+  </si>
+  <si>
+    <t>Knahrüewe</t>
+  </si>
+  <si>
+    <t>Geddi</t>
+  </si>
+  <si>
+    <t>Geißel, Gaißel</t>
+  </si>
+  <si>
+    <t>Geis</t>
+  </si>
+  <si>
+    <t>Wilhelm Schneider</t>
+  </si>
+  <si>
+    <t>Urloffen [a. Kohl]</t>
+  </si>
+  <si>
+    <t>Guller, Henne</t>
+  </si>
+  <si>
+    <t>170a. Obertasse</t>
+  </si>
+  <si>
+    <t>170b. Untertasse</t>
+  </si>
+  <si>
+    <t>[Schüsse]</t>
+  </si>
+  <si>
+    <t>a'</t>
+  </si>
+  <si>
+    <t>II_57_0081</t>
+  </si>
+  <si>
+    <t>m-c</t>
+  </si>
+  <si>
+    <t>Laudenbach</t>
+  </si>
+  <si>
+    <t>Mannheim</t>
+  </si>
+  <si>
+    <t>Emens</t>
+  </si>
+  <si>
+    <t>Speckmaus</t>
+  </si>
+  <si>
+    <t>Mücka</t>
+  </si>
+  <si>
+    <t>Gagummern</t>
+  </si>
+  <si>
+    <t>Aschkitzel</t>
+  </si>
+  <si>
+    <t>Gickel, Hinkel</t>
+  </si>
+  <si>
+    <t>Ammebäsel</t>
+  </si>
+  <si>
+    <t>Kartoffel</t>
+  </si>
+  <si>
+    <t>Mulbruff</t>
+  </si>
+  <si>
+    <t>Lous</t>
+  </si>
+  <si>
+    <t>Petern</t>
+  </si>
+  <si>
+    <t>Leitsch</t>
+  </si>
+  <si>
+    <t>Stachelbeere, Kruselbeere</t>
+  </si>
+  <si>
+    <t>Spell</t>
+  </si>
+  <si>
+    <t>[Haffeeschaal]</t>
+  </si>
+  <si>
+    <t>irdener Haffe</t>
+  </si>
+  <si>
+    <t>a. d. B.</t>
+  </si>
+  <si>
+    <t>Adam Schühsler</t>
+  </si>
+  <si>
+    <t>Laudenbach a.d. B.</t>
+  </si>
+  <si>
+    <t>II_57_0082</t>
+  </si>
+  <si>
+    <t>Fǎzebeere</t>
+  </si>
+  <si>
+    <t>Fazebeern</t>
+  </si>
+  <si>
+    <t>Mücke</t>
+  </si>
+  <si>
+    <t>Gickel, Hückel</t>
+  </si>
+  <si>
+    <t>Louis</t>
+  </si>
+  <si>
+    <t>Pettern</t>
+  </si>
+  <si>
+    <t>Stachelbeere, Krusselbeere</t>
+  </si>
+  <si>
+    <t>[Kaffeeschaal]</t>
+  </si>
+  <si>
+    <t>II_57_0083</t>
+  </si>
+  <si>
+    <t>m-D</t>
+  </si>
+  <si>
+    <t>a. d. Bergstr.</t>
+  </si>
+  <si>
+    <t>Eminz (w)</t>
+  </si>
+  <si>
+    <t>Leicht (die, w)</t>
+  </si>
+  <si>
+    <t>Brummbeern (w)</t>
+  </si>
+  <si>
+    <t>Deiseel (w)</t>
+  </si>
+  <si>
+    <t>Ent[a]rich (m)</t>
+  </si>
+  <si>
+    <t>Fleramaus (w)</t>
+  </si>
+  <si>
+    <t>Mick (w)</t>
+  </si>
+  <si>
+    <t>Ohmed (s)</t>
+  </si>
+  <si>
+    <t>Gurg (w)</t>
+  </si>
+  <si>
+    <t>Arschkitzel (w)</t>
+  </si>
+  <si>
+    <t>Gickel (m), T[in]kel (w)</t>
+  </si>
+  <si>
+    <t>Omm (w)</t>
+  </si>
+  <si>
+    <t>Kartoffl (w)</t>
+  </si>
+  <si>
+    <t>Kater (m)</t>
+  </si>
+  <si>
+    <t>Mulldruff (w)</t>
+  </si>
+  <si>
+    <t>Gälerieb (w)</t>
+  </si>
+  <si>
+    <t>Lous (w)</t>
+  </si>
+  <si>
+    <t>Beitsch (w)</t>
+  </si>
+  <si>
+    <t>Pedder (m)</t>
+  </si>
+  <si>
+    <t>Ploum (w)</t>
+  </si>
+  <si>
+    <t>Schbatz (m)</t>
+  </si>
+  <si>
+    <t>Grusselbärn (w)</t>
+  </si>
+  <si>
+    <t>Schbäll (w)</t>
+  </si>
+  <si>
+    <t>Schdriggnödel (w)</t>
+  </si>
+  <si>
+    <t>[Tass] (w)</t>
+  </si>
+  <si>
+    <t>Haffe (m)</t>
+  </si>
+  <si>
+    <t>Gaas (w)</t>
+  </si>
+  <si>
+    <t>Hunsbach</t>
+  </si>
+  <si>
+    <t>Hermann Finck</t>
+  </si>
+  <si>
+    <t>Bretten i. B.</t>
+  </si>
+  <si>
+    <t>Lehrer mit 8. Klasse</t>
+  </si>
+  <si>
+    <t>II_57_0138</t>
+  </si>
+  <si>
+    <t>m-E</t>
+  </si>
+  <si>
+    <t>Buchen</t>
+  </si>
+  <si>
+    <t>Ämez</t>
+  </si>
+  <si>
+    <t>Brummelder</t>
+  </si>
+  <si>
+    <t>Anderich</t>
+  </si>
+  <si>
+    <t>Doppelmade</t>
+  </si>
+  <si>
+    <t>Hiffelder</t>
+  </si>
+  <si>
+    <t>Göcker, Hingele</t>
+  </si>
+  <si>
+    <t>Storchetante</t>
+  </si>
+  <si>
+    <t>gelbe Rüben</t>
+  </si>
+  <si>
+    <t>Dausch</t>
+  </si>
+  <si>
+    <t>Dod</t>
+  </si>
+  <si>
+    <t>schimpfen</t>
+  </si>
+  <si>
+    <t>[Schale]</t>
+  </si>
+  <si>
+    <t>Gäs, Hattel (m)</t>
+  </si>
+  <si>
+    <t>Rippberg</t>
+  </si>
+  <si>
+    <t>Friedr. Wagner</t>
+  </si>
+  <si>
+    <t>Unteraschefflenz</t>
+  </si>
+  <si>
+    <t>II_57_0139</t>
+  </si>
+  <si>
+    <t>n-Ea</t>
+  </si>
+  <si>
+    <t>Gerolzahn</t>
+  </si>
+  <si>
+    <t>Begrabe</t>
+  </si>
+  <si>
+    <t>Deischel</t>
+  </si>
+  <si>
+    <t>Enter(ich)</t>
+  </si>
+  <si>
+    <t>Fledermausch</t>
+  </si>
+  <si>
+    <t>Hifelter</t>
+  </si>
+  <si>
+    <t>Göcker, Hüngele</t>
+  </si>
+  <si>
+    <t>Kartoffel &lt;Grumbieren&gt;</t>
+  </si>
+  <si>
+    <t>Mohrrübe, Gelwerüwe</t>
+  </si>
+  <si>
+    <t>Beitsche</t>
+  </si>
+  <si>
+    <t>schenne &lt;Schimpfe&gt;</t>
+  </si>
+  <si>
+    <t>Schöttgen</t>
+  </si>
+  <si>
+    <t>Seelbach / Lahr</t>
+  </si>
+  <si>
+    <t>II_57_0140</t>
+  </si>
+  <si>
+    <t>n-G</t>
+  </si>
+  <si>
+    <t>Petzemes (die)</t>
+  </si>
+  <si>
+    <t>Brumel[b]er</t>
+  </si>
+  <si>
+    <t>Atzel (die)</t>
+  </si>
+  <si>
+    <t>Ander (der)</t>
+  </si>
+  <si>
+    <t>Mucke (die)</t>
+  </si>
+  <si>
+    <t>Ohmed (das)</t>
+  </si>
+  <si>
+    <t>Gummern (die)</t>
+  </si>
+  <si>
+    <t>Göger (der), [Hünggele (das)]</t>
+  </si>
+  <si>
+    <t>Grumbern (die)</t>
+  </si>
+  <si>
+    <t>Kater (der)</t>
+  </si>
+  <si>
+    <t>Wühler (das)</t>
+  </si>
+  <si>
+    <t>Dausch (die)</t>
+  </si>
+  <si>
+    <t>Dot (der)</t>
+  </si>
+  <si>
+    <t>Schale (die)</t>
+  </si>
+  <si>
+    <t>Tellerle (das)</t>
+  </si>
+  <si>
+    <t>Hafen (der)</t>
+  </si>
+  <si>
+    <t>Geeß (die)</t>
+  </si>
+  <si>
+    <t>Mosbach</t>
+  </si>
+  <si>
+    <t>Gottersdorf</t>
+  </si>
+  <si>
+    <t>Odenweld, Ernst</t>
+  </si>
+  <si>
+    <t>Philippsburg</t>
+  </si>
+  <si>
+    <t>II_57_0143</t>
+  </si>
+  <si>
+    <t>n-X</t>
+  </si>
+  <si>
+    <t>Hornbach</t>
+  </si>
+  <si>
+    <t>Petzemens</t>
+  </si>
+  <si>
+    <t>Rumelder</t>
+  </si>
+  <si>
+    <t>Deischl</t>
+  </si>
+  <si>
+    <t>Ente</t>
+  </si>
+  <si>
+    <t>Fleddermausch</t>
+  </si>
+  <si>
+    <t>Hagebutte</t>
+  </si>
+  <si>
+    <t>Göüger, Hinkele</t>
+  </si>
+  <si>
+    <t>Heibamm</t>
+  </si>
+  <si>
+    <t>Kader</t>
+  </si>
+  <si>
+    <t>Mühler</t>
+  </si>
+  <si>
+    <t>Worzel</t>
+  </si>
+  <si>
+    <t>Dood</t>
+  </si>
+  <si>
+    <t>schimpfe</t>
+  </si>
+  <si>
+    <t>Sticknodel</t>
+  </si>
+  <si>
+    <t>[Schaale]</t>
+  </si>
+  <si>
+    <t>Kunheim</t>
+  </si>
+  <si>
+    <t>Strassburg</t>
+  </si>
+  <si>
+    <t>Passmann</t>
+  </si>
+  <si>
     <t>III_30_0008</t>
   </si>
   <si>
+    <t>w-E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schiltach </t>
+  </si>
+  <si>
+    <t>Ammose</t>
+  </si>
+  <si>
+    <t>deisel</t>
+  </si>
+  <si>
+    <t>Elschda</t>
+  </si>
+  <si>
+    <t>Fledamaus</t>
+  </si>
+  <si>
+    <t>Ohmd</t>
+  </si>
+  <si>
+    <t>Gugumma</t>
+  </si>
+  <si>
+    <t>Gulla, Henn</t>
+  </si>
+  <si>
+    <t>Erdäpfl, Grumbire</t>
+  </si>
+  <si>
+    <t>Katzerolli</t>
+  </si>
+  <si>
+    <t>Maulwurf</t>
+  </si>
+  <si>
+    <t>Geriewe</t>
+  </si>
+  <si>
+    <t>Götti</t>
+  </si>
+  <si>
+    <t>Goaßl</t>
+  </si>
+  <si>
+    <t>Pflueme</t>
+  </si>
+  <si>
+    <t>Schdachlbeer</t>
+  </si>
+  <si>
+    <t>Schtecknoadl</t>
+  </si>
+  <si>
+    <t>Schtricknoadl</t>
+  </si>
+  <si>
+    <t>[Schißl]</t>
+  </si>
+  <si>
+    <t>Goas</t>
+  </si>
+  <si>
+    <t>G. Ruckelshausen</t>
+  </si>
+  <si>
+    <t>Ladenburg</t>
+  </si>
+  <si>
     <t>III_30_0009</t>
   </si>
   <si>
+    <t>w-P</t>
+  </si>
+  <si>
+    <t>Winzeln</t>
+  </si>
+  <si>
+    <t>Amòasà</t>
+  </si>
+  <si>
+    <t>zur Leich gehen</t>
+  </si>
+  <si>
+    <t>Braubeerà</t>
+  </si>
+  <si>
+    <t>Dèisel</t>
+  </si>
+  <si>
+    <t>Hatzen</t>
+  </si>
+  <si>
+    <t>Etemà</t>
+  </si>
+  <si>
+    <t>Fledemaus</t>
+  </si>
+  <si>
+    <t>Fliegà</t>
+  </si>
+  <si>
+    <t>Hagàbutzà</t>
+  </si>
+  <si>
+    <t>Gühler &lt;Gockeler&gt;</t>
+  </si>
+  <si>
+    <t>Grumbierà, Hardepfel</t>
+  </si>
+  <si>
+    <t>Ràlling</t>
+  </si>
+  <si>
+    <t>Gealrübà &lt;(gelbe R.) große: Riesenmöhre&gt;,</t>
+  </si>
+  <si>
+    <t>Moor, Laus</t>
+  </si>
+  <si>
+    <t>Döti</t>
+  </si>
+  <si>
+    <t>Goasel &lt;Geisel&gt;</t>
+  </si>
+  <si>
+    <t>Pflomà</t>
+  </si>
+  <si>
+    <t>Stachelbeerà</t>
+  </si>
+  <si>
+    <t>Kluf</t>
+  </si>
+  <si>
+    <t>Stricknodlà</t>
+  </si>
+  <si>
+    <t>[Schüssele]</t>
+  </si>
+  <si>
+    <t>Hafen, Hafà</t>
+  </si>
+  <si>
+    <t>zweigà</t>
+  </si>
+  <si>
+    <t>Goas &lt;Geis&gt;</t>
+  </si>
+  <si>
+    <t>Rummer</t>
+  </si>
+  <si>
+    <t>[Eybach]</t>
+  </si>
+  <si>
+    <t>[Göppingen i. R.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bürgermeister Moser </t>
+  </si>
+  <si>
     <t>III_30_0010</t>
   </si>
   <si>
-    <t>r'</t>
-  </si>
-  <si>
-    <t>w-H</t>
-  </si>
-  <si>
-    <t>Ämoas (f)</t>
-  </si>
-  <si>
-    <t>Braobeer (f)</t>
-  </si>
-  <si>
-    <t>Gifez (m)</t>
-  </si>
-  <si>
-    <t>Entrech (m)</t>
-  </si>
-  <si>
-    <t>hagabutz (m), hagabutza (m)</t>
-  </si>
-  <si>
-    <t>Gurka (f), Gugommer &lt;alt&gt;</t>
-  </si>
-  <si>
-    <t>Eardäpfel (m)</t>
-  </si>
-  <si>
-    <t>Rolle (m)</t>
-  </si>
-  <si>
-    <t>Schar</t>
-  </si>
-  <si>
-    <t>Gealriaba (w)</t>
-  </si>
-  <si>
-    <t>Mohr (m)</t>
-  </si>
-  <si>
-    <t>Gluf (w)</t>
-  </si>
-  <si>
-    <t>Stricknădel (w)</t>
-  </si>
-  <si>
-    <t>Goas (m)</t>
-  </si>
-  <si>
-    <t>Hügle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bondorf </t>
-  </si>
-  <si>
-    <t>Böblingen</t>
-  </si>
-  <si>
-    <t>Rötenberg</t>
-  </si>
-  <si>
-    <t>w-K</t>
-  </si>
-  <si>
-    <t>Daesel (m)</t>
-  </si>
-  <si>
-    <t>Hagebutz (w)</t>
-  </si>
-  <si>
-    <t>Grombier (w)</t>
-  </si>
-  <si>
-    <t>Rolle (m), Rälleng (m)</t>
-  </si>
-  <si>
-    <t>Mohrrüeb (w)</t>
-  </si>
-  <si>
-    <t>Dedde (m)</t>
-  </si>
-  <si>
-    <t>schelte, Krach macha, wettera</t>
-  </si>
-  <si>
-    <t>Stecknodel (w)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stricknodel </t>
-  </si>
-  <si>
-    <t>Goas (w)</t>
-  </si>
-  <si>
-    <t>Peterzell</t>
-  </si>
-  <si>
-    <t>Willy Knans</t>
-  </si>
-  <si>
-    <t>Dornhan</t>
-  </si>
-  <si>
-    <t>Horb</t>
-  </si>
-  <si>
-    <t>w-L</t>
-  </si>
-  <si>
-    <t>Ameise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Braubeere &lt;eigentlich Braunbeere&gt; </t>
-  </si>
-  <si>
-    <t>Entrecht (m)</t>
-  </si>
-  <si>
-    <t>Gugrinere</t>
-  </si>
-  <si>
-    <t>Hegebutze (m)</t>
-  </si>
-  <si>
-    <t>Hebamme</t>
-  </si>
-  <si>
-    <t>Krombiere, Erdäpfel</t>
-  </si>
-  <si>
-    <t>Pflaume</t>
-  </si>
-  <si>
-    <t>Glüfle (s)</t>
-  </si>
-  <si>
-    <t>zweigen, pfropfen</t>
-  </si>
-  <si>
-    <t>Geiße  (w)</t>
-  </si>
-  <si>
-    <t>Römlinsdorf</t>
-  </si>
-  <si>
-    <t>F. Möhrle</t>
-  </si>
-  <si>
-    <t>Tonbach, Baiersbronn</t>
-  </si>
-  <si>
-    <t>w-O</t>
-  </si>
-  <si>
-    <t>Amuasa (m + w)</t>
-  </si>
-  <si>
-    <t>Sischt an Leich</t>
-  </si>
-  <si>
-    <t>Braõbeera</t>
-  </si>
-  <si>
-    <t>Brau(n)baern</t>
-  </si>
-  <si>
-    <t>nb</t>
-  </si>
-  <si>
-    <t>Goasel &lt;Geißel&gt;</t>
-  </si>
-  <si>
-    <t>Hafê (m) &lt;Mehrz.: Häfê&gt;</t>
-  </si>
-  <si>
-    <t>Daẽsl</t>
-  </si>
-  <si>
-    <t>Etama &lt;,,e'' u. letzte ,,a'' nasal</t>
-  </si>
-  <si>
-    <t>Fleadrmaus</t>
-  </si>
-  <si>
-    <t>Fliaga</t>
-  </si>
-  <si>
-    <t>Gugommr, &lt;jetzt&gt; Guarka</t>
-  </si>
-  <si>
-    <t>Hagäbutza</t>
-  </si>
-  <si>
-    <t>Heebamm</t>
-  </si>
-  <si>
-    <t>Häardepfl</t>
-  </si>
-  <si>
-    <t>Katzarolle</t>
-  </si>
-  <si>
-    <t>Schäar</t>
-  </si>
-  <si>
-    <t>Kohlraba</t>
-  </si>
-  <si>
-    <t>Saumohra</t>
-  </si>
-  <si>
-    <t>Dötta</t>
-  </si>
-  <si>
-    <t>Goasl</t>
-  </si>
-  <si>
-    <t>Pflomma</t>
-  </si>
-  <si>
-    <t>schälda</t>
-  </si>
-  <si>
-    <t>Stachlbeera</t>
-  </si>
-  <si>
-    <t>Gliifle</t>
-  </si>
-  <si>
-    <t>Schdriggnodla</t>
-  </si>
-  <si>
-    <t>Haafa</t>
-  </si>
-  <si>
-    <t>azweiga</t>
-  </si>
-  <si>
-    <t>Waldmössingen</t>
-  </si>
-  <si>
-    <t>Rottweil/Neck.</t>
-  </si>
-  <si>
-    <t>Josef Maier, Hptl.</t>
-  </si>
-  <si>
-    <t>Schwäbisch Gmünd</t>
-  </si>
-  <si>
-    <t>Württemberg</t>
-  </si>
-  <si>
-    <t>w-N</t>
-  </si>
-  <si>
-    <t>Ameis (w), Amoas</t>
-  </si>
-  <si>
-    <t>Brombeer (w)</t>
-  </si>
-  <si>
-    <t>Diesel (m)</t>
-  </si>
-  <si>
-    <t>Fledermaus (w)</t>
-  </si>
-  <si>
-    <t>Flieg (w)</t>
-  </si>
-  <si>
-    <t>Erdepfel (m), Grun(d)bier</t>
-  </si>
-  <si>
-    <t>Gellrüeb</t>
-  </si>
-  <si>
-    <t>Saumohr (w), Mutterschwein (s)</t>
-  </si>
-  <si>
-    <t>Gede</t>
-  </si>
-  <si>
-    <t>Goasl (w)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[?] Zwetschg (w),Pflum(e) (w) &lt;=Mirabelle&gt; </t>
-  </si>
-  <si>
-    <t>schelde</t>
-  </si>
-  <si>
-    <t>Sptz (m)</t>
-  </si>
-  <si>
-    <t>Stecknodel (w), Gluf (w)</t>
-  </si>
-  <si>
-    <t>abzweige</t>
-  </si>
-  <si>
-    <t>Heiligenbronn</t>
-  </si>
-  <si>
-    <t>Asprion</t>
-  </si>
-  <si>
-    <t>Amoas</t>
-  </si>
-  <si>
-    <t>Diesel</t>
-  </si>
-  <si>
-    <t>Ähmd</t>
-  </si>
-  <si>
-    <t>Hagabutta</t>
-  </si>
-  <si>
-    <t>Erdepfl</t>
-  </si>
-  <si>
-    <t>Sc̆heer</t>
-  </si>
-  <si>
-    <t>[Sch]abe</t>
-  </si>
-  <si>
-    <t>Geisel</t>
-  </si>
-  <si>
-    <t>Pflumme</t>
-  </si>
-  <si>
-    <t>Stecknodla</t>
-  </si>
-  <si>
-    <t>Hafa</t>
-  </si>
-  <si>
-    <t>nunpfropfen</t>
-  </si>
-  <si>
-    <t>Pflaume sehr unübersichtlich</t>
-  </si>
-  <si>
-    <t>Alois Riedlinger</t>
-  </si>
-  <si>
-    <t>w-F</t>
-  </si>
-  <si>
-    <t>Schenkenzell</t>
-  </si>
-  <si>
-    <t>Omeis</t>
-  </si>
-  <si>
-    <t>Beerdigung, Leich</t>
-  </si>
-  <si>
-    <t>Brumber</t>
-  </si>
-  <si>
-    <t>Elschder, Atzel</t>
-  </si>
-  <si>
-    <t>Endemā</t>
-  </si>
-  <si>
-    <t>Fledermous</t>
-  </si>
-  <si>
-    <t>Fliäge, Muck</t>
-  </si>
-  <si>
-    <t>Gugummer, Gurk</t>
-  </si>
-  <si>
-    <t>Hagebutze,Hagebudde</t>
-  </si>
-  <si>
-    <t>Hewamm</t>
-  </si>
-  <si>
-    <t>Ärdepfel</t>
-  </si>
-  <si>
-    <t>Katzerolle</t>
-  </si>
-  <si>
-    <t>Schermaus</t>
-  </si>
-  <si>
-    <t>Knahrüewe</t>
-  </si>
-  <si>
-    <t>Geddi</t>
-  </si>
-  <si>
-    <t>Geißel, Gaißel</t>
-  </si>
-  <si>
-    <t>Geis</t>
-  </si>
-  <si>
-    <t>Wilhelm Schneider</t>
-  </si>
-  <si>
-    <t>Urloffen [a. Kohl]</t>
-  </si>
-  <si>
-    <t>Guller, Henne</t>
-  </si>
-  <si>
-    <t>170a. Obertasse</t>
-  </si>
-  <si>
-    <t>170b. Untertasse</t>
-  </si>
-  <si>
-    <t>[Schüsse]</t>
+    <t>w-M</t>
+  </si>
+  <si>
+    <t>Amoas (f)</t>
+  </si>
+  <si>
+    <t>Brombeer (f)</t>
+  </si>
+  <si>
+    <t>Elster (f)</t>
+  </si>
+  <si>
+    <t>d' Ente (f) &lt;Entema̼&gt;</t>
+  </si>
+  <si>
+    <t>Fleddermaus (f)</t>
+  </si>
+  <si>
+    <t>Flieaga (f)</t>
+  </si>
+  <si>
+    <t>Öhmd (n)</t>
+  </si>
+  <si>
+    <t>Gurka (f)</t>
+  </si>
+  <si>
+    <t>Hagebutse &lt;Haggebuts&gt;</t>
+  </si>
+  <si>
+    <t>Guller (m) &lt;Mehrzahl: Giller&gt;</t>
+  </si>
+  <si>
+    <t>Erdepfel (f)</t>
+  </si>
+  <si>
+    <t>Schäa (m)</t>
+  </si>
+  <si>
+    <t>Rahna (f)</t>
+  </si>
+  <si>
+    <t>Gette (m)</t>
+  </si>
+  <si>
+    <t>Goaßel (f)</t>
+  </si>
+  <si>
+    <t>Pflumme (f)</t>
+  </si>
+  <si>
+    <t>schelte &lt;gscholte&gt;</t>
+  </si>
+  <si>
+    <t>Stachelbeer (f)</t>
+  </si>
+  <si>
+    <t>Steckklufa (n)</t>
+  </si>
+  <si>
+    <t>Stricknoaal (f)</t>
+  </si>
+  <si>
+    <t>Schüssel (f)</t>
+  </si>
+  <si>
+    <t>Ontertässle</t>
+  </si>
+  <si>
+    <t>Schüsseel (f)</t>
+  </si>
+  <si>
+    <t>Aichhalden</t>
+  </si>
+  <si>
+    <t>Här</t>
+  </si>
+  <si>
+    <t>Göppingen</t>
+  </si>
+  <si>
+    <t>Gemeinschaftl. Zwischen Lehrer x Schüler</t>
+  </si>
+  <si>
+    <t>Groß-Eislingen</t>
+  </si>
+  <si>
+    <t>s'</t>
+  </si>
+  <si>
+    <t>III_31_0001</t>
+  </si>
+  <si>
+    <t>Z-V</t>
+  </si>
+  <si>
+    <t>Omoas</t>
+  </si>
+  <si>
+    <t>Lich (w) &lt;langen i&gt;</t>
+  </si>
+  <si>
+    <t>[Diesel (der, m)]</t>
+  </si>
+  <si>
+    <t>Dißl (w) &lt;lang. i&gt;</t>
+  </si>
+  <si>
+    <t>Flädrmu̠s (w) &lt;kurz. Ä&gt;</t>
+  </si>
+  <si>
+    <t>Gurk (a, w)</t>
+  </si>
+  <si>
+    <t>Hagabutz (a, w)</t>
+  </si>
+  <si>
+    <t>Gulsr, Henn</t>
+  </si>
+  <si>
+    <t>Erdepfl (m)</t>
+  </si>
+  <si>
+    <t>Katzrolle (m)</t>
+  </si>
+  <si>
+    <t>Schesrmu̠s (a)</t>
+  </si>
+  <si>
+    <t>Gälriɤb (w)</t>
+  </si>
+  <si>
+    <t>Fliɤg (a, w)</t>
+  </si>
+  <si>
+    <t>Moor (a, w)</t>
+  </si>
+  <si>
+    <t>Gätte (m)</t>
+  </si>
+  <si>
+    <t>Goɤßl (w)</t>
+  </si>
+  <si>
+    <t>Pflumm (a, w)</t>
+  </si>
+  <si>
+    <t>scheltɤ</t>
+  </si>
+  <si>
+    <t>Stachelbeer (a)</t>
+  </si>
+  <si>
+    <t>Glifle, Gifle</t>
+  </si>
+  <si>
+    <t>Schißl</t>
+  </si>
+  <si>
+    <t>Untertäßle</t>
+  </si>
+  <si>
+    <t>Hafɤ (a)</t>
+  </si>
+  <si>
+    <t>zwi̠gɤ</t>
+  </si>
+  <si>
+    <t>Goaß (a)</t>
+  </si>
+  <si>
+    <t>Lauterbach-Sulzbach</t>
+  </si>
+  <si>
+    <t>Jordan Sauter</t>
+  </si>
+  <si>
+    <t>Ratshausen</t>
+  </si>
+  <si>
+    <t>Balingen</t>
+  </si>
+  <si>
+    <t>Entenmann (m), Ente&lt;ɤ&gt;ma &lt;lang. A&gt;</t>
+  </si>
+  <si>
+    <t>&lt;das Zeichen ɤ = zwischen e und a&gt;</t>
   </si>
 </sst>
 </file>
@@ -3059,10 +3842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA41"/>
+  <dimension ref="A1:BA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BA1" sqref="BA1:BA1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AV34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BC47" sqref="BC47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3237,10 +4020,10 @@
         <v>42</v>
       </c>
       <c r="AV1" s="2" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="AW1" s="12" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="AX1" s="2" t="s">
         <v>43</v>
@@ -5120,7 +5903,7 @@
         <v>358</v>
       </c>
       <c r="X14" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="Y14" t="s">
         <v>225</v>
@@ -5159,7 +5942,7 @@
         <v>366</v>
       </c>
       <c r="AL14" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="AM14" t="s">
         <v>367</v>
@@ -6384,7 +7167,7 @@
         <v>593</v>
       </c>
       <c r="AX22" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="AY22" t="s">
         <v>594</v>
@@ -6661,7 +7444,7 @@
         <v>631</v>
       </c>
       <c r="AO24" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="AP24" t="s">
         <v>632</v>
@@ -6702,7 +7485,7 @@
         <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E25">
         <v>17</v>
@@ -6723,10 +7506,10 @@
         <v>815</v>
       </c>
       <c r="K25" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="L25" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="M25">
         <v>999</v>
@@ -6738,13 +7521,13 @@
         <v>380</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="S25">
         <v>999</v>
@@ -6756,22 +7539,22 @@
         <v>999</v>
       </c>
       <c r="V25" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="W25" t="s">
         <v>502</v>
       </c>
       <c r="X25" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="Y25" t="s">
         <v>534</v>
       </c>
       <c r="Z25" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="AA25" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="AB25" t="s">
         <v>581</v>
@@ -6783,28 +7566,28 @@
         <v>336</v>
       </c>
       <c r="AE25" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="AF25" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="AH25" t="s">
         <v>459</v>
       </c>
       <c r="AI25" t="s">
+        <v>659</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>660</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>661</v>
+      </c>
+      <c r="AL25" t="s">
         <v>662</v>
       </c>
-      <c r="AJ25" t="s">
+      <c r="AM25" t="s">
         <v>663</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>664</v>
-      </c>
-      <c r="AL25" t="s">
-        <v>665</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>666</v>
       </c>
       <c r="AN25" t="s">
         <v>464</v>
@@ -6825,10 +7608,10 @@
         <v>438</v>
       </c>
       <c r="AT25" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="AU25" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="AX25" t="s">
         <v>493</v>
@@ -6837,7 +7620,7 @@
         <v>442</v>
       </c>
       <c r="AZ25" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.3">
@@ -6851,7 +7634,7 @@
         <v>51</v>
       </c>
       <c r="D26" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E26">
         <v>17</v>
@@ -6872,10 +7655,10 @@
         <v>815</v>
       </c>
       <c r="K26" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="L26" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="M26">
         <v>999</v>
@@ -6887,13 +7670,13 @@
         <v>380</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="S26">
         <v>999</v>
@@ -6914,7 +7697,7 @@
         <v>452</v>
       </c>
       <c r="Y26" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="Z26" t="s">
         <v>422</v>
@@ -6935,28 +7718,28 @@
         <v>539</v>
       </c>
       <c r="AF26" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="AH26" t="s">
         <v>459</v>
       </c>
       <c r="AI26" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="AJ26" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AK26" t="s">
         <v>543</v>
       </c>
       <c r="AL26" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="AM26" t="s">
         <v>463</v>
       </c>
       <c r="AN26" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="AO26" t="s">
         <v>564</v>
@@ -6965,7 +7748,7 @@
         <v>436</v>
       </c>
       <c r="AQ26" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="AR26" t="s">
         <v>348</v>
@@ -6974,10 +7757,10 @@
         <v>438</v>
       </c>
       <c r="AT26" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="AU26" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="AX26" t="s">
         <v>441</v>
@@ -6986,7 +7769,7 @@
         <v>442</v>
       </c>
       <c r="AZ26" s="1" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="27" spans="1:53" x14ac:dyDescent="0.3">
@@ -7000,7 +7783,7 @@
         <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E27">
         <v>17</v>
@@ -7021,10 +7804,10 @@
         <v>815</v>
       </c>
       <c r="K27" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="L27" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="M27">
         <v>999</v>
@@ -7036,10 +7819,10 @@
         <v>380</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="R27">
         <v>999</v>
@@ -7054,13 +7837,13 @@
         <v>999</v>
       </c>
       <c r="V27" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="W27" t="s">
         <v>419</v>
       </c>
       <c r="X27" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="Y27" t="s">
         <v>334</v>
@@ -7069,7 +7852,7 @@
         <v>140</v>
       </c>
       <c r="AA27" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="AB27" t="s">
         <v>201</v>
@@ -7081,16 +7864,16 @@
         <v>623</v>
       </c>
       <c r="AE27" t="s">
+        <v>690</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>691</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>692</v>
+      </c>
+      <c r="AI27" t="s">
         <v>693</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>694</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>695</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>696</v>
       </c>
       <c r="AJ27" t="s">
         <v>365</v>
@@ -7111,7 +7894,7 @@
         <v>345</v>
       </c>
       <c r="AP27" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="AQ27" t="s">
         <v>371</v>
@@ -7123,7 +7906,7 @@
         <v>372</v>
       </c>
       <c r="AT27" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="AU27" t="s">
         <v>374</v>
@@ -7132,10 +7915,10 @@
         <v>493</v>
       </c>
       <c r="AY27" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="AZ27" s="1" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="28" spans="1:53" x14ac:dyDescent="0.3">
@@ -7149,7 +7932,7 @@
         <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E28">
         <v>17</v>
@@ -7170,31 +7953,31 @@
         <v>815</v>
       </c>
       <c r="K28" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="L28" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="M28">
         <v>999</v>
       </c>
       <c r="N28" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="O28" s="4" t="s">
         <v>380</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="R28">
         <v>999</v>
       </c>
       <c r="S28" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="T28" t="s">
         <v>307</v>
@@ -7203,85 +7986,85 @@
         <v>999</v>
       </c>
       <c r="V28" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="W28" s="10" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="X28" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="Y28" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="Z28" t="s">
         <v>140</v>
       </c>
       <c r="AA28" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="AB28" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="AC28" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="AD28" t="s">
         <v>360</v>
       </c>
       <c r="AE28" t="s">
+        <v>713</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>714</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>715</v>
+      </c>
+      <c r="AI28" t="s">
         <v>716</v>
       </c>
-      <c r="AF28" t="s">
+      <c r="AJ28" t="s">
         <v>717</v>
       </c>
-      <c r="AH28" t="s">
+      <c r="AK28" t="s">
         <v>718</v>
       </c>
-      <c r="AI28" t="s">
+      <c r="AL28" t="s">
         <v>719</v>
       </c>
-      <c r="AJ28" t="s">
+      <c r="AM28" t="s">
         <v>720</v>
       </c>
-      <c r="AK28" t="s">
+      <c r="AN28" t="s">
         <v>721</v>
       </c>
-      <c r="AL28" t="s">
+      <c r="AO28" t="s">
         <v>722</v>
       </c>
-      <c r="AM28" t="s">
+      <c r="AP28" t="s">
         <v>723</v>
       </c>
-      <c r="AN28" t="s">
+      <c r="AQ28" t="s">
         <v>724</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>725</v>
-      </c>
-      <c r="AP28" t="s">
-        <v>726</v>
-      </c>
-      <c r="AQ28" t="s">
-        <v>727</v>
       </c>
       <c r="AR28" t="s">
         <v>254</v>
       </c>
       <c r="AS28" t="s">
+        <v>725</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>726</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>727</v>
+      </c>
+      <c r="AX28" t="s">
         <v>728</v>
       </c>
-      <c r="AT28" t="s">
+      <c r="AY28" t="s">
         <v>729</v>
-      </c>
-      <c r="AU28" t="s">
-        <v>730</v>
-      </c>
-      <c r="AX28" t="s">
-        <v>731</v>
-      </c>
-      <c r="AY28" t="s">
-        <v>732</v>
       </c>
       <c r="AZ28" s="1" t="s">
         <v>638</v>
@@ -7298,7 +8081,7 @@
         <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E29">
         <v>17</v>
@@ -7319,10 +8102,10 @@
         <v>815</v>
       </c>
       <c r="K29" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="L29" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="M29">
         <v>999</v>
@@ -7334,13 +8117,13 @@
         <v>380</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="Q29" s="4">
         <v>888</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="S29">
         <v>999</v>
@@ -7352,16 +8135,16 @@
         <v>999</v>
       </c>
       <c r="V29" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="W29" t="s">
         <v>419</v>
       </c>
       <c r="X29" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="Y29" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="Z29" t="s">
         <v>287</v>
@@ -7370,10 +8153,10 @@
         <v>602</v>
       </c>
       <c r="AB29" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="AC29" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="AD29" t="s">
         <v>537</v>
@@ -7382,43 +8165,43 @@
         <v>604</v>
       </c>
       <c r="AF29" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="AH29" t="s">
         <v>459</v>
       </c>
       <c r="AI29" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="AK29" t="s">
         <v>543</v>
       </c>
       <c r="AL29" t="s">
+        <v>742</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>743</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>744</v>
+      </c>
+      <c r="AO29" t="s">
         <v>745</v>
       </c>
-      <c r="AM29" t="s">
+      <c r="AP29" t="s">
         <v>746</v>
       </c>
-      <c r="AN29" t="s">
+      <c r="AQ29" t="s">
         <v>747</v>
       </c>
-      <c r="AO29" t="s">
+      <c r="AR29" t="s">
         <v>748</v>
-      </c>
-      <c r="AP29" t="s">
-        <v>749</v>
-      </c>
-      <c r="AQ29" t="s">
-        <v>750</v>
-      </c>
-      <c r="AR29" t="s">
-        <v>751</v>
       </c>
       <c r="AS29" t="s">
         <v>438</v>
       </c>
       <c r="AT29" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="AU29" t="s">
         <v>548</v>
@@ -7427,13 +8210,13 @@
         <v>350</v>
       </c>
       <c r="AY29" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="AZ29" s="1" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="BA29" s="11" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.3">
@@ -7447,7 +8230,7 @@
         <v>51</v>
       </c>
       <c r="D30" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E30">
         <v>17</v>
@@ -7468,10 +8251,10 @@
         <v>815</v>
       </c>
       <c r="K30" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="L30" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="M30">
         <v>999</v>
@@ -7498,10 +8281,10 @@
         <v>54</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="V30" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="W30" t="s">
         <v>386</v>
@@ -7510,7 +8293,7 @@
         <v>999</v>
       </c>
       <c r="Y30" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="Z30">
         <v>999</v>
@@ -7522,31 +8305,31 @@
         <v>999</v>
       </c>
       <c r="AC30" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="AD30" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="AE30">
         <v>999</v>
       </c>
       <c r="AF30" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="AH30" t="s">
         <v>626</v>
       </c>
       <c r="AI30" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="AJ30" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="AK30" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="AL30" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="AM30" t="s">
         <v>367</v>
@@ -7555,10 +8338,10 @@
         <v>73</v>
       </c>
       <c r="AO30" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="AP30" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="AQ30" t="s">
         <v>371</v>
@@ -7570,16 +8353,16 @@
         <v>999</v>
       </c>
       <c r="AT30" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="AU30" t="s">
         <v>80</v>
       </c>
       <c r="AX30" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="AY30" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="AZ30" s="1" t="s">
         <v>638</v>
@@ -7596,7 +8379,7 @@
         <v>51</v>
       </c>
       <c r="D31" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E31">
         <v>17</v>
@@ -7617,10 +8400,10 @@
         <v>8.15</v>
       </c>
       <c r="K31" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="L31" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="N31" t="s">
         <v>330</v>
@@ -7629,10 +8412,10 @@
         <v>234</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="R31">
         <v>999</v>
@@ -7647,67 +8430,67 @@
         <v>999</v>
       </c>
       <c r="V31" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="W31" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="X31" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="Y31" t="s">
         <v>225</v>
       </c>
       <c r="Z31" t="s">
+        <v>772</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>773</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>774</v>
+      </c>
+      <c r="AC31" t="s">
         <v>775</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>776</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>777</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>778</v>
       </c>
       <c r="AD31" t="s">
         <v>360</v>
       </c>
       <c r="AE31" t="s">
+        <v>776</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>777</v>
+      </c>
+      <c r="AG31" s="14" t="s">
+        <v>788</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>778</v>
+      </c>
+      <c r="AI31" t="s">
         <v>779</v>
       </c>
-      <c r="AF31" t="s">
+      <c r="AJ31" t="s">
         <v>780</v>
       </c>
-      <c r="AG31" s="14" t="s">
-        <v>791</v>
-      </c>
-      <c r="AH31" t="s">
+      <c r="AK31" t="s">
         <v>781</v>
       </c>
-      <c r="AI31" t="s">
+      <c r="AL31" t="s">
         <v>782</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>783</v>
-      </c>
-      <c r="AK31" t="s">
-        <v>784</v>
-      </c>
-      <c r="AL31" t="s">
-        <v>785</v>
       </c>
       <c r="AM31" t="s">
         <v>367</v>
       </c>
       <c r="AN31" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="AO31" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="AP31" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="AQ31" t="s">
         <v>371</v>
@@ -7725,123 +8508,1782 @@
         <v>80</v>
       </c>
       <c r="AV31" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="AX31" t="s">
         <v>569</v>
       </c>
       <c r="AY31" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="AZ31" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="32" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
+      <c r="B32" s="8">
+        <v>44839</v>
+      </c>
       <c r="C32" t="s">
         <v>51</v>
       </c>
       <c r="D32" t="s">
-        <v>654</v>
+        <v>792</v>
       </c>
       <c r="E32">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>651</v>
+        <v>793</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I32">
+        <v>610</v>
+      </c>
+      <c r="J32">
+        <v>935</v>
+      </c>
+      <c r="K32" t="s">
+        <v>794</v>
+      </c>
+      <c r="L32" t="s">
+        <v>795</v>
+      </c>
+      <c r="M32" t="s">
+        <v>813</v>
+      </c>
+      <c r="N32" t="s">
+        <v>796</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="R32" t="s">
+        <v>796</v>
+      </c>
+      <c r="S32" t="s">
+        <v>234</v>
+      </c>
+      <c r="T32" t="s">
+        <v>90</v>
+      </c>
+      <c r="U32" s="1">
+        <v>999</v>
+      </c>
+      <c r="V32" t="s">
+        <v>797</v>
+      </c>
+      <c r="W32" t="s">
+        <v>57</v>
+      </c>
+      <c r="X32" t="s">
+        <v>818</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>798</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>799</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>623</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>800</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>801</v>
+      </c>
+      <c r="AG32" s="14" t="s">
+        <v>802</v>
+      </c>
+      <c r="AH32" s="14" t="s">
+        <v>803</v>
+      </c>
+      <c r="AI32" s="14" t="s">
+        <v>804</v>
+      </c>
+      <c r="AJ32" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK32" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="AL32" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM32" s="14" t="s">
+        <v>806</v>
+      </c>
+      <c r="AN32" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="AO32" s="14" t="s">
+        <v>808</v>
+      </c>
+      <c r="AP32" s="14" t="s">
+        <v>694</v>
+      </c>
+      <c r="AQ32" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="AR32" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS32" s="14" t="s">
+        <v>809</v>
+      </c>
+      <c r="AT32" s="14" t="s">
+        <v>810</v>
+      </c>
+      <c r="AU32" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="AV32" s="14" t="s">
+        <v>811</v>
+      </c>
+      <c r="AX32" s="14" t="s">
+        <v>812</v>
+      </c>
+      <c r="AY32" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="AZ32" s="1" t="s">
+        <v>377</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
+      <c r="B33" s="8">
+        <v>44839</v>
+      </c>
       <c r="C33" t="s">
         <v>51</v>
       </c>
       <c r="D33" t="s">
-        <v>654</v>
+        <v>792</v>
       </c>
       <c r="E33">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>652</v>
+        <v>816</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I33">
+        <v>610</v>
+      </c>
+      <c r="J33">
+        <v>935</v>
+      </c>
+      <c r="K33" t="s">
+        <v>794</v>
+      </c>
+      <c r="L33" t="s">
+        <v>795</v>
+      </c>
+      <c r="M33" t="s">
+        <v>813</v>
+      </c>
+      <c r="N33" t="s">
+        <v>796</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="R33" t="s">
+        <v>796</v>
+      </c>
+      <c r="S33" t="s">
+        <v>234</v>
+      </c>
+      <c r="T33" t="s">
+        <v>90</v>
+      </c>
+      <c r="U33" s="1">
+        <v>999</v>
+      </c>
+      <c r="V33" t="s">
+        <v>797</v>
+      </c>
+      <c r="W33" t="s">
+        <v>57</v>
+      </c>
+      <c r="X33" t="s">
+        <v>817</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>798</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>819</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>623</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>800</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>801</v>
+      </c>
+      <c r="AG33" s="14" t="s">
+        <v>820</v>
+      </c>
+      <c r="AH33" s="14" t="s">
+        <v>803</v>
+      </c>
+      <c r="AI33" s="14" t="s">
+        <v>804</v>
+      </c>
+      <c r="AJ33" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK33" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="AL33" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM33" s="14" t="s">
+        <v>821</v>
+      </c>
+      <c r="AN33" s="14" t="s">
+        <v>822</v>
+      </c>
+      <c r="AO33" s="14" t="s">
+        <v>808</v>
+      </c>
+      <c r="AP33" s="14" t="s">
+        <v>694</v>
+      </c>
+      <c r="AQ33" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="AR33" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS33" s="14" t="s">
+        <v>823</v>
+      </c>
+      <c r="AT33" s="14" t="s">
+        <v>810</v>
+      </c>
+      <c r="AU33" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="AV33" s="14" t="s">
+        <v>824</v>
+      </c>
+      <c r="AX33" s="14" t="s">
+        <v>812</v>
+      </c>
+      <c r="AY33" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="AZ33" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
+      <c r="B34" s="8">
+        <v>44839</v>
+      </c>
       <c r="C34" t="s">
         <v>51</v>
       </c>
       <c r="D34" t="s">
-        <v>654</v>
+        <v>792</v>
       </c>
       <c r="E34">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="F34">
+        <v>7</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>653</v>
+        <v>825</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34">
+        <v>26.1</v>
+      </c>
+      <c r="J34">
+        <v>49.34</v>
+      </c>
+      <c r="K34" t="s">
+        <v>826</v>
+      </c>
+      <c r="L34" t="s">
+        <v>855</v>
+      </c>
+      <c r="M34" t="s">
+        <v>827</v>
+      </c>
+      <c r="N34" t="s">
+        <v>796</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="R34">
+        <v>999</v>
+      </c>
+      <c r="S34">
+        <v>999</v>
+      </c>
+      <c r="T34" t="s">
+        <v>90</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="V34" t="s">
+        <v>828</v>
+      </c>
+      <c r="W34" t="s">
+        <v>829</v>
+      </c>
+      <c r="X34" t="s">
+        <v>830</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>832</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>833</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>834</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>835</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>836</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>837</v>
+      </c>
+      <c r="AG34" s="14" t="s">
+        <v>838</v>
+      </c>
+      <c r="AH34" s="14" t="s">
+        <v>839</v>
+      </c>
+      <c r="AI34" s="14" t="s">
+        <v>840</v>
+      </c>
+      <c r="AJ34" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="AK34" s="14" t="s">
+        <v>842</v>
+      </c>
+      <c r="AL34" s="14" t="s">
+        <v>843</v>
+      </c>
+      <c r="AM34" s="14" t="s">
+        <v>844</v>
+      </c>
+      <c r="AN34" s="14" t="s">
+        <v>846</v>
+      </c>
+      <c r="AO34" s="14" t="s">
+        <v>845</v>
+      </c>
+      <c r="AP34" s="14" t="s">
+        <v>847</v>
+      </c>
+      <c r="AQ34" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="AR34" s="14" t="s">
+        <v>848</v>
+      </c>
+      <c r="AS34" s="14" t="s">
+        <v>849</v>
+      </c>
+      <c r="AT34" s="14" t="s">
+        <v>850</v>
+      </c>
+      <c r="AU34" s="14" t="s">
+        <v>851</v>
+      </c>
+      <c r="AV34" s="14" t="s">
+        <v>852</v>
+      </c>
+      <c r="AX34" s="14" t="s">
+        <v>853</v>
+      </c>
+      <c r="AY34" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="AZ34" s="1" t="s">
+        <v>854</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
+      <c r="B35" s="8">
+        <v>44839</v>
+      </c>
       <c r="C35" t="s">
         <v>51</v>
       </c>
+      <c r="D35" t="s">
+        <v>792</v>
+      </c>
+      <c r="E35">
+        <v>22</v>
+      </c>
+      <c r="F35">
+        <v>7</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I35">
+        <v>26.5</v>
+      </c>
+      <c r="J35">
+        <v>49.35</v>
+      </c>
+      <c r="K35" t="s">
+        <v>860</v>
+      </c>
+      <c r="L35" t="s">
+        <v>875</v>
+      </c>
+      <c r="M35">
+        <v>999</v>
+      </c>
+      <c r="N35" t="s">
+        <v>861</v>
+      </c>
+      <c r="O35">
+        <v>999</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="R35">
+        <v>999</v>
+      </c>
+      <c r="S35">
+        <v>999</v>
+      </c>
+      <c r="T35" t="s">
+        <v>307</v>
+      </c>
+      <c r="U35" s="1">
+        <v>999</v>
+      </c>
+      <c r="V35" t="s">
+        <v>862</v>
+      </c>
+      <c r="W35" t="s">
+        <v>264</v>
+      </c>
+      <c r="X35" t="s">
+        <v>863</v>
+      </c>
+      <c r="Y35">
+        <v>999</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>864</v>
+      </c>
+      <c r="AB35">
+        <v>999</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>865</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>866</v>
+      </c>
+      <c r="AG35" s="14" t="s">
+        <v>867</v>
+      </c>
+      <c r="AH35" s="14" t="s">
+        <v>868</v>
+      </c>
+      <c r="AI35" s="14" t="s">
+        <v>804</v>
+      </c>
+      <c r="AJ35">
+        <v>999</v>
+      </c>
+      <c r="AK35" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL35" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="AM35" s="14" t="s">
+        <v>870</v>
+      </c>
+      <c r="AN35" s="14" t="s">
+        <v>871</v>
+      </c>
+      <c r="AO35">
+        <v>999</v>
+      </c>
+      <c r="AP35">
+        <v>999</v>
+      </c>
+      <c r="AQ35" s="14" t="s">
+        <v>872</v>
+      </c>
+      <c r="AR35" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS35">
+        <v>999</v>
+      </c>
+      <c r="AT35">
+        <v>999</v>
+      </c>
+      <c r="AU35">
+        <v>999</v>
+      </c>
+      <c r="AV35" s="14" t="s">
+        <v>873</v>
+      </c>
+      <c r="AX35" s="14">
+        <v>999</v>
+      </c>
+      <c r="AY35" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="AZ35" s="1" t="s">
+        <v>874</v>
+      </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
+      <c r="B36" s="8">
+        <v>44839</v>
+      </c>
       <c r="C36" t="s">
         <v>51</v>
       </c>
+      <c r="D36" t="s">
+        <v>792</v>
+      </c>
+      <c r="E36">
+        <v>22</v>
+      </c>
+      <c r="F36">
+        <v>8</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I36">
+        <v>26.5</v>
+      </c>
+      <c r="J36">
+        <v>49.35</v>
+      </c>
+      <c r="K36" t="s">
+        <v>879</v>
+      </c>
+      <c r="L36" t="s">
+        <v>880</v>
+      </c>
+      <c r="M36">
+        <v>999</v>
+      </c>
+      <c r="N36" t="s">
+        <v>861</v>
+      </c>
+      <c r="O36" t="s">
+        <v>234</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="R36">
+        <v>999</v>
+      </c>
+      <c r="S36">
+        <v>999</v>
+      </c>
+      <c r="T36" t="s">
+        <v>90</v>
+      </c>
+      <c r="U36" s="1">
+        <v>999</v>
+      </c>
+      <c r="V36" t="s">
+        <v>196</v>
+      </c>
+      <c r="W36" t="s">
+        <v>881</v>
+      </c>
+      <c r="X36" t="s">
+        <v>863</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>882</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>883</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>884</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>603</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>885</v>
+      </c>
+      <c r="AG36" s="14" t="s">
+        <v>886</v>
+      </c>
+      <c r="AH36" s="14" t="s">
+        <v>778</v>
+      </c>
+      <c r="AI36" s="14" t="s">
+        <v>887</v>
+      </c>
+      <c r="AJ36" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK36" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL36" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="AM36" s="14" t="s">
+        <v>870</v>
+      </c>
+      <c r="AN36" s="14" t="s">
+        <v>871</v>
+      </c>
+      <c r="AO36" s="14" t="s">
+        <v>889</v>
+      </c>
+      <c r="AP36" s="14" t="s">
+        <v>694</v>
+      </c>
+      <c r="AQ36" s="14" t="s">
+        <v>890</v>
+      </c>
+      <c r="AR36" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS36" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="AT36" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU36" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV36" s="14" t="s">
+        <v>873</v>
+      </c>
+      <c r="AX36" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="AY36" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="AZ36" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
+      <c r="B37" s="8">
+        <v>44839</v>
+      </c>
       <c r="C37" t="s">
         <v>51</v>
       </c>
+      <c r="D37" t="s">
+        <v>792</v>
+      </c>
+      <c r="E37">
+        <v>22</v>
+      </c>
+      <c r="F37">
+        <v>9</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I37">
+        <v>26.5</v>
+      </c>
+      <c r="J37">
+        <v>49.35</v>
+      </c>
+      <c r="K37" t="s">
+        <v>894</v>
+      </c>
+      <c r="L37" t="s">
+        <v>913</v>
+      </c>
+      <c r="M37">
+        <v>999</v>
+      </c>
+      <c r="N37" t="s">
+        <v>912</v>
+      </c>
+      <c r="O37" t="s">
+        <v>234</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="R37">
+        <v>999</v>
+      </c>
+      <c r="S37">
+        <v>999</v>
+      </c>
+      <c r="T37" t="s">
+        <v>54</v>
+      </c>
+      <c r="U37" s="1">
+        <v>999</v>
+      </c>
+      <c r="V37" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="W37" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="X37" t="s">
+        <v>896</v>
+      </c>
+      <c r="Y37">
+        <v>999</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>897</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>898</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>798</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>899</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>900</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>901</v>
+      </c>
+      <c r="AF37">
+        <v>999</v>
+      </c>
+      <c r="AG37" s="14" t="s">
+        <v>902</v>
+      </c>
+      <c r="AH37">
+        <v>999</v>
+      </c>
+      <c r="AI37" s="14" t="s">
+        <v>903</v>
+      </c>
+      <c r="AJ37" s="14" t="s">
+        <v>904</v>
+      </c>
+      <c r="AK37" s="14" t="s">
+        <v>905</v>
+      </c>
+      <c r="AL37">
+        <v>999</v>
+      </c>
+      <c r="AM37" s="14" t="s">
+        <v>906</v>
+      </c>
+      <c r="AN37" s="14" t="s">
+        <v>907</v>
+      </c>
+      <c r="AO37">
+        <v>999</v>
+      </c>
+      <c r="AP37">
+        <v>999</v>
+      </c>
+      <c r="AQ37">
+        <v>999</v>
+      </c>
+      <c r="AR37" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="AS37" s="14">
+        <v>999</v>
+      </c>
+      <c r="AT37" s="14">
+        <v>999</v>
+      </c>
+      <c r="AU37" s="14">
+        <v>999</v>
+      </c>
+      <c r="AV37" s="14" t="s">
+        <v>908</v>
+      </c>
+      <c r="AW37" s="14" t="s">
+        <v>909</v>
+      </c>
+      <c r="AX37" s="14" t="s">
+        <v>910</v>
+      </c>
+      <c r="AY37" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="AZ37" s="1" t="s">
+        <v>911</v>
+      </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
+      <c r="B38" s="8">
+        <v>44839</v>
+      </c>
       <c r="C38" t="s">
         <v>51</v>
       </c>
+      <c r="D38" t="s">
+        <v>792</v>
+      </c>
+      <c r="E38">
+        <v>22</v>
+      </c>
+      <c r="F38">
+        <v>12</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I38">
+        <v>26.5</v>
+      </c>
+      <c r="J38">
+        <v>49.35</v>
+      </c>
+      <c r="K38" t="s">
+        <v>917</v>
+      </c>
+      <c r="L38" t="s">
+        <v>918</v>
+      </c>
+      <c r="M38">
+        <v>999</v>
+      </c>
+      <c r="N38" t="s">
+        <v>861</v>
+      </c>
+      <c r="O38" t="s">
+        <v>234</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="R38" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="S38">
+        <v>999</v>
+      </c>
+      <c r="T38" t="s">
+        <v>307</v>
+      </c>
+      <c r="U38" s="1">
+        <v>999</v>
+      </c>
+      <c r="V38" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="W38" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="X38" t="s">
+        <v>920</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>921</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>922</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>923</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>924</v>
+      </c>
+      <c r="AG38" s="14" t="s">
+        <v>925</v>
+      </c>
+      <c r="AH38" s="14" t="s">
+        <v>926</v>
+      </c>
+      <c r="AI38" s="14" t="s">
+        <v>804</v>
+      </c>
+      <c r="AJ38" s="14" t="s">
+        <v>927</v>
+      </c>
+      <c r="AK38" s="14" t="s">
+        <v>928</v>
+      </c>
+      <c r="AL38" s="14" t="s">
+        <v>929</v>
+      </c>
+      <c r="AM38" s="14" t="s">
+        <v>870</v>
+      </c>
+      <c r="AN38" s="14" t="s">
+        <v>930</v>
+      </c>
+      <c r="AO38" s="14" t="s">
+        <v>889</v>
+      </c>
+      <c r="AP38" s="14" t="s">
+        <v>694</v>
+      </c>
+      <c r="AQ38" s="14" t="s">
+        <v>931</v>
+      </c>
+      <c r="AR38" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS38" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="AT38" s="14" t="s">
+        <v>932</v>
+      </c>
+      <c r="AU38" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV38" s="14" t="s">
+        <v>933</v>
+      </c>
+      <c r="AX38" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="AY38" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="AZ38" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
+      <c r="B39" s="8">
+        <v>44840</v>
+      </c>
       <c r="C39" t="s">
         <v>51</v>
       </c>
+      <c r="D39" t="s">
+        <v>651</v>
+      </c>
+      <c r="E39">
+        <v>17</v>
+      </c>
+      <c r="F39">
+        <v>7</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I39">
+        <v>26</v>
+      </c>
+      <c r="J39">
+        <v>48.15</v>
+      </c>
+      <c r="K39" t="s">
+        <v>938</v>
+      </c>
+      <c r="L39" t="s">
+        <v>939</v>
+      </c>
+      <c r="M39">
+        <v>999</v>
+      </c>
+      <c r="N39" t="s">
+        <v>330</v>
+      </c>
+      <c r="O39" t="s">
+        <v>234</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="R39" s="4">
+        <v>999</v>
+      </c>
+      <c r="S39">
+        <v>999</v>
+      </c>
+      <c r="T39" t="s">
+        <v>54</v>
+      </c>
+      <c r="U39" s="1">
+        <v>999</v>
+      </c>
+      <c r="V39" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="W39" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="X39" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>941</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>942</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>943</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>603</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>944</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>945</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>924</v>
+      </c>
+      <c r="AG39" s="14" t="s">
+        <v>946</v>
+      </c>
+      <c r="AH39" s="14" t="s">
+        <v>778</v>
+      </c>
+      <c r="AI39" s="14" t="s">
+        <v>947</v>
+      </c>
+      <c r="AJ39" s="14" t="s">
+        <v>948</v>
+      </c>
+      <c r="AK39" s="14" t="s">
+        <v>949</v>
+      </c>
+      <c r="AL39" s="14" t="s">
+        <v>950</v>
+      </c>
+      <c r="AM39" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN39" s="14" t="s">
+        <v>951</v>
+      </c>
+      <c r="AO39" s="14" t="s">
+        <v>952</v>
+      </c>
+      <c r="AP39" s="14" t="s">
+        <v>953</v>
+      </c>
+      <c r="AQ39" s="14" t="s">
+        <v>747</v>
+      </c>
+      <c r="AR39" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="AS39" s="14" t="s">
+        <v>954</v>
+      </c>
+      <c r="AT39" s="14" t="s">
+        <v>955</v>
+      </c>
+      <c r="AU39" s="14" t="s">
+        <v>956</v>
+      </c>
+      <c r="AV39" s="14" t="s">
+        <v>957</v>
+      </c>
+      <c r="AX39" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="AY39" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="AZ39" s="1" t="s">
+        <v>958</v>
+      </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
+      <c r="B40" s="8">
+        <v>44840</v>
+      </c>
       <c r="C40" t="s">
         <v>51</v>
       </c>
+      <c r="D40" t="s">
+        <v>651</v>
+      </c>
+      <c r="E40">
+        <v>17</v>
+      </c>
+      <c r="F40">
+        <v>8</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I40">
+        <v>60</v>
+      </c>
+      <c r="J40">
+        <v>815</v>
+      </c>
+      <c r="K40" t="s">
+        <v>962</v>
+      </c>
+      <c r="L40" t="s">
+        <v>963</v>
+      </c>
+      <c r="M40">
+        <v>999</v>
+      </c>
+      <c r="N40" t="s">
+        <v>497</v>
+      </c>
+      <c r="O40" t="s">
+        <v>573</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="R40" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="S40">
+        <v>999</v>
+      </c>
+      <c r="T40" t="s">
+        <v>191</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="V40" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="W40" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="X40" t="s">
+        <v>966</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>967</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>968</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>969</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>970</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>971</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>944</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>361</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>972</v>
+      </c>
+      <c r="AG40" s="14" t="s">
+        <v>973</v>
+      </c>
+      <c r="AH40" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="AI40" s="14" t="s">
+        <v>974</v>
+      </c>
+      <c r="AJ40" s="14" t="s">
+        <v>975</v>
+      </c>
+      <c r="AK40" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="AL40" s="14" t="s">
+        <v>976</v>
+      </c>
+      <c r="AM40" s="14" t="s">
+        <v>977</v>
+      </c>
+      <c r="AN40" s="14" t="s">
+        <v>978</v>
+      </c>
+      <c r="AO40" s="14" t="s">
+        <v>979</v>
+      </c>
+      <c r="AP40" s="14" t="s">
+        <v>980</v>
+      </c>
+      <c r="AQ40" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="AR40" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS40" s="14" t="s">
+        <v>981</v>
+      </c>
+      <c r="AT40" s="14" t="s">
+        <v>982</v>
+      </c>
+      <c r="AU40" s="14" t="s">
+        <v>983</v>
+      </c>
+      <c r="AV40" s="14" t="s">
+        <v>984</v>
+      </c>
+      <c r="AX40" s="14" t="s">
+        <v>985</v>
+      </c>
+      <c r="AY40" s="14" t="s">
+        <v>986</v>
+      </c>
+      <c r="AZ40" s="1" t="s">
+        <v>987</v>
+      </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
+      <c r="B41" s="8">
+        <v>44840</v>
+      </c>
       <c r="C41" t="s">
         <v>51</v>
+      </c>
+      <c r="D41" t="s">
+        <v>651</v>
+      </c>
+      <c r="E41">
+        <v>17</v>
+      </c>
+      <c r="F41">
+        <v>9</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I41">
+        <v>60</v>
+      </c>
+      <c r="J41">
+        <v>815</v>
+      </c>
+      <c r="K41" t="s">
+        <v>993</v>
+      </c>
+      <c r="L41" t="s">
+        <v>1017</v>
+      </c>
+      <c r="N41" t="s">
+        <v>497</v>
+      </c>
+      <c r="O41" t="s">
+        <v>380</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="R41" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="S41">
+        <v>999</v>
+      </c>
+      <c r="T41" t="s">
+        <v>90</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="V41" t="s">
+        <v>994</v>
+      </c>
+      <c r="W41" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="X41" t="s">
+        <v>995</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>1027</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>996</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>997</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>998</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>999</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>1002</v>
+      </c>
+      <c r="AG41" s="14" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AH41" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="AI41" s="14" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AJ41" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="AK41" s="14" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AL41" s="14" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AM41" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="AN41" s="14" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AO41" s="14" t="s">
+        <v>1008</v>
+      </c>
+      <c r="AP41" s="14" t="s">
+        <v>1009</v>
+      </c>
+      <c r="AQ41" s="14" t="s">
+        <v>1010</v>
+      </c>
+      <c r="AR41" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="AS41" s="14" t="s">
+        <v>1011</v>
+      </c>
+      <c r="AT41" s="14" t="s">
+        <v>1012</v>
+      </c>
+      <c r="AU41" s="14" t="s">
+        <v>1013</v>
+      </c>
+      <c r="AV41" s="14" t="s">
+        <v>1014</v>
+      </c>
+      <c r="AW41" s="14" t="s">
+        <v>1015</v>
+      </c>
+      <c r="AX41" s="14" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AY41" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="AZ41" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="42" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8">
+        <v>44840</v>
+      </c>
+      <c r="C42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E42">
+        <v>17</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I42">
+        <v>60</v>
+      </c>
+      <c r="J42">
+        <v>810</v>
+      </c>
+      <c r="K42" t="s">
+        <v>1024</v>
+      </c>
+      <c r="L42" t="s">
+        <v>1050</v>
+      </c>
+      <c r="N42" t="s">
+        <v>497</v>
+      </c>
+      <c r="O42" t="s">
+        <v>380</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="R42" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="S42">
+        <v>999</v>
+      </c>
+      <c r="T42" t="s">
+        <v>90</v>
+      </c>
+      <c r="U42" s="1">
+        <v>999</v>
+      </c>
+      <c r="V42" t="s">
+        <v>1025</v>
+      </c>
+      <c r="W42" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="X42" t="s">
+        <v>737</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>1028</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>1029</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>1030</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>1031</v>
+      </c>
+      <c r="AG42" s="14" t="s">
+        <v>1032</v>
+      </c>
+      <c r="AH42" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="AI42" s="14" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AJ42" s="14" t="s">
+        <v>1034</v>
+      </c>
+      <c r="AK42" s="14" t="s">
+        <v>1035</v>
+      </c>
+      <c r="AL42" s="14" t="s">
+        <v>1036</v>
+      </c>
+      <c r="AM42" s="14" t="s">
+        <v>1038</v>
+      </c>
+      <c r="AN42" s="14" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AO42" s="14" t="s">
+        <v>1040</v>
+      </c>
+      <c r="AP42" s="14" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AQ42" s="14" t="s">
+        <v>1042</v>
+      </c>
+      <c r="AR42" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="AS42" s="14" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AT42" s="14" t="s">
+        <v>1044</v>
+      </c>
+      <c r="AU42" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="AV42" s="14" t="s">
+        <v>1045</v>
+      </c>
+      <c r="AW42" s="14" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AX42" s="14" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AY42" s="14" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AZ42" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="BA42" s="11" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="43" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Data/DWA_JH.xlsx
+++ b/Data/DWA_JH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA048DA5-BC88-466E-8FC3-B42153D29767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2C49B7-7632-4597-9736-28FE9425AEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="1056">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="1056">
   <si>
     <t>ID</t>
   </si>
@@ -2492,9 +2492,6 @@
     <t>Goasl (w)</t>
   </si>
   <si>
-    <t xml:space="preserve">[?] Zwetschg (w),Pflum(e) (w) &lt;=Mirabelle&gt; </t>
-  </si>
-  <si>
     <t>schelde</t>
   </si>
   <si>
@@ -3420,6 +3417,9 @@
   </si>
   <si>
     <t>&lt;das Zeichen ɤ = zwischen e und a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[?] Zwetschg (w), Pflum[e] (w) &lt;=Mirabelle&gt; </t>
   </si>
 </sst>
 </file>
@@ -3844,8 +3844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BC47" sqref="BC47"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AX50" sqref="AX50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4020,10 +4020,10 @@
         <v>42</v>
       </c>
       <c r="AV1" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="AW1" s="12" t="s">
         <v>789</v>
-      </c>
-      <c r="AW1" s="12" t="s">
-        <v>790</v>
       </c>
       <c r="AX1" s="2" t="s">
         <v>43</v>
@@ -8105,7 +8105,7 @@
         <v>735</v>
       </c>
       <c r="L29" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="M29">
         <v>999</v>
@@ -8117,7 +8117,7 @@
         <v>380</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="Q29" s="4">
         <v>888</v>
@@ -8189,19 +8189,19 @@
         <v>745</v>
       </c>
       <c r="AP29" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AQ29" t="s">
         <v>746</v>
       </c>
-      <c r="AQ29" t="s">
+      <c r="AR29" t="s">
         <v>747</v>
-      </c>
-      <c r="AR29" t="s">
-        <v>748</v>
       </c>
       <c r="AS29" t="s">
         <v>438</v>
       </c>
       <c r="AT29" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AU29" t="s">
         <v>548</v>
@@ -8210,13 +8210,13 @@
         <v>350</v>
       </c>
       <c r="AY29" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="AZ29" s="1" t="s">
         <v>681</v>
       </c>
       <c r="BA29" s="11" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.3">
@@ -8254,7 +8254,7 @@
         <v>735</v>
       </c>
       <c r="L30" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="M30">
         <v>999</v>
@@ -8281,10 +8281,10 @@
         <v>54</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="V30" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="W30" t="s">
         <v>386</v>
@@ -8293,7 +8293,7 @@
         <v>999</v>
       </c>
       <c r="Y30" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="Z30">
         <v>999</v>
@@ -8308,28 +8308,28 @@
         <v>712</v>
       </c>
       <c r="AD30" t="s">
+        <v>754</v>
+      </c>
+      <c r="AE30">
+        <v>999</v>
+      </c>
+      <c r="AF30" t="s">
         <v>755</v>
-      </c>
-      <c r="AE30">
-        <v>999</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>756</v>
       </c>
       <c r="AH30" t="s">
         <v>626</v>
       </c>
       <c r="AI30" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AJ30" t="s">
         <v>717</v>
       </c>
       <c r="AK30" t="s">
+        <v>757</v>
+      </c>
+      <c r="AL30" t="s">
         <v>758</v>
-      </c>
-      <c r="AL30" t="s">
-        <v>759</v>
       </c>
       <c r="AM30" t="s">
         <v>367</v>
@@ -8338,10 +8338,10 @@
         <v>73</v>
       </c>
       <c r="AO30" t="s">
+        <v>759</v>
+      </c>
+      <c r="AP30" t="s">
         <v>760</v>
-      </c>
-      <c r="AP30" t="s">
-        <v>761</v>
       </c>
       <c r="AQ30" t="s">
         <v>371</v>
@@ -8353,16 +8353,16 @@
         <v>999</v>
       </c>
       <c r="AT30" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AU30" t="s">
         <v>80</v>
       </c>
       <c r="AX30" t="s">
+        <v>762</v>
+      </c>
+      <c r="AY30" t="s">
         <v>763</v>
-      </c>
-      <c r="AY30" t="s">
-        <v>764</v>
       </c>
       <c r="AZ30" s="1" t="s">
         <v>638</v>
@@ -8400,10 +8400,10 @@
         <v>8.15</v>
       </c>
       <c r="K31" t="s">
+        <v>766</v>
+      </c>
+      <c r="L31" t="s">
         <v>767</v>
-      </c>
-      <c r="L31" t="s">
-        <v>768</v>
       </c>
       <c r="N31" t="s">
         <v>330</v>
@@ -8412,10 +8412,10 @@
         <v>234</v>
       </c>
       <c r="P31" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="Q31" s="4" t="s">
         <v>786</v>
-      </c>
-      <c r="Q31" s="4" t="s">
-        <v>787</v>
       </c>
       <c r="R31">
         <v>999</v>
@@ -8430,67 +8430,67 @@
         <v>999</v>
       </c>
       <c r="V31" t="s">
+        <v>768</v>
+      </c>
+      <c r="W31" t="s">
         <v>769</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>770</v>
-      </c>
-      <c r="X31" t="s">
-        <v>771</v>
       </c>
       <c r="Y31" t="s">
         <v>225</v>
       </c>
       <c r="Z31" t="s">
+        <v>771</v>
+      </c>
+      <c r="AA31" t="s">
         <v>772</v>
       </c>
-      <c r="AA31" t="s">
+      <c r="AB31" t="s">
         <v>773</v>
       </c>
-      <c r="AB31" t="s">
+      <c r="AC31" t="s">
         <v>774</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>775</v>
       </c>
       <c r="AD31" t="s">
         <v>360</v>
       </c>
       <c r="AE31" t="s">
+        <v>775</v>
+      </c>
+      <c r="AF31" t="s">
         <v>776</v>
       </c>
-      <c r="AF31" t="s">
+      <c r="AG31" s="14" t="s">
+        <v>787</v>
+      </c>
+      <c r="AH31" t="s">
         <v>777</v>
       </c>
-      <c r="AG31" s="14" t="s">
-        <v>788</v>
-      </c>
-      <c r="AH31" t="s">
+      <c r="AI31" t="s">
         <v>778</v>
       </c>
-      <c r="AI31" t="s">
+      <c r="AJ31" t="s">
         <v>779</v>
       </c>
-      <c r="AJ31" t="s">
+      <c r="AK31" t="s">
         <v>780</v>
       </c>
-      <c r="AK31" t="s">
+      <c r="AL31" t="s">
         <v>781</v>
-      </c>
-      <c r="AL31" t="s">
-        <v>782</v>
       </c>
       <c r="AM31" t="s">
         <v>367</v>
       </c>
       <c r="AN31" t="s">
+        <v>782</v>
+      </c>
+      <c r="AO31" t="s">
         <v>783</v>
       </c>
-      <c r="AO31" t="s">
-        <v>784</v>
-      </c>
       <c r="AP31" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AQ31" t="s">
         <v>371</v>
@@ -8508,16 +8508,16 @@
         <v>80</v>
       </c>
       <c r="AV31" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AX31" t="s">
         <v>569</v>
       </c>
       <c r="AY31" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="AZ31" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="32" spans="1:53" x14ac:dyDescent="0.3">
@@ -8531,7 +8531,7 @@
         <v>51</v>
       </c>
       <c r="D32" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E32">
         <v>18</v>
@@ -8540,7 +8540,7 @@
         <v>6</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>54</v>
@@ -8552,28 +8552,28 @@
         <v>935</v>
       </c>
       <c r="K32" t="s">
+        <v>793</v>
+      </c>
+      <c r="L32" t="s">
         <v>794</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
+        <v>812</v>
+      </c>
+      <c r="N32" t="s">
         <v>795</v>
-      </c>
-      <c r="M32" t="s">
-        <v>813</v>
-      </c>
-      <c r="N32" t="s">
-        <v>796</v>
       </c>
       <c r="O32" s="4" t="s">
         <v>353</v>
       </c>
       <c r="P32" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="Q32" s="4" t="s">
         <v>814</v>
       </c>
-      <c r="Q32" s="4" t="s">
-        <v>815</v>
-      </c>
       <c r="R32" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="S32" t="s">
         <v>234</v>
@@ -8585,13 +8585,13 @@
         <v>999</v>
       </c>
       <c r="V32" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="W32" t="s">
         <v>57</v>
       </c>
       <c r="X32" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="Y32" t="s">
         <v>199</v>
@@ -8603,46 +8603,46 @@
         <v>61</v>
       </c>
       <c r="AB32" t="s">
+        <v>797</v>
+      </c>
+      <c r="AC32" t="s">
         <v>798</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>799</v>
       </c>
       <c r="AD32" t="s">
         <v>623</v>
       </c>
       <c r="AE32" t="s">
+        <v>799</v>
+      </c>
+      <c r="AF32" t="s">
         <v>800</v>
       </c>
-      <c r="AF32" t="s">
+      <c r="AG32" s="14" t="s">
         <v>801</v>
       </c>
-      <c r="AG32" s="14" t="s">
+      <c r="AH32" s="14" t="s">
         <v>802</v>
       </c>
-      <c r="AH32" s="14" t="s">
+      <c r="AI32" s="14" t="s">
         <v>803</v>
-      </c>
-      <c r="AI32" s="14" t="s">
-        <v>804</v>
       </c>
       <c r="AJ32" s="14" t="s">
         <v>69</v>
       </c>
       <c r="AK32" s="14" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AL32" s="14" t="s">
         <v>207</v>
       </c>
       <c r="AM32" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="AN32" s="14" t="s">
         <v>806</v>
       </c>
-      <c r="AN32" s="14" t="s">
+      <c r="AO32" s="14" t="s">
         <v>807</v>
-      </c>
-      <c r="AO32" s="14" t="s">
-        <v>808</v>
       </c>
       <c r="AP32" s="14" t="s">
         <v>694</v>
@@ -8654,19 +8654,19 @@
         <v>77</v>
       </c>
       <c r="AS32" s="14" t="s">
+        <v>808</v>
+      </c>
+      <c r="AT32" s="14" t="s">
         <v>809</v>
-      </c>
-      <c r="AT32" s="14" t="s">
-        <v>810</v>
       </c>
       <c r="AU32" s="14" t="s">
         <v>374</v>
       </c>
       <c r="AV32" s="14" t="s">
+        <v>810</v>
+      </c>
+      <c r="AX32" s="14" t="s">
         <v>811</v>
-      </c>
-      <c r="AX32" s="14" t="s">
-        <v>812</v>
       </c>
       <c r="AY32" s="14" t="s">
         <v>494</v>
@@ -8686,7 +8686,7 @@
         <v>51</v>
       </c>
       <c r="D33" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E33">
         <v>18</v>
@@ -8695,7 +8695,7 @@
         <v>6</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>54</v>
@@ -8707,28 +8707,28 @@
         <v>935</v>
       </c>
       <c r="K33" t="s">
+        <v>793</v>
+      </c>
+      <c r="L33" t="s">
         <v>794</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
+        <v>812</v>
+      </c>
+      <c r="N33" t="s">
         <v>795</v>
-      </c>
-      <c r="M33" t="s">
-        <v>813</v>
-      </c>
-      <c r="N33" t="s">
-        <v>796</v>
       </c>
       <c r="O33" s="4" t="s">
         <v>353</v>
       </c>
       <c r="P33" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="Q33" s="4" t="s">
         <v>814</v>
       </c>
-      <c r="Q33" s="4" t="s">
-        <v>815</v>
-      </c>
       <c r="R33" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="S33" t="s">
         <v>234</v>
@@ -8740,13 +8740,13 @@
         <v>999</v>
       </c>
       <c r="V33" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="W33" t="s">
         <v>57</v>
       </c>
       <c r="X33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="Y33" t="s">
         <v>199</v>
@@ -8758,46 +8758,46 @@
         <v>61</v>
       </c>
       <c r="AB33" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AC33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AD33" t="s">
         <v>623</v>
       </c>
       <c r="AE33" t="s">
+        <v>799</v>
+      </c>
+      <c r="AF33" t="s">
         <v>800</v>
       </c>
-      <c r="AF33" t="s">
-        <v>801</v>
-      </c>
       <c r="AG33" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="AH33" s="14" t="s">
+        <v>802</v>
+      </c>
+      <c r="AI33" s="14" t="s">
         <v>803</v>
-      </c>
-      <c r="AI33" s="14" t="s">
-        <v>804</v>
       </c>
       <c r="AJ33" s="14" t="s">
         <v>69</v>
       </c>
       <c r="AK33" s="14" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AL33" s="14" t="s">
         <v>207</v>
       </c>
       <c r="AM33" s="14" t="s">
+        <v>820</v>
+      </c>
+      <c r="AN33" s="14" t="s">
         <v>821</v>
       </c>
-      <c r="AN33" s="14" t="s">
-        <v>822</v>
-      </c>
       <c r="AO33" s="14" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="AP33" s="14" t="s">
         <v>694</v>
@@ -8809,19 +8809,19 @@
         <v>77</v>
       </c>
       <c r="AS33" s="14" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AT33" s="14" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="AU33" s="14" t="s">
         <v>374</v>
       </c>
       <c r="AV33" s="14" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="AX33" s="14" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AY33" s="14" t="s">
         <v>494</v>
@@ -8841,7 +8841,7 @@
         <v>51</v>
       </c>
       <c r="D34" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E34">
         <v>18</v>
@@ -8850,7 +8850,7 @@
         <v>7</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>54</v>
@@ -8862,25 +8862,25 @@
         <v>49.34</v>
       </c>
       <c r="K34" t="s">
+        <v>825</v>
+      </c>
+      <c r="L34" t="s">
+        <v>854</v>
+      </c>
+      <c r="M34" t="s">
         <v>826</v>
       </c>
-      <c r="L34" t="s">
-        <v>855</v>
-      </c>
-      <c r="M34" t="s">
-        <v>827</v>
-      </c>
       <c r="N34" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="O34" s="4" t="s">
         <v>234</v>
       </c>
       <c r="P34" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="Q34" s="4" t="s">
         <v>856</v>
-      </c>
-      <c r="Q34" s="4" t="s">
-        <v>857</v>
       </c>
       <c r="R34">
         <v>999</v>
@@ -8892,97 +8892,97 @@
         <v>90</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="V34" t="s">
+        <v>827</v>
+      </c>
+      <c r="W34" t="s">
         <v>828</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>829</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>830</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>831</v>
       </c>
       <c r="Z34" t="s">
         <v>422</v>
       </c>
       <c r="AA34" t="s">
+        <v>831</v>
+      </c>
+      <c r="AB34" t="s">
         <v>832</v>
       </c>
-      <c r="AB34" t="s">
+      <c r="AC34" t="s">
         <v>833</v>
       </c>
-      <c r="AC34" t="s">
+      <c r="AD34" t="s">
         <v>834</v>
       </c>
-      <c r="AD34" t="s">
+      <c r="AE34" t="s">
         <v>835</v>
       </c>
-      <c r="AE34" t="s">
+      <c r="AF34" t="s">
         <v>836</v>
       </c>
-      <c r="AF34" t="s">
+      <c r="AG34" s="14" t="s">
         <v>837</v>
       </c>
-      <c r="AG34" s="14" t="s">
+      <c r="AH34" s="14" t="s">
         <v>838</v>
       </c>
-      <c r="AH34" s="14" t="s">
+      <c r="AI34" s="14" t="s">
         <v>839</v>
       </c>
-      <c r="AI34" s="14" t="s">
+      <c r="AJ34" s="14" t="s">
         <v>840</v>
       </c>
-      <c r="AJ34" s="14" t="s">
+      <c r="AK34" s="14" t="s">
         <v>841</v>
       </c>
-      <c r="AK34" s="14" t="s">
+      <c r="AL34" s="14" t="s">
         <v>842</v>
       </c>
-      <c r="AL34" s="14" t="s">
+      <c r="AM34" s="14" t="s">
         <v>843</v>
       </c>
-      <c r="AM34" s="14" t="s">
+      <c r="AN34" s="14" t="s">
+        <v>845</v>
+      </c>
+      <c r="AO34" s="14" t="s">
         <v>844</v>
       </c>
-      <c r="AN34" s="14" t="s">
+      <c r="AP34" s="14" t="s">
         <v>846</v>
-      </c>
-      <c r="AO34" s="14" t="s">
-        <v>845</v>
-      </c>
-      <c r="AP34" s="14" t="s">
-        <v>847</v>
       </c>
       <c r="AQ34" s="14" t="s">
         <v>154</v>
       </c>
       <c r="AR34" s="14" t="s">
+        <v>847</v>
+      </c>
+      <c r="AS34" s="14" t="s">
         <v>848</v>
       </c>
-      <c r="AS34" s="14" t="s">
+      <c r="AT34" s="14" t="s">
         <v>849</v>
       </c>
-      <c r="AT34" s="14" t="s">
+      <c r="AU34" s="14" t="s">
         <v>850</v>
       </c>
-      <c r="AU34" s="14" t="s">
+      <c r="AV34" s="14" t="s">
         <v>851</v>
       </c>
-      <c r="AV34" s="14" t="s">
+      <c r="AX34" s="14" t="s">
         <v>852</v>
-      </c>
-      <c r="AX34" s="14" t="s">
-        <v>853</v>
       </c>
       <c r="AY34" s="14" t="s">
         <v>351</v>
       </c>
       <c r="AZ34" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="35" spans="1:53" x14ac:dyDescent="0.3">
@@ -8996,7 +8996,7 @@
         <v>51</v>
       </c>
       <c r="D35" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E35">
         <v>22</v>
@@ -9005,7 +9005,7 @@
         <v>7</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>54</v>
@@ -9017,25 +9017,25 @@
         <v>49.35</v>
       </c>
       <c r="K35" t="s">
+        <v>859</v>
+      </c>
+      <c r="L35" t="s">
+        <v>874</v>
+      </c>
+      <c r="M35">
+        <v>999</v>
+      </c>
+      <c r="N35" t="s">
         <v>860</v>
       </c>
-      <c r="L35" t="s">
+      <c r="O35">
+        <v>999</v>
+      </c>
+      <c r="P35" s="4" t="s">
         <v>875</v>
       </c>
-      <c r="M35">
-        <v>999</v>
-      </c>
-      <c r="N35" t="s">
-        <v>861</v>
-      </c>
-      <c r="O35">
-        <v>999</v>
-      </c>
-      <c r="P35" s="4" t="s">
+      <c r="Q35" s="4" t="s">
         <v>876</v>
-      </c>
-      <c r="Q35" s="4" t="s">
-        <v>877</v>
       </c>
       <c r="R35">
         <v>999</v>
@@ -9050,13 +9050,13 @@
         <v>999</v>
       </c>
       <c r="V35" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="W35" t="s">
         <v>264</v>
       </c>
       <c r="X35" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="Y35">
         <v>999</v>
@@ -9065,7 +9065,7 @@
         <v>140</v>
       </c>
       <c r="AA35" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AB35">
         <v>999</v>
@@ -9074,22 +9074,22 @@
         <v>63</v>
       </c>
       <c r="AD35" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="AE35" t="s">
         <v>175</v>
       </c>
       <c r="AF35" t="s">
+        <v>865</v>
+      </c>
+      <c r="AG35" s="14" t="s">
         <v>866</v>
       </c>
-      <c r="AG35" s="14" t="s">
+      <c r="AH35" s="14" t="s">
         <v>867</v>
       </c>
-      <c r="AH35" s="14" t="s">
-        <v>868</v>
-      </c>
       <c r="AI35" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AJ35">
         <v>999</v>
@@ -9098,22 +9098,22 @@
         <v>206</v>
       </c>
       <c r="AL35" s="14" t="s">
+        <v>868</v>
+      </c>
+      <c r="AM35" s="14" t="s">
         <v>869</v>
       </c>
-      <c r="AM35" s="14" t="s">
+      <c r="AN35" s="14" t="s">
         <v>870</v>
       </c>
-      <c r="AN35" s="14" t="s">
+      <c r="AO35">
+        <v>999</v>
+      </c>
+      <c r="AP35">
+        <v>999</v>
+      </c>
+      <c r="AQ35" s="14" t="s">
         <v>871</v>
-      </c>
-      <c r="AO35">
-        <v>999</v>
-      </c>
-      <c r="AP35">
-        <v>999</v>
-      </c>
-      <c r="AQ35" s="14" t="s">
-        <v>872</v>
       </c>
       <c r="AR35" s="14" t="s">
         <v>77</v>
@@ -9128,7 +9128,7 @@
         <v>999</v>
       </c>
       <c r="AV35" s="14" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="AX35" s="14">
         <v>999</v>
@@ -9137,7 +9137,7 @@
         <v>494</v>
       </c>
       <c r="AZ35" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="36" spans="1:53" x14ac:dyDescent="0.3">
@@ -9151,7 +9151,7 @@
         <v>51</v>
       </c>
       <c r="D36" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E36">
         <v>22</v>
@@ -9160,7 +9160,7 @@
         <v>8</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>54</v>
@@ -9172,25 +9172,25 @@
         <v>49.35</v>
       </c>
       <c r="K36" t="s">
+        <v>878</v>
+      </c>
+      <c r="L36" t="s">
         <v>879</v>
       </c>
-      <c r="L36" t="s">
-        <v>880</v>
-      </c>
       <c r="M36">
         <v>999</v>
       </c>
       <c r="N36" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="O36" t="s">
         <v>234</v>
       </c>
       <c r="P36" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="Q36" s="4" t="s">
         <v>891</v>
-      </c>
-      <c r="Q36" s="4" t="s">
-        <v>892</v>
       </c>
       <c r="R36">
         <v>999</v>
@@ -9208,22 +9208,22 @@
         <v>196</v>
       </c>
       <c r="W36" t="s">
+        <v>880</v>
+      </c>
+      <c r="X36" t="s">
+        <v>862</v>
+      </c>
+      <c r="Y36" t="s">
         <v>881</v>
-      </c>
-      <c r="X36" t="s">
-        <v>863</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>882</v>
       </c>
       <c r="Z36" t="s">
         <v>140</v>
       </c>
       <c r="AA36" t="s">
+        <v>882</v>
+      </c>
+      <c r="AB36" t="s">
         <v>883</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>884</v>
       </c>
       <c r="AC36" t="s">
         <v>603</v>
@@ -9235,16 +9235,16 @@
         <v>175</v>
       </c>
       <c r="AF36" t="s">
+        <v>884</v>
+      </c>
+      <c r="AG36" s="14" t="s">
         <v>885</v>
       </c>
-      <c r="AG36" s="14" t="s">
+      <c r="AH36" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="AI36" s="14" t="s">
         <v>886</v>
-      </c>
-      <c r="AH36" s="14" t="s">
-        <v>778</v>
-      </c>
-      <c r="AI36" s="14" t="s">
-        <v>887</v>
       </c>
       <c r="AJ36" s="14" t="s">
         <v>69</v>
@@ -9253,22 +9253,22 @@
         <v>206</v>
       </c>
       <c r="AL36" s="14" t="s">
+        <v>887</v>
+      </c>
+      <c r="AM36" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="AN36" s="14" t="s">
+        <v>870</v>
+      </c>
+      <c r="AO36" s="14" t="s">
         <v>888</v>
-      </c>
-      <c r="AM36" s="14" t="s">
-        <v>870</v>
-      </c>
-      <c r="AN36" s="14" t="s">
-        <v>871</v>
-      </c>
-      <c r="AO36" s="14" t="s">
-        <v>889</v>
       </c>
       <c r="AP36" s="14" t="s">
         <v>694</v>
       </c>
       <c r="AQ36" s="14" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="AR36" s="14" t="s">
         <v>77</v>
@@ -9283,7 +9283,7 @@
         <v>80</v>
       </c>
       <c r="AV36" s="14" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="AX36" s="14" t="s">
         <v>636</v>
@@ -9306,7 +9306,7 @@
         <v>51</v>
       </c>
       <c r="D37" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E37">
         <v>22</v>
@@ -9315,7 +9315,7 @@
         <v>9</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>54</v>
@@ -9327,25 +9327,25 @@
         <v>49.35</v>
       </c>
       <c r="K37" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="L37" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="M37">
         <v>999</v>
       </c>
       <c r="N37" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="O37" t="s">
         <v>234</v>
       </c>
       <c r="P37" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="Q37" s="4" t="s">
         <v>914</v>
-      </c>
-      <c r="Q37" s="4" t="s">
-        <v>915</v>
       </c>
       <c r="R37">
         <v>999</v>
@@ -9360,61 +9360,61 @@
         <v>999</v>
       </c>
       <c r="V37" s="4" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="W37" s="4" t="s">
         <v>264</v>
       </c>
       <c r="X37" t="s">
+        <v>895</v>
+      </c>
+      <c r="Y37">
+        <v>999</v>
+      </c>
+      <c r="Z37" t="s">
         <v>896</v>
       </c>
-      <c r="Y37">
-        <v>999</v>
-      </c>
-      <c r="Z37" t="s">
+      <c r="AA37" t="s">
         <v>897</v>
       </c>
-      <c r="AA37" t="s">
+      <c r="AB37" t="s">
+        <v>797</v>
+      </c>
+      <c r="AC37" t="s">
         <v>898</v>
       </c>
-      <c r="AB37" t="s">
-        <v>798</v>
-      </c>
-      <c r="AC37" t="s">
+      <c r="AD37" t="s">
         <v>899</v>
       </c>
-      <c r="AD37" t="s">
+      <c r="AE37" t="s">
         <v>900</v>
       </c>
-      <c r="AE37" t="s">
+      <c r="AF37">
+        <v>999</v>
+      </c>
+      <c r="AG37" s="14" t="s">
         <v>901</v>
       </c>
-      <c r="AF37">
-        <v>999</v>
-      </c>
-      <c r="AG37" s="14" t="s">
+      <c r="AH37">
+        <v>999</v>
+      </c>
+      <c r="AI37" s="14" t="s">
         <v>902</v>
       </c>
-      <c r="AH37">
-        <v>999</v>
-      </c>
-      <c r="AI37" s="14" t="s">
+      <c r="AJ37" s="14" t="s">
         <v>903</v>
       </c>
-      <c r="AJ37" s="14" t="s">
+      <c r="AK37" s="14" t="s">
         <v>904</v>
       </c>
-      <c r="AK37" s="14" t="s">
+      <c r="AL37">
+        <v>999</v>
+      </c>
+      <c r="AM37" s="14" t="s">
         <v>905</v>
       </c>
-      <c r="AL37">
-        <v>999</v>
-      </c>
-      <c r="AM37" s="14" t="s">
+      <c r="AN37" s="14" t="s">
         <v>906</v>
-      </c>
-      <c r="AN37" s="14" t="s">
-        <v>907</v>
       </c>
       <c r="AO37">
         <v>999</v>
@@ -9438,19 +9438,19 @@
         <v>999</v>
       </c>
       <c r="AV37" s="14" t="s">
+        <v>907</v>
+      </c>
+      <c r="AW37" s="14" t="s">
         <v>908</v>
       </c>
-      <c r="AW37" s="14" t="s">
+      <c r="AX37" s="14" t="s">
         <v>909</v>
-      </c>
-      <c r="AX37" s="14" t="s">
-        <v>910</v>
       </c>
       <c r="AY37" s="14" t="s">
         <v>494</v>
       </c>
       <c r="AZ37" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="38" spans="1:53" x14ac:dyDescent="0.3">
@@ -9464,7 +9464,7 @@
         <v>51</v>
       </c>
       <c r="D38" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E38">
         <v>22</v>
@@ -9473,7 +9473,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>54</v>
@@ -9485,28 +9485,28 @@
         <v>49.35</v>
       </c>
       <c r="K38" t="s">
+        <v>916</v>
+      </c>
+      <c r="L38" t="s">
         <v>917</v>
       </c>
-      <c r="L38" t="s">
-        <v>918</v>
-      </c>
       <c r="M38">
         <v>999</v>
       </c>
       <c r="N38" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="O38" t="s">
         <v>234</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="Q38" s="4" t="s">
+        <v>933</v>
+      </c>
+      <c r="R38" s="4" t="s">
         <v>934</v>
-      </c>
-      <c r="R38" s="4" t="s">
-        <v>935</v>
       </c>
       <c r="S38">
         <v>999</v>
@@ -9518,25 +9518,25 @@
         <v>999</v>
       </c>
       <c r="V38" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="W38" s="4" t="s">
         <v>57</v>
       </c>
       <c r="X38" t="s">
+        <v>919</v>
+      </c>
+      <c r="Y38" t="s">
         <v>920</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>921</v>
       </c>
       <c r="Z38" t="s">
         <v>140</v>
       </c>
       <c r="AA38" t="s">
+        <v>921</v>
+      </c>
+      <c r="AB38" t="s">
         <v>922</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>923</v>
       </c>
       <c r="AC38" t="s">
         <v>96</v>
@@ -9548,40 +9548,40 @@
         <v>175</v>
       </c>
       <c r="AF38" t="s">
+        <v>923</v>
+      </c>
+      <c r="AG38" s="14" t="s">
         <v>924</v>
       </c>
-      <c r="AG38" s="14" t="s">
+      <c r="AH38" s="14" t="s">
         <v>925</v>
       </c>
-      <c r="AH38" s="14" t="s">
+      <c r="AI38" s="14" t="s">
+        <v>803</v>
+      </c>
+      <c r="AJ38" s="14" t="s">
         <v>926</v>
       </c>
-      <c r="AI38" s="14" t="s">
-        <v>804</v>
-      </c>
-      <c r="AJ38" s="14" t="s">
+      <c r="AK38" s="14" t="s">
         <v>927</v>
       </c>
-      <c r="AK38" s="14" t="s">
+      <c r="AL38" s="14" t="s">
         <v>928</v>
       </c>
-      <c r="AL38" s="14" t="s">
+      <c r="AM38" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="AN38" s="14" t="s">
         <v>929</v>
       </c>
-      <c r="AM38" s="14" t="s">
-        <v>870</v>
-      </c>
-      <c r="AN38" s="14" t="s">
-        <v>930</v>
-      </c>
       <c r="AO38" s="14" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="AP38" s="14" t="s">
         <v>694</v>
       </c>
       <c r="AQ38" s="14" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="AR38" s="14" t="s">
         <v>77</v>
@@ -9590,13 +9590,13 @@
         <v>303</v>
       </c>
       <c r="AT38" s="14" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="AU38" s="14" t="s">
         <v>80</v>
       </c>
       <c r="AV38" s="14" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="AX38" s="14" t="s">
         <v>636</v>
@@ -9628,7 +9628,7 @@
         <v>7</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>327</v>
@@ -9640,10 +9640,10 @@
         <v>48.15</v>
       </c>
       <c r="K39" t="s">
+        <v>937</v>
+      </c>
+      <c r="L39" t="s">
         <v>938</v>
-      </c>
-      <c r="L39" t="s">
-        <v>939</v>
       </c>
       <c r="M39">
         <v>999</v>
@@ -9655,10 +9655,10 @@
         <v>234</v>
       </c>
       <c r="P39" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="Q39" s="4" t="s">
         <v>959</v>
-      </c>
-      <c r="Q39" s="4" t="s">
-        <v>960</v>
       </c>
       <c r="R39" s="4">
         <v>999</v>
@@ -9673,7 +9673,7 @@
         <v>999</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="W39" s="4" t="s">
         <v>94</v>
@@ -9682,76 +9682,76 @@
         <v>620</v>
       </c>
       <c r="Y39" t="s">
+        <v>940</v>
+      </c>
+      <c r="Z39" t="s">
         <v>941</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>942</v>
       </c>
       <c r="AA39" t="s">
         <v>61</v>
       </c>
       <c r="AB39" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="AC39" t="s">
         <v>603</v>
       </c>
       <c r="AD39" t="s">
+        <v>943</v>
+      </c>
+      <c r="AE39" t="s">
         <v>944</v>
       </c>
-      <c r="AE39" t="s">
+      <c r="AF39" t="s">
+        <v>923</v>
+      </c>
+      <c r="AG39" s="14" t="s">
         <v>945</v>
       </c>
-      <c r="AF39" t="s">
-        <v>924</v>
-      </c>
-      <c r="AG39" s="14" t="s">
+      <c r="AH39" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="AI39" s="14" t="s">
         <v>946</v>
       </c>
-      <c r="AH39" s="14" t="s">
-        <v>778</v>
-      </c>
-      <c r="AI39" s="14" t="s">
+      <c r="AJ39" s="14" t="s">
         <v>947</v>
       </c>
-      <c r="AJ39" s="14" t="s">
+      <c r="AK39" s="14" t="s">
         <v>948</v>
       </c>
-      <c r="AK39" s="14" t="s">
+      <c r="AL39" s="14" t="s">
         <v>949</v>
-      </c>
-      <c r="AL39" s="14" t="s">
-        <v>950</v>
       </c>
       <c r="AM39" s="14" t="s">
         <v>102</v>
       </c>
       <c r="AN39" s="14" t="s">
+        <v>950</v>
+      </c>
+      <c r="AO39" s="14" t="s">
         <v>951</v>
       </c>
-      <c r="AO39" s="14" t="s">
+      <c r="AP39" s="14" t="s">
         <v>952</v>
       </c>
-      <c r="AP39" s="14" t="s">
-        <v>953</v>
-      </c>
       <c r="AQ39" s="14" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AR39" s="14" t="s">
         <v>254</v>
       </c>
       <c r="AS39" s="14" t="s">
+        <v>953</v>
+      </c>
+      <c r="AT39" s="14" t="s">
         <v>954</v>
       </c>
-      <c r="AT39" s="14" t="s">
+      <c r="AU39" s="14" t="s">
         <v>955</v>
       </c>
-      <c r="AU39" s="14" t="s">
+      <c r="AV39" s="14" t="s">
         <v>956</v>
-      </c>
-      <c r="AV39" s="14" t="s">
-        <v>957</v>
       </c>
       <c r="AX39" s="14" t="s">
         <v>636</v>
@@ -9760,7 +9760,7 @@
         <v>351</v>
       </c>
       <c r="AZ39" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="40" spans="1:53" x14ac:dyDescent="0.3">
@@ -9783,7 +9783,7 @@
         <v>8</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>327</v>
@@ -9795,10 +9795,10 @@
         <v>815</v>
       </c>
       <c r="K40" t="s">
+        <v>961</v>
+      </c>
+      <c r="L40" t="s">
         <v>962</v>
-      </c>
-      <c r="L40" t="s">
-        <v>963</v>
       </c>
       <c r="M40">
         <v>999</v>
@@ -9810,13 +9810,13 @@
         <v>573</v>
       </c>
       <c r="P40" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="Q40" s="4" t="s">
         <v>988</v>
       </c>
-      <c r="Q40" s="4" t="s">
+      <c r="R40" s="4" t="s">
         <v>989</v>
-      </c>
-      <c r="R40" s="4" t="s">
-        <v>990</v>
       </c>
       <c r="S40">
         <v>999</v>
@@ -9825,70 +9825,70 @@
         <v>191</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="V40" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="W40" s="4" t="s">
         <v>964</v>
       </c>
-      <c r="W40" s="4" t="s">
+      <c r="X40" t="s">
         <v>965</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>966</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>967</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="AA40" t="s">
         <v>968</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AB40" t="s">
         <v>969</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AC40" t="s">
         <v>970</v>
       </c>
-      <c r="AC40" t="s">
-        <v>971</v>
-      </c>
       <c r="AD40" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="AE40" t="s">
         <v>361</v>
       </c>
       <c r="AF40" t="s">
+        <v>971</v>
+      </c>
+      <c r="AG40" s="14" t="s">
         <v>972</v>
-      </c>
-      <c r="AG40" s="14" t="s">
-        <v>973</v>
       </c>
       <c r="AH40" s="14" t="s">
         <v>626</v>
       </c>
       <c r="AI40" s="14" t="s">
+        <v>973</v>
+      </c>
+      <c r="AJ40" s="14" t="s">
         <v>974</v>
-      </c>
-      <c r="AJ40" s="14" t="s">
-        <v>975</v>
       </c>
       <c r="AK40" s="14" t="s">
         <v>629</v>
       </c>
       <c r="AL40" s="14" t="s">
+        <v>975</v>
+      </c>
+      <c r="AM40" s="14" t="s">
         <v>976</v>
       </c>
-      <c r="AM40" s="14" t="s">
+      <c r="AN40" s="14" t="s">
         <v>977</v>
       </c>
-      <c r="AN40" s="14" t="s">
+      <c r="AO40" s="14" t="s">
         <v>978</v>
       </c>
-      <c r="AO40" s="14" t="s">
+      <c r="AP40" s="14" t="s">
         <v>979</v>
-      </c>
-      <c r="AP40" s="14" t="s">
-        <v>980</v>
       </c>
       <c r="AQ40" s="14" t="s">
         <v>371</v>
@@ -9897,25 +9897,25 @@
         <v>77</v>
       </c>
       <c r="AS40" s="14" t="s">
+        <v>980</v>
+      </c>
+      <c r="AT40" s="14" t="s">
         <v>981</v>
       </c>
-      <c r="AT40" s="14" t="s">
+      <c r="AU40" s="14" t="s">
         <v>982</v>
       </c>
-      <c r="AU40" s="14" t="s">
+      <c r="AV40" s="14" t="s">
         <v>983</v>
       </c>
-      <c r="AV40" s="14" t="s">
+      <c r="AX40" s="14" t="s">
         <v>984</v>
       </c>
-      <c r="AX40" s="14" t="s">
+      <c r="AY40" s="14" t="s">
         <v>985</v>
       </c>
-      <c r="AY40" s="14" t="s">
+      <c r="AZ40" s="1" t="s">
         <v>986</v>
-      </c>
-      <c r="AZ40" s="1" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="41" spans="1:53" x14ac:dyDescent="0.3">
@@ -9938,7 +9938,7 @@
         <v>9</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>327</v>
@@ -9950,10 +9950,10 @@
         <v>815</v>
       </c>
       <c r="K41" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="L41" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="N41" t="s">
         <v>497</v>
@@ -9962,13 +9962,13 @@
         <v>380</v>
       </c>
       <c r="P41" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="R41" s="4" t="s">
         <v>1018</v>
-      </c>
-      <c r="Q41" s="4" t="s">
-        <v>1021</v>
-      </c>
-      <c r="R41" s="4" t="s">
-        <v>1019</v>
       </c>
       <c r="S41">
         <v>999</v>
@@ -9977,94 +9977,94 @@
         <v>90</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="V41" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="W41" s="4" t="s">
         <v>502</v>
       </c>
       <c r="X41" t="s">
+        <v>994</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>1026</v>
+      </c>
+      <c r="Z41" t="s">
         <v>995</v>
       </c>
-      <c r="Y41" t="s">
-        <v>1027</v>
-      </c>
-      <c r="Z41" t="s">
+      <c r="AA41" t="s">
         <v>996</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AB41" t="s">
         <v>997</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AC41" t="s">
         <v>998</v>
       </c>
-      <c r="AC41" t="s">
-        <v>999</v>
-      </c>
       <c r="AD41" t="s">
+        <v>999</v>
+      </c>
+      <c r="AE41" t="s">
         <v>1000</v>
       </c>
-      <c r="AE41" t="s">
+      <c r="AF41" t="s">
         <v>1001</v>
       </c>
-      <c r="AF41" t="s">
+      <c r="AG41" s="14" t="s">
         <v>1002</v>
-      </c>
-      <c r="AG41" s="14" t="s">
-        <v>1003</v>
       </c>
       <c r="AH41" s="14" t="s">
         <v>512</v>
       </c>
       <c r="AI41" s="14" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="AJ41" s="14" t="s">
         <v>660</v>
       </c>
       <c r="AK41" s="14" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AL41" s="14" t="s">
         <v>1005</v>
-      </c>
-      <c r="AL41" s="14" t="s">
-        <v>1006</v>
       </c>
       <c r="AM41" s="14" t="s">
         <v>663</v>
       </c>
       <c r="AN41" s="14" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AO41" s="14" t="s">
         <v>1007</v>
       </c>
-      <c r="AO41" s="14" t="s">
+      <c r="AP41" s="14" t="s">
         <v>1008</v>
       </c>
-      <c r="AP41" s="14" t="s">
+      <c r="AQ41" s="14" t="s">
         <v>1009</v>
-      </c>
-      <c r="AQ41" s="14" t="s">
-        <v>1010</v>
       </c>
       <c r="AR41" s="14" t="s">
         <v>348</v>
       </c>
       <c r="AS41" s="14" t="s">
+        <v>1010</v>
+      </c>
+      <c r="AT41" s="14" t="s">
         <v>1011</v>
       </c>
-      <c r="AT41" s="14" t="s">
+      <c r="AU41" s="14" t="s">
         <v>1012</v>
       </c>
-      <c r="AU41" s="14" t="s">
+      <c r="AV41" s="14" t="s">
         <v>1013</v>
       </c>
-      <c r="AV41" s="14" t="s">
+      <c r="AW41" s="14" t="s">
         <v>1014</v>
       </c>
-      <c r="AW41" s="14" t="s">
+      <c r="AX41" s="14" t="s">
         <v>1015</v>
-      </c>
-      <c r="AX41" s="14" t="s">
-        <v>1016</v>
       </c>
       <c r="AY41" s="14" t="s">
         <v>351</v>
@@ -10084,7 +10084,7 @@
         <v>51</v>
       </c>
       <c r="D42" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E42">
         <v>17</v>
@@ -10093,7 +10093,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>327</v>
@@ -10105,10 +10105,10 @@
         <v>810</v>
       </c>
       <c r="K42" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="L42" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="N42" t="s">
         <v>497</v>
@@ -10117,13 +10117,13 @@
         <v>380</v>
       </c>
       <c r="P42" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="Q42" s="4" t="s">
         <v>1051</v>
       </c>
-      <c r="Q42" s="4" t="s">
+      <c r="R42" s="4" t="s">
         <v>1052</v>
-      </c>
-      <c r="R42" s="4" t="s">
-        <v>1053</v>
       </c>
       <c r="S42">
         <v>999</v>
@@ -10135,155 +10135,188 @@
         <v>999</v>
       </c>
       <c r="V42" t="s">
+        <v>1024</v>
+      </c>
+      <c r="W42" s="4" t="s">
         <v>1025</v>
-      </c>
-      <c r="W42" s="4" t="s">
-        <v>1026</v>
       </c>
       <c r="X42" t="s">
         <v>737</v>
       </c>
       <c r="Y42" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="Z42" t="s">
         <v>140</v>
       </c>
       <c r="AA42" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="AB42" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="AC42" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="AD42" t="s">
         <v>336</v>
       </c>
       <c r="AE42" t="s">
+        <v>1029</v>
+      </c>
+      <c r="AF42" t="s">
         <v>1030</v>
       </c>
-      <c r="AF42" t="s">
+      <c r="AG42" s="14" t="s">
         <v>1031</v>
-      </c>
-      <c r="AG42" s="14" t="s">
-        <v>1032</v>
       </c>
       <c r="AH42" s="14" t="s">
         <v>459</v>
       </c>
       <c r="AI42" s="14" t="s">
+        <v>1032</v>
+      </c>
+      <c r="AJ42" s="14" t="s">
         <v>1033</v>
       </c>
-      <c r="AJ42" s="14" t="s">
+      <c r="AK42" s="14" t="s">
         <v>1034</v>
       </c>
-      <c r="AK42" s="14" t="s">
+      <c r="AL42" s="14" t="s">
         <v>1035</v>
       </c>
-      <c r="AL42" s="14" t="s">
-        <v>1036</v>
-      </c>
       <c r="AM42" s="14" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AN42" s="14" t="s">
         <v>1038</v>
       </c>
-      <c r="AN42" s="14" t="s">
+      <c r="AO42" s="14" t="s">
         <v>1039</v>
       </c>
-      <c r="AO42" s="14" t="s">
+      <c r="AP42" s="14" t="s">
         <v>1040</v>
       </c>
-      <c r="AP42" s="14" t="s">
+      <c r="AQ42" s="14" t="s">
         <v>1041</v>
-      </c>
-      <c r="AQ42" s="14" t="s">
-        <v>1042</v>
       </c>
       <c r="AR42" s="14" t="s">
         <v>348</v>
       </c>
       <c r="AS42" s="14" t="s">
+        <v>1042</v>
+      </c>
+      <c r="AT42" s="14" t="s">
         <v>1043</v>
-      </c>
-      <c r="AT42" s="14" t="s">
-        <v>1044</v>
       </c>
       <c r="AU42" s="14" t="s">
         <v>468</v>
       </c>
       <c r="AV42" s="14" t="s">
+        <v>1044</v>
+      </c>
+      <c r="AW42" s="14" t="s">
         <v>1045</v>
       </c>
-      <c r="AW42" s="14" t="s">
+      <c r="AX42" s="14" t="s">
         <v>1046</v>
       </c>
-      <c r="AX42" s="14" t="s">
+      <c r="AY42" s="14" t="s">
         <v>1047</v>
       </c>
-      <c r="AY42" s="14" t="s">
+      <c r="AZ42" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AZ42" s="1" t="s">
-        <v>1049</v>
-      </c>
       <c r="BA42" s="11" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="43" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
+      <c r="BA43" s="11" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="44" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
+      <c r="BA44" s="11" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="45" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
+      <c r="BA45" s="11" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="46" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
+      <c r="BA46" s="11" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="47" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
+      <c r="BA47" s="11" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="48" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
+      <c r="BA48" s="11" t="s">
+        <v>1054</v>
+      </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
+      <c r="BA49" s="11" t="s">
+        <v>1054</v>
+      </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
+      <c r="BA50" s="11" t="s">
+        <v>1054</v>
+      </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
+      <c r="BA51" s="11" t="s">
+        <v>1054</v>
+      </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
+      <c r="BA52" s="11" t="s">
+        <v>1054</v>
+      </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
+      </c>
+      <c r="BA53" s="11" t="s">
+        <v>1054</v>
       </c>
     </row>
   </sheetData>

--- a/Data/DWA_JH.xlsx
+++ b/Data/DWA_JH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2C49B7-7632-4597-9736-28FE9425AEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4470AA77-48F1-4A2E-B553-EDAEEA03B528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3070" yWindow="2040" windowWidth="14400" windowHeight="7250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="1056">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="1251">
   <si>
     <t>ID</t>
   </si>
@@ -3420,6 +3420,591 @@
   </si>
   <si>
     <t xml:space="preserve">[?] Zwetschg (w), Pflum[e] (w) &lt;=Mirabelle&gt; </t>
+  </si>
+  <si>
+    <t>S, A</t>
+  </si>
+  <si>
+    <t>L, A</t>
+  </si>
+  <si>
+    <t>B, A</t>
+  </si>
+  <si>
+    <t>III_31_0005</t>
+  </si>
+  <si>
+    <t>z-A</t>
+  </si>
+  <si>
+    <t>Tennenbronn</t>
+  </si>
+  <si>
+    <t>Villingen</t>
+  </si>
+  <si>
+    <t>Amoas (w) &lt;einzahl&gt;</t>
+  </si>
+  <si>
+    <t>e Lich't (w)</t>
+  </si>
+  <si>
+    <t>Trombeer</t>
+  </si>
+  <si>
+    <t>Dieh[shl] (w)</t>
+  </si>
+  <si>
+    <t>Agerst (w), Hätzl</t>
+  </si>
+  <si>
+    <t>Rech (m), Enterech</t>
+  </si>
+  <si>
+    <t>Fleddermus</t>
+  </si>
+  <si>
+    <t>Fliege</t>
+  </si>
+  <si>
+    <t>Gukummer</t>
+  </si>
+  <si>
+    <t>Hagehiefe (w), Hagebutze</t>
+  </si>
+  <si>
+    <t>Guller, Henne, Hear &lt;Mehrz.&gt;</t>
+  </si>
+  <si>
+    <t>Hew-Amm (s), Wieb &lt;veraltet&gt;</t>
+  </si>
+  <si>
+    <t>Erdäpfl (m)</t>
+  </si>
+  <si>
+    <t>(Katze-)Rolle (m)</t>
+  </si>
+  <si>
+    <t>Schärmuus (w)</t>
+  </si>
+  <si>
+    <t>Gele Ruebe (w)</t>
+  </si>
+  <si>
+    <t>Götte (m)</t>
+  </si>
+  <si>
+    <t>schelte, döwern</t>
+  </si>
+  <si>
+    <t>Gspetz (m)</t>
+  </si>
+  <si>
+    <t>Stachlbeer (w)</t>
+  </si>
+  <si>
+    <t>Guf (w)</t>
+  </si>
+  <si>
+    <t>[Kaffeeschißl (w)]</t>
+  </si>
+  <si>
+    <t>zwiege</t>
+  </si>
+  <si>
+    <t>Frau Ursula Martin</t>
+  </si>
+  <si>
+    <t>III_31_0006</t>
+  </si>
+  <si>
+    <t>III_31_0007</t>
+  </si>
+  <si>
+    <t>Liech (w)</t>
+  </si>
+  <si>
+    <t>Trombeer (w)</t>
+  </si>
+  <si>
+    <t>Dies'l (w)</t>
+  </si>
+  <si>
+    <t>Ätzel (w)</t>
+  </si>
+  <si>
+    <t>Entema</t>
+  </si>
+  <si>
+    <t>Fledermus (w)</t>
+  </si>
+  <si>
+    <t>Flieg</t>
+  </si>
+  <si>
+    <t>Gugummere</t>
+  </si>
+  <si>
+    <t>Hagebutze</t>
+  </si>
+  <si>
+    <t>Guller (m)</t>
+  </si>
+  <si>
+    <t>Iardepfel (m)</t>
+  </si>
+  <si>
+    <t>Rolli (m)</t>
+  </si>
+  <si>
+    <t>Scher (m)</t>
+  </si>
+  <si>
+    <t>Mohrrüb (w)</t>
+  </si>
+  <si>
+    <t>Sumoor (w)</t>
+  </si>
+  <si>
+    <t>Goasßle</t>
+  </si>
+  <si>
+    <t>Pflume</t>
+  </si>
+  <si>
+    <t>Gufe</t>
+  </si>
+  <si>
+    <t>[Schissel (w)]</t>
+  </si>
+  <si>
+    <t>zwiegen</t>
+  </si>
+  <si>
+    <t>H. [Jehächtele] Hptl.</t>
+  </si>
+  <si>
+    <t>Gündlingen bei Freiburg</t>
+  </si>
+  <si>
+    <t>mit den Schülern der Klasse VIII</t>
+  </si>
+  <si>
+    <t>vergrebe</t>
+  </si>
+  <si>
+    <t>Dießel</t>
+  </si>
+  <si>
+    <t>[R]ußschäck</t>
+  </si>
+  <si>
+    <t>Fledermus</t>
+  </si>
+  <si>
+    <t>Flieege</t>
+  </si>
+  <si>
+    <t>Gugumere</t>
+  </si>
+  <si>
+    <t>Hegebutze</t>
+  </si>
+  <si>
+    <t>Guller, Henn</t>
+  </si>
+  <si>
+    <t>Hew[am]</t>
+  </si>
+  <si>
+    <t>Erdäpfel</t>
+  </si>
+  <si>
+    <t>K. Rolli</t>
+  </si>
+  <si>
+    <t>Schärmus</t>
+  </si>
+  <si>
+    <t>Gelrübe</t>
+  </si>
+  <si>
+    <t>Sumoor</t>
+  </si>
+  <si>
+    <t>Geti</t>
+  </si>
+  <si>
+    <t>Goasel</t>
+  </si>
+  <si>
+    <t>Pflome</t>
+  </si>
+  <si>
+    <t>Sperling</t>
+  </si>
+  <si>
+    <t>Guf</t>
+  </si>
+  <si>
+    <t>Schüssele</t>
+  </si>
+  <si>
+    <t>Tellerle</t>
+  </si>
+  <si>
+    <t>Buta Flich Hptl.[''m]</t>
+  </si>
+  <si>
+    <t>mit den Schülern der Berufsschule</t>
+  </si>
+  <si>
+    <t>t'</t>
+  </si>
+  <si>
+    <t>III_32_0001</t>
+  </si>
+  <si>
+    <t>C-k</t>
+  </si>
+  <si>
+    <t>Buchenberg</t>
+  </si>
+  <si>
+    <t>rote Ameise &lt; schwarze Ameise ist die Herrgottsameise&gt;</t>
+  </si>
+  <si>
+    <t>e Liech' (w)</t>
+  </si>
+  <si>
+    <t>Drombeer (w)</t>
+  </si>
+  <si>
+    <t>Diesel (w)</t>
+  </si>
+  <si>
+    <t>Hätzel (w), Aggerscht</t>
+  </si>
+  <si>
+    <t>Enterach (m)</t>
+  </si>
+  <si>
+    <t>Flieg' (s)</t>
+  </si>
+  <si>
+    <t>Oehmd (s)</t>
+  </si>
+  <si>
+    <t>Gugumere (w)</t>
+  </si>
+  <si>
+    <t>Guller (m), Henne (w)</t>
+  </si>
+  <si>
+    <t>Jadäpfel (m)</t>
+  </si>
+  <si>
+    <t>Katzerolle (m)</t>
+  </si>
+  <si>
+    <t>Schermus (w), Scher (der)</t>
+  </si>
+  <si>
+    <t>Schwedenrübe (w)</t>
+  </si>
+  <si>
+    <t>Pflumme (w)</t>
+  </si>
+  <si>
+    <t>brummle</t>
+  </si>
+  <si>
+    <t>Giefle (s)</t>
+  </si>
+  <si>
+    <t>Plättle (s)</t>
+  </si>
+  <si>
+    <t>Schissele (s)</t>
+  </si>
+  <si>
+    <t>Karl Frick</t>
+  </si>
+  <si>
+    <t>Blankenloch b. Karlsruhe</t>
+  </si>
+  <si>
+    <t>d.d.Lehrer</t>
+  </si>
+  <si>
+    <t>III_32_0002</t>
+  </si>
+  <si>
+    <t>C-l</t>
+  </si>
+  <si>
+    <t>Liicht (w)</t>
+  </si>
+  <si>
+    <t>Fleddermus (w)</t>
+  </si>
+  <si>
+    <t>Fliege (w)</t>
+  </si>
+  <si>
+    <t>Görke (w)</t>
+  </si>
+  <si>
+    <t>Erdäpfel (m)</t>
+  </si>
+  <si>
+    <t>&lt;Katzerolle (m)</t>
+  </si>
+  <si>
+    <t>Schermus (w)</t>
+  </si>
+  <si>
+    <t>Gelrüeb (w)</t>
+  </si>
+  <si>
+    <t>Stecknodle, Küwle (s)</t>
+  </si>
+  <si>
+    <t>Stricknodel (m)</t>
+  </si>
+  <si>
+    <t>erdene Hafe (m)</t>
+  </si>
+  <si>
+    <t>[(veredl?)] veredle</t>
+  </si>
+  <si>
+    <t>E. Minnich Hauptl.</t>
+  </si>
+  <si>
+    <t>III_32_0006</t>
+  </si>
+  <si>
+    <t>Neuhausen</t>
+  </si>
+  <si>
+    <t>C-p</t>
+  </si>
+  <si>
+    <t>Amose (w)</t>
+  </si>
+  <si>
+    <t>Liecht (w)</t>
+  </si>
+  <si>
+    <t>Brubeer (w)</t>
+  </si>
+  <si>
+    <t>Hätzel (w)</t>
+  </si>
+  <si>
+    <t>Räch (m)</t>
+  </si>
+  <si>
+    <t>Guller (m), Henn (w)</t>
+  </si>
+  <si>
+    <t>Riebe (w)</t>
+  </si>
+  <si>
+    <t>maulen, mule</t>
+  </si>
+  <si>
+    <t>Glifli (s)</t>
+  </si>
+  <si>
+    <t>[Schüssele (s)]</t>
+  </si>
+  <si>
+    <t>[Kaffeeschüssel (w)]</t>
+  </si>
+  <si>
+    <t>To[hefefe] (m)</t>
+  </si>
+  <si>
+    <t>[Kemimm] Falk</t>
+  </si>
+  <si>
+    <t>Karlsruhe</t>
+  </si>
+  <si>
+    <t>III_32_0008</t>
+  </si>
+  <si>
+    <t>Obereschach</t>
+  </si>
+  <si>
+    <t>III_32_0007</t>
+  </si>
+  <si>
+    <t>Kappel</t>
+  </si>
+  <si>
+    <t>C-s</t>
+  </si>
+  <si>
+    <t>Brubeere (w)</t>
+  </si>
+  <si>
+    <t>Gugummer</t>
+  </si>
+  <si>
+    <t>Guller (m), Hon (s)</t>
+  </si>
+  <si>
+    <t>Härdepfl (m), Grumbire (w)</t>
+  </si>
+  <si>
+    <t>Katzerolli (m)</t>
+  </si>
+  <si>
+    <t>Gelbrüle (w)</t>
+  </si>
+  <si>
+    <t>Los (w)</t>
+  </si>
+  <si>
+    <t>Getti (m)</t>
+  </si>
+  <si>
+    <t>Goasel, Ruet (w)</t>
+  </si>
+  <si>
+    <t>mule</t>
+  </si>
+  <si>
+    <t>Huber Emil</t>
+  </si>
+  <si>
+    <t>Oppenau im Rencht.</t>
+  </si>
+  <si>
+    <t>Lehrer unter Mithilfe der Schüler</t>
+  </si>
+  <si>
+    <t>C-r</t>
+  </si>
+  <si>
+    <t>Amose</t>
+  </si>
+  <si>
+    <t>Lich</t>
+  </si>
+  <si>
+    <t>Brubeere</t>
+  </si>
+  <si>
+    <t>Disel</t>
+  </si>
+  <si>
+    <t>Huller, Hoa</t>
+  </si>
+  <si>
+    <t>Hebwan</t>
+  </si>
+  <si>
+    <t>Herdepfel</t>
+  </si>
+  <si>
+    <t>Mulwurf</t>
+  </si>
+  <si>
+    <t>Riebe</t>
+  </si>
+  <si>
+    <t>Los</t>
+  </si>
+  <si>
+    <t>Gedi</t>
+  </si>
+  <si>
+    <t>Schtachelbeer</t>
+  </si>
+  <si>
+    <t>Schtecknoadle</t>
+  </si>
+  <si>
+    <t>Schtricknoadel</t>
+  </si>
+  <si>
+    <t>[Schissele]</t>
+  </si>
+  <si>
+    <t>zwige</t>
+  </si>
+  <si>
+    <t>Singler Franz</t>
+  </si>
+  <si>
+    <t>Waldkirch (Breisgau)</t>
+  </si>
+  <si>
+    <t>III_32_0009</t>
+  </si>
+  <si>
+    <t>Mönchweiler</t>
+  </si>
+  <si>
+    <t>C-m</t>
+  </si>
+  <si>
+    <t>Liicht (s), Liecht (s) &lt;[?]&gt;</t>
+  </si>
+  <si>
+    <t>Brobeer (w)</t>
+  </si>
+  <si>
+    <t>Diesl (w)</t>
+  </si>
+  <si>
+    <t>Ändä (w)</t>
+  </si>
+  <si>
+    <t>Fliäg (w)</t>
+  </si>
+  <si>
+    <t>Fläddermus (w)</t>
+  </si>
+  <si>
+    <t>Ämd (s)</t>
+  </si>
+  <si>
+    <t>Gorgä (w)</t>
+  </si>
+  <si>
+    <t>Guller (m), Hea (w), Häer &lt;mz.&gt;</t>
+  </si>
+  <si>
+    <t>Jadäpfl (w)</t>
+  </si>
+  <si>
+    <t>Schermuus (w)</t>
+  </si>
+  <si>
+    <t>Gäalrüebe (w)</t>
+  </si>
+  <si>
+    <t>Gedde (m)</t>
+  </si>
+  <si>
+    <t>scheldä, mule, gosche</t>
+  </si>
+  <si>
+    <t>Gliefle (s) &lt;Sicherheitsnadel = Glueve (w)</t>
+  </si>
+  <si>
+    <t>Striggnodel (w)</t>
+  </si>
+  <si>
+    <t>Kaffeeschissel (w)</t>
+  </si>
+  <si>
+    <t>Bläddle (s)</t>
   </si>
 </sst>
 </file>
@@ -3844,8 +4429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AX50" sqref="AX50"/>
+    <sheetView tabSelected="1" topLeftCell="O31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R52" sqref="R52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4097,7 +4682,7 @@
         <v>999</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>90</v>
+        <v>1058</v>
       </c>
       <c r="U2" s="5" t="s">
         <v>91</v>
@@ -5593,7 +6178,7 @@
         <v>999</v>
       </c>
       <c r="T12" t="s">
-        <v>307</v>
+        <v>1057</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>308</v>
@@ -5891,7 +6476,7 @@
         <v>999</v>
       </c>
       <c r="T14" t="s">
-        <v>54</v>
+        <v>1056</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>384</v>
@@ -6639,7 +7224,7 @@
         <v>234</v>
       </c>
       <c r="T19" t="s">
-        <v>54</v>
+        <v>1056</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>529</v>
@@ -9955,6 +10540,9 @@
       <c r="L41" t="s">
         <v>1016</v>
       </c>
+      <c r="M41">
+        <v>999</v>
+      </c>
       <c r="N41" t="s">
         <v>497</v>
       </c>
@@ -10110,6 +10698,9 @@
       <c r="L42" t="s">
         <v>1049</v>
       </c>
+      <c r="M42">
+        <v>999</v>
+      </c>
       <c r="N42" t="s">
         <v>497</v>
       </c>
@@ -10235,89 +10826,1405 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="BA43" s="11" t="s">
-        <v>1054</v>
-      </c>
+      <c r="B43" s="8">
+        <v>44854</v>
+      </c>
+      <c r="C43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E43">
+        <v>18</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I43">
+        <v>26</v>
+      </c>
+      <c r="J43">
+        <v>48.1</v>
+      </c>
+      <c r="K43" t="s">
+        <v>1060</v>
+      </c>
+      <c r="L43" t="s">
+        <v>1061</v>
+      </c>
+      <c r="M43">
+        <v>999</v>
+      </c>
+      <c r="N43" t="s">
+        <v>1062</v>
+      </c>
+      <c r="O43" t="s">
+        <v>234</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="R43">
+        <v>999</v>
+      </c>
+      <c r="S43">
+        <v>999</v>
+      </c>
+      <c r="T43" t="s">
+        <v>307</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="V43" t="s">
+        <v>1063</v>
+      </c>
+      <c r="W43" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="X43" t="s">
+        <v>1065</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>1066</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>1067</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>1068</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>1069</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>1070</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>623</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AG43" s="14" t="s">
+        <v>1073</v>
+      </c>
+      <c r="AH43" s="14" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AI43" s="14" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AJ43" s="14" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AK43" s="14" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AL43" s="14" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AM43" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="AN43" s="14" t="s">
+        <v>1079</v>
+      </c>
+      <c r="AO43" s="14" t="s">
+        <v>745</v>
+      </c>
+      <c r="AP43" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="AQ43" s="14" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AR43" s="14" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AS43" s="14" t="s">
+        <v>1082</v>
+      </c>
+      <c r="AT43" s="14" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AU43" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="AV43" s="14" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AX43" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="AY43" s="14" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AZ43" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="BA43" s="11"/>
     </row>
     <row r="44" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="BA44" s="11" t="s">
-        <v>1054</v>
-      </c>
+      <c r="B44" s="8">
+        <v>44854</v>
+      </c>
+      <c r="C44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E44">
+        <v>18</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I44">
+        <v>26</v>
+      </c>
+      <c r="J44">
+        <v>48.1</v>
+      </c>
+      <c r="K44" t="s">
+        <v>1060</v>
+      </c>
+      <c r="L44" t="s">
+        <v>1061</v>
+      </c>
+      <c r="M44">
+        <v>999</v>
+      </c>
+      <c r="N44" t="s">
+        <v>1062</v>
+      </c>
+      <c r="O44" t="s">
+        <v>234</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="R44">
+        <v>999</v>
+      </c>
+      <c r="S44">
+        <v>999</v>
+      </c>
+      <c r="T44" t="s">
+        <v>90</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="V44" t="s">
+        <v>450</v>
+      </c>
+      <c r="W44" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="X44" t="s">
+        <v>1090</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>1091</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>1094</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>1095</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>623</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>458</v>
+      </c>
+      <c r="AG44" s="14" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AH44" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="AI44" s="14" t="s">
+        <v>1099</v>
+      </c>
+      <c r="AJ44" s="14" t="s">
+        <v>1100</v>
+      </c>
+      <c r="AK44" s="14" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AL44" s="14" t="s">
+        <v>1102</v>
+      </c>
+      <c r="AM44" s="14" t="s">
+        <v>1103</v>
+      </c>
+      <c r="AN44" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="AO44" s="14" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AP44" s="14" t="s">
+        <v>1105</v>
+      </c>
+      <c r="AQ44" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="AR44" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="AS44" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT44" s="14" t="s">
+        <v>1106</v>
+      </c>
+      <c r="AU44" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="AV44" s="14" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AX44" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="AY44" s="14" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AZ44" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="BA44" s="11"/>
     </row>
     <row r="45" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="BA45" s="11" t="s">
-        <v>1054</v>
-      </c>
+      <c r="B45" s="8">
+        <v>44854</v>
+      </c>
+      <c r="C45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E45">
+        <v>18</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I45">
+        <v>26</v>
+      </c>
+      <c r="J45">
+        <v>48.1</v>
+      </c>
+      <c r="K45" t="s">
+        <v>1060</v>
+      </c>
+      <c r="L45" t="s">
+        <v>1061</v>
+      </c>
+      <c r="M45">
+        <v>999</v>
+      </c>
+      <c r="N45" t="s">
+        <v>1062</v>
+      </c>
+      <c r="O45" t="s">
+        <v>234</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="R45">
+        <v>999</v>
+      </c>
+      <c r="S45">
+        <v>999</v>
+      </c>
+      <c r="T45" t="s">
+        <v>90</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="V45" t="s">
+        <v>752</v>
+      </c>
+      <c r="W45" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="X45" t="s">
+        <v>1065</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>1113</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>1114</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>1115</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>623</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>1117</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>1118</v>
+      </c>
+      <c r="AG45" s="14" t="s">
+        <v>1119</v>
+      </c>
+      <c r="AH45" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="AI45" s="14" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AJ45" s="14" t="s">
+        <v>1122</v>
+      </c>
+      <c r="AK45" s="14" t="s">
+        <v>1123</v>
+      </c>
+      <c r="AL45" s="14" t="s">
+        <v>1124</v>
+      </c>
+      <c r="AM45" s="14" t="s">
+        <v>1125</v>
+      </c>
+      <c r="AN45" s="14" t="s">
+        <v>1126</v>
+      </c>
+      <c r="AO45" s="14" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AP45" s="14" t="s">
+        <v>1128</v>
+      </c>
+      <c r="AQ45" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="AR45" s="14" t="s">
+        <v>1129</v>
+      </c>
+      <c r="AS45" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="AT45" s="14" t="s">
+        <v>1130</v>
+      </c>
+      <c r="AU45" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV45" s="14" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AW45" s="14" t="s">
+        <v>1132</v>
+      </c>
+      <c r="AX45" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="AY45" s="14" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AZ45" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA45" s="11"/>
     </row>
     <row r="46" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="BA46" s="11" t="s">
-        <v>1054</v>
-      </c>
+      <c r="B46" s="8">
+        <v>44854</v>
+      </c>
+      <c r="C46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E46">
+        <v>17</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I46">
+        <v>60</v>
+      </c>
+      <c r="J46">
+        <v>85</v>
+      </c>
+      <c r="K46" t="s">
+        <v>1137</v>
+      </c>
+      <c r="L46" t="s">
+        <v>1138</v>
+      </c>
+      <c r="M46">
+        <v>999</v>
+      </c>
+      <c r="N46" t="s">
+        <v>1062</v>
+      </c>
+      <c r="O46" t="s">
+        <v>234</v>
+      </c>
+      <c r="P46" s="4" t="s">
+        <v>1158</v>
+      </c>
+      <c r="Q46" s="4" t="s">
+        <v>1159</v>
+      </c>
+      <c r="R46">
+        <v>999</v>
+      </c>
+      <c r="S46">
+        <v>999</v>
+      </c>
+      <c r="T46" t="s">
+        <v>307</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="V46" t="s">
+        <v>1139</v>
+      </c>
+      <c r="W46" s="4" t="s">
+        <v>1140</v>
+      </c>
+      <c r="X46" t="s">
+        <v>1141</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>1142</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>1143</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>1144</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>1145</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>1147</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>458</v>
+      </c>
+      <c r="AG46" s="14" t="s">
+        <v>1148</v>
+      </c>
+      <c r="AH46" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="AI46" s="14" t="s">
+        <v>1149</v>
+      </c>
+      <c r="AJ46" s="14" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AK46" s="14" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AL46" s="14" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AM46" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="AN46" s="14" t="s">
+        <v>1079</v>
+      </c>
+      <c r="AO46" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="AP46" s="14" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AQ46" s="14" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AR46" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="AS46" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="AT46" s="14" t="s">
+        <v>1155</v>
+      </c>
+      <c r="AU46" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="AV46" s="14" t="s">
+        <v>1157</v>
+      </c>
+      <c r="AW46" s="14" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AX46" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="AY46" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="AZ46" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="BA46" s="11"/>
     </row>
     <row r="47" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="BA47" s="11" t="s">
-        <v>1054</v>
-      </c>
+      <c r="B47" s="8">
+        <v>44854</v>
+      </c>
+      <c r="C47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E47">
+        <v>18</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I47">
+        <v>26</v>
+      </c>
+      <c r="J47">
+        <v>48.05</v>
+      </c>
+      <c r="K47" t="s">
+        <v>1162</v>
+      </c>
+      <c r="L47" t="s">
+        <v>682</v>
+      </c>
+      <c r="M47">
+        <v>999</v>
+      </c>
+      <c r="N47" t="s">
+        <v>1062</v>
+      </c>
+      <c r="O47" t="s">
+        <v>234</v>
+      </c>
+      <c r="P47" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R47">
+        <v>999</v>
+      </c>
+      <c r="S47">
+        <v>999</v>
+      </c>
+      <c r="T47" t="s">
+        <v>54</v>
+      </c>
+      <c r="U47" s="1">
+        <v>999</v>
+      </c>
+      <c r="V47" t="s">
+        <v>577</v>
+      </c>
+      <c r="W47" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="X47" t="s">
+        <v>737</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>1142</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>602</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>1164</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>1165</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>673</v>
+      </c>
+      <c r="AG47" s="14" t="s">
+        <v>787</v>
+      </c>
+      <c r="AH47" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="AI47" s="14" t="s">
+        <v>1167</v>
+      </c>
+      <c r="AJ47" s="14" t="s">
+        <v>1168</v>
+      </c>
+      <c r="AK47" s="14" t="s">
+        <v>1169</v>
+      </c>
+      <c r="AL47" s="14" t="s">
+        <v>1170</v>
+      </c>
+      <c r="AM47" s="14" t="s">
+        <v>1125</v>
+      </c>
+      <c r="AN47" s="14" t="s">
+        <v>1079</v>
+      </c>
+      <c r="AO47" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="AP47" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="AQ47" s="14" t="s">
+        <v>746</v>
+      </c>
+      <c r="AR47" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="AS47" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT47" s="14" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AU47" s="14" t="s">
+        <v>1172</v>
+      </c>
+      <c r="AV47" s="14" t="s">
+        <v>1189</v>
+      </c>
+      <c r="AX47" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="AY47" s="14" t="s">
+        <v>1174</v>
+      </c>
+      <c r="AZ47" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="BA47" s="11"/>
     </row>
     <row r="48" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="BA48" s="11" t="s">
-        <v>1054</v>
-      </c>
+      <c r="B48" s="8">
+        <v>44854</v>
+      </c>
+      <c r="C48" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA48" s="11"/>
     </row>
     <row r="49" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="BA49" s="11" t="s">
-        <v>1054</v>
-      </c>
+      <c r="B49" s="8">
+        <v>44854</v>
+      </c>
+      <c r="C49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E49">
+        <v>17</v>
+      </c>
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1176</v>
+      </c>
+      <c r="H49" t="s">
+        <v>327</v>
+      </c>
+      <c r="I49">
+        <v>26</v>
+      </c>
+      <c r="J49">
+        <v>48.05</v>
+      </c>
+      <c r="K49" t="s">
+        <v>1178</v>
+      </c>
+      <c r="L49" t="s">
+        <v>1177</v>
+      </c>
+      <c r="M49">
+        <v>999</v>
+      </c>
+      <c r="N49" t="s">
+        <v>1062</v>
+      </c>
+      <c r="O49" t="s">
+        <v>234</v>
+      </c>
+      <c r="P49" t="s">
+        <v>1191</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>1192</v>
+      </c>
+      <c r="R49">
+        <v>999</v>
+      </c>
+      <c r="S49">
+        <v>999</v>
+      </c>
+      <c r="T49" t="s">
+        <v>90</v>
+      </c>
+      <c r="U49" s="1">
+        <v>999</v>
+      </c>
+      <c r="V49" t="s">
+        <v>1179</v>
+      </c>
+      <c r="W49" t="s">
+        <v>1180</v>
+      </c>
+      <c r="X49" t="s">
+        <v>1181</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>1142</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>1182</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>1183</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>1094</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>1165</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>623</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AG49" s="14" t="s">
+        <v>1184</v>
+      </c>
+      <c r="AH49" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="AI49" s="14" t="s">
+        <v>1167</v>
+      </c>
+      <c r="AJ49" s="14" t="s">
+        <v>1100</v>
+      </c>
+      <c r="AK49" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="AL49" s="14" t="s">
+        <v>1185</v>
+      </c>
+      <c r="AM49" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="AN49" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="AO49" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="AP49" s="14" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AQ49" s="14" t="s">
+        <v>1186</v>
+      </c>
+      <c r="AR49" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="AS49" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="AT49" s="14" t="s">
+        <v>1187</v>
+      </c>
+      <c r="AU49" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="AV49" s="14" t="s">
+        <v>1188</v>
+      </c>
+      <c r="AX49" s="14" t="s">
+        <v>1190</v>
+      </c>
+      <c r="AY49" s="14" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AZ49" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="BA49" s="11"/>
     </row>
     <row r="50" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="BA50" s="11" t="s">
-        <v>1054</v>
-      </c>
+      <c r="C50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E50">
+        <v>17</v>
+      </c>
+      <c r="F50">
+        <v>7</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H50" t="s">
+        <v>327</v>
+      </c>
+      <c r="I50">
+        <v>26</v>
+      </c>
+      <c r="J50">
+        <v>48.05</v>
+      </c>
+      <c r="K50" t="s">
+        <v>1197</v>
+      </c>
+      <c r="L50" t="s">
+        <v>1196</v>
+      </c>
+      <c r="N50" t="s">
+        <v>1062</v>
+      </c>
+      <c r="O50" t="s">
+        <v>234</v>
+      </c>
+      <c r="P50" t="s">
+        <v>1208</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>1209</v>
+      </c>
+      <c r="R50">
+        <v>999</v>
+      </c>
+      <c r="S50">
+        <v>999</v>
+      </c>
+      <c r="T50" t="s">
+        <v>90</v>
+      </c>
+      <c r="U50" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="V50">
+        <v>999</v>
+      </c>
+      <c r="W50" t="s">
+        <v>1180</v>
+      </c>
+      <c r="X50" t="s">
+        <v>1198</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>1142</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>1182</v>
+      </c>
+      <c r="AA50">
+        <v>999</v>
+      </c>
+      <c r="AB50">
+        <v>999</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>479</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>480</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>1199</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>458</v>
+      </c>
+      <c r="AG50" s="14" t="s">
+        <v>1200</v>
+      </c>
+      <c r="AH50" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="AI50" s="14" t="s">
+        <v>1201</v>
+      </c>
+      <c r="AJ50" s="14" t="s">
+        <v>1202</v>
+      </c>
+      <c r="AK50" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="AL50" s="14" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AM50" s="14" t="s">
+        <v>1204</v>
+      </c>
+      <c r="AN50" s="14" t="s">
+        <v>1205</v>
+      </c>
+      <c r="AO50" s="14" t="s">
+        <v>1206</v>
+      </c>
+      <c r="AP50" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="AQ50" s="14" t="s">
+        <v>1207</v>
+      </c>
+      <c r="AR50" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="AS50">
+        <v>999</v>
+      </c>
+      <c r="AT50">
+        <v>999</v>
+      </c>
+      <c r="AU50">
+        <v>999</v>
+      </c>
+      <c r="AV50" s="14" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AX50" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="AY50" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="AZ50" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="BA50" s="11"/>
     </row>
     <row r="51" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="BA51" s="11" t="s">
-        <v>1054</v>
-      </c>
+      <c r="C51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E51">
+        <v>17</v>
+      </c>
+      <c r="F51">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H51" t="s">
+        <v>327</v>
+      </c>
+      <c r="I51">
+        <v>26</v>
+      </c>
+      <c r="J51">
+        <v>48.05</v>
+      </c>
+      <c r="K51" t="s">
+        <v>1211</v>
+      </c>
+      <c r="L51" t="s">
+        <v>1194</v>
+      </c>
+      <c r="N51" t="s">
+        <v>1062</v>
+      </c>
+      <c r="O51" t="s">
+        <v>234</v>
+      </c>
+      <c r="P51" t="s">
+        <v>1228</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>1229</v>
+      </c>
+      <c r="R51">
+        <v>999</v>
+      </c>
+      <c r="S51">
+        <v>999</v>
+      </c>
+      <c r="T51" t="s">
+        <v>307</v>
+      </c>
+      <c r="U51" s="1">
+        <v>999</v>
+      </c>
+      <c r="V51" t="s">
+        <v>1212</v>
+      </c>
+      <c r="W51" t="s">
+        <v>1213</v>
+      </c>
+      <c r="X51" t="s">
+        <v>1214</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>1215</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>1115</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>1070</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>360</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>1117</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AG51" s="14" t="s">
+        <v>1216</v>
+      </c>
+      <c r="AH51" s="14" t="s">
+        <v>1217</v>
+      </c>
+      <c r="AI51" s="14" t="s">
+        <v>1218</v>
+      </c>
+      <c r="AJ51" s="14" t="s">
+        <v>947</v>
+      </c>
+      <c r="AK51" s="14" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AL51" s="14" t="s">
+        <v>1220</v>
+      </c>
+      <c r="AM51" s="14" t="s">
+        <v>1221</v>
+      </c>
+      <c r="AN51" s="14" t="s">
+        <v>1222</v>
+      </c>
+      <c r="AO51" s="14" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AP51" s="14" t="s">
+        <v>1105</v>
+      </c>
+      <c r="AQ51" s="14" t="s">
+        <v>746</v>
+      </c>
+      <c r="AR51" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS51" s="14" t="s">
+        <v>1223</v>
+      </c>
+      <c r="AT51" s="14" t="s">
+        <v>1224</v>
+      </c>
+      <c r="AU51" s="14" t="s">
+        <v>1225</v>
+      </c>
+      <c r="AV51" s="14" t="s">
+        <v>1226</v>
+      </c>
+      <c r="AX51" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="AY51" s="14" t="s">
+        <v>1227</v>
+      </c>
+      <c r="AZ51" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="BA51" s="11"/>
     </row>
     <row r="52" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="BA52" s="11" t="s">
-        <v>1054</v>
-      </c>
+      <c r="C52" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E52">
+        <v>17</v>
+      </c>
+      <c r="F52">
+        <v>10</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H52" t="s">
+        <v>327</v>
+      </c>
+      <c r="I52">
+        <v>60</v>
+      </c>
+      <c r="J52">
+        <v>85</v>
+      </c>
+      <c r="K52" t="s">
+        <v>1232</v>
+      </c>
+      <c r="L52" t="s">
+        <v>1231</v>
+      </c>
+      <c r="N52" t="s">
+        <v>1062</v>
+      </c>
+      <c r="O52" t="s">
+        <v>234</v>
+      </c>
+      <c r="P52">
+        <v>888</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>795</v>
+      </c>
+      <c r="V52" t="s">
+        <v>577</v>
+      </c>
+      <c r="W52" t="s">
+        <v>1233</v>
+      </c>
+      <c r="X52" t="s">
+        <v>1234</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>1235</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>1236</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>1238</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>1237</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>1239</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>1240</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>458</v>
+      </c>
+      <c r="AG52" s="14" t="s">
+        <v>1241</v>
+      </c>
+      <c r="AH52" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="AI52" s="14" t="s">
+        <v>1242</v>
+      </c>
+      <c r="AJ52" s="14" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AK52" s="14" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AL52" s="14" t="s">
+        <v>1244</v>
+      </c>
+      <c r="AM52" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="AN52" s="14" t="s">
+        <v>1245</v>
+      </c>
+      <c r="AO52" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="AP52" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="AQ52" s="14" t="s">
+        <v>1246</v>
+      </c>
+      <c r="AR52" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="AS52" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT52" s="14" t="s">
+        <v>1247</v>
+      </c>
+      <c r="AU52" s="14" t="s">
+        <v>1248</v>
+      </c>
+      <c r="AV52" s="14" t="s">
+        <v>1249</v>
+      </c>
+      <c r="AW52" s="14" t="s">
+        <v>1250</v>
+      </c>
+      <c r="AX52" s="14" t="s">
+        <v>852</v>
+      </c>
+      <c r="AY52" s="14" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AZ52" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="BA52" s="11"/>
     </row>
     <row r="53" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="BA53" s="11" t="s">
-        <v>1054</v>
-      </c>
+      <c r="C53" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA53" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Data/DWA_JH.xlsx
+++ b/Data/DWA_JH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4470AA77-48F1-4A2E-B553-EDAEEA03B528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA4632D-F519-47C8-A90D-34AC76D3E518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3070" yWindow="2040" windowWidth="14400" windowHeight="7250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6880" yWindow="1830" windowWidth="14400" windowHeight="7250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="1251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4622" uniqueCount="1418">
   <si>
     <t>ID</t>
   </si>
@@ -4005,6 +4005,507 @@
   </si>
   <si>
     <t>Bläddle (s)</t>
+  </si>
+  <si>
+    <t>III_32_0014</t>
+  </si>
+  <si>
+    <t>Niedereschach</t>
+  </si>
+  <si>
+    <t>C-v</t>
+  </si>
+  <si>
+    <t>Guller, Hoa</t>
+  </si>
+  <si>
+    <t>Härdepfel</t>
+  </si>
+  <si>
+    <t>Scheermuus</t>
+  </si>
+  <si>
+    <t>Gelbrüben</t>
+  </si>
+  <si>
+    <t>Getti</t>
+  </si>
+  <si>
+    <t>Kluv</t>
+  </si>
+  <si>
+    <t>Goahs</t>
+  </si>
+  <si>
+    <t>A. Burgbacher</t>
+  </si>
+  <si>
+    <t>Villingen i. Schw.</t>
+  </si>
+  <si>
+    <t>III_32_0016</t>
+  </si>
+  <si>
+    <t>Dauchingen</t>
+  </si>
+  <si>
+    <t>C-y</t>
+  </si>
+  <si>
+    <t>vergrbe, Liecht</t>
+  </si>
+  <si>
+    <t>Diß'l</t>
+  </si>
+  <si>
+    <t>Elschder</t>
+  </si>
+  <si>
+    <t>Stubefliege</t>
+  </si>
+  <si>
+    <t>ähmde</t>
+  </si>
+  <si>
+    <t>Gurk'</t>
+  </si>
+  <si>
+    <t>Hewann</t>
+  </si>
+  <si>
+    <t>Heardepfel</t>
+  </si>
+  <si>
+    <t>Rolli</t>
+  </si>
+  <si>
+    <t>Schermus</t>
+  </si>
+  <si>
+    <t>Gälrübe</t>
+  </si>
+  <si>
+    <t>Göti</t>
+  </si>
+  <si>
+    <t>Pflum</t>
+  </si>
+  <si>
+    <t>Schtachlbeere</t>
+  </si>
+  <si>
+    <t>Schdecknodl</t>
+  </si>
+  <si>
+    <t>Schtricknodl</t>
+  </si>
+  <si>
+    <t>[Schissili]</t>
+  </si>
+  <si>
+    <t>zweie</t>
+  </si>
+  <si>
+    <t>Aug.Burkareh</t>
+  </si>
+  <si>
+    <t>Hambrücken</t>
+  </si>
+  <si>
+    <t>Amt Bruchsal</t>
+  </si>
+  <si>
+    <t>III_32_0032</t>
+  </si>
+  <si>
+    <t>Hartheim</t>
+  </si>
+  <si>
+    <t>Konstanz Landkreis Stockach</t>
+  </si>
+  <si>
+    <t>C-U</t>
+  </si>
+  <si>
+    <t>Leich(t)</t>
+  </si>
+  <si>
+    <t>Amoase, Ãsoachrle, Ansoacherle</t>
+  </si>
+  <si>
+    <t>Brãũbaire</t>
+  </si>
+  <si>
+    <t>Rageläz, Ragel(h)äz</t>
+  </si>
+  <si>
+    <t>Ẽträch, E(n)träch</t>
+  </si>
+  <si>
+    <t>Fläadrmaus, Nachtvogel</t>
+  </si>
+  <si>
+    <t>Fliege &lt;d' Mucke geige! (die ganz kleinen, die ins Aug geraten)&gt;</t>
+  </si>
+  <si>
+    <t>Gugumer</t>
+  </si>
+  <si>
+    <t>Guhl, Gickeler, Güchle &lt;kl.&gt;, Henne</t>
+  </si>
+  <si>
+    <t>Aidepfl, Headepfl, Grumbirn, Bodnbiern</t>
+  </si>
+  <si>
+    <t>Mälle, Rälle, Kater</t>
+  </si>
+  <si>
+    <t>Schäer(maus)</t>
+  </si>
+  <si>
+    <t>Laus</t>
+  </si>
+  <si>
+    <t>Götte</t>
+  </si>
+  <si>
+    <t>Goaßel</t>
+  </si>
+  <si>
+    <t>Pflomme, Schlaie &lt;wild&gt;</t>
+  </si>
+  <si>
+    <t>schealte, schimpfe</t>
+  </si>
+  <si>
+    <t>Stächelbaire</t>
+  </si>
+  <si>
+    <t>Gluefe</t>
+  </si>
+  <si>
+    <t>Untersätzle</t>
+  </si>
+  <si>
+    <t>Hafe &lt;für Kaffee, Milch&gt;, Straußscherbe &lt;Für Blumen mit und ohne Erde&gt;, Blotterscherbe &lt;z. Milch sauer [werden lassen]&gt;</t>
+  </si>
+  <si>
+    <t>zwei(g)e</t>
+  </si>
+  <si>
+    <t>Josef Weber</t>
+  </si>
+  <si>
+    <t>Ludwigsburg</t>
+  </si>
+  <si>
+    <t>III_32_0038</t>
+  </si>
+  <si>
+    <t>Heinstetten</t>
+  </si>
+  <si>
+    <t>Stockach</t>
+  </si>
+  <si>
+    <t>C-Y</t>
+  </si>
+  <si>
+    <t>Amoase</t>
+  </si>
+  <si>
+    <t>Brombeira</t>
+  </si>
+  <si>
+    <t>Deisel (der)</t>
+  </si>
+  <si>
+    <t>Nagelhäx</t>
+  </si>
+  <si>
+    <t>Enträch</t>
+  </si>
+  <si>
+    <t>Flädermaus</t>
+  </si>
+  <si>
+    <t>Fluig</t>
+  </si>
+  <si>
+    <t>Gurge</t>
+  </si>
+  <si>
+    <t>Haggebutze</t>
+  </si>
+  <si>
+    <t>Guhl, Henn</t>
+  </si>
+  <si>
+    <t>Malli</t>
+  </si>
+  <si>
+    <t>Rüebe</t>
+  </si>
+  <si>
+    <t>Laues (e)</t>
+  </si>
+  <si>
+    <t>Gedde</t>
+  </si>
+  <si>
+    <t>Pfluma</t>
+  </si>
+  <si>
+    <t>schälde</t>
+  </si>
+  <si>
+    <t>Stachelbeira</t>
+  </si>
+  <si>
+    <t>Gluv</t>
+  </si>
+  <si>
+    <t>Kaffeeschißili</t>
+  </si>
+  <si>
+    <t>abzeien</t>
+  </si>
+  <si>
+    <t>Wihelm Gißler</t>
+  </si>
+  <si>
+    <t>Freiburg i. Br.</t>
+  </si>
+  <si>
+    <t>Bürgermeister und Ratschreiber</t>
+  </si>
+  <si>
+    <t>Mitgeteilt durch: Franz /[Leraus.] Polizei Teufel, Ratschr.</t>
+  </si>
+  <si>
+    <t>III_32_0041</t>
+  </si>
+  <si>
+    <t>Schwenningen</t>
+  </si>
+  <si>
+    <t>D-b</t>
+  </si>
+  <si>
+    <t>Amosen</t>
+  </si>
+  <si>
+    <t>Leift</t>
+  </si>
+  <si>
+    <t>Braubeira</t>
+  </si>
+  <si>
+    <t>Entrech</t>
+  </si>
+  <si>
+    <t>Fluigen</t>
+  </si>
+  <si>
+    <t>Gackeler</t>
+  </si>
+  <si>
+    <t>Herdäpfel</t>
+  </si>
+  <si>
+    <t>Malle</t>
+  </si>
+  <si>
+    <t>Scheer</t>
+  </si>
+  <si>
+    <t>Mohrrübn</t>
+  </si>
+  <si>
+    <t>Laus (a)</t>
+  </si>
+  <si>
+    <t>Gette, Gotte</t>
+  </si>
+  <si>
+    <t>Pflumen</t>
+  </si>
+  <si>
+    <t>Stachelbeiren</t>
+  </si>
+  <si>
+    <t>Stecknodel, Kluf</t>
+  </si>
+  <si>
+    <t>[Schüsele]</t>
+  </si>
+  <si>
+    <t>Schüssel</t>
+  </si>
+  <si>
+    <t>Wanze, zweigen</t>
+  </si>
+  <si>
+    <t>Rebsteim</t>
+  </si>
+  <si>
+    <t>Immenstaad/Bodensee</t>
+  </si>
+  <si>
+    <t>III_32_0042</t>
+  </si>
+  <si>
+    <t>Glashütte</t>
+  </si>
+  <si>
+    <t>Heuberg</t>
+  </si>
+  <si>
+    <t>III_32_0043</t>
+  </si>
+  <si>
+    <t>Stetten</t>
+  </si>
+  <si>
+    <t>a. k. M.</t>
+  </si>
+  <si>
+    <t>D-d</t>
+  </si>
+  <si>
+    <t>Amoisen (w)</t>
+  </si>
+  <si>
+    <t>Brombaira (w)</t>
+  </si>
+  <si>
+    <t>Deißel (m)</t>
+  </si>
+  <si>
+    <t>[Nagellez]</t>
+  </si>
+  <si>
+    <t>Nagelhez</t>
+  </si>
+  <si>
+    <t>Entarich</t>
+  </si>
+  <si>
+    <t>Fliäadermaus (w)</t>
+  </si>
+  <si>
+    <t>Fluiga (w)</t>
+  </si>
+  <si>
+    <t>Öhmd (s), [Amd] (s)</t>
+  </si>
+  <si>
+    <t>Gukummer (w)</t>
+  </si>
+  <si>
+    <t>Hagabutza (w)</t>
+  </si>
+  <si>
+    <t>Gickeler (m), Hinn (a, w)</t>
+  </si>
+  <si>
+    <t>Hadepfel (m), Herdepfel (m)</t>
+  </si>
+  <si>
+    <t>Katzemälle (m)</t>
+  </si>
+  <si>
+    <t>Laus (w)</t>
+  </si>
+  <si>
+    <t>Gette (m), Gedde (m)</t>
+  </si>
+  <si>
+    <t>Goisel (w)</t>
+  </si>
+  <si>
+    <t>Pflumma (w)</t>
+  </si>
+  <si>
+    <t>schialta</t>
+  </si>
+  <si>
+    <t>Stachelbaira (w)</t>
+  </si>
+  <si>
+    <t>Hifle (s)</t>
+  </si>
+  <si>
+    <t>Unterhätzle (s)</t>
+  </si>
+  <si>
+    <t>Goiß</t>
+  </si>
+  <si>
+    <t>Otto Grotz</t>
+  </si>
+  <si>
+    <t>Jungingen /Hohenzollern</t>
+  </si>
+  <si>
+    <t>D-e</t>
+  </si>
+  <si>
+    <t>Amoise</t>
+  </si>
+  <si>
+    <t>(zur) Leich (gehen)</t>
+  </si>
+  <si>
+    <t>Brombairn</t>
+  </si>
+  <si>
+    <t>Nagelhetz</t>
+  </si>
+  <si>
+    <t>Fläedermaus</t>
+  </si>
+  <si>
+    <t>Fluig(e)</t>
+  </si>
+  <si>
+    <t>Öhmt, Ihmt</t>
+  </si>
+  <si>
+    <t>Häedepfel</t>
+  </si>
+  <si>
+    <t>Katzemalle</t>
+  </si>
+  <si>
+    <t>Schärmaus</t>
+  </si>
+  <si>
+    <t>Götte, Gotte</t>
+  </si>
+  <si>
+    <t>Gaisel</t>
+  </si>
+  <si>
+    <t>schäalte</t>
+  </si>
+  <si>
+    <t>Stachelbaire</t>
+  </si>
+  <si>
+    <t>Kliefle</t>
+  </si>
+  <si>
+    <t>umzweie</t>
+  </si>
+  <si>
+    <t>Das.Tinfel</t>
+  </si>
+  <si>
+    <t>[?] in Hohenzollern</t>
+  </si>
+  <si>
+    <t>Lehrer u Schühler aus der gleichen Gegend</t>
   </si>
 </sst>
 </file>
@@ -4427,10 +4928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA53"/>
+  <dimension ref="A1:BA75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R52" sqref="R52"/>
+    <sheetView tabSelected="1" topLeftCell="Q43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T59" sqref="T59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11466,7 +11967,7 @@
         <v>1135</v>
       </c>
       <c r="E47">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F47">
         <v>2</v>
@@ -11780,6 +12281,9 @@
       <c r="A50">
         <v>49</v>
       </c>
+      <c r="B50" s="8">
+        <v>44854</v>
+      </c>
       <c r="C50" t="s">
         <v>51</v>
       </c>
@@ -11930,6 +12434,9 @@
       <c r="A51">
         <v>50</v>
       </c>
+      <c r="B51" s="8">
+        <v>44854</v>
+      </c>
       <c r="C51" t="s">
         <v>51</v>
       </c>
@@ -12080,6 +12587,9 @@
       <c r="A52">
         <v>51</v>
       </c>
+      <c r="B52" s="8">
+        <v>44855</v>
+      </c>
       <c r="C52" t="s">
         <v>51</v>
       </c>
@@ -12221,10 +12731,1203 @@
       <c r="A53">
         <v>52</v>
       </c>
+      <c r="B53" s="8">
+        <v>44855</v>
+      </c>
       <c r="C53" t="s">
         <v>51</v>
       </c>
+      <c r="D53" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E53">
+        <v>18</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1251</v>
+      </c>
+      <c r="H53" t="s">
+        <v>327</v>
+      </c>
+      <c r="I53">
+        <v>26.1</v>
+      </c>
+      <c r="J53">
+        <v>888</v>
+      </c>
+      <c r="K53" t="s">
+        <v>1253</v>
+      </c>
+      <c r="L53" t="s">
+        <v>1252</v>
+      </c>
+      <c r="N53" t="s">
+        <v>1062</v>
+      </c>
+      <c r="O53" t="s">
+        <v>234</v>
+      </c>
+      <c r="P53" t="s">
+        <v>1261</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>1262</v>
+      </c>
+      <c r="R53">
+        <v>999</v>
+      </c>
+      <c r="S53">
+        <v>999</v>
+      </c>
+      <c r="T53" t="s">
+        <v>54</v>
+      </c>
+      <c r="U53" s="1">
+        <v>999</v>
+      </c>
+      <c r="V53">
+        <v>999</v>
+      </c>
+      <c r="W53">
+        <v>999</v>
+      </c>
+      <c r="X53" t="s">
+        <v>1214</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>753</v>
+      </c>
+      <c r="Z53">
+        <v>999</v>
+      </c>
+      <c r="AA53">
+        <v>999</v>
+      </c>
+      <c r="AB53">
+        <v>999</v>
+      </c>
+      <c r="AC53">
+        <v>999</v>
+      </c>
+      <c r="AD53">
+        <v>999</v>
+      </c>
+      <c r="AE53">
+        <v>999</v>
+      </c>
+      <c r="AF53">
+        <v>999</v>
+      </c>
+      <c r="AG53" s="14" t="s">
+        <v>1254</v>
+      </c>
+      <c r="AH53" s="14">
+        <v>999</v>
+      </c>
+      <c r="AI53" s="14" t="s">
+        <v>1255</v>
+      </c>
+      <c r="AJ53" s="14">
+        <v>999</v>
+      </c>
+      <c r="AK53" s="14" t="s">
+        <v>1256</v>
+      </c>
+      <c r="AL53" s="14" t="s">
+        <v>1257</v>
+      </c>
+      <c r="AM53">
+        <v>999</v>
+      </c>
+      <c r="AN53" s="14" t="s">
+        <v>1258</v>
+      </c>
+      <c r="AO53" s="14" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AP53">
+        <v>999</v>
+      </c>
+      <c r="AQ53">
+        <v>999</v>
+      </c>
+      <c r="AR53" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS53">
+        <v>999</v>
+      </c>
+      <c r="AT53" s="14" t="s">
+        <v>1259</v>
+      </c>
+      <c r="AU53" s="14">
+        <v>999</v>
+      </c>
+      <c r="AV53" s="14">
+        <v>999</v>
+      </c>
+      <c r="AW53" s="14">
+        <v>999</v>
+      </c>
+      <c r="AX53" s="14" t="s">
+        <v>569</v>
+      </c>
+      <c r="AY53" s="14">
+        <v>999</v>
+      </c>
+      <c r="AZ53" s="1" t="s">
+        <v>1260</v>
+      </c>
       <c r="BA53" s="11"/>
+    </row>
+    <row r="54" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="8">
+        <v>44855</v>
+      </c>
+      <c r="C54" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E54">
+        <v>18</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1263</v>
+      </c>
+      <c r="H54" t="s">
+        <v>327</v>
+      </c>
+      <c r="I54">
+        <v>610</v>
+      </c>
+      <c r="J54">
+        <v>85</v>
+      </c>
+      <c r="K54" t="s">
+        <v>1265</v>
+      </c>
+      <c r="L54" t="s">
+        <v>1264</v>
+      </c>
+      <c r="N54" t="s">
+        <v>1062</v>
+      </c>
+      <c r="O54" t="s">
+        <v>234</v>
+      </c>
+      <c r="P54" t="s">
+        <v>1284</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>1285</v>
+      </c>
+      <c r="R54" t="s">
+        <v>1286</v>
+      </c>
+      <c r="S54">
+        <v>999</v>
+      </c>
+      <c r="T54" t="s">
+        <v>90</v>
+      </c>
+      <c r="U54" s="1">
+        <v>999</v>
+      </c>
+      <c r="V54" t="s">
+        <v>1212</v>
+      </c>
+      <c r="W54" t="s">
+        <v>1266</v>
+      </c>
+      <c r="X54" t="s">
+        <v>1214</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>1267</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>1268</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>1115</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>1269</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>1271</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AG54" s="14" t="s">
+        <v>1254</v>
+      </c>
+      <c r="AH54" s="14" t="s">
+        <v>1272</v>
+      </c>
+      <c r="AI54" s="14" t="s">
+        <v>1273</v>
+      </c>
+      <c r="AJ54" s="14" t="s">
+        <v>1274</v>
+      </c>
+      <c r="AK54" s="14" t="s">
+        <v>1275</v>
+      </c>
+      <c r="AL54" s="14" t="s">
+        <v>1276</v>
+      </c>
+      <c r="AM54" s="14" t="s">
+        <v>1221</v>
+      </c>
+      <c r="AN54" s="14" t="s">
+        <v>1277</v>
+      </c>
+      <c r="AO54" s="14" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AP54" s="14" t="s">
+        <v>1278</v>
+      </c>
+      <c r="AQ54" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="AR54" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS54" s="14" t="s">
+        <v>1279</v>
+      </c>
+      <c r="AT54" s="14" t="s">
+        <v>1280</v>
+      </c>
+      <c r="AU54" s="14" t="s">
+        <v>1281</v>
+      </c>
+      <c r="AV54" s="14" t="s">
+        <v>1282</v>
+      </c>
+      <c r="AX54" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="AY54" s="14" t="s">
+        <v>1283</v>
+      </c>
+      <c r="AZ54" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="55" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="8">
+        <v>44855</v>
+      </c>
+      <c r="C55" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E55">
+        <v>20</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1287</v>
+      </c>
+      <c r="H55" t="s">
+        <v>327</v>
+      </c>
+      <c r="I55">
+        <v>630</v>
+      </c>
+      <c r="J55">
+        <v>85</v>
+      </c>
+      <c r="K55" t="s">
+        <v>1290</v>
+      </c>
+      <c r="L55" t="s">
+        <v>1288</v>
+      </c>
+      <c r="N55" t="s">
+        <v>1289</v>
+      </c>
+      <c r="O55" t="s">
+        <v>234</v>
+      </c>
+      <c r="P55" t="s">
+        <v>1313</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>1314</v>
+      </c>
+      <c r="R55">
+        <v>999</v>
+      </c>
+      <c r="S55" t="s">
+        <v>734</v>
+      </c>
+      <c r="T55" t="s">
+        <v>1057</v>
+      </c>
+      <c r="U55" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="V55" t="s">
+        <v>1292</v>
+      </c>
+      <c r="W55" t="s">
+        <v>1291</v>
+      </c>
+      <c r="X55" t="s">
+        <v>1293</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>1294</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>1295</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>1296</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>1297</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>754</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>1298</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AG55" s="14" t="s">
+        <v>1299</v>
+      </c>
+      <c r="AH55" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="AI55" s="14" t="s">
+        <v>1300</v>
+      </c>
+      <c r="AJ55" s="14" t="s">
+        <v>1301</v>
+      </c>
+      <c r="AK55" s="14" t="s">
+        <v>1302</v>
+      </c>
+      <c r="AL55" s="14" t="s">
+        <v>706</v>
+      </c>
+      <c r="AM55" s="14" t="s">
+        <v>1303</v>
+      </c>
+      <c r="AN55" s="14" t="s">
+        <v>1304</v>
+      </c>
+      <c r="AO55" s="14" t="s">
+        <v>1305</v>
+      </c>
+      <c r="AP55" s="14" t="s">
+        <v>1306</v>
+      </c>
+      <c r="AQ55" s="14" t="s">
+        <v>1307</v>
+      </c>
+      <c r="AR55" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS55" s="14" t="s">
+        <v>1308</v>
+      </c>
+      <c r="AT55" s="14" t="s">
+        <v>1309</v>
+      </c>
+      <c r="AU55" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="AV55" s="14" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AW55" s="14" t="s">
+        <v>1310</v>
+      </c>
+      <c r="AX55" s="14" t="s">
+        <v>1311</v>
+      </c>
+      <c r="AY55" s="14" t="s">
+        <v>1312</v>
+      </c>
+      <c r="AZ55" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="56" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="8">
+        <v>44855</v>
+      </c>
+      <c r="C56" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E56">
+        <v>20</v>
+      </c>
+      <c r="F56">
+        <v>7</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1315</v>
+      </c>
+      <c r="H56" t="s">
+        <v>327</v>
+      </c>
+      <c r="I56">
+        <v>26.3</v>
+      </c>
+      <c r="J56">
+        <v>48.05</v>
+      </c>
+      <c r="K56" t="s">
+        <v>1318</v>
+      </c>
+      <c r="L56" t="s">
+        <v>1316</v>
+      </c>
+      <c r="N56" t="s">
+        <v>1317</v>
+      </c>
+      <c r="O56" t="s">
+        <v>234</v>
+      </c>
+      <c r="P56" t="s">
+        <v>1339</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>1340</v>
+      </c>
+      <c r="R56">
+        <v>999</v>
+      </c>
+      <c r="S56">
+        <v>999</v>
+      </c>
+      <c r="T56" t="s">
+        <v>191</v>
+      </c>
+      <c r="U56" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="V56" t="s">
+        <v>1319</v>
+      </c>
+      <c r="W56" t="s">
+        <v>264</v>
+      </c>
+      <c r="X56" t="s">
+        <v>1320</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>1321</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>1322</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>1323</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>1324</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>1325</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>360</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>1326</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>1327</v>
+      </c>
+      <c r="AG56" s="14" t="s">
+        <v>1328</v>
+      </c>
+      <c r="AH56" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="AI56" s="14" t="s">
+        <v>1255</v>
+      </c>
+      <c r="AJ56" s="14" t="s">
+        <v>1329</v>
+      </c>
+      <c r="AK56" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="AL56" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="AM56" s="14" t="s">
+        <v>1331</v>
+      </c>
+      <c r="AN56" s="14" t="s">
+        <v>1332</v>
+      </c>
+      <c r="AO56" s="14" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AP56" s="14" t="s">
+        <v>1333</v>
+      </c>
+      <c r="AQ56" s="14" t="s">
+        <v>1334</v>
+      </c>
+      <c r="AR56" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS56" s="14" t="s">
+        <v>1335</v>
+      </c>
+      <c r="AT56" s="14" t="s">
+        <v>1336</v>
+      </c>
+      <c r="AU56" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV56" s="14" t="s">
+        <v>1337</v>
+      </c>
+      <c r="AX56" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="AY56" s="14" t="s">
+        <v>1338</v>
+      </c>
+      <c r="AZ56" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="57" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="8">
+        <v>44855</v>
+      </c>
+      <c r="C57" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E57">
+        <v>20</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1343</v>
+      </c>
+      <c r="H57" t="s">
+        <v>327</v>
+      </c>
+      <c r="I57">
+        <v>630</v>
+      </c>
+      <c r="J57">
+        <v>85</v>
+      </c>
+      <c r="K57" t="s">
+        <v>1345</v>
+      </c>
+      <c r="L57" t="s">
+        <v>1344</v>
+      </c>
+      <c r="N57" t="s">
+        <v>1317</v>
+      </c>
+      <c r="O57" t="s">
+        <v>234</v>
+      </c>
+      <c r="P57" t="s">
+        <v>1364</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>1365</v>
+      </c>
+      <c r="R57">
+        <v>999</v>
+      </c>
+      <c r="S57">
+        <v>999</v>
+      </c>
+      <c r="T57" t="s">
+        <v>54</v>
+      </c>
+      <c r="U57" s="1">
+        <v>999</v>
+      </c>
+      <c r="V57" t="s">
+        <v>1346</v>
+      </c>
+      <c r="W57" t="s">
+        <v>1347</v>
+      </c>
+      <c r="X57" t="s">
+        <v>1348</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>1376</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>1349</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>1324</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>1350</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>623</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AG57" s="14" t="s">
+        <v>1351</v>
+      </c>
+      <c r="AH57" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="AI57" s="14" t="s">
+        <v>1352</v>
+      </c>
+      <c r="AJ57" s="14" t="s">
+        <v>1353</v>
+      </c>
+      <c r="AK57" s="14" t="s">
+        <v>1354</v>
+      </c>
+      <c r="AL57" s="14" t="s">
+        <v>1355</v>
+      </c>
+      <c r="AM57" s="14" t="s">
+        <v>1356</v>
+      </c>
+      <c r="AN57" s="14" t="s">
+        <v>1357</v>
+      </c>
+      <c r="AO57" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="AP57" s="14" t="s">
+        <v>1358</v>
+      </c>
+      <c r="AQ57" s="14" t="s">
+        <v>871</v>
+      </c>
+      <c r="AR57" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS57" s="14" t="s">
+        <v>1359</v>
+      </c>
+      <c r="AT57" s="14" t="s">
+        <v>1360</v>
+      </c>
+      <c r="AU57" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV57" s="14" t="s">
+        <v>1361</v>
+      </c>
+      <c r="AX57" s="14" t="s">
+        <v>1362</v>
+      </c>
+      <c r="AY57" s="14" t="s">
+        <v>1363</v>
+      </c>
+      <c r="AZ57" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="58" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="8">
+        <v>44855</v>
+      </c>
+      <c r="C58" t="s">
+        <v>51</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E58">
+        <v>21</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H58" t="s">
+        <v>327</v>
+      </c>
+      <c r="I58">
+        <v>26.4</v>
+      </c>
+      <c r="J58">
+        <v>48.05</v>
+      </c>
+      <c r="K58" t="s">
+        <v>1372</v>
+      </c>
+      <c r="L58" t="s">
+        <v>1367</v>
+      </c>
+      <c r="M58" t="s">
+        <v>1368</v>
+      </c>
+      <c r="N58" t="s">
+        <v>1317</v>
+      </c>
+      <c r="O58" t="s">
+        <v>234</v>
+      </c>
+      <c r="P58" t="s">
+        <v>1396</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>1397</v>
+      </c>
+      <c r="R58">
+        <v>999</v>
+      </c>
+      <c r="S58">
+        <v>999</v>
+      </c>
+      <c r="T58" t="s">
+        <v>90</v>
+      </c>
+      <c r="U58" s="1">
+        <v>999</v>
+      </c>
+      <c r="V58" t="s">
+        <v>1373</v>
+      </c>
+      <c r="W58" t="s">
+        <v>419</v>
+      </c>
+      <c r="X58" t="s">
+        <v>1374</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>1375</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>1377</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>1378</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>1379</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>1380</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>1381</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>1382</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>1383</v>
+      </c>
+      <c r="AG58" s="14" t="s">
+        <v>1384</v>
+      </c>
+      <c r="AH58" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="AI58" s="14" t="s">
+        <v>1385</v>
+      </c>
+      <c r="AJ58" s="14" t="s">
+        <v>1386</v>
+      </c>
+      <c r="AK58" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="AL58">
+        <v>999</v>
+      </c>
+      <c r="AM58" s="14" t="s">
+        <v>1387</v>
+      </c>
+      <c r="AN58" s="14" t="s">
+        <v>1388</v>
+      </c>
+      <c r="AO58" s="14" t="s">
+        <v>1389</v>
+      </c>
+      <c r="AP58" s="14" t="s">
+        <v>1390</v>
+      </c>
+      <c r="AQ58" s="14" t="s">
+        <v>1391</v>
+      </c>
+      <c r="AR58" s="14" t="s">
+        <v>847</v>
+      </c>
+      <c r="AS58" s="14" t="s">
+        <v>1392</v>
+      </c>
+      <c r="AT58" s="14" t="s">
+        <v>1393</v>
+      </c>
+      <c r="AU58" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="AV58" s="14" t="s">
+        <v>1157</v>
+      </c>
+      <c r="AW58" s="14" t="s">
+        <v>1394</v>
+      </c>
+      <c r="AX58" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AY58" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="AZ58" s="1" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="59" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="8">
+        <v>44855</v>
+      </c>
+      <c r="C59" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E59">
+        <v>21</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1369</v>
+      </c>
+      <c r="H59" t="s">
+        <v>327</v>
+      </c>
+      <c r="I59">
+        <v>640</v>
+      </c>
+      <c r="J59">
+        <v>85</v>
+      </c>
+      <c r="K59" t="s">
+        <v>1398</v>
+      </c>
+      <c r="L59" t="s">
+        <v>1370</v>
+      </c>
+      <c r="M59" t="s">
+        <v>1371</v>
+      </c>
+      <c r="N59" t="s">
+        <v>1317</v>
+      </c>
+      <c r="O59" t="s">
+        <v>234</v>
+      </c>
+      <c r="P59" t="s">
+        <v>1415</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>1416</v>
+      </c>
+      <c r="R59">
+        <v>999</v>
+      </c>
+      <c r="S59">
+        <v>999</v>
+      </c>
+      <c r="T59" t="s">
+        <v>90</v>
+      </c>
+      <c r="U59" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="V59" t="s">
+        <v>1399</v>
+      </c>
+      <c r="W59" t="s">
+        <v>1400</v>
+      </c>
+      <c r="X59" t="s">
+        <v>1401</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>1402</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>1403</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>1404</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>1405</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>361</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AG59" s="14" t="s">
+        <v>1328</v>
+      </c>
+      <c r="AH59" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="AI59" s="14" t="s">
+        <v>1406</v>
+      </c>
+      <c r="AJ59" s="14" t="s">
+        <v>1407</v>
+      </c>
+      <c r="AK59" s="14" t="s">
+        <v>1408</v>
+      </c>
+      <c r="AL59" s="14" t="s">
+        <v>706</v>
+      </c>
+      <c r="AM59" s="14" t="s">
+        <v>1303</v>
+      </c>
+      <c r="AN59" s="14" t="s">
+        <v>1409</v>
+      </c>
+      <c r="AO59" s="14" t="s">
+        <v>1410</v>
+      </c>
+      <c r="AP59" s="14" t="s">
+        <v>1278</v>
+      </c>
+      <c r="AQ59" s="14" t="s">
+        <v>1411</v>
+      </c>
+      <c r="AR59" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS59" s="14" t="s">
+        <v>1412</v>
+      </c>
+      <c r="AT59" s="14" t="s">
+        <v>1413</v>
+      </c>
+      <c r="AU59" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV59" s="14" t="s">
+        <v>983</v>
+      </c>
+      <c r="AX59" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="AY59" s="14" t="s">
+        <v>1414</v>
+      </c>
+      <c r="AZ59" s="1" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="60" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="C65" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="C66" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="C67" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="C68" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="C69" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="C70" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="C71" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Data/DWA_JH.xlsx
+++ b/Data/DWA_JH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA4632D-F519-47C8-A90D-34AC76D3E518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B56835-7EA1-4FCB-B6A2-2C8A44E617FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6880" yWindow="1830" windowWidth="14400" windowHeight="7250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8600" yWindow="2500" windowWidth="14400" windowHeight="7250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4622" uniqueCount="1418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3060" uniqueCount="1794">
   <si>
     <t>ID</t>
   </si>
@@ -4507,12 +4507,1140 @@
   <si>
     <t>Lehrer u Schühler aus der gleichen Gegend</t>
   </si>
+  <si>
+    <t>l'</t>
+  </si>
+  <si>
+    <t>III_24_0001</t>
+  </si>
+  <si>
+    <t>Michelbach</t>
+  </si>
+  <si>
+    <t>Rastadt</t>
+  </si>
+  <si>
+    <t>g-f</t>
+  </si>
+  <si>
+    <t>Ämenz (w)</t>
+  </si>
+  <si>
+    <t>e' Licht (w)</t>
+  </si>
+  <si>
+    <t>Roßbeer (w)</t>
+  </si>
+  <si>
+    <t>Dissl (w)</t>
+  </si>
+  <si>
+    <t>Ent (w)</t>
+  </si>
+  <si>
+    <t>Muk (w)</t>
+  </si>
+  <si>
+    <t>Umet (s)</t>
+  </si>
+  <si>
+    <t>Gugumma (m)</t>
+  </si>
+  <si>
+    <t>Hagebutte (w)</t>
+  </si>
+  <si>
+    <t>Gogler (m), Huh (w)</t>
+  </si>
+  <si>
+    <t>Hewomm (w)</t>
+  </si>
+  <si>
+    <t>Grumbirn (w)</t>
+  </si>
+  <si>
+    <t>Katz (w), Roller (m)</t>
+  </si>
+  <si>
+    <t>Mulwerfer (w)</t>
+  </si>
+  <si>
+    <t>Mohrrübe (w), Gelrübe</t>
+  </si>
+  <si>
+    <t>Mutterschwein (s), Las</t>
+  </si>
+  <si>
+    <t>Pate (m)</t>
+  </si>
+  <si>
+    <t>Geisl (w)</t>
+  </si>
+  <si>
+    <t>Pflum (w)</t>
+  </si>
+  <si>
+    <t>Stecknodl (w), Glifl</t>
+  </si>
+  <si>
+    <t>[Unterteller (s)]</t>
+  </si>
+  <si>
+    <t>Topf (m), Hafen</t>
+  </si>
+  <si>
+    <t>kigeln</t>
+  </si>
+  <si>
+    <t>Geis (w)</t>
+  </si>
+  <si>
+    <t>Jettinger Hans</t>
+  </si>
+  <si>
+    <t>Heuchlingen</t>
+  </si>
+  <si>
+    <t>Kuppinger Kurt</t>
+  </si>
+  <si>
+    <t>III_24_0002</t>
+  </si>
+  <si>
+    <t>Sulzbach</t>
+  </si>
+  <si>
+    <t>g-g</t>
+  </si>
+  <si>
+    <t>Emens (w)</t>
+  </si>
+  <si>
+    <t>Liecht (s)</t>
+  </si>
+  <si>
+    <t>Dissel (w)</t>
+  </si>
+  <si>
+    <t>Elschder (w)</t>
+  </si>
+  <si>
+    <t>Fleddermis (w)</t>
+  </si>
+  <si>
+    <t>Mugg (w)</t>
+  </si>
+  <si>
+    <t>Omet (s)</t>
+  </si>
+  <si>
+    <t>Gugummer (m)</t>
+  </si>
+  <si>
+    <t>Hagebudde (w)</t>
+  </si>
+  <si>
+    <t>Gockler (m), Hoo (w)</t>
+  </si>
+  <si>
+    <t>Grumbir (w)</t>
+  </si>
+  <si>
+    <t>Raller (m)</t>
+  </si>
+  <si>
+    <t>Gelrib (w)</t>
+  </si>
+  <si>
+    <t>Loos (w)</t>
+  </si>
+  <si>
+    <t>Gfetrig (m)</t>
+  </si>
+  <si>
+    <t>Gaißel (w)</t>
+  </si>
+  <si>
+    <t>Gifdl (s)</t>
+  </si>
+  <si>
+    <t>Striggnoddel (w)</t>
+  </si>
+  <si>
+    <t>[Kaffeschissel (w)]</t>
+  </si>
+  <si>
+    <t>Milichhaffe (m)</t>
+  </si>
+  <si>
+    <t>Gais (w)</t>
+  </si>
+  <si>
+    <t>Hamloser</t>
+  </si>
+  <si>
+    <t>Deggingen</t>
+  </si>
+  <si>
+    <t>III_24_0023</t>
+  </si>
+  <si>
+    <t>Schellbronn</t>
+  </si>
+  <si>
+    <t>Pforzheim</t>
+  </si>
+  <si>
+    <t>g-w</t>
+  </si>
+  <si>
+    <t>Omais</t>
+  </si>
+  <si>
+    <t>Broobeer</t>
+  </si>
+  <si>
+    <t>Fleddermaus</t>
+  </si>
+  <si>
+    <t>Guggummere</t>
+  </si>
+  <si>
+    <t>Goggler, Hua</t>
+  </si>
+  <si>
+    <t>Grumbier</t>
+  </si>
+  <si>
+    <t>Reller</t>
+  </si>
+  <si>
+    <t>Schär</t>
+  </si>
+  <si>
+    <t>Gelrüebe</t>
+  </si>
+  <si>
+    <t>Kossel</t>
+  </si>
+  <si>
+    <t>Pfedderich</t>
+  </si>
+  <si>
+    <t>Gaisl</t>
+  </si>
+  <si>
+    <t>Gluf</t>
+  </si>
+  <si>
+    <t>Stricknoddl</t>
+  </si>
+  <si>
+    <t>[Schüssö]</t>
+  </si>
+  <si>
+    <t>Haafe</t>
+  </si>
+  <si>
+    <t>Gais</t>
+  </si>
+  <si>
+    <t>Eugen Brenk</t>
+  </si>
+  <si>
+    <t>Ersingen bei Pforzheim</t>
+  </si>
+  <si>
+    <t>III_24_0024</t>
+  </si>
+  <si>
+    <t>Hamberg</t>
+  </si>
+  <si>
+    <t>g-x</t>
+  </si>
+  <si>
+    <t>Brabeer</t>
+  </si>
+  <si>
+    <t>Elsder</t>
+  </si>
+  <si>
+    <t>Gugumre</t>
+  </si>
+  <si>
+    <t>Goggler, Hue</t>
+  </si>
+  <si>
+    <t>Grumbiere</t>
+  </si>
+  <si>
+    <t>Relling</t>
+  </si>
+  <si>
+    <t>Geeleriwe</t>
+  </si>
+  <si>
+    <t>Pfedderich, Gettle</t>
+  </si>
+  <si>
+    <t>Gaisel &lt;?&gt;</t>
+  </si>
+  <si>
+    <t>Glifle</t>
+  </si>
+  <si>
+    <t>Striggnodel</t>
+  </si>
+  <si>
+    <t>Schissele</t>
+  </si>
+  <si>
+    <t>Unnertässle</t>
+  </si>
+  <si>
+    <t>Müller</t>
+  </si>
+  <si>
+    <t>III_24_0025</t>
+  </si>
+  <si>
+    <t>Steinegg</t>
+  </si>
+  <si>
+    <t>Omaise</t>
+  </si>
+  <si>
+    <t>Branbeer</t>
+  </si>
+  <si>
+    <t>Elschter</t>
+  </si>
+  <si>
+    <t>Ede</t>
+  </si>
+  <si>
+    <t>Muge</t>
+  </si>
+  <si>
+    <t>Emd</t>
+  </si>
+  <si>
+    <t>Gogler, Hohn</t>
+  </si>
+  <si>
+    <t>Hewomm</t>
+  </si>
+  <si>
+    <t>Krombiere</t>
+  </si>
+  <si>
+    <t>Pfaume</t>
+  </si>
+  <si>
+    <t>[Schüssel]</t>
+  </si>
+  <si>
+    <t>Milchhafe</t>
+  </si>
+  <si>
+    <t>III_24_0026</t>
+  </si>
+  <si>
+    <t>Tiefenbronn</t>
+  </si>
+  <si>
+    <t>Omaïse</t>
+  </si>
+  <si>
+    <t>Laicht</t>
+  </si>
+  <si>
+    <t>Deixl</t>
+  </si>
+  <si>
+    <t>Elschdr</t>
+  </si>
+  <si>
+    <t>Andrecht</t>
+  </si>
+  <si>
+    <t>Gürge</t>
+  </si>
+  <si>
+    <t>Göcher, Hoa</t>
+  </si>
+  <si>
+    <t>Grummbier</t>
+  </si>
+  <si>
+    <t>Stecknoadel</t>
+  </si>
+  <si>
+    <t>Stricknoadel</t>
+  </si>
+  <si>
+    <t>Kaffeeschüssel</t>
+  </si>
+  <si>
+    <t>Unterteller</t>
+  </si>
+  <si>
+    <t>veredle</t>
+  </si>
+  <si>
+    <t>Appel Ludwig</t>
+  </si>
+  <si>
+    <t>Distelhausen</t>
+  </si>
+  <si>
+    <t>III_24_0034</t>
+  </si>
+  <si>
+    <t>Leiche (eine)</t>
+  </si>
+  <si>
+    <t>Herrenvogel (m)</t>
+  </si>
+  <si>
+    <t>Ete (w)</t>
+  </si>
+  <si>
+    <t>Muke (w)</t>
+  </si>
+  <si>
+    <t>Gockler (w), Gockel (m)</t>
+  </si>
+  <si>
+    <t>Grumbiere (w), Kartoffel (w)</t>
+  </si>
+  <si>
+    <t>Scherrmaus , Scherr. (w)</t>
+  </si>
+  <si>
+    <t>Gelbe Rübe (w)</t>
+  </si>
+  <si>
+    <t>Kossel (w), Lose (w)</t>
+  </si>
+  <si>
+    <t>Pfedderich (m)</t>
+  </si>
+  <si>
+    <t>Geisel (w)</t>
+  </si>
+  <si>
+    <t>Klufle (s)</t>
+  </si>
+  <si>
+    <t>Kaffeeschüssel (w)</t>
+  </si>
+  <si>
+    <t>Tellerle (s)</t>
+  </si>
+  <si>
+    <t>Geise (w), Geisle (w)</t>
+  </si>
+  <si>
+    <t>irdener Hafe (m)</t>
+  </si>
+  <si>
+    <t>Frick</t>
+  </si>
+  <si>
+    <t>III_24_0035</t>
+  </si>
+  <si>
+    <t>Lehningen</t>
+  </si>
+  <si>
+    <t>g-H</t>
+  </si>
+  <si>
+    <t>Emt</t>
+  </si>
+  <si>
+    <t>Gugommere</t>
+  </si>
+  <si>
+    <t>Gakler, Hohn</t>
+  </si>
+  <si>
+    <t>Havertel.</t>
+  </si>
+  <si>
+    <t>Kossell</t>
+  </si>
+  <si>
+    <t>Pfederich</t>
+  </si>
+  <si>
+    <t>Spatze</t>
+  </si>
+  <si>
+    <t>Gliefle</t>
+  </si>
+  <si>
+    <t>verzweigen</t>
+  </si>
+  <si>
+    <t>Julius Krug</t>
+  </si>
+  <si>
+    <t>Wöschbach</t>
+  </si>
+  <si>
+    <t>III_24_0036</t>
+  </si>
+  <si>
+    <t>Mühlhausen</t>
+  </si>
+  <si>
+    <t>g-I</t>
+  </si>
+  <si>
+    <t>Omaise (w)</t>
+  </si>
+  <si>
+    <t>vorgraawe</t>
+  </si>
+  <si>
+    <t>Deigsel (w)</t>
+  </si>
+  <si>
+    <t>Elschdre (w)</t>
+  </si>
+  <si>
+    <t>Edrich (m)</t>
+  </si>
+  <si>
+    <t>Fleddormaus (w)</t>
+  </si>
+  <si>
+    <t>Gurige (w)</t>
+  </si>
+  <si>
+    <t>Goglor (m), Huun (w)</t>
+  </si>
+  <si>
+    <t>Grombiere (w)</t>
+  </si>
+  <si>
+    <t>Rälleng (m), Rallor (m)</t>
+  </si>
+  <si>
+    <t>Maulwurf (m)</t>
+  </si>
+  <si>
+    <t>Mohrriewe (w)</t>
+  </si>
+  <si>
+    <t>Kossel (w)</t>
+  </si>
+  <si>
+    <t>Paade (m)</t>
+  </si>
+  <si>
+    <t>Gaisl (w)</t>
+  </si>
+  <si>
+    <t>schälde, gragele</t>
+  </si>
+  <si>
+    <t>Schbadz (m)</t>
+  </si>
+  <si>
+    <t>Schdachlbeer (w)</t>
+  </si>
+  <si>
+    <t>Schdecknodl (w)</t>
+  </si>
+  <si>
+    <t>Schdrignodl (w)</t>
+  </si>
+  <si>
+    <t>Kaffeeschissl (w)</t>
+  </si>
+  <si>
+    <t>Onnortässle (s)</t>
+  </si>
+  <si>
+    <t>Hafe (w)</t>
+  </si>
+  <si>
+    <t>Richard Gasserd</t>
+  </si>
+  <si>
+    <t>Konstanz</t>
+  </si>
+  <si>
+    <t>Fritz Geisel</t>
+  </si>
+  <si>
+    <t>III_24_0105</t>
+  </si>
+  <si>
+    <t>Wäschenbeuren</t>
+  </si>
+  <si>
+    <t>i-i</t>
+  </si>
+  <si>
+    <t>Leiche</t>
+  </si>
+  <si>
+    <t>Brauubeere</t>
+  </si>
+  <si>
+    <t>Entemann, Erbel</t>
+  </si>
+  <si>
+    <t>Flêdermaus</t>
+  </si>
+  <si>
+    <t>Muckê</t>
+  </si>
+  <si>
+    <t>Gukumer</t>
+  </si>
+  <si>
+    <t>Hagêbuttê</t>
+  </si>
+  <si>
+    <t>Gokeler, Henn</t>
+  </si>
+  <si>
+    <t>Grombirê, Grundbirne</t>
+  </si>
+  <si>
+    <t>Rälling</t>
+  </si>
+  <si>
+    <t>Rübe</t>
+  </si>
+  <si>
+    <t>Su[ck]el</t>
+  </si>
+  <si>
+    <t>dote, Goti</t>
+  </si>
+  <si>
+    <t>Pflôma</t>
+  </si>
+  <si>
+    <t>schimpfâ</t>
+  </si>
+  <si>
+    <t>Stecknôdl</t>
+  </si>
+  <si>
+    <t>Stricknôdl</t>
+  </si>
+  <si>
+    <t>Hafê</t>
+  </si>
+  <si>
+    <t>bêlze</t>
+  </si>
+  <si>
+    <t>Alfons Mayer</t>
+  </si>
+  <si>
+    <t>Bad Ditzenbach</t>
+  </si>
+  <si>
+    <t>m'</t>
+  </si>
+  <si>
+    <t>III_25_0002</t>
+  </si>
+  <si>
+    <t>Langenbrand</t>
+  </si>
+  <si>
+    <t>Rastatt</t>
+  </si>
+  <si>
+    <t>i-R</t>
+  </si>
+  <si>
+    <t>Saichhämese</t>
+  </si>
+  <si>
+    <t>Dissel (m)</t>
+  </si>
+  <si>
+    <t>Fledermuus</t>
+  </si>
+  <si>
+    <t>Gurk</t>
+  </si>
+  <si>
+    <t>Gockla, Huh</t>
+  </si>
+  <si>
+    <t>Krumbarn</t>
+  </si>
+  <si>
+    <t>Rolla, Katzerolla</t>
+  </si>
+  <si>
+    <t>Mulwerfa</t>
+  </si>
+  <si>
+    <t>Gälrüewe</t>
+  </si>
+  <si>
+    <t>nb &lt;gibt keinen&gt;</t>
+  </si>
+  <si>
+    <t>brille</t>
+  </si>
+  <si>
+    <t>Stachelbea</t>
+  </si>
+  <si>
+    <t>Gieftel</t>
+  </si>
+  <si>
+    <t>[Schissel]</t>
+  </si>
+  <si>
+    <t>aimpfa</t>
+  </si>
+  <si>
+    <t>Otto Maier</t>
+  </si>
+  <si>
+    <t>Aulfingen</t>
+  </si>
+  <si>
+    <t>Donaueschingen</t>
+  </si>
+  <si>
+    <t>III_25_0003</t>
+  </si>
+  <si>
+    <t>Forbach</t>
+  </si>
+  <si>
+    <t>i-U</t>
+  </si>
+  <si>
+    <t>Saichhemes</t>
+  </si>
+  <si>
+    <t>Leich (e)</t>
+  </si>
+  <si>
+    <t>Fruhbeer</t>
+  </si>
+  <si>
+    <t>Dissel</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Fleddamus</t>
+  </si>
+  <si>
+    <t>Guguma</t>
+  </si>
+  <si>
+    <t>Gitzlbohne</t>
+  </si>
+  <si>
+    <t>Gokla, Huä</t>
+  </si>
+  <si>
+    <t>Grummbian</t>
+  </si>
+  <si>
+    <t>Raller</t>
+  </si>
+  <si>
+    <t>Gälarieb</t>
+  </si>
+  <si>
+    <t>Looß</t>
+  </si>
+  <si>
+    <t>Vaddermann</t>
+  </si>
+  <si>
+    <t>Gaißl</t>
+  </si>
+  <si>
+    <t>bruddln</t>
+  </si>
+  <si>
+    <t>Schdachelbeer</t>
+  </si>
+  <si>
+    <t>Giefdl</t>
+  </si>
+  <si>
+    <t>Schdriggnodl</t>
+  </si>
+  <si>
+    <t>[Schissl]</t>
+  </si>
+  <si>
+    <t>umzwiere</t>
+  </si>
+  <si>
+    <t>Unter Mithilfe aller Lehrer</t>
+  </si>
+  <si>
+    <t>Durch die Schüler und derren Eltern</t>
+  </si>
+  <si>
+    <t>III_25_0004</t>
+  </si>
+  <si>
+    <t>Seichhemes</t>
+  </si>
+  <si>
+    <t>Mück</t>
+  </si>
+  <si>
+    <t>Gitzelbohn</t>
+  </si>
+  <si>
+    <t>Krummbeere</t>
+  </si>
+  <si>
+    <t>Gaißel</t>
+  </si>
+  <si>
+    <t>brüddln</t>
+  </si>
+  <si>
+    <t>III_25_0005</t>
+  </si>
+  <si>
+    <t>Reichental</t>
+  </si>
+  <si>
+    <t>i. Murgtal</t>
+  </si>
+  <si>
+    <t>i-V</t>
+  </si>
+  <si>
+    <t>Brubeer</t>
+  </si>
+  <si>
+    <t>Elschster</t>
+  </si>
+  <si>
+    <t>Fleddermuus</t>
+  </si>
+  <si>
+    <t>Muggä</t>
+  </si>
+  <si>
+    <t>Omet</t>
+  </si>
+  <si>
+    <t>Hagäbuttä</t>
+  </si>
+  <si>
+    <t>Gockler, Huh</t>
+  </si>
+  <si>
+    <t>Heewåmm</t>
+  </si>
+  <si>
+    <t>Grumban</t>
+  </si>
+  <si>
+    <t>Ralla</t>
+  </si>
+  <si>
+    <t>Mulwärfa</t>
+  </si>
+  <si>
+    <t>Gälriäbä</t>
+  </si>
+  <si>
+    <t>Loos</t>
+  </si>
+  <si>
+    <t>Pfedarik</t>
+  </si>
+  <si>
+    <t>Pflummä</t>
+  </si>
+  <si>
+    <t>schäldä</t>
+  </si>
+  <si>
+    <t>Schtachebeer</t>
+  </si>
+  <si>
+    <t>Giftlä</t>
+  </si>
+  <si>
+    <t>Schtriknold</t>
+  </si>
+  <si>
+    <t>Ungadella</t>
+  </si>
+  <si>
+    <t>Hafä</t>
+  </si>
+  <si>
+    <t>aimpfä</t>
+  </si>
+  <si>
+    <t>Otto Hoatz</t>
+  </si>
+  <si>
+    <t>Altheim</t>
+  </si>
+  <si>
+    <t>Amt Buchen</t>
+  </si>
+  <si>
+    <t>8. Schj.</t>
+  </si>
+  <si>
+    <t>III_25_0006</t>
+  </si>
+  <si>
+    <t>Obertsrot</t>
+  </si>
+  <si>
+    <t>i-N</t>
+  </si>
+  <si>
+    <t>Hagebutt</t>
+  </si>
+  <si>
+    <t>Gockler, Huhn</t>
+  </si>
+  <si>
+    <t>Erdapfel</t>
+  </si>
+  <si>
+    <t>Mulwerfer</t>
+  </si>
+  <si>
+    <t>Mohrrüb</t>
+  </si>
+  <si>
+    <t>lärmen</t>
+  </si>
+  <si>
+    <t>Giftel</t>
+  </si>
+  <si>
+    <t>[Tasse, Kaffeeschissel]</t>
+  </si>
+  <si>
+    <t>[Rah]hafe</t>
+  </si>
+  <si>
+    <t>veredeln</t>
+  </si>
+  <si>
+    <t>Konrad Erbacher</t>
+  </si>
+  <si>
+    <t>Heddesheim</t>
+  </si>
+  <si>
+    <t>III_25_0007</t>
+  </si>
+  <si>
+    <t>Hilpertsau</t>
+  </si>
+  <si>
+    <t>i-O</t>
+  </si>
+  <si>
+    <t>Oomeis</t>
+  </si>
+  <si>
+    <t>Diss'l</t>
+  </si>
+  <si>
+    <t>Gackler, Huh' (d')</t>
+  </si>
+  <si>
+    <t>Hebamm'</t>
+  </si>
+  <si>
+    <t>Grumbirn'</t>
+  </si>
+  <si>
+    <t>Geelrübe</t>
+  </si>
+  <si>
+    <t>Gött'l</t>
+  </si>
+  <si>
+    <t>Kruselbeer</t>
+  </si>
+  <si>
+    <t>Guve</t>
+  </si>
+  <si>
+    <t>[Kaffeeschüssel]</t>
+  </si>
+  <si>
+    <t>umimpfen</t>
+  </si>
+  <si>
+    <t>Hauptl.Bächler</t>
+  </si>
+  <si>
+    <t>Eigeltingen</t>
+  </si>
+  <si>
+    <t>Amt Stockach</t>
+  </si>
+  <si>
+    <t>III_25_0044</t>
+  </si>
+  <si>
+    <t>Sindelfingen</t>
+  </si>
+  <si>
+    <t>k-w</t>
+  </si>
+  <si>
+    <t>Ameis (w)</t>
+  </si>
+  <si>
+    <t>Beerdigung, Leich (w)</t>
+  </si>
+  <si>
+    <t>Brobeer (m)</t>
+  </si>
+  <si>
+    <t>Daigsel (m u. w)</t>
+  </si>
+  <si>
+    <t>Atrecht (m), Enterich (m)</t>
+  </si>
+  <si>
+    <t>Mucke (w), Mucka (w)</t>
+  </si>
+  <si>
+    <t>Ohmd (s)</t>
+  </si>
+  <si>
+    <t>Gurka (w)</t>
+  </si>
+  <si>
+    <t>Hagabutza (m)</t>
+  </si>
+  <si>
+    <t>Gackeler (m), Hoah (w)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erdbirn, Krumbira (w) </t>
+  </si>
+  <si>
+    <t>Gelbe Rüba (w)</t>
+  </si>
+  <si>
+    <t>Kosel (w)</t>
+  </si>
+  <si>
+    <t>döta (m)</t>
+  </si>
+  <si>
+    <t>Peitsch (w)</t>
+  </si>
+  <si>
+    <t>[Tass' (w)]</t>
+  </si>
+  <si>
+    <t>Stockhafa (m)</t>
+  </si>
+  <si>
+    <t>emda</t>
+  </si>
+  <si>
+    <t>Hahn</t>
+  </si>
+  <si>
+    <t>Tübingen</t>
+  </si>
+  <si>
+    <t>Breitenholz</t>
+  </si>
+  <si>
+    <t>III_25_0047</t>
+  </si>
+  <si>
+    <t>Döffingen</t>
+  </si>
+  <si>
+    <t>k-P</t>
+  </si>
+  <si>
+    <t>Emoase (w)</t>
+  </si>
+  <si>
+    <t>Leiche (w)</t>
+  </si>
+  <si>
+    <t>Brobeer</t>
+  </si>
+  <si>
+    <t>Eet (w)</t>
+  </si>
+  <si>
+    <t>Muche (w)</t>
+  </si>
+  <si>
+    <t>Gugumer (w)</t>
+  </si>
+  <si>
+    <t>Hegenbutzen (die, w)</t>
+  </si>
+  <si>
+    <t>Gackeler, Hoa, Hen</t>
+  </si>
+  <si>
+    <t>Krumbir (w)</t>
+  </si>
+  <si>
+    <t>Schear (w)</t>
+  </si>
+  <si>
+    <t>Kosel</t>
+  </si>
+  <si>
+    <t>Dette</t>
+  </si>
+  <si>
+    <t>Geissel</t>
+  </si>
+  <si>
+    <t>ehmden</t>
+  </si>
+  <si>
+    <t>Geiss</t>
+  </si>
+  <si>
+    <t>Geislingen / [?]</t>
+  </si>
+  <si>
+    <t>Kinder</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4556,6 +5684,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4594,7 +5728,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -4610,6 +5744,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4928,10 +6063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA75"/>
+  <dimension ref="A1:BA96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T59" sqref="T59"/>
+    <sheetView tabSelected="1" topLeftCell="Q55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U77" sqref="U77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -13811,121 +14946,2908 @@
       <c r="A60">
         <v>59</v>
       </c>
+      <c r="B60" s="8">
+        <v>44858</v>
+      </c>
       <c r="C60" t="s">
         <v>51</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E60">
+        <v>17</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1419</v>
+      </c>
+      <c r="H60" t="s">
+        <v>327</v>
+      </c>
+      <c r="I60">
+        <v>6</v>
+      </c>
+      <c r="J60">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="K60" t="s">
+        <v>1422</v>
+      </c>
+      <c r="L60" t="s">
+        <v>1420</v>
+      </c>
+      <c r="N60" t="s">
+        <v>1421</v>
+      </c>
+      <c r="O60" t="s">
+        <v>234</v>
+      </c>
+      <c r="P60" t="s">
+        <v>1447</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>1448</v>
+      </c>
+      <c r="R60">
+        <v>999</v>
+      </c>
+      <c r="S60" t="s">
+        <v>380</v>
+      </c>
+      <c r="T60" t="s">
+        <v>54</v>
+      </c>
+      <c r="U60" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="V60" t="s">
+        <v>1423</v>
+      </c>
+      <c r="W60" t="s">
+        <v>1424</v>
+      </c>
+      <c r="X60" t="s">
+        <v>1425</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>1426</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>1427</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>1094</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>1428</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>1429</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>1430</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>1431</v>
+      </c>
+      <c r="AG60" s="14" t="s">
+        <v>1432</v>
+      </c>
+      <c r="AH60" s="14" t="s">
+        <v>1433</v>
+      </c>
+      <c r="AI60" s="14" t="s">
+        <v>1434</v>
+      </c>
+      <c r="AJ60" s="14" t="s">
+        <v>1435</v>
+      </c>
+      <c r="AK60" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="AL60" s="14" t="s">
+        <v>1437</v>
+      </c>
+      <c r="AM60" s="14" t="s">
+        <v>1438</v>
+      </c>
+      <c r="AN60" s="14" t="s">
+        <v>1439</v>
+      </c>
+      <c r="AO60" s="14" t="s">
+        <v>1440</v>
+      </c>
+      <c r="AP60" s="14" t="s">
+        <v>1441</v>
+      </c>
+      <c r="AQ60" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="AR60" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="AS60" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT60" s="14" t="s">
+        <v>1442</v>
+      </c>
+      <c r="AU60" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="AW60" s="14" t="s">
+        <v>1443</v>
+      </c>
+      <c r="AX60" s="14" t="s">
+        <v>1444</v>
+      </c>
+      <c r="AY60" s="14" t="s">
+        <v>1445</v>
+      </c>
+      <c r="AZ60" s="1" t="s">
+        <v>1446</v>
       </c>
     </row>
     <row r="61" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
+      <c r="B61" s="8">
+        <v>44858</v>
+      </c>
       <c r="C61" t="s">
         <v>51</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E61">
+        <v>17</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H61" t="s">
+        <v>327</v>
+      </c>
+      <c r="I61">
+        <v>26</v>
+      </c>
+      <c r="J61">
+        <v>48.45</v>
+      </c>
+      <c r="K61" t="s">
+        <v>1452</v>
+      </c>
+      <c r="L61" t="s">
+        <v>1451</v>
+      </c>
+      <c r="N61" t="s">
+        <v>1421</v>
+      </c>
+      <c r="O61" t="s">
+        <v>234</v>
+      </c>
+      <c r="P61" t="s">
+        <v>1474</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>1475</v>
+      </c>
+      <c r="R61">
+        <v>999</v>
+      </c>
+      <c r="S61">
+        <v>999</v>
+      </c>
+      <c r="T61" t="s">
+        <v>90</v>
+      </c>
+      <c r="U61" s="1">
+        <v>999</v>
+      </c>
+      <c r="V61" t="s">
+        <v>1453</v>
+      </c>
+      <c r="W61" t="s">
+        <v>1454</v>
+      </c>
+      <c r="X61" t="s">
+        <v>1425</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>1455</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>1456</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>602</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>1457</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>1458</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>1459</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>1460</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>1461</v>
+      </c>
+      <c r="AG61" s="14" t="s">
+        <v>1462</v>
+      </c>
+      <c r="AH61" s="14" t="s">
+        <v>1433</v>
+      </c>
+      <c r="AI61" s="14" t="s">
+        <v>1463</v>
+      </c>
+      <c r="AJ61" s="14" t="s">
+        <v>1464</v>
+      </c>
+      <c r="AK61" s="14" t="s">
+        <v>1436</v>
+      </c>
+      <c r="AL61" s="14" t="s">
+        <v>1465</v>
+      </c>
+      <c r="AM61" s="14" t="s">
+        <v>1466</v>
+      </c>
+      <c r="AN61" s="14" t="s">
+        <v>1467</v>
+      </c>
+      <c r="AO61" s="14" t="s">
+        <v>1468</v>
+      </c>
+      <c r="AP61" s="14" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AQ61" s="14" t="s">
+        <v>746</v>
+      </c>
+      <c r="AR61" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="AS61" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="AT61" s="14" t="s">
+        <v>1469</v>
+      </c>
+      <c r="AU61" s="14" t="s">
+        <v>1470</v>
+      </c>
+      <c r="AV61" s="14" t="s">
+        <v>1471</v>
+      </c>
+      <c r="AX61" s="14" t="s">
+        <v>1472</v>
+      </c>
+      <c r="AY61" s="14" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AZ61" s="1" t="s">
+        <v>1473</v>
       </c>
     </row>
     <row r="62" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
+      <c r="B62" s="8">
+        <v>44858</v>
+      </c>
       <c r="C62" t="s">
         <v>51</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E62">
+        <v>19</v>
+      </c>
+      <c r="F62">
+        <v>4</v>
+      </c>
+      <c r="G62" t="s">
+        <v>1476</v>
+      </c>
+      <c r="H62" t="s">
+        <v>327</v>
+      </c>
+      <c r="I62">
+        <v>26.2</v>
+      </c>
+      <c r="J62">
+        <v>48.45</v>
+      </c>
+      <c r="K62" t="s">
+        <v>1479</v>
+      </c>
+      <c r="L62" t="s">
+        <v>1477</v>
+      </c>
+      <c r="N62" t="s">
+        <v>1478</v>
+      </c>
+      <c r="O62" t="s">
+        <v>234</v>
+      </c>
+      <c r="P62" t="s">
+        <v>1497</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>1498</v>
+      </c>
+      <c r="R62">
+        <v>999</v>
+      </c>
+      <c r="S62">
+        <v>999</v>
+      </c>
+      <c r="T62" t="s">
+        <v>307</v>
+      </c>
+      <c r="U62" s="1">
+        <v>999</v>
+      </c>
+      <c r="V62" t="s">
+        <v>1480</v>
+      </c>
+      <c r="W62" t="s">
+        <v>386</v>
+      </c>
+      <c r="X62" t="s">
+        <v>1481</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>1215</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>1268</v>
+      </c>
+      <c r="AA62">
+        <v>999</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>1482</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>360</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>1483</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AG62" s="14" t="s">
+        <v>1484</v>
+      </c>
+      <c r="AH62" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="AI62" s="14" t="s">
+        <v>1485</v>
+      </c>
+      <c r="AJ62" s="14" t="s">
+        <v>1486</v>
+      </c>
+      <c r="AK62" s="14" t="s">
+        <v>1487</v>
+      </c>
+      <c r="AL62" s="14" t="s">
+        <v>1488</v>
+      </c>
+      <c r="AM62" s="14" t="s">
+        <v>1489</v>
+      </c>
+      <c r="AN62" s="14" t="s">
+        <v>1490</v>
+      </c>
+      <c r="AO62" s="14" t="s">
+        <v>1491</v>
+      </c>
+      <c r="AP62" s="14" t="s">
+        <v>694</v>
+      </c>
+      <c r="AQ62" s="14" t="s">
+        <v>746</v>
+      </c>
+      <c r="AR62" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS62" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="AT62" s="14" t="s">
+        <v>1492</v>
+      </c>
+      <c r="AU62" s="14" t="s">
+        <v>1493</v>
+      </c>
+      <c r="AV62" s="14" t="s">
+        <v>1494</v>
+      </c>
+      <c r="AX62" s="14" t="s">
+        <v>1495</v>
+      </c>
+      <c r="AY62" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="AZ62" s="1" t="s">
+        <v>1496</v>
       </c>
     </row>
     <row r="63" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
+      <c r="B63" s="8">
+        <v>44858</v>
+      </c>
       <c r="C63" t="s">
         <v>51</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E63">
+        <v>19</v>
+      </c>
+      <c r="F63">
+        <v>5</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1499</v>
+      </c>
+      <c r="H63" t="s">
+        <v>327</v>
+      </c>
+      <c r="I63">
+        <v>26.2</v>
+      </c>
+      <c r="J63">
+        <v>48.45</v>
+      </c>
+      <c r="K63" t="s">
+        <v>1501</v>
+      </c>
+      <c r="L63" t="s">
+        <v>1500</v>
+      </c>
+      <c r="N63" t="s">
+        <v>1478</v>
+      </c>
+      <c r="O63" t="s">
+        <v>234</v>
+      </c>
+      <c r="P63" t="s">
+        <v>1515</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>1192</v>
+      </c>
+      <c r="R63">
+        <v>999</v>
+      </c>
+      <c r="S63">
+        <v>999</v>
+      </c>
+      <c r="T63" t="s">
+        <v>307</v>
+      </c>
+      <c r="U63" s="1">
+        <v>999</v>
+      </c>
+      <c r="V63" t="s">
+        <v>357</v>
+      </c>
+      <c r="W63" t="s">
+        <v>386</v>
+      </c>
+      <c r="X63" t="s">
+        <v>1502</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>453</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>1503</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>1482</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>360</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>1504</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AG63" s="14" t="s">
+        <v>1505</v>
+      </c>
+      <c r="AH63" s="14" t="s">
+        <v>692</v>
+      </c>
+      <c r="AI63" s="14" t="s">
+        <v>1506</v>
+      </c>
+      <c r="AJ63" s="14" t="s">
+        <v>1507</v>
+      </c>
+      <c r="AK63">
+        <v>999</v>
+      </c>
+      <c r="AL63" s="14" t="s">
+        <v>1508</v>
+      </c>
+      <c r="AM63" s="14" t="s">
+        <v>1489</v>
+      </c>
+      <c r="AN63" s="14" t="s">
+        <v>1509</v>
+      </c>
+      <c r="AO63" s="14" t="s">
+        <v>1510</v>
+      </c>
+      <c r="AP63" s="14" t="s">
+        <v>694</v>
+      </c>
+      <c r="AQ63" s="14" t="s">
+        <v>746</v>
+      </c>
+      <c r="AR63" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS63" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="AT63" s="14" t="s">
+        <v>1511</v>
+      </c>
+      <c r="AU63" s="14" t="s">
+        <v>1512</v>
+      </c>
+      <c r="AV63" s="14" t="s">
+        <v>1513</v>
+      </c>
+      <c r="AW63" s="14" t="s">
+        <v>1514</v>
+      </c>
+      <c r="AX63" s="14" t="s">
+        <v>1362</v>
+      </c>
+      <c r="AY63" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="AZ63" s="1" t="s">
+        <v>1496</v>
       </c>
     </row>
     <row r="64" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
+      <c r="B64" s="8">
+        <v>44858</v>
+      </c>
       <c r="C64" t="s">
         <v>51</v>
       </c>
+      <c r="D64" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E64">
+        <v>19</v>
+      </c>
+      <c r="F64">
+        <v>6</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1516</v>
+      </c>
+      <c r="H64" t="s">
+        <v>327</v>
+      </c>
+      <c r="I64">
+        <v>26.2</v>
+      </c>
+      <c r="J64">
+        <v>48.45</v>
+      </c>
+      <c r="K64" t="s">
+        <v>281</v>
+      </c>
+      <c r="L64" t="s">
+        <v>1517</v>
+      </c>
+      <c r="N64" t="s">
+        <v>1478</v>
+      </c>
+      <c r="O64" t="s">
+        <v>234</v>
+      </c>
+      <c r="P64">
+        <v>999</v>
+      </c>
+      <c r="Q64">
+        <v>999</v>
+      </c>
+      <c r="R64">
+        <v>999</v>
+      </c>
+      <c r="S64">
+        <v>999</v>
+      </c>
+      <c r="T64">
+        <v>999</v>
+      </c>
+      <c r="U64" s="1">
+        <v>999</v>
+      </c>
+      <c r="V64" t="s">
+        <v>1518</v>
+      </c>
+      <c r="W64" t="s">
+        <v>139</v>
+      </c>
+      <c r="X64" t="s">
+        <v>1519</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>1520</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>1521</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>1522</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>1523</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>1326</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AG64" s="14" t="s">
+        <v>1524</v>
+      </c>
+      <c r="AH64" s="14" t="s">
+        <v>1525</v>
+      </c>
+      <c r="AI64" s="14" t="s">
+        <v>1526</v>
+      </c>
+      <c r="AJ64" s="14" t="s">
+        <v>1486</v>
+      </c>
+      <c r="AK64" s="14" t="s">
+        <v>1487</v>
+      </c>
+      <c r="AL64" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM64" s="14" t="s">
+        <v>1489</v>
+      </c>
+      <c r="AN64" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO64" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP64" s="14" t="s">
+        <v>1527</v>
+      </c>
+      <c r="AQ64" s="14" t="s">
+        <v>1334</v>
+      </c>
+      <c r="AR64" s="14" t="s">
+        <v>1129</v>
+      </c>
+      <c r="AS64" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="AT64" s="14" t="s">
+        <v>1511</v>
+      </c>
+      <c r="AU64" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="AV64" s="14" t="s">
+        <v>1528</v>
+      </c>
+      <c r="AX64" s="14" t="s">
+        <v>1529</v>
+      </c>
+      <c r="AY64" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="AZ64" s="1" t="s">
+        <v>1496</v>
+      </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
+      <c r="B65" s="8">
+        <v>44858</v>
+      </c>
       <c r="C65" t="s">
         <v>51</v>
       </c>
+      <c r="D65" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E65">
+        <v>19</v>
+      </c>
+      <c r="F65">
+        <v>7</v>
+      </c>
+      <c r="G65" t="s">
+        <v>1530</v>
+      </c>
+      <c r="H65" t="s">
+        <v>327</v>
+      </c>
+      <c r="I65">
+        <v>26.2</v>
+      </c>
+      <c r="J65">
+        <v>48.45</v>
+      </c>
+      <c r="K65" t="s">
+        <v>193</v>
+      </c>
+      <c r="L65" t="s">
+        <v>1531</v>
+      </c>
+      <c r="N65" t="s">
+        <v>1478</v>
+      </c>
+      <c r="O65" t="s">
+        <v>234</v>
+      </c>
+      <c r="P65" t="s">
+        <v>1545</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>1546</v>
+      </c>
+      <c r="R65">
+        <v>999</v>
+      </c>
+      <c r="S65">
+        <v>999</v>
+      </c>
+      <c r="T65" t="s">
+        <v>90</v>
+      </c>
+      <c r="U65" s="1">
+        <v>999</v>
+      </c>
+      <c r="V65" t="s">
+        <v>1532</v>
+      </c>
+      <c r="W65" t="s">
+        <v>1533</v>
+      </c>
+      <c r="X65" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>1534</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>1535</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>1536</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>1482</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>360</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>1537</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AG65" s="14" t="s">
+        <v>1538</v>
+      </c>
+      <c r="AH65" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="AI65" s="14" t="s">
+        <v>1539</v>
+      </c>
+      <c r="AJ65" s="14" t="s">
+        <v>1486</v>
+      </c>
+      <c r="AK65" s="14" t="s">
+        <v>948</v>
+      </c>
+      <c r="AL65">
+        <v>999</v>
+      </c>
+      <c r="AM65" s="14" t="s">
+        <v>1489</v>
+      </c>
+      <c r="AN65" s="14" t="s">
+        <v>1490</v>
+      </c>
+      <c r="AO65" s="14" t="s">
+        <v>759</v>
+      </c>
+      <c r="AP65" s="14" t="s">
+        <v>694</v>
+      </c>
+      <c r="AQ65" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="AR65" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS65" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="AT65" s="14" t="s">
+        <v>1540</v>
+      </c>
+      <c r="AU65" s="14" t="s">
+        <v>1541</v>
+      </c>
+      <c r="AV65" s="14" t="s">
+        <v>1542</v>
+      </c>
+      <c r="AW65" s="14" t="s">
+        <v>1543</v>
+      </c>
+      <c r="AX65" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="AY65" s="14" t="s">
+        <v>1544</v>
+      </c>
+      <c r="AZ65" s="1" t="s">
+        <v>1496</v>
+      </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
+      <c r="B66" s="8">
+        <v>44858</v>
+      </c>
       <c r="C66" t="s">
         <v>51</v>
       </c>
+      <c r="D66" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E66">
+        <v>19</v>
+      </c>
+      <c r="F66">
+        <v>15</v>
+      </c>
+      <c r="G66" t="s">
+        <v>1547</v>
+      </c>
+      <c r="H66" t="s">
+        <v>327</v>
+      </c>
+      <c r="I66">
+        <v>26.2</v>
+      </c>
+      <c r="J66">
+        <v>48.45</v>
+      </c>
+      <c r="K66" t="s">
+        <v>1452</v>
+      </c>
+      <c r="L66" t="s">
+        <v>1177</v>
+      </c>
+      <c r="N66" t="s">
+        <v>1478</v>
+      </c>
+      <c r="O66" t="s">
+        <v>234</v>
+      </c>
+      <c r="P66" t="s">
+        <v>1564</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>1192</v>
+      </c>
+      <c r="R66">
+        <v>999</v>
+      </c>
+      <c r="S66">
+        <v>999</v>
+      </c>
+      <c r="T66" t="s">
+        <v>307</v>
+      </c>
+      <c r="U66" s="1">
+        <v>999</v>
+      </c>
+      <c r="V66">
+        <v>999</v>
+      </c>
+      <c r="W66" t="s">
+        <v>1548</v>
+      </c>
+      <c r="X66" t="s">
+        <v>737</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>739</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>1551</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>537</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>361</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>458</v>
+      </c>
+      <c r="AG66" s="14" t="s">
+        <v>1552</v>
+      </c>
+      <c r="AH66" s="14" t="s">
+        <v>692</v>
+      </c>
+      <c r="AI66" s="14" t="s">
+        <v>1553</v>
+      </c>
+      <c r="AJ66" s="14" t="s">
+        <v>1464</v>
+      </c>
+      <c r="AK66" s="14" t="s">
+        <v>1554</v>
+      </c>
+      <c r="AL66" s="14" t="s">
+        <v>1555</v>
+      </c>
+      <c r="AM66" s="14" t="s">
+        <v>1556</v>
+      </c>
+      <c r="AN66" s="14" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AO66" s="14" t="s">
+        <v>1558</v>
+      </c>
+      <c r="AP66" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="AQ66" s="14" t="s">
+        <v>930</v>
+      </c>
+      <c r="AR66" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="AS66" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT66" s="14" t="s">
+        <v>1559</v>
+      </c>
+      <c r="AU66" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="AV66" s="14" t="s">
+        <v>1560</v>
+      </c>
+      <c r="AW66" s="14" t="s">
+        <v>1561</v>
+      </c>
+      <c r="AX66" s="14" t="s">
+        <v>1563</v>
+      </c>
+      <c r="AY66" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="AZ66" s="14" t="s">
+        <v>1562</v>
+      </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
+      <c r="B67" s="8">
+        <v>44858</v>
+      </c>
       <c r="C67" t="s">
         <v>51</v>
       </c>
+      <c r="D67" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E67">
+        <v>19</v>
+      </c>
+      <c r="F67">
+        <v>16</v>
+      </c>
+      <c r="G67" t="s">
+        <v>1565</v>
+      </c>
+      <c r="H67" t="s">
+        <v>327</v>
+      </c>
+      <c r="I67">
+        <v>620</v>
+      </c>
+      <c r="J67">
+        <v>845</v>
+      </c>
+      <c r="K67" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L67" t="s">
+        <v>1566</v>
+      </c>
+      <c r="N67" t="s">
+        <v>1478</v>
+      </c>
+      <c r="O67" t="s">
+        <v>234</v>
+      </c>
+      <c r="P67" t="s">
+        <v>1577</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>1578</v>
+      </c>
+      <c r="R67">
+        <v>999</v>
+      </c>
+      <c r="S67">
+        <v>999</v>
+      </c>
+      <c r="T67" t="s">
+        <v>54</v>
+      </c>
+      <c r="U67" s="1">
+        <v>999</v>
+      </c>
+      <c r="V67" t="s">
+        <v>1518</v>
+      </c>
+      <c r="W67" t="s">
+        <v>386</v>
+      </c>
+      <c r="X67" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>1268</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>1568</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>1569</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AG67" s="14" t="s">
+        <v>1570</v>
+      </c>
+      <c r="AH67" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="AI67" s="14" t="s">
+        <v>1526</v>
+      </c>
+      <c r="AJ67" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="AK67" s="14" t="s">
+        <v>1571</v>
+      </c>
+      <c r="AL67" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM67" s="14" t="s">
+        <v>1572</v>
+      </c>
+      <c r="AN67" s="14" t="s">
+        <v>1573</v>
+      </c>
+      <c r="AO67" s="14" t="s">
+        <v>1410</v>
+      </c>
+      <c r="AP67" s="14" t="s">
+        <v>694</v>
+      </c>
+      <c r="AQ67" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="AR67" s="14" t="s">
+        <v>1574</v>
+      </c>
+      <c r="AS67" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="AT67" s="14" t="s">
+        <v>1575</v>
+      </c>
+      <c r="AU67" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="AV67" s="14" t="s">
+        <v>1528</v>
+      </c>
+      <c r="AX67" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="AY67" s="14" t="s">
+        <v>1576</v>
+      </c>
+      <c r="AZ67" s="1" t="s">
+        <v>1496</v>
+      </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
+      <c r="B68" s="8">
+        <v>44858</v>
+      </c>
       <c r="C68" t="s">
         <v>51</v>
       </c>
+      <c r="D68" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E68">
+        <v>19</v>
+      </c>
+      <c r="F68">
+        <v>17</v>
+      </c>
+      <c r="G68" t="s">
+        <v>1579</v>
+      </c>
+      <c r="H68" t="s">
+        <v>327</v>
+      </c>
+      <c r="I68">
+        <v>26.2</v>
+      </c>
+      <c r="J68">
+        <v>48.45</v>
+      </c>
+      <c r="K68" t="s">
+        <v>1581</v>
+      </c>
+      <c r="L68" t="s">
+        <v>1580</v>
+      </c>
+      <c r="N68" t="s">
+        <v>1478</v>
+      </c>
+      <c r="O68" t="s">
+        <v>234</v>
+      </c>
+      <c r="P68" t="s">
+        <v>1605</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>1606</v>
+      </c>
+      <c r="R68">
+        <v>999</v>
+      </c>
+      <c r="S68">
+        <v>999</v>
+      </c>
+      <c r="T68" t="s">
+        <v>54</v>
+      </c>
+      <c r="U68" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="V68" t="s">
+        <v>1582</v>
+      </c>
+      <c r="W68" t="s">
+        <v>1583</v>
+      </c>
+      <c r="X68" t="s">
+        <v>737</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>1584</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>1585</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>1586</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>1587</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>289</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>1588</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>458</v>
+      </c>
+      <c r="AG68" s="14" t="s">
+        <v>1589</v>
+      </c>
+      <c r="AH68" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="AI68" s="14" t="s">
+        <v>1590</v>
+      </c>
+      <c r="AJ68" s="14" t="s">
+        <v>1591</v>
+      </c>
+      <c r="AK68" s="14" t="s">
+        <v>1592</v>
+      </c>
+      <c r="AL68" s="14" t="s">
+        <v>1593</v>
+      </c>
+      <c r="AM68" s="14" t="s">
+        <v>1594</v>
+      </c>
+      <c r="AN68" s="14" t="s">
+        <v>1595</v>
+      </c>
+      <c r="AO68" s="14" t="s">
+        <v>1596</v>
+      </c>
+      <c r="AP68" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="AQ68" s="14" t="s">
+        <v>1597</v>
+      </c>
+      <c r="AR68" s="14" t="s">
+        <v>1598</v>
+      </c>
+      <c r="AS68" s="14" t="s">
+        <v>1599</v>
+      </c>
+      <c r="AT68" s="14" t="s">
+        <v>1600</v>
+      </c>
+      <c r="AU68" s="14" t="s">
+        <v>1601</v>
+      </c>
+      <c r="AV68" s="14" t="s">
+        <v>1602</v>
+      </c>
+      <c r="AW68" s="14" t="s">
+        <v>1603</v>
+      </c>
+      <c r="AX68" s="14" t="s">
+        <v>1604</v>
+      </c>
+      <c r="AY68" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="AZ68" s="1" t="s">
+        <v>1496</v>
+      </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
+      <c r="B69" s="8">
+        <v>44858</v>
+      </c>
       <c r="C69" t="s">
         <v>51</v>
       </c>
+      <c r="D69" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E69">
+        <v>25</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+      <c r="G69" t="s">
+        <v>1608</v>
+      </c>
+      <c r="H69" t="s">
+        <v>327</v>
+      </c>
+      <c r="I69">
+        <v>27.2</v>
+      </c>
+      <c r="J69">
+        <v>48.45</v>
+      </c>
+      <c r="K69" t="s">
+        <v>1610</v>
+      </c>
+      <c r="L69" t="s">
+        <v>1609</v>
+      </c>
+      <c r="N69" t="s">
+        <v>1018</v>
+      </c>
+      <c r="O69" t="s">
+        <v>380</v>
+      </c>
+      <c r="P69" t="s">
+        <v>1630</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>1631</v>
+      </c>
+      <c r="R69">
+        <v>999</v>
+      </c>
+      <c r="S69">
+        <v>999</v>
+      </c>
+      <c r="T69" t="s">
+        <v>54</v>
+      </c>
+      <c r="U69" s="1">
+        <v>999</v>
+      </c>
+      <c r="V69" t="s">
+        <v>357</v>
+      </c>
+      <c r="W69" t="s">
+        <v>1611</v>
+      </c>
+      <c r="X69" t="s">
+        <v>1612</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>1613</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>1614</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>1615</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>623</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>1617</v>
+      </c>
+      <c r="AG69" s="14" t="s">
+        <v>1618</v>
+      </c>
+      <c r="AH69" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="AI69" s="14" t="s">
+        <v>1619</v>
+      </c>
+      <c r="AJ69" s="14" t="s">
+        <v>1620</v>
+      </c>
+      <c r="AK69" s="14" t="s">
+        <v>948</v>
+      </c>
+      <c r="AL69" s="14" t="s">
+        <v>1621</v>
+      </c>
+      <c r="AM69" s="14" t="s">
+        <v>1622</v>
+      </c>
+      <c r="AN69" s="14" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AO69" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="AP69" s="14" t="s">
+        <v>1624</v>
+      </c>
+      <c r="AQ69" s="14" t="s">
+        <v>1625</v>
+      </c>
+      <c r="AR69" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS69" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="AT69" s="14" t="s">
+        <v>1626</v>
+      </c>
+      <c r="AU69" s="14" t="s">
+        <v>1627</v>
+      </c>
+      <c r="AV69" s="14" t="s">
+        <v>1528</v>
+      </c>
+      <c r="AX69" s="14" t="s">
+        <v>1628</v>
+      </c>
+      <c r="AY69" s="14" t="s">
+        <v>1629</v>
+      </c>
+      <c r="AZ69" s="1" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
+      <c r="B70" s="8">
+        <v>44858</v>
+      </c>
       <c r="C70" t="s">
         <v>51</v>
       </c>
+      <c r="D70" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E70">
+        <v>17</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H70" t="s">
+        <v>327</v>
+      </c>
+      <c r="I70">
+        <v>26</v>
+      </c>
+      <c r="J70">
+        <v>48.4</v>
+      </c>
+      <c r="K70" t="s">
+        <v>1636</v>
+      </c>
+      <c r="L70" t="s">
+        <v>1634</v>
+      </c>
+      <c r="N70" t="s">
+        <v>1635</v>
+      </c>
+      <c r="O70" t="s">
+        <v>234</v>
+      </c>
+      <c r="P70" t="s">
+        <v>1652</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>1653</v>
+      </c>
+      <c r="R70" t="s">
+        <v>1654</v>
+      </c>
+      <c r="S70">
+        <v>999</v>
+      </c>
+      <c r="T70" t="s">
+        <v>54</v>
+      </c>
+      <c r="U70" s="1">
+        <v>999</v>
+      </c>
+      <c r="V70" t="s">
+        <v>1637</v>
+      </c>
+      <c r="W70" t="s">
+        <v>1659</v>
+      </c>
+      <c r="X70" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>1638</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>1520</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>921</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>1639</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>1458</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>1640</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>923</v>
+      </c>
+      <c r="AG70" s="14" t="s">
+        <v>1641</v>
+      </c>
+      <c r="AH70" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="AI70" s="14" t="s">
+        <v>1642</v>
+      </c>
+      <c r="AJ70" s="14" t="s">
+        <v>1643</v>
+      </c>
+      <c r="AK70" s="14" t="s">
+        <v>1644</v>
+      </c>
+      <c r="AL70" s="14" t="s">
+        <v>1645</v>
+      </c>
+      <c r="AM70" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN70" s="14" t="s">
+        <v>1646</v>
+      </c>
+      <c r="AO70" s="14" t="s">
+        <v>1410</v>
+      </c>
+      <c r="AP70" s="14" t="s">
+        <v>1278</v>
+      </c>
+      <c r="AQ70" s="14" t="s">
+        <v>1647</v>
+      </c>
+      <c r="AR70" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="AS70" s="14" t="s">
+        <v>1648</v>
+      </c>
+      <c r="AT70" s="14" t="s">
+        <v>1649</v>
+      </c>
+      <c r="AU70" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="AV70" s="14" t="s">
+        <v>1650</v>
+      </c>
+      <c r="AX70" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="AY70" s="14" t="s">
+        <v>1651</v>
+      </c>
+      <c r="AZ70" s="1" t="s">
+        <v>1496</v>
+      </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
+      <c r="B71" s="8">
+        <v>44858</v>
+      </c>
       <c r="C71" t="s">
         <v>51</v>
       </c>
+      <c r="D71" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E71">
+        <v>17</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+      <c r="G71" t="s">
+        <v>1655</v>
+      </c>
+      <c r="H71" t="s">
+        <v>327</v>
+      </c>
+      <c r="I71">
+        <v>60</v>
+      </c>
+      <c r="J71">
+        <v>840</v>
+      </c>
+      <c r="K71" t="s">
+        <v>1657</v>
+      </c>
+      <c r="L71" t="s">
+        <v>1656</v>
+      </c>
+      <c r="N71" t="s">
+        <v>1635</v>
+      </c>
+      <c r="O71" t="s">
+        <v>234</v>
+      </c>
+      <c r="P71" t="s">
+        <v>1679</v>
+      </c>
+      <c r="Q71">
+        <v>999</v>
+      </c>
+      <c r="R71">
+        <v>999</v>
+      </c>
+      <c r="S71">
+        <v>999</v>
+      </c>
+      <c r="T71" t="s">
+        <v>1056</v>
+      </c>
+      <c r="U71" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="V71" t="s">
+        <v>1658</v>
+      </c>
+      <c r="W71" t="s">
+        <v>1213</v>
+      </c>
+      <c r="X71" t="s">
+        <v>1660</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>1661</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>1520</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>1662</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>1663</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>1664</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>1665</v>
+      </c>
+      <c r="AG71" s="14" t="s">
+        <v>1666</v>
+      </c>
+      <c r="AH71" s="14" t="s">
+        <v>1525</v>
+      </c>
+      <c r="AI71" s="14" t="s">
+        <v>1667</v>
+      </c>
+      <c r="AJ71" s="14" t="s">
+        <v>1668</v>
+      </c>
+      <c r="AK71" s="14" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AL71" s="14" t="s">
+        <v>1669</v>
+      </c>
+      <c r="AM71" s="14" t="s">
+        <v>1670</v>
+      </c>
+      <c r="AN71" s="14" t="s">
+        <v>1671</v>
+      </c>
+      <c r="AO71" s="14" t="s">
+        <v>1672</v>
+      </c>
+      <c r="AP71" s="14" t="s">
+        <v>1278</v>
+      </c>
+      <c r="AQ71" s="14" t="s">
+        <v>1673</v>
+      </c>
+      <c r="AR71" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="AS71" s="14" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AT71" s="14" t="s">
+        <v>1675</v>
+      </c>
+      <c r="AU71" s="14" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AV71" s="14" t="s">
+        <v>1677</v>
+      </c>
+      <c r="AX71" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="AY71" s="14" t="s">
+        <v>1678</v>
+      </c>
+      <c r="AZ71" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
+      <c r="B72" s="8">
+        <v>44858</v>
+      </c>
       <c r="C72" t="s">
         <v>51</v>
       </c>
+      <c r="D72" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E72">
+        <v>17</v>
+      </c>
+      <c r="F72">
+        <v>3</v>
+      </c>
+      <c r="G72" t="s">
+        <v>1681</v>
+      </c>
+      <c r="H72" t="s">
+        <v>327</v>
+      </c>
+      <c r="I72">
+        <v>60</v>
+      </c>
+      <c r="J72">
+        <v>840</v>
+      </c>
+      <c r="K72" t="s">
+        <v>1657</v>
+      </c>
+      <c r="L72" t="s">
+        <v>1656</v>
+      </c>
+      <c r="N72" t="s">
+        <v>1635</v>
+      </c>
+      <c r="O72" t="s">
+        <v>234</v>
+      </c>
+      <c r="P72" t="s">
+        <v>1679</v>
+      </c>
+      <c r="Q72">
+        <v>999</v>
+      </c>
+      <c r="R72">
+        <v>999</v>
+      </c>
+      <c r="S72">
+        <v>999</v>
+      </c>
+      <c r="T72" t="s">
+        <v>1056</v>
+      </c>
+      <c r="U72" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="V72" t="s">
+        <v>1682</v>
+      </c>
+      <c r="W72" t="s">
+        <v>1213</v>
+      </c>
+      <c r="X72" t="s">
+        <v>1660</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>1661</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>1520</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>1662</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>1069</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>1683</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>1664</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>1684</v>
+      </c>
+      <c r="AG72" s="14" t="s">
+        <v>1666</v>
+      </c>
+      <c r="AH72" s="14" t="s">
+        <v>1525</v>
+      </c>
+      <c r="AI72" s="14" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AJ72" s="14" t="s">
+        <v>1668</v>
+      </c>
+      <c r="AK72" s="14" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AL72" s="14" t="s">
+        <v>1669</v>
+      </c>
+      <c r="AM72" s="14" t="s">
+        <v>1670</v>
+      </c>
+      <c r="AN72" s="14" t="s">
+        <v>1671</v>
+      </c>
+      <c r="AO72" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AP72" s="14" t="s">
+        <v>1278</v>
+      </c>
+      <c r="AQ72" s="14" t="s">
+        <v>1687</v>
+      </c>
+      <c r="AR72" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS72" s="14" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AT72" s="14" t="s">
+        <v>1675</v>
+      </c>
+      <c r="AU72" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="AV72" s="14" t="s">
+        <v>1528</v>
+      </c>
+      <c r="AX72" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="AY72" s="14" t="s">
+        <v>1678</v>
+      </c>
+      <c r="AZ72" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
+      <c r="B73" s="8">
+        <v>44858</v>
+      </c>
       <c r="C73" t="s">
         <v>51</v>
       </c>
+      <c r="D73" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E73">
+        <v>17</v>
+      </c>
+      <c r="F73">
+        <v>4</v>
+      </c>
+      <c r="G73" t="s">
+        <v>1688</v>
+      </c>
+      <c r="H73" t="s">
+        <v>327</v>
+      </c>
+      <c r="I73">
+        <v>26</v>
+      </c>
+      <c r="J73">
+        <v>8.4</v>
+      </c>
+      <c r="K73" t="s">
+        <v>1691</v>
+      </c>
+      <c r="L73" t="s">
+        <v>1689</v>
+      </c>
+      <c r="M73" t="s">
+        <v>1690</v>
+      </c>
+      <c r="N73" t="s">
+        <v>1635</v>
+      </c>
+      <c r="O73" t="s">
+        <v>234</v>
+      </c>
+      <c r="P73" t="s">
+        <v>1714</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>1715</v>
+      </c>
+      <c r="R73" t="s">
+        <v>1716</v>
+      </c>
+      <c r="S73">
+        <v>999</v>
+      </c>
+      <c r="T73" t="s">
+        <v>54</v>
+      </c>
+      <c r="U73" s="1" t="s">
+        <v>1717</v>
+      </c>
+      <c r="V73" t="s">
+        <v>1480</v>
+      </c>
+      <c r="W73" t="s">
+        <v>1213</v>
+      </c>
+      <c r="X73" t="s">
+        <v>1692</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>1661</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>1662</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>1695</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>944</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>1697</v>
+      </c>
+      <c r="AG73" s="14" t="s">
+        <v>1698</v>
+      </c>
+      <c r="AH73" s="14" t="s">
+        <v>1699</v>
+      </c>
+      <c r="AI73" s="14" t="s">
+        <v>1700</v>
+      </c>
+      <c r="AJ73" s="14" t="s">
+        <v>1701</v>
+      </c>
+      <c r="AK73" s="14" t="s">
+        <v>1702</v>
+      </c>
+      <c r="AL73" s="14" t="s">
+        <v>1703</v>
+      </c>
+      <c r="AM73" s="14" t="s">
+        <v>1704</v>
+      </c>
+      <c r="AN73" s="14" t="s">
+        <v>1705</v>
+      </c>
+      <c r="AO73" s="14" t="s">
+        <v>1491</v>
+      </c>
+      <c r="AP73" s="14" t="s">
+        <v>1706</v>
+      </c>
+      <c r="AQ73" s="14" t="s">
+        <v>1707</v>
+      </c>
+      <c r="AR73" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS73" s="14" t="s">
+        <v>1708</v>
+      </c>
+      <c r="AT73" s="14" t="s">
+        <v>1709</v>
+      </c>
+      <c r="AU73" s="14" t="s">
+        <v>1710</v>
+      </c>
+      <c r="AV73" s="14" t="s">
+        <v>1542</v>
+      </c>
+      <c r="AW73" s="14" t="s">
+        <v>1711</v>
+      </c>
+      <c r="AX73" s="14" t="s">
+        <v>1712</v>
+      </c>
+      <c r="AY73" s="14" t="s">
+        <v>1713</v>
+      </c>
+      <c r="AZ73" s="1" t="s">
+        <v>1496</v>
+      </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:52" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="8">
+        <v>44858</v>
+      </c>
       <c r="C74" t="s">
         <v>51</v>
       </c>
+      <c r="D74" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E74">
+        <v>17</v>
+      </c>
+      <c r="F74">
+        <v>5</v>
+      </c>
+      <c r="G74" t="s">
+        <v>1718</v>
+      </c>
+      <c r="H74" t="s">
+        <v>327</v>
+      </c>
+      <c r="I74">
+        <v>26</v>
+      </c>
+      <c r="J74">
+        <v>48.4</v>
+      </c>
+      <c r="K74" t="s">
+        <v>1720</v>
+      </c>
+      <c r="L74" s="15" t="s">
+        <v>1719</v>
+      </c>
+      <c r="N74" t="s">
+        <v>1635</v>
+      </c>
+      <c r="O74" t="s">
+        <v>234</v>
+      </c>
+      <c r="P74" t="s">
+        <v>1731</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>1732</v>
+      </c>
+      <c r="R74">
+        <v>999</v>
+      </c>
+      <c r="S74">
+        <v>999</v>
+      </c>
+      <c r="T74" t="s">
+        <v>90</v>
+      </c>
+      <c r="U74" s="1">
+        <v>999</v>
+      </c>
+      <c r="V74" t="s">
+        <v>687</v>
+      </c>
+      <c r="W74" t="s">
+        <v>1213</v>
+      </c>
+      <c r="X74" t="s">
+        <v>1692</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>1215</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>1115</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>603</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>623</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>1640</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AG74" s="14" t="s">
+        <v>1722</v>
+      </c>
+      <c r="AH74" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="AI74" s="14" t="s">
+        <v>1723</v>
+      </c>
+      <c r="AJ74" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK74" s="14" t="s">
+        <v>1724</v>
+      </c>
+      <c r="AL74" s="14" t="s">
+        <v>1725</v>
+      </c>
+      <c r="AM74" s="14" t="s">
+        <v>1221</v>
+      </c>
+      <c r="AN74" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO74" s="14" t="s">
+        <v>759</v>
+      </c>
+      <c r="AP74" s="14" t="s">
+        <v>1105</v>
+      </c>
+      <c r="AQ74" s="14" t="s">
+        <v>1726</v>
+      </c>
+      <c r="AR74" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS74" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="AT74" s="14" t="s">
+        <v>1727</v>
+      </c>
+      <c r="AU74" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV74" s="14" t="s">
+        <v>1728</v>
+      </c>
+      <c r="AX74" s="14" t="s">
+        <v>1729</v>
+      </c>
+      <c r="AY74" s="14" t="s">
+        <v>1730</v>
+      </c>
+      <c r="AZ74" s="1" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:52" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="8">
+        <v>44858</v>
+      </c>
       <c r="C75" t="s">
+        <v>51</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E75">
+        <v>17</v>
+      </c>
+      <c r="F75">
+        <v>6</v>
+      </c>
+      <c r="G75" t="s">
+        <v>1733</v>
+      </c>
+      <c r="H75" t="s">
+        <v>327</v>
+      </c>
+      <c r="I75">
+        <v>26</v>
+      </c>
+      <c r="J75">
+        <v>48.4</v>
+      </c>
+      <c r="K75" t="s">
+        <v>1735</v>
+      </c>
+      <c r="L75" s="15" t="s">
+        <v>1734</v>
+      </c>
+      <c r="N75" t="s">
+        <v>1635</v>
+      </c>
+      <c r="O75" t="s">
+        <v>234</v>
+      </c>
+      <c r="P75" t="s">
+        <v>1747</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>1748</v>
+      </c>
+      <c r="R75" t="s">
+        <v>1749</v>
+      </c>
+      <c r="S75">
+        <v>999</v>
+      </c>
+      <c r="T75" t="s">
+        <v>90</v>
+      </c>
+      <c r="U75" s="1">
+        <v>999</v>
+      </c>
+      <c r="V75" t="s">
+        <v>1736</v>
+      </c>
+      <c r="W75" t="s">
+        <v>1213</v>
+      </c>
+      <c r="X75" t="s">
+        <v>1692</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>1737</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>706</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>1069</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>603</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>1199</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>923</v>
+      </c>
+      <c r="AG75" s="14" t="s">
+        <v>1738</v>
+      </c>
+      <c r="AH75" s="14" t="s">
+        <v>1739</v>
+      </c>
+      <c r="AI75" s="14" t="s">
+        <v>1740</v>
+      </c>
+      <c r="AJ75" s="14" t="s">
+        <v>1668</v>
+      </c>
+      <c r="AK75" s="14" t="s">
+        <v>1724</v>
+      </c>
+      <c r="AL75" s="14" t="s">
+        <v>1741</v>
+      </c>
+      <c r="AM75" s="14" t="s">
+        <v>1704</v>
+      </c>
+      <c r="AN75" s="14" t="s">
+        <v>1742</v>
+      </c>
+      <c r="AO75" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="AP75" s="14" t="s">
+        <v>760</v>
+      </c>
+      <c r="AQ75" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="AR75" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS75" s="14" t="s">
+        <v>1743</v>
+      </c>
+      <c r="AT75" s="14" t="s">
+        <v>1744</v>
+      </c>
+      <c r="AU75" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV75" s="14" t="s">
+        <v>1745</v>
+      </c>
+      <c r="AX75" s="14" t="s">
+        <v>569</v>
+      </c>
+      <c r="AY75" s="14" t="s">
+        <v>1746</v>
+      </c>
+      <c r="AZ75" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="76" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="8">
+        <v>44858</v>
+      </c>
+      <c r="C76" t="s">
+        <v>51</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E76">
+        <v>20</v>
+      </c>
+      <c r="F76">
+        <v>7</v>
+      </c>
+      <c r="G76" t="s">
+        <v>1750</v>
+      </c>
+      <c r="H76" t="s">
+        <v>327</v>
+      </c>
+      <c r="I76">
+        <v>630</v>
+      </c>
+      <c r="J76">
+        <v>840</v>
+      </c>
+      <c r="K76" t="s">
+        <v>1752</v>
+      </c>
+      <c r="L76" t="s">
+        <v>1751</v>
+      </c>
+      <c r="N76" t="s">
+        <v>669</v>
+      </c>
+      <c r="O76" t="s">
+        <v>234</v>
+      </c>
+      <c r="P76" t="s">
+        <v>1771</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>1773</v>
+      </c>
+      <c r="R76" t="s">
+        <v>1772</v>
+      </c>
+      <c r="S76">
+        <v>999</v>
+      </c>
+      <c r="T76" t="s">
+        <v>307</v>
+      </c>
+      <c r="U76" s="1">
+        <v>999</v>
+      </c>
+      <c r="V76" t="s">
+        <v>1753</v>
+      </c>
+      <c r="W76" t="s">
+        <v>1754</v>
+      </c>
+      <c r="X76" t="s">
+        <v>1755</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>1756</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>1757</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>581</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>1758</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>1759</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>1760</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>1761</v>
+      </c>
+      <c r="AG76" s="14" t="s">
+        <v>1762</v>
+      </c>
+      <c r="AH76" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="AI76" s="14" t="s">
+        <v>1763</v>
+      </c>
+      <c r="AJ76" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="AK76" s="14" t="s">
+        <v>1592</v>
+      </c>
+      <c r="AL76" s="14" t="s">
+        <v>1764</v>
+      </c>
+      <c r="AM76" s="14" t="s">
+        <v>1765</v>
+      </c>
+      <c r="AN76" s="14" t="s">
+        <v>1766</v>
+      </c>
+      <c r="AO76" s="14" t="s">
+        <v>1767</v>
+      </c>
+      <c r="AP76" s="14" t="s">
+        <v>1390</v>
+      </c>
+      <c r="AQ76" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="AR76" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="AS76" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT76" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="AU76" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="AV76" s="14" t="s">
+        <v>1768</v>
+      </c>
+      <c r="AX76" s="14" t="s">
+        <v>1769</v>
+      </c>
+      <c r="AY76" s="14" t="s">
+        <v>1770</v>
+      </c>
+      <c r="AZ76" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="77" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="8">
+        <v>44858</v>
+      </c>
+      <c r="C77" t="s">
+        <v>51</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E77">
+        <v>20</v>
+      </c>
+      <c r="F77">
+        <v>11</v>
+      </c>
+      <c r="G77" t="s">
+        <v>1774</v>
+      </c>
+      <c r="H77" t="s">
+        <v>327</v>
+      </c>
+      <c r="I77">
+        <v>26.3</v>
+      </c>
+      <c r="J77">
+        <v>48.4</v>
+      </c>
+      <c r="K77" t="s">
+        <v>1776</v>
+      </c>
+      <c r="L77" t="s">
+        <v>1775</v>
+      </c>
+      <c r="N77" t="s">
+        <v>669</v>
+      </c>
+      <c r="O77" t="s">
+        <v>234</v>
+      </c>
+      <c r="P77" t="s">
+        <v>1793</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>1792</v>
+      </c>
+      <c r="R77">
+        <v>999</v>
+      </c>
+      <c r="S77">
+        <v>999</v>
+      </c>
+      <c r="T77" t="s">
+        <v>90</v>
+      </c>
+      <c r="U77" s="1">
+        <v>999</v>
+      </c>
+      <c r="V77" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W77" t="s">
+        <v>1778</v>
+      </c>
+      <c r="X77" t="s">
+        <v>1779</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>1780</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>1781</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>1759</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>1782</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>1783</v>
+      </c>
+      <c r="AG77" s="14" t="s">
+        <v>1784</v>
+      </c>
+      <c r="AH77" s="14" t="s">
+        <v>692</v>
+      </c>
+      <c r="AI77" s="14" t="s">
+        <v>1785</v>
+      </c>
+      <c r="AJ77" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="AK77" s="14" t="s">
+        <v>1786</v>
+      </c>
+      <c r="AL77" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM77" s="14" t="s">
+        <v>1787</v>
+      </c>
+      <c r="AN77" s="14" t="s">
+        <v>1788</v>
+      </c>
+      <c r="AO77" s="14" t="s">
+        <v>1789</v>
+      </c>
+      <c r="AP77" s="14" t="s">
+        <v>694</v>
+      </c>
+      <c r="AQ77" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="AR77" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS77" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="AT77" s="14" t="s">
+        <v>1413</v>
+      </c>
+      <c r="AU77" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="AV77" s="14" t="s">
+        <v>1542</v>
+      </c>
+      <c r="AW77" s="14" t="s">
+        <v>1310</v>
+      </c>
+      <c r="AX77" s="14" t="s">
+        <v>569</v>
+      </c>
+      <c r="AY77" s="14" t="s">
+        <v>1790</v>
+      </c>
+      <c r="AZ77" s="1" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="78" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="C79" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="80" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="C81" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="C82" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="C83" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="C84" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="C85" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="C86" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="C87" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="C88" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="C89" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="C90" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="C91" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="C92" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="C93" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="C94" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="C95" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="C96" t="s">
         <v>51</v>
       </c>
     </row>

--- a/Data/DWA_JH.xlsx
+++ b/Data/DWA_JH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B56835-7EA1-4FCB-B6A2-2C8A44E617FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24CD170-EDE6-40F9-B060-73E606991613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8600" yWindow="2500" windowWidth="14400" windowHeight="7250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8470" yWindow="1950" windowWidth="14400" windowHeight="7250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3060" uniqueCount="1794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3654" uniqueCount="2133">
   <si>
     <t>ID</t>
   </si>
@@ -5634,6 +5634,1023 @@
   </si>
   <si>
     <t>Kinder</t>
+  </si>
+  <si>
+    <t>n'</t>
+  </si>
+  <si>
+    <t>III_26_0001</t>
+  </si>
+  <si>
+    <t>Raumänzach</t>
+  </si>
+  <si>
+    <t>m-n</t>
+  </si>
+  <si>
+    <t>Omeis &lt;f nasal&gt;</t>
+  </si>
+  <si>
+    <t>Deisl</t>
+  </si>
+  <si>
+    <t>Endrich</t>
+  </si>
+  <si>
+    <t>[E]hmd</t>
+  </si>
+  <si>
+    <t>Hagebudde</t>
+  </si>
+  <si>
+    <t>Goggler, Henn, Hue</t>
+  </si>
+  <si>
+    <t>Grumbiere, Kartoffle</t>
+  </si>
+  <si>
+    <t>Katzeroller</t>
+  </si>
+  <si>
+    <t>Maulwurf &lt;Der Name Schermausmist bekannt aber wenig gebräuchlich&gt;</t>
+  </si>
+  <si>
+    <t>Sau &lt;Zucht wird nicht getrieben&gt;</t>
+  </si>
+  <si>
+    <t>Vetter, Vetterich</t>
+  </si>
+  <si>
+    <t>moule</t>
+  </si>
+  <si>
+    <t>Stachelbee</t>
+  </si>
+  <si>
+    <t>Stecknädel</t>
+  </si>
+  <si>
+    <t>Stricknädel</t>
+  </si>
+  <si>
+    <t>Kaffeeschissel</t>
+  </si>
+  <si>
+    <t>Kaffeedeller</t>
+  </si>
+  <si>
+    <t>umzweige</t>
+  </si>
+  <si>
+    <t>F. [Uhl]</t>
+  </si>
+  <si>
+    <t>Offenburg</t>
+  </si>
+  <si>
+    <t>III_26_0039</t>
+  </si>
+  <si>
+    <t>Wildberg</t>
+  </si>
+  <si>
+    <t>Calw</t>
+  </si>
+  <si>
+    <t>m-O</t>
+  </si>
+  <si>
+    <t>Daesl (w)</t>
+  </si>
+  <si>
+    <t>Âträcht (m)</t>
+  </si>
+  <si>
+    <t>Butzhegâ &lt;Mehrzahl&gt;</t>
+  </si>
+  <si>
+    <t>Gockeler, Hoâ</t>
+  </si>
+  <si>
+    <t>Grommbiir (w)</t>
+  </si>
+  <si>
+    <t>Mohrrübe (w)</t>
+  </si>
+  <si>
+    <t>schempfâ</t>
+  </si>
+  <si>
+    <t>Stricknâdel (w)</t>
+  </si>
+  <si>
+    <t>Hafâ (m)</t>
+  </si>
+  <si>
+    <t>emda, pfr?pfâ</t>
+  </si>
+  <si>
+    <t>Otto Hummel</t>
+  </si>
+  <si>
+    <t>Gültlingen</t>
+  </si>
+  <si>
+    <t>III_26_0084</t>
+  </si>
+  <si>
+    <t>Bissingen-Teck</t>
+  </si>
+  <si>
+    <t>Nürtingen</t>
+  </si>
+  <si>
+    <t>n-Ra</t>
+  </si>
+  <si>
+    <t>Amois</t>
+  </si>
+  <si>
+    <t>Antrecht</t>
+  </si>
+  <si>
+    <t>[Herz]</t>
+  </si>
+  <si>
+    <t>Geckeler, Henn</t>
+  </si>
+  <si>
+    <t>Aibiere</t>
+  </si>
+  <si>
+    <t>Gäle Rübe</t>
+  </si>
+  <si>
+    <t>Dötle</t>
+  </si>
+  <si>
+    <t>Peitsch</t>
+  </si>
+  <si>
+    <t>schimpfä</t>
+  </si>
+  <si>
+    <t>Klufe</t>
+  </si>
+  <si>
+    <t>Schärbe</t>
+  </si>
+  <si>
+    <t>emmda</t>
+  </si>
+  <si>
+    <t>Gioß</t>
+  </si>
+  <si>
+    <t>Gerh. Weismann</t>
+  </si>
+  <si>
+    <t>Ostindien</t>
+  </si>
+  <si>
+    <t>Ehombala &lt;erzogen in Ludwigsburg und Kirchheim-Teck.</t>
+  </si>
+  <si>
+    <t>III_8_0026</t>
+  </si>
+  <si>
+    <t>Reinhardsmünster</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>h-V</t>
+  </si>
+  <si>
+    <t>Ameis</t>
+  </si>
+  <si>
+    <t>Licht</t>
+  </si>
+  <si>
+    <t>Brombäre</t>
+  </si>
+  <si>
+    <t>Dischel</t>
+  </si>
+  <si>
+    <t>Elscht</t>
+  </si>
+  <si>
+    <t>Andevögel</t>
+  </si>
+  <si>
+    <t>Fladermüs</t>
+  </si>
+  <si>
+    <t>Umt</t>
+  </si>
+  <si>
+    <t>Gagumer</t>
+  </si>
+  <si>
+    <t>Butte</t>
+  </si>
+  <si>
+    <t>Hahn, Glück</t>
+  </si>
+  <si>
+    <t>Artepfel</t>
+  </si>
+  <si>
+    <t>Mülwalfer</t>
+  </si>
+  <si>
+    <t>Schwarzwurzel</t>
+  </si>
+  <si>
+    <t>Mor</t>
+  </si>
+  <si>
+    <t>Pfedder</t>
+  </si>
+  <si>
+    <t>Geischel</t>
+  </si>
+  <si>
+    <t>Pflüm</t>
+  </si>
+  <si>
+    <t>schalde</t>
+  </si>
+  <si>
+    <t>Schpatz</t>
+  </si>
+  <si>
+    <t>Krachelsbäre</t>
+  </si>
+  <si>
+    <t>Strecknodla</t>
+  </si>
+  <si>
+    <t>[Dassel]</t>
+  </si>
+  <si>
+    <t>zwäje</t>
+  </si>
+  <si>
+    <t>Elsass</t>
+  </si>
+  <si>
+    <t>Mayer</t>
+  </si>
+  <si>
+    <t>Monsweiler</t>
+  </si>
+  <si>
+    <t>Maria Blau</t>
+  </si>
+  <si>
+    <t>III_8_0027</t>
+  </si>
+  <si>
+    <t>Tal St. Gallen</t>
+  </si>
+  <si>
+    <t>h-U</t>
+  </si>
+  <si>
+    <t>Amäs</t>
+  </si>
+  <si>
+    <t>Lichd</t>
+  </si>
+  <si>
+    <t>Brumbäre</t>
+  </si>
+  <si>
+    <t>Adrel</t>
+  </si>
+  <si>
+    <t>Andevöjel</t>
+  </si>
+  <si>
+    <t>Fladdermüs</t>
+  </si>
+  <si>
+    <t>Gagummer</t>
+  </si>
+  <si>
+    <t>Hahn, Höhn</t>
+  </si>
+  <si>
+    <t>Ardepfel</t>
+  </si>
+  <si>
+    <t>Mour</t>
+  </si>
+  <si>
+    <t>Gäischel</t>
+  </si>
+  <si>
+    <t>Guff</t>
+  </si>
+  <si>
+    <t>Stricknudel</t>
+  </si>
+  <si>
+    <t>[Tass]</t>
+  </si>
+  <si>
+    <t>zweje</t>
+  </si>
+  <si>
+    <t>Zabern</t>
+  </si>
+  <si>
+    <t>L. Kraemer</t>
+  </si>
+  <si>
+    <t>Schirrhein</t>
+  </si>
+  <si>
+    <t>III_8_0029</t>
+  </si>
+  <si>
+    <t>i-b</t>
+  </si>
+  <si>
+    <t>Licht (w) &lt;Von Leiche&gt;</t>
+  </si>
+  <si>
+    <t>Brombeere (w)</t>
+  </si>
+  <si>
+    <t>Atzel (w)</t>
+  </si>
+  <si>
+    <t>Entenvogel (m), Endevöjel</t>
+  </si>
+  <si>
+    <t>Fledermaus (w), Fleddermüs</t>
+  </si>
+  <si>
+    <t>Ohmt (s)</t>
+  </si>
+  <si>
+    <t>Gagummer (w)</t>
+  </si>
+  <si>
+    <t>Butte (w)</t>
+  </si>
+  <si>
+    <t>Hahn (m), Güller (m), Glück (w)</t>
+  </si>
+  <si>
+    <t>Hebamme (w), Hewamm</t>
+  </si>
+  <si>
+    <t>Grumbeere (w), Erdäpfel (m)</t>
+  </si>
+  <si>
+    <t>Roller (m)</t>
+  </si>
+  <si>
+    <t>Mülwerfer (m)</t>
+  </si>
+  <si>
+    <t>Gelbe Rüben, Karotten (w), Gelirüwe</t>
+  </si>
+  <si>
+    <t>Pfetter (m)</t>
+  </si>
+  <si>
+    <t>Geischtel (w)</t>
+  </si>
+  <si>
+    <t>Pflüm (w)</t>
+  </si>
+  <si>
+    <t>händle</t>
+  </si>
+  <si>
+    <t>Krüsselbeere (w)</t>
+  </si>
+  <si>
+    <t>Stecknadel (w), Stecknodel</t>
+  </si>
+  <si>
+    <t>Stricknadel (w), Stecknodel</t>
+  </si>
+  <si>
+    <t>[Schüssel (w), Schessel</t>
+  </si>
+  <si>
+    <t>Hafen (m), Hafe</t>
+  </si>
+  <si>
+    <t>Marschall</t>
+  </si>
+  <si>
+    <t>III_8_0030</t>
+  </si>
+  <si>
+    <t>Entenvogel</t>
+  </si>
+  <si>
+    <t>Muck (die)</t>
+  </si>
+  <si>
+    <t>Ohmt (das)</t>
+  </si>
+  <si>
+    <t>Gagummer (die)</t>
+  </si>
+  <si>
+    <t>Grundbirne, Grumbeere</t>
+  </si>
+  <si>
+    <t>Katzenroller</t>
+  </si>
+  <si>
+    <t>rote Rahnen</t>
+  </si>
+  <si>
+    <t>Pfetter</t>
+  </si>
+  <si>
+    <t>Geischel (die)</t>
+  </si>
+  <si>
+    <t>abputzen</t>
+  </si>
+  <si>
+    <t>Kruseldbeere</t>
+  </si>
+  <si>
+    <t>Guff (die)</t>
+  </si>
+  <si>
+    <t>Tasse</t>
+  </si>
+  <si>
+    <t>Teller</t>
+  </si>
+  <si>
+    <t>Luzian Weiss</t>
+  </si>
+  <si>
+    <t>Strassburg &lt;in Zabern seit 1901&gt;</t>
+  </si>
+  <si>
+    <t>III_8_0032</t>
+  </si>
+  <si>
+    <t>Waldowisheim</t>
+  </si>
+  <si>
+    <t>i-m</t>
+  </si>
+  <si>
+    <t>Amais</t>
+  </si>
+  <si>
+    <t>d' Licht</t>
+  </si>
+  <si>
+    <t>Grombolle</t>
+  </si>
+  <si>
+    <t>Dichl</t>
+  </si>
+  <si>
+    <t>Antevogel</t>
+  </si>
+  <si>
+    <t>Oumd</t>
+  </si>
+  <si>
+    <t>Gagummere</t>
+  </si>
+  <si>
+    <t>Gückelhon, Glück</t>
+  </si>
+  <si>
+    <t>Grumbeere</t>
+  </si>
+  <si>
+    <t>Moller</t>
+  </si>
+  <si>
+    <t>Moor</t>
+  </si>
+  <si>
+    <t>Geischl</t>
+  </si>
+  <si>
+    <t>Pflümm</t>
+  </si>
+  <si>
+    <t>schalte</t>
+  </si>
+  <si>
+    <t>Grüsselsbeere</t>
+  </si>
+  <si>
+    <t>[Tassele]</t>
+  </si>
+  <si>
+    <t>zwiien</t>
+  </si>
+  <si>
+    <t>Alfs. [Bestule]</t>
+  </si>
+  <si>
+    <t>III_8_0033</t>
+  </si>
+  <si>
+    <t>Lupstein</t>
+  </si>
+  <si>
+    <t>i-p</t>
+  </si>
+  <si>
+    <t>Omeise &lt;e i scharf ausgespr.&gt;</t>
+  </si>
+  <si>
+    <t>Begrabnis (s)</t>
+  </si>
+  <si>
+    <t>Branbeer (w)</t>
+  </si>
+  <si>
+    <t>Dischel (m)</t>
+  </si>
+  <si>
+    <t>Azel (m)</t>
+  </si>
+  <si>
+    <t>d' Ant (w)</t>
+  </si>
+  <si>
+    <t>Fladdermus (w)</t>
+  </si>
+  <si>
+    <t>Hohn, Hüehn</t>
+  </si>
+  <si>
+    <t>Grundbeere (w)</t>
+  </si>
+  <si>
+    <t>Molle (m)</t>
+  </si>
+  <si>
+    <t>Müllewifer</t>
+  </si>
+  <si>
+    <t>Gellrüeb (w)</t>
+  </si>
+  <si>
+    <t>Vetter (m)</t>
+  </si>
+  <si>
+    <t>Geschel (w)</t>
+  </si>
+  <si>
+    <t>Quatsche (w)</t>
+  </si>
+  <si>
+    <t>schalten</t>
+  </si>
+  <si>
+    <t>Hagle (w)</t>
+  </si>
+  <si>
+    <t>Stecknodl (w)</t>
+  </si>
+  <si>
+    <t>[Taß (w)]</t>
+  </si>
+  <si>
+    <t>Karl Döring Hauptl.</t>
+  </si>
+  <si>
+    <t>Konstanz a. B.</t>
+  </si>
+  <si>
+    <t>mit den Schülern der 7./8. [?] übersetz</t>
+  </si>
+  <si>
+    <t>III_8_0035</t>
+  </si>
+  <si>
+    <t>Altenheim</t>
+  </si>
+  <si>
+    <t>i-n</t>
+  </si>
+  <si>
+    <t>Licht (w)</t>
+  </si>
+  <si>
+    <t>Trumbolle (m)</t>
+  </si>
+  <si>
+    <t>Ătzel (w)</t>
+  </si>
+  <si>
+    <t>Dischel (w)</t>
+  </si>
+  <si>
+    <t>Andevöjl (m)</t>
+  </si>
+  <si>
+    <t>Umt (s)</t>
+  </si>
+  <si>
+    <t>Găgummer (w)</t>
+  </si>
+  <si>
+    <t>Güggelhahn (m), Güller (m), Hüan (w)</t>
+  </si>
+  <si>
+    <t>Grumbeer (w)</t>
+  </si>
+  <si>
+    <t>Moller (m)</t>
+  </si>
+  <si>
+    <t>Müllwalfer</t>
+  </si>
+  <si>
+    <t>Gallerüab (w)</t>
+  </si>
+  <si>
+    <t>Mo᷅u᷄hr (w)</t>
+  </si>
+  <si>
+    <t>Geischl (w)</t>
+  </si>
+  <si>
+    <t>handle, de Maßti versteije, de Lewide verlase</t>
+  </si>
+  <si>
+    <t>Krüselsbeer (w)</t>
+  </si>
+  <si>
+    <t>Guff (w)</t>
+  </si>
+  <si>
+    <t>Schessele (s)</t>
+  </si>
+  <si>
+    <t>Dallerle (s)</t>
+  </si>
+  <si>
+    <t>irdener Hoofe (m)</t>
+  </si>
+  <si>
+    <t>zwieje</t>
+  </si>
+  <si>
+    <t>L. Heitz</t>
+  </si>
+  <si>
+    <t>Reutenburg</t>
+  </si>
+  <si>
+    <t>III_8_0036</t>
+  </si>
+  <si>
+    <t>Furchhausen</t>
+  </si>
+  <si>
+    <t>i-l</t>
+  </si>
+  <si>
+    <t>Omeise (w)</t>
+  </si>
+  <si>
+    <t>Brummelsbeere (w)</t>
+  </si>
+  <si>
+    <t>Entevöjel (m)</t>
+  </si>
+  <si>
+    <t>Fleddermüs (w)</t>
+  </si>
+  <si>
+    <t>Mock (w)</t>
+  </si>
+  <si>
+    <t>Omd (s)</t>
+  </si>
+  <si>
+    <t>Bodde (w)</t>
+  </si>
+  <si>
+    <t>Güggelhahn (m), Höhn (s)</t>
+  </si>
+  <si>
+    <t>Grommbeer (w)</t>
+  </si>
+  <si>
+    <t>Katzemoller (m)</t>
+  </si>
+  <si>
+    <t>Müllwelfer (m)</t>
+  </si>
+  <si>
+    <t>Mairub (w)</t>
+  </si>
+  <si>
+    <t>Pfedder (m)</t>
+  </si>
+  <si>
+    <t>Geischel (w)</t>
+  </si>
+  <si>
+    <t>vehandle</t>
+  </si>
+  <si>
+    <t>Grüselsbeer (w)</t>
+  </si>
+  <si>
+    <t>Goff (w)</t>
+  </si>
+  <si>
+    <t>Schtecknodel (w)</t>
+  </si>
+  <si>
+    <t>[Schessel (w)]</t>
+  </si>
+  <si>
+    <t>Geiss (w)</t>
+  </si>
+  <si>
+    <t>&lt;ă = ungefähr französisches an aber kein Nasallaut; o᷅u᷄ = fast wie franz. on (aber kein Nasallaut)&gt;</t>
+  </si>
+  <si>
+    <t>Falk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albesdorf </t>
+  </si>
+  <si>
+    <t>Lothringen</t>
+  </si>
+  <si>
+    <t>III_8_0037</t>
+  </si>
+  <si>
+    <t>Schweinheim</t>
+  </si>
+  <si>
+    <t>i-la</t>
+  </si>
+  <si>
+    <t>Brummbolle (w)</t>
+  </si>
+  <si>
+    <t>Antevöjel (m)</t>
+  </si>
+  <si>
+    <t>Flattermüs (w)</t>
+  </si>
+  <si>
+    <t>Gückel (m), Hüann (w)</t>
+  </si>
+  <si>
+    <t>Grumbär (w)</t>
+  </si>
+  <si>
+    <t>Müllwalfer (w)</t>
+  </si>
+  <si>
+    <t>Galrüwe (w)</t>
+  </si>
+  <si>
+    <t>Pflümm (w)</t>
+  </si>
+  <si>
+    <t>Grüsselsbär (w)</t>
+  </si>
+  <si>
+    <t>Streeknodel (w)</t>
+  </si>
+  <si>
+    <t>[Tassel (s)]</t>
+  </si>
+  <si>
+    <t>erdener Hafe (m)</t>
+  </si>
+  <si>
+    <t>zwije</t>
+  </si>
+  <si>
+    <t>Felder Fridolin</t>
+  </si>
+  <si>
+    <t>Natzweiler (Molsheim)</t>
+  </si>
+  <si>
+    <t>III_8_0038</t>
+  </si>
+  <si>
+    <t>Landersheim</t>
+  </si>
+  <si>
+    <t>i-y</t>
+  </si>
+  <si>
+    <t>Brommbäre</t>
+  </si>
+  <si>
+    <t>Endevöil</t>
+  </si>
+  <si>
+    <t>Fladdermühs</t>
+  </si>
+  <si>
+    <t>Gagommer</t>
+  </si>
+  <si>
+    <t>Boudde</t>
+  </si>
+  <si>
+    <t>Güggelhohn, Glück</t>
+  </si>
+  <si>
+    <t>Häwamm</t>
+  </si>
+  <si>
+    <t>Grommbäre</t>
+  </si>
+  <si>
+    <t>Roller, Mollert</t>
+  </si>
+  <si>
+    <t>Mullwalfr</t>
+  </si>
+  <si>
+    <t>Pfädder</t>
+  </si>
+  <si>
+    <t>Gaischel</t>
+  </si>
+  <si>
+    <t>Goff</t>
+  </si>
+  <si>
+    <t>Stäegnodel</t>
+  </si>
+  <si>
+    <t>[Tass, Schessel]</t>
+  </si>
+  <si>
+    <t>erdener Hafe</t>
+  </si>
+  <si>
+    <t>Klamber [Bäeilia]</t>
+  </si>
+  <si>
+    <t>Hagenau</t>
+  </si>
+  <si>
+    <t>Tal-Maursmünster</t>
+  </si>
+  <si>
+    <t>III_8_0040</t>
+  </si>
+  <si>
+    <t>h-X</t>
+  </si>
+  <si>
+    <t>Licht (s)</t>
+  </si>
+  <si>
+    <t>Fladdermüs (w)</t>
+  </si>
+  <si>
+    <t>Hahn (m)</t>
+  </si>
+  <si>
+    <t>Ardepfel (m)</t>
+  </si>
+  <si>
+    <t>Mülwalfer (m)</t>
+  </si>
+  <si>
+    <t>Gällerüewe (w)</t>
+  </si>
+  <si>
+    <t>handle</t>
+  </si>
+  <si>
+    <t>Grachelsbeer (w)</t>
+  </si>
+  <si>
+    <t>[Tass (w)]</t>
+  </si>
+  <si>
+    <t>zweije</t>
+  </si>
+  <si>
+    <t>Riehl Harzell</t>
+  </si>
+  <si>
+    <t>Honsweiler</t>
+  </si>
+  <si>
+    <t>III_8_0041</t>
+  </si>
+  <si>
+    <t>Maursmünster</t>
+  </si>
+  <si>
+    <t>Aamäis (w)</t>
+  </si>
+  <si>
+    <t>d' Licht (w)</t>
+  </si>
+  <si>
+    <t>Brumbeer (a, w)</t>
+  </si>
+  <si>
+    <t>Dischel (a, w)</t>
+  </si>
+  <si>
+    <t>Atzel (m), Kabatzel (m)</t>
+  </si>
+  <si>
+    <t>Andavöjel (m)</t>
+  </si>
+  <si>
+    <t>Fladdermüß (w)</t>
+  </si>
+  <si>
+    <t>Uhmt (s)</t>
+  </si>
+  <si>
+    <t>Gagummer (w) &lt;vom frz. Concombre&gt;</t>
+  </si>
+  <si>
+    <t>Budd (w)</t>
+  </si>
+  <si>
+    <t>Güller (m), Güggelhahn (m), Hüan (w)</t>
+  </si>
+  <si>
+    <t>Ardäpfel (m)</t>
+  </si>
+  <si>
+    <t>Roller (m), Katzeroller (m)</t>
+  </si>
+  <si>
+    <t>Müllwalfer (m)</t>
+  </si>
+  <si>
+    <t>Gallarüab (w)</t>
+  </si>
+  <si>
+    <t>Muhr (w)</t>
+  </si>
+  <si>
+    <t>Pfedder (w)</t>
+  </si>
+  <si>
+    <t>Bäitsch (w)</t>
+  </si>
+  <si>
+    <t>schalda</t>
+  </si>
+  <si>
+    <t>Grachelsbära (w)</t>
+  </si>
+  <si>
+    <t>Strecknudel (w)</t>
+  </si>
+  <si>
+    <t>[Dassel (s), Daß (w)]</t>
+  </si>
+  <si>
+    <t>zweja</t>
+  </si>
+  <si>
+    <t>Gäis (w)</t>
+  </si>
+  <si>
+    <t>Unt/Elsass</t>
+  </si>
+  <si>
+    <t>Karl Arbogast</t>
+  </si>
+  <si>
+    <t>Osthausen</t>
+  </si>
+  <si>
+    <t>U./Els.</t>
   </si>
 </sst>
 </file>
@@ -6065,8 +7082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U77" sqref="U77"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -17703,115 +18720,2000 @@
       <c r="A78">
         <v>77</v>
       </c>
+      <c r="B78" s="8">
+        <v>44859</v>
+      </c>
       <c r="C78" t="s">
         <v>51</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1794</v>
+      </c>
+      <c r="E78">
+        <v>17</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" t="s">
+        <v>1795</v>
+      </c>
+      <c r="H78" t="s">
+        <v>327</v>
+      </c>
+      <c r="I78">
+        <v>26</v>
+      </c>
+      <c r="J78">
+        <v>48.35</v>
+      </c>
+      <c r="K78" t="s">
+        <v>1797</v>
+      </c>
+      <c r="L78" t="s">
+        <v>1796</v>
+      </c>
+      <c r="N78" t="s">
+        <v>1635</v>
+      </c>
+      <c r="O78" t="s">
+        <v>234</v>
+      </c>
+      <c r="P78" t="s">
+        <v>1816</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>1817</v>
+      </c>
+      <c r="R78">
+        <v>999</v>
+      </c>
+      <c r="S78" t="s">
+        <v>234</v>
+      </c>
+      <c r="T78" t="s">
+        <v>54</v>
+      </c>
+      <c r="U78" s="1">
+        <v>999</v>
+      </c>
+      <c r="V78" t="s">
+        <v>1798</v>
+      </c>
+      <c r="W78" t="s">
+        <v>57</v>
+      </c>
+      <c r="X78" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>1799</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>1520</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>1800</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>1801</v>
+      </c>
+      <c r="AE78" t="s">
+        <v>1326</v>
+      </c>
+      <c r="AF78" t="s">
+        <v>1802</v>
+      </c>
+      <c r="AG78" s="14" t="s">
+        <v>1803</v>
+      </c>
+      <c r="AH78" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="AI78" s="14" t="s">
+        <v>1804</v>
+      </c>
+      <c r="AJ78" s="14" t="s">
+        <v>1805</v>
+      </c>
+      <c r="AK78" s="14" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AL78" s="14" t="s">
+        <v>706</v>
+      </c>
+      <c r="AM78" s="14" t="s">
+        <v>1807</v>
+      </c>
+      <c r="AN78" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AO78" s="14" t="s">
+        <v>1491</v>
+      </c>
+      <c r="AP78" s="14" t="s">
+        <v>694</v>
+      </c>
+      <c r="AQ78" s="14" t="s">
+        <v>1809</v>
+      </c>
+      <c r="AR78" s="14" t="s">
+        <v>1574</v>
+      </c>
+      <c r="AS78" s="14" t="s">
+        <v>1810</v>
+      </c>
+      <c r="AT78" s="14" t="s">
+        <v>1811</v>
+      </c>
+      <c r="AU78" s="14" t="s">
+        <v>1812</v>
+      </c>
+      <c r="AV78" s="14" t="s">
+        <v>1813</v>
+      </c>
+      <c r="AW78" s="14" t="s">
+        <v>1814</v>
+      </c>
+      <c r="AX78" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="AY78" s="14" t="s">
+        <v>1815</v>
+      </c>
+      <c r="AZ78" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="79" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
+      <c r="B79" s="8">
+        <v>44859</v>
+      </c>
       <c r="C79" t="s">
         <v>51</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1794</v>
+      </c>
+      <c r="E79">
+        <v>19</v>
+      </c>
+      <c r="F79">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s">
+        <v>1818</v>
+      </c>
+      <c r="H79" t="s">
+        <v>327</v>
+      </c>
+      <c r="I79">
+        <v>620</v>
+      </c>
+      <c r="J79">
+        <v>835</v>
+      </c>
+      <c r="K79" t="s">
+        <v>1821</v>
+      </c>
+      <c r="L79" t="s">
+        <v>1819</v>
+      </c>
+      <c r="N79" t="s">
+        <v>1820</v>
+      </c>
+      <c r="O79" t="s">
+        <v>380</v>
+      </c>
+      <c r="P79" t="s">
+        <v>1832</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>1833</v>
+      </c>
+      <c r="R79" t="s">
+        <v>1820</v>
+      </c>
+      <c r="S79">
+        <v>999</v>
+      </c>
+      <c r="T79" t="s">
+        <v>307</v>
+      </c>
+      <c r="U79" s="1">
+        <v>999</v>
+      </c>
+      <c r="V79" t="s">
+        <v>577</v>
+      </c>
+      <c r="W79" t="s">
+        <v>419</v>
+      </c>
+      <c r="X79" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>1822</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>1823</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>581</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>479</v>
+      </c>
+      <c r="AD79" t="s">
+        <v>537</v>
+      </c>
+      <c r="AE79" t="s">
+        <v>539</v>
+      </c>
+      <c r="AF79" t="s">
+        <v>1824</v>
+      </c>
+      <c r="AG79" s="14" t="s">
+        <v>1825</v>
+      </c>
+      <c r="AH79" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="AI79" s="14" t="s">
+        <v>1826</v>
+      </c>
+      <c r="AJ79" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="AK79" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="AL79" s="14" t="s">
+        <v>1827</v>
+      </c>
+      <c r="AM79" s="14" t="s">
+        <v>1765</v>
+      </c>
+      <c r="AN79" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="AO79" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="AP79" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="AQ79" s="14" t="s">
+        <v>1828</v>
+      </c>
+      <c r="AR79" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="AS79" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT79" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="AU79" s="14" t="s">
+        <v>1829</v>
+      </c>
+      <c r="AV79" s="14" t="s">
+        <v>1189</v>
+      </c>
+      <c r="AX79" s="14" t="s">
+        <v>1830</v>
+      </c>
+      <c r="AY79" s="14" t="s">
+        <v>1831</v>
+      </c>
+      <c r="AZ79" s="1" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="80" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
+      <c r="B80" s="8">
+        <v>44859</v>
+      </c>
       <c r="C80" t="s">
         <v>51</v>
       </c>
+      <c r="D80" t="s">
+        <v>1794</v>
+      </c>
+      <c r="E80">
+        <v>23</v>
+      </c>
+      <c r="F80">
+        <v>6</v>
+      </c>
+      <c r="G80" t="s">
+        <v>1834</v>
+      </c>
+      <c r="H80" t="s">
+        <v>327</v>
+      </c>
+      <c r="I80">
+        <v>27</v>
+      </c>
+      <c r="J80">
+        <v>48.35</v>
+      </c>
+      <c r="K80" t="s">
+        <v>1837</v>
+      </c>
+      <c r="L80" t="s">
+        <v>1835</v>
+      </c>
+      <c r="N80" t="s">
+        <v>1836</v>
+      </c>
+      <c r="O80" t="s">
+        <v>380</v>
+      </c>
+      <c r="P80" t="s">
+        <v>1851</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>1853</v>
+      </c>
+      <c r="S80" t="s">
+        <v>1852</v>
+      </c>
+      <c r="T80" t="s">
+        <v>90</v>
+      </c>
+      <c r="U80" s="1">
+        <v>999</v>
+      </c>
+      <c r="V80" t="s">
+        <v>1838</v>
+      </c>
+      <c r="W80" t="s">
+        <v>1611</v>
+      </c>
+      <c r="X80" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>1840</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>603</v>
+      </c>
+      <c r="AD80" t="s">
+        <v>623</v>
+      </c>
+      <c r="AE80" t="s">
+        <v>1569</v>
+      </c>
+      <c r="AF80" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AG80" s="14" t="s">
+        <v>1841</v>
+      </c>
+      <c r="AH80" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="AI80" s="14" t="s">
+        <v>1842</v>
+      </c>
+      <c r="AJ80" s="14" t="s">
+        <v>1507</v>
+      </c>
+      <c r="AK80" s="14" t="s">
+        <v>948</v>
+      </c>
+      <c r="AL80" s="14" t="s">
+        <v>1843</v>
+      </c>
+      <c r="AM80" s="14" t="s">
+        <v>1787</v>
+      </c>
+      <c r="AN80" s="14" t="s">
+        <v>1844</v>
+      </c>
+      <c r="AO80" s="14" t="s">
+        <v>1845</v>
+      </c>
+      <c r="AP80" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="AQ80" s="14" t="s">
+        <v>1846</v>
+      </c>
+      <c r="AR80" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS80" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="AT80" s="14" t="s">
+        <v>1847</v>
+      </c>
+      <c r="AU80" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV80" s="14" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AW80" s="14" t="s">
+        <v>1310</v>
+      </c>
+      <c r="AX80" s="14" t="s">
+        <v>1848</v>
+      </c>
+      <c r="AY80" s="14" t="s">
+        <v>1849</v>
+      </c>
+      <c r="AZ80" s="1" t="s">
+        <v>1850</v>
+      </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="C81" t="s">
+      <c r="B81" s="8">
+        <v>44859</v>
+      </c>
+      <c r="C81" s="8" t="s">
         <v>51</v>
       </c>
+      <c r="D81" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E81">
+        <v>10</v>
+      </c>
+      <c r="F81">
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>1854</v>
+      </c>
+      <c r="H81" t="s">
+        <v>1856</v>
+      </c>
+      <c r="I81">
+        <v>24.5</v>
+      </c>
+      <c r="J81">
+        <v>48.4</v>
+      </c>
+      <c r="K81" t="s">
+        <v>1857</v>
+      </c>
+      <c r="L81" t="s">
+        <v>1855</v>
+      </c>
+      <c r="N81" t="s">
+        <v>1904</v>
+      </c>
+      <c r="O81" t="s">
+        <v>1882</v>
+      </c>
+      <c r="P81" t="s">
+        <v>1883</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>1884</v>
+      </c>
+      <c r="R81">
+        <v>999</v>
+      </c>
+      <c r="S81">
+        <v>999</v>
+      </c>
+      <c r="T81" t="s">
+        <v>54</v>
+      </c>
+      <c r="U81" s="1" t="s">
+        <v>1885</v>
+      </c>
+      <c r="V81" t="s">
+        <v>1858</v>
+      </c>
+      <c r="W81" t="s">
+        <v>1859</v>
+      </c>
+      <c r="X81" t="s">
+        <v>1860</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>1861</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>1862</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>1863</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>1864</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>603</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>1865</v>
+      </c>
+      <c r="AE81" t="s">
+        <v>1866</v>
+      </c>
+      <c r="AF81" t="s">
+        <v>1867</v>
+      </c>
+      <c r="AG81" s="14" t="s">
+        <v>1868</v>
+      </c>
+      <c r="AH81" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="AI81" s="14" t="s">
+        <v>1869</v>
+      </c>
+      <c r="AJ81" s="14" t="s">
+        <v>1805</v>
+      </c>
+      <c r="AK81" s="14" t="s">
+        <v>1870</v>
+      </c>
+      <c r="AL81" s="14" t="s">
+        <v>1871</v>
+      </c>
+      <c r="AM81" s="14" t="s">
+        <v>1872</v>
+      </c>
+      <c r="AN81" s="14" t="s">
+        <v>1873</v>
+      </c>
+      <c r="AO81" s="14" t="s">
+        <v>1874</v>
+      </c>
+      <c r="AP81" s="14" t="s">
+        <v>1875</v>
+      </c>
+      <c r="AQ81" s="14" t="s">
+        <v>1876</v>
+      </c>
+      <c r="AR81" s="14" t="s">
+        <v>1877</v>
+      </c>
+      <c r="AS81" s="14" t="s">
+        <v>1878</v>
+      </c>
+      <c r="AT81" s="14" t="s">
+        <v>761</v>
+      </c>
+      <c r="AU81" s="14" t="s">
+        <v>1879</v>
+      </c>
+      <c r="AV81" s="14" t="s">
+        <v>1880</v>
+      </c>
+      <c r="AX81" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="AY81" s="14" t="s">
+        <v>1881</v>
+      </c>
+      <c r="AZ81" s="1" t="s">
+        <v>784</v>
+      </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:53" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
+      <c r="B82" s="8">
+        <v>44859</v>
+      </c>
       <c r="C82" t="s">
         <v>51</v>
       </c>
+      <c r="D82" s="15" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E82" s="15">
+        <v>10</v>
+      </c>
+      <c r="F82" s="15">
+        <v>13</v>
+      </c>
+      <c r="G82" s="15" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H82" s="15" t="s">
+        <v>1856</v>
+      </c>
+      <c r="I82">
+        <v>24.5</v>
+      </c>
+      <c r="J82" s="15">
+        <v>48.4</v>
+      </c>
+      <c r="K82" t="s">
+        <v>1888</v>
+      </c>
+      <c r="L82" s="15" t="s">
+        <v>1887</v>
+      </c>
+      <c r="N82" t="s">
+        <v>1904</v>
+      </c>
+      <c r="O82" t="s">
+        <v>1882</v>
+      </c>
+      <c r="P82" t="s">
+        <v>1905</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>1906</v>
+      </c>
+      <c r="R82">
+        <v>999</v>
+      </c>
+      <c r="S82">
+        <v>999</v>
+      </c>
+      <c r="T82" t="s">
+        <v>54</v>
+      </c>
+      <c r="U82" s="1">
+        <v>999</v>
+      </c>
+      <c r="V82" t="s">
+        <v>1889</v>
+      </c>
+      <c r="W82" t="s">
+        <v>1890</v>
+      </c>
+      <c r="X82" t="s">
+        <v>1891</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>1861</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>1892</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>1893</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>1894</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>603</v>
+      </c>
+      <c r="AD82" t="s">
+        <v>1865</v>
+      </c>
+      <c r="AE82" t="s">
+        <v>1895</v>
+      </c>
+      <c r="AF82" t="s">
+        <v>625</v>
+      </c>
+      <c r="AG82" s="14" t="s">
+        <v>1896</v>
+      </c>
+      <c r="AH82" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="AI82" s="14" t="s">
+        <v>1897</v>
+      </c>
+      <c r="AJ82" s="14" t="s">
+        <v>1805</v>
+      </c>
+      <c r="AK82" s="14" t="s">
+        <v>1870</v>
+      </c>
+      <c r="AL82">
+        <v>999</v>
+      </c>
+      <c r="AM82" s="14" t="s">
+        <v>1898</v>
+      </c>
+      <c r="AN82" s="14" t="s">
+        <v>1873</v>
+      </c>
+      <c r="AO82" s="14" t="s">
+        <v>1899</v>
+      </c>
+      <c r="AP82" s="14" t="s">
+        <v>1875</v>
+      </c>
+      <c r="AQ82" s="14" t="s">
+        <v>1876</v>
+      </c>
+      <c r="AR82" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS82" s="14" t="s">
+        <v>1878</v>
+      </c>
+      <c r="AT82" s="14" t="s">
+        <v>1900</v>
+      </c>
+      <c r="AU82" s="14" t="s">
+        <v>1901</v>
+      </c>
+      <c r="AV82" s="14" t="s">
+        <v>1902</v>
+      </c>
+      <c r="AX82" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="AY82" s="14" t="s">
+        <v>1903</v>
+      </c>
+      <c r="AZ82" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
+      <c r="B83" s="8">
+        <v>44859</v>
+      </c>
       <c r="C83" t="s">
         <v>51</v>
       </c>
+      <c r="D83" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E83">
+        <v>11</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" t="s">
+        <v>1907</v>
+      </c>
+      <c r="H83" t="s">
+        <v>1856</v>
+      </c>
+      <c r="I83">
+        <v>25</v>
+      </c>
+      <c r="J83">
+        <v>48.4</v>
+      </c>
+      <c r="K83" t="s">
+        <v>1908</v>
+      </c>
+      <c r="L83" t="s">
+        <v>1904</v>
+      </c>
+      <c r="N83" t="s">
+        <v>1904</v>
+      </c>
+      <c r="O83" t="s">
+        <v>1882</v>
+      </c>
+      <c r="P83" t="s">
+        <v>1932</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>1904</v>
+      </c>
+      <c r="R83" t="s">
+        <v>1904</v>
+      </c>
+      <c r="S83" t="s">
+        <v>1882</v>
+      </c>
+      <c r="T83">
+        <v>999</v>
+      </c>
+      <c r="U83" s="1">
+        <v>999</v>
+      </c>
+      <c r="V83" t="s">
+        <v>473</v>
+      </c>
+      <c r="W83" t="s">
+        <v>1909</v>
+      </c>
+      <c r="X83" t="s">
+        <v>1910</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>1455</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>1911</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>1912</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>1913</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>479</v>
+      </c>
+      <c r="AD83" t="s">
+        <v>1914</v>
+      </c>
+      <c r="AE83" t="s">
+        <v>1915</v>
+      </c>
+      <c r="AF83" t="s">
+        <v>1916</v>
+      </c>
+      <c r="AG83" t="s">
+        <v>1917</v>
+      </c>
+      <c r="AH83" s="14" t="s">
+        <v>1918</v>
+      </c>
+      <c r="AI83" s="14" t="s">
+        <v>1919</v>
+      </c>
+      <c r="AJ83" s="14" t="s">
+        <v>1920</v>
+      </c>
+      <c r="AK83" s="14" t="s">
+        <v>1921</v>
+      </c>
+      <c r="AL83" s="14" t="s">
+        <v>1922</v>
+      </c>
+      <c r="AM83" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="AN83" s="14" t="s">
+        <v>1923</v>
+      </c>
+      <c r="AO83" s="14" t="s">
+        <v>1924</v>
+      </c>
+      <c r="AP83" s="14" t="s">
+        <v>1925</v>
+      </c>
+      <c r="AQ83" s="14" t="s">
+        <v>1926</v>
+      </c>
+      <c r="AR83" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS83" s="14" t="s">
+        <v>1927</v>
+      </c>
+      <c r="AT83" s="14" t="s">
+        <v>1928</v>
+      </c>
+      <c r="AU83" s="14" t="s">
+        <v>1929</v>
+      </c>
+      <c r="AV83" s="14" t="s">
+        <v>1930</v>
+      </c>
+      <c r="AX83" s="14" t="s">
+        <v>1931</v>
+      </c>
+      <c r="AY83" s="14" t="s">
+        <v>1903</v>
+      </c>
+      <c r="AZ83" s="1" t="s">
+        <v>784</v>
+      </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
+      <c r="B84" s="8">
+        <v>44859</v>
+      </c>
       <c r="C84" t="s">
         <v>51</v>
       </c>
+      <c r="D84" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E84">
+        <v>11</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" t="s">
+        <v>1933</v>
+      </c>
+      <c r="H84" t="s">
+        <v>1856</v>
+      </c>
+      <c r="I84">
+        <v>25</v>
+      </c>
+      <c r="J84">
+        <v>48.4</v>
+      </c>
+      <c r="K84" t="s">
+        <v>1908</v>
+      </c>
+      <c r="L84" t="s">
+        <v>1904</v>
+      </c>
+      <c r="N84" t="s">
+        <v>1904</v>
+      </c>
+      <c r="O84" t="s">
+        <v>1882</v>
+      </c>
+      <c r="P84" t="s">
+        <v>1948</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>1949</v>
+      </c>
+      <c r="R84">
+        <v>999</v>
+      </c>
+      <c r="S84">
+        <v>999</v>
+      </c>
+      <c r="T84" t="s">
+        <v>307</v>
+      </c>
+      <c r="U84" s="1">
+        <v>999</v>
+      </c>
+      <c r="V84">
+        <v>999</v>
+      </c>
+      <c r="W84" t="s">
+        <v>1611</v>
+      </c>
+      <c r="X84">
+        <v>999</v>
+      </c>
+      <c r="Y84">
+        <v>999</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>896</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>1934</v>
+      </c>
+      <c r="AB84">
+        <v>999</v>
+      </c>
+      <c r="AC84" t="s">
+        <v>1935</v>
+      </c>
+      <c r="AD84" t="s">
+        <v>1936</v>
+      </c>
+      <c r="AE84" t="s">
+        <v>1937</v>
+      </c>
+      <c r="AF84">
+        <v>999</v>
+      </c>
+      <c r="AG84" s="14">
+        <v>999</v>
+      </c>
+      <c r="AH84">
+        <v>999</v>
+      </c>
+      <c r="AI84" s="14" t="s">
+        <v>1938</v>
+      </c>
+      <c r="AJ84" s="14" t="s">
+        <v>1939</v>
+      </c>
+      <c r="AK84" s="14">
+        <v>999</v>
+      </c>
+      <c r="AL84" s="14" t="s">
+        <v>1940</v>
+      </c>
+      <c r="AM84" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="AN84" s="14" t="s">
+        <v>1941</v>
+      </c>
+      <c r="AO84" s="14" t="s">
+        <v>1942</v>
+      </c>
+      <c r="AP84">
+        <v>999</v>
+      </c>
+      <c r="AQ84" s="14" t="s">
+        <v>1943</v>
+      </c>
+      <c r="AR84" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS84" s="14" t="s">
+        <v>1944</v>
+      </c>
+      <c r="AT84" s="14" t="s">
+        <v>1945</v>
+      </c>
+      <c r="AU84">
+        <v>999</v>
+      </c>
+      <c r="AV84" s="14" t="s">
+        <v>1946</v>
+      </c>
+      <c r="AW84" s="14" t="s">
+        <v>1947</v>
+      </c>
+      <c r="AX84" s="14" t="s">
+        <v>909</v>
+      </c>
+      <c r="AY84">
+        <v>999</v>
+      </c>
+      <c r="AZ84" s="1" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
+      <c r="B85" s="8"/>
       <c r="C85" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:53" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
+      <c r="B86" s="8">
+        <v>44859</v>
+      </c>
       <c r="C86" t="s">
         <v>51</v>
       </c>
+      <c r="D86" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E86">
+        <v>11</v>
+      </c>
+      <c r="F86">
+        <v>3</v>
+      </c>
+      <c r="G86" t="s">
+        <v>1950</v>
+      </c>
+      <c r="H86" s="15" t="s">
+        <v>1856</v>
+      </c>
+      <c r="I86">
+        <v>25</v>
+      </c>
+      <c r="J86">
+        <v>48.4</v>
+      </c>
+      <c r="K86" t="s">
+        <v>1952</v>
+      </c>
+      <c r="L86" t="s">
+        <v>1951</v>
+      </c>
+      <c r="N86" t="s">
+        <v>1904</v>
+      </c>
+      <c r="O86" t="s">
+        <v>1882</v>
+      </c>
+      <c r="P86" t="s">
+        <v>1970</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>1192</v>
+      </c>
+      <c r="R86">
+        <v>999</v>
+      </c>
+      <c r="S86">
+        <v>999</v>
+      </c>
+      <c r="T86" t="s">
+        <v>54</v>
+      </c>
+      <c r="U86" s="1">
+        <v>999</v>
+      </c>
+      <c r="V86" t="s">
+        <v>1953</v>
+      </c>
+      <c r="W86" t="s">
+        <v>1954</v>
+      </c>
+      <c r="X86" t="s">
+        <v>1955</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>1956</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>1957</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>1864</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>603</v>
+      </c>
+      <c r="AD86" t="s">
+        <v>1958</v>
+      </c>
+      <c r="AE86" t="s">
+        <v>1959</v>
+      </c>
+      <c r="AF86" t="s">
+        <v>1867</v>
+      </c>
+      <c r="AG86" s="14" t="s">
+        <v>1960</v>
+      </c>
+      <c r="AH86" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="AI86" s="14" t="s">
+        <v>1961</v>
+      </c>
+      <c r="AJ86" s="14" t="s">
+        <v>1962</v>
+      </c>
+      <c r="AK86" s="14" t="s">
+        <v>1724</v>
+      </c>
+      <c r="AL86">
+        <v>999</v>
+      </c>
+      <c r="AM86" s="14" t="s">
+        <v>1963</v>
+      </c>
+      <c r="AN86" s="14" t="s">
+        <v>1941</v>
+      </c>
+      <c r="AO86" s="14" t="s">
+        <v>1964</v>
+      </c>
+      <c r="AP86" s="14" t="s">
+        <v>1965</v>
+      </c>
+      <c r="AQ86" s="14" t="s">
+        <v>1966</v>
+      </c>
+      <c r="AR86" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS86" s="14" t="s">
+        <v>1967</v>
+      </c>
+      <c r="AT86" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU86" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV86" s="14" t="s">
+        <v>1968</v>
+      </c>
+      <c r="AX86" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="AY86" s="14" t="s">
+        <v>1969</v>
+      </c>
+      <c r="AZ86" s="1" t="s">
+        <v>1791</v>
+      </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:53" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
+      <c r="B87" s="8">
+        <v>44859</v>
+      </c>
       <c r="C87" t="s">
         <v>51</v>
       </c>
+      <c r="D87" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E87">
+        <v>11</v>
+      </c>
+      <c r="F87">
+        <v>4</v>
+      </c>
+      <c r="G87" t="s">
+        <v>1971</v>
+      </c>
+      <c r="H87" s="15" t="s">
+        <v>1856</v>
+      </c>
+      <c r="I87">
+        <v>25</v>
+      </c>
+      <c r="J87">
+        <v>48.4</v>
+      </c>
+      <c r="K87" t="s">
+        <v>1973</v>
+      </c>
+      <c r="L87" t="s">
+        <v>1972</v>
+      </c>
+      <c r="N87" t="s">
+        <v>1904</v>
+      </c>
+      <c r="O87" t="s">
+        <v>1882</v>
+      </c>
+      <c r="P87" t="s">
+        <v>1993</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>1994</v>
+      </c>
+      <c r="R87">
+        <v>999</v>
+      </c>
+      <c r="S87">
+        <v>999</v>
+      </c>
+      <c r="T87" t="s">
+        <v>90</v>
+      </c>
+      <c r="U87" s="1" t="s">
+        <v>1995</v>
+      </c>
+      <c r="V87" t="s">
+        <v>1974</v>
+      </c>
+      <c r="W87" t="s">
+        <v>1975</v>
+      </c>
+      <c r="X87" t="s">
+        <v>1976</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>1977</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>1978</v>
+      </c>
+      <c r="AA87" t="s">
+        <v>1979</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>1980</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>479</v>
+      </c>
+      <c r="AD87" t="s">
+        <v>1759</v>
+      </c>
+      <c r="AE87" t="s">
+        <v>1915</v>
+      </c>
+      <c r="AF87" t="s">
+        <v>1916</v>
+      </c>
+      <c r="AG87" s="14" t="s">
+        <v>1981</v>
+      </c>
+      <c r="AH87" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="AI87" s="14" t="s">
+        <v>1982</v>
+      </c>
+      <c r="AJ87" s="14" t="s">
+        <v>1983</v>
+      </c>
+      <c r="AK87" s="14" t="s">
+        <v>1984</v>
+      </c>
+      <c r="AL87" s="14" t="s">
+        <v>1985</v>
+      </c>
+      <c r="AM87" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="AN87" s="14" t="s">
+        <v>1986</v>
+      </c>
+      <c r="AO87" s="14" t="s">
+        <v>1987</v>
+      </c>
+      <c r="AP87" s="14" t="s">
+        <v>1988</v>
+      </c>
+      <c r="AQ87" s="14" t="s">
+        <v>1989</v>
+      </c>
+      <c r="AR87" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="AS87" s="14" t="s">
+        <v>1990</v>
+      </c>
+      <c r="AT87" s="14" t="s">
+        <v>1991</v>
+      </c>
+      <c r="AU87" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="AV87" s="14" t="s">
+        <v>1992</v>
+      </c>
+      <c r="AX87" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="AY87" s="14" t="s">
+        <v>1227</v>
+      </c>
+      <c r="AZ87" s="1" t="s">
+        <v>613</v>
+      </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
+      <c r="B88" s="8">
+        <v>44859</v>
+      </c>
       <c r="C88" t="s">
         <v>51</v>
       </c>
+      <c r="D88" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E88">
+        <v>11</v>
+      </c>
+      <c r="F88">
+        <v>6</v>
+      </c>
+      <c r="G88" t="s">
+        <v>1996</v>
+      </c>
+      <c r="H88" t="s">
+        <v>1856</v>
+      </c>
+      <c r="I88">
+        <v>25</v>
+      </c>
+      <c r="J88">
+        <v>48.4</v>
+      </c>
+      <c r="K88" t="s">
+        <v>1998</v>
+      </c>
+      <c r="L88" t="s">
+        <v>1997</v>
+      </c>
+      <c r="N88" t="s">
+        <v>1904</v>
+      </c>
+      <c r="O88" t="s">
+        <v>1882</v>
+      </c>
+      <c r="P88" t="s">
+        <v>2020</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>2021</v>
+      </c>
+      <c r="R88">
+        <v>999</v>
+      </c>
+      <c r="S88">
+        <v>999</v>
+      </c>
+      <c r="T88" t="s">
+        <v>307</v>
+      </c>
+      <c r="U88" s="1" t="s">
+        <v>2020</v>
+      </c>
+      <c r="V88">
+        <v>999</v>
+      </c>
+      <c r="W88" t="s">
+        <v>1999</v>
+      </c>
+      <c r="X88" t="s">
+        <v>2000</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>2002</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>2001</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>2003</v>
+      </c>
+      <c r="AB88">
+        <v>999</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>479</v>
+      </c>
+      <c r="AD88" t="s">
+        <v>2004</v>
+      </c>
+      <c r="AE88" t="s">
+        <v>2005</v>
+      </c>
+      <c r="AF88">
+        <v>999</v>
+      </c>
+      <c r="AG88" s="14" t="s">
+        <v>2006</v>
+      </c>
+      <c r="AH88" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="AI88" s="14" t="s">
+        <v>2007</v>
+      </c>
+      <c r="AJ88" s="14" t="s">
+        <v>2008</v>
+      </c>
+      <c r="AK88" s="14" t="s">
+        <v>2009</v>
+      </c>
+      <c r="AL88" s="14" t="s">
+        <v>2010</v>
+      </c>
+      <c r="AM88" s="14" t="s">
+        <v>2011</v>
+      </c>
+      <c r="AN88" s="14" t="s">
+        <v>1923</v>
+      </c>
+      <c r="AO88" s="14" t="s">
+        <v>2012</v>
+      </c>
+      <c r="AP88" s="14" t="s">
+        <v>1965</v>
+      </c>
+      <c r="AQ88" s="14" t="s">
+        <v>2013</v>
+      </c>
+      <c r="AR88" t="s">
+        <v>348</v>
+      </c>
+      <c r="AS88" s="14" t="s">
+        <v>2014</v>
+      </c>
+      <c r="AT88" s="14" t="s">
+        <v>2015</v>
+      </c>
+      <c r="AU88">
+        <v>999</v>
+      </c>
+      <c r="AV88" s="14" t="s">
+        <v>2016</v>
+      </c>
+      <c r="AW88" s="14" t="s">
+        <v>2017</v>
+      </c>
+      <c r="AX88" s="14" t="s">
+        <v>2018</v>
+      </c>
+      <c r="AY88" s="14" t="s">
+        <v>2019</v>
+      </c>
+      <c r="AZ88" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="BA88" s="11" t="s">
+        <v>2045</v>
+      </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
+      <c r="B89" s="8">
+        <v>44859</v>
+      </c>
       <c r="C89" t="s">
         <v>51</v>
       </c>
+      <c r="D89" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E89">
+        <v>11</v>
+      </c>
+      <c r="F89">
+        <v>7</v>
+      </c>
+      <c r="G89" t="s">
+        <v>2022</v>
+      </c>
+      <c r="H89" t="s">
+        <v>1856</v>
+      </c>
+      <c r="I89">
+        <v>25</v>
+      </c>
+      <c r="J89">
+        <v>48.4</v>
+      </c>
+      <c r="K89" t="s">
+        <v>2024</v>
+      </c>
+      <c r="L89" t="s">
+        <v>2023</v>
+      </c>
+      <c r="N89" t="s">
+        <v>1904</v>
+      </c>
+      <c r="O89" t="s">
+        <v>1882</v>
+      </c>
+      <c r="P89" t="s">
+        <v>2046</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>2047</v>
+      </c>
+      <c r="R89">
+        <v>999</v>
+      </c>
+      <c r="S89" t="s">
+        <v>2048</v>
+      </c>
+      <c r="T89" t="s">
+        <v>307</v>
+      </c>
+      <c r="U89" s="1">
+        <v>999</v>
+      </c>
+      <c r="V89" t="s">
+        <v>2025</v>
+      </c>
+      <c r="W89" t="s">
+        <v>1999</v>
+      </c>
+      <c r="X89" t="s">
+        <v>2026</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>2002</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>1911</v>
+      </c>
+      <c r="AA89" t="s">
+        <v>2027</v>
+      </c>
+      <c r="AB89" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AC89" t="s">
+        <v>2029</v>
+      </c>
+      <c r="AD89" t="s">
+        <v>2030</v>
+      </c>
+      <c r="AE89" t="s">
+        <v>1915</v>
+      </c>
+      <c r="AF89" t="s">
+        <v>2031</v>
+      </c>
+      <c r="AG89" s="14" t="s">
+        <v>2032</v>
+      </c>
+      <c r="AH89" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="AI89" s="14" t="s">
+        <v>2033</v>
+      </c>
+      <c r="AJ89" s="14" t="s">
+        <v>2034</v>
+      </c>
+      <c r="AK89" s="14" t="s">
+        <v>2035</v>
+      </c>
+      <c r="AL89" s="14" t="s">
+        <v>2036</v>
+      </c>
+      <c r="AM89" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="AN89" s="14" t="s">
+        <v>2037</v>
+      </c>
+      <c r="AO89" s="14" t="s">
+        <v>2038</v>
+      </c>
+      <c r="AP89" s="14" t="s">
+        <v>1965</v>
+      </c>
+      <c r="AQ89" s="14" t="s">
+        <v>2039</v>
+      </c>
+      <c r="AR89" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="AS89" s="14" t="s">
+        <v>2040</v>
+      </c>
+      <c r="AT89" s="14" t="s">
+        <v>2041</v>
+      </c>
+      <c r="AU89" s="14" t="s">
+        <v>2042</v>
+      </c>
+      <c r="AV89" s="14" t="s">
+        <v>2043</v>
+      </c>
+      <c r="AX89" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="AY89" s="14" t="s">
+        <v>1903</v>
+      </c>
+      <c r="AZ89" s="1" t="s">
+        <v>2044</v>
+      </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
+      <c r="B90" s="8">
+        <v>44859</v>
+      </c>
       <c r="C90" t="s">
         <v>51</v>
       </c>
+      <c r="D90" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E90">
+        <v>11</v>
+      </c>
+      <c r="F90">
+        <v>8</v>
+      </c>
+      <c r="G90" t="s">
+        <v>2049</v>
+      </c>
+      <c r="H90" t="s">
+        <v>1856</v>
+      </c>
+      <c r="I90">
+        <v>25</v>
+      </c>
+      <c r="J90">
+        <v>48.4</v>
+      </c>
+      <c r="K90" t="s">
+        <v>2051</v>
+      </c>
+      <c r="L90" t="s">
+        <v>2050</v>
+      </c>
+      <c r="N90" t="s">
+        <v>1904</v>
+      </c>
+      <c r="O90" t="s">
+        <v>1882</v>
+      </c>
+      <c r="P90" t="s">
+        <v>2065</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>2066</v>
+      </c>
+      <c r="R90">
+        <v>999</v>
+      </c>
+      <c r="S90">
+        <v>999</v>
+      </c>
+      <c r="T90" t="s">
+        <v>90</v>
+      </c>
+      <c r="U90" s="1">
+        <v>999</v>
+      </c>
+      <c r="V90" t="s">
+        <v>1753</v>
+      </c>
+      <c r="W90" t="s">
+        <v>1999</v>
+      </c>
+      <c r="X90" t="s">
+        <v>2052</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>2002</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>1911</v>
+      </c>
+      <c r="AA90" t="s">
+        <v>2053</v>
+      </c>
+      <c r="AB90" t="s">
+        <v>2054</v>
+      </c>
+      <c r="AC90" t="s">
+        <v>479</v>
+      </c>
+      <c r="AD90" t="s">
+        <v>2004</v>
+      </c>
+      <c r="AE90" t="s">
+        <v>1915</v>
+      </c>
+      <c r="AF90" t="s">
+        <v>1916</v>
+      </c>
+      <c r="AG90" s="14" t="s">
+        <v>2055</v>
+      </c>
+      <c r="AH90" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="AI90" s="14" t="s">
+        <v>2056</v>
+      </c>
+      <c r="AJ90" s="14" t="s">
+        <v>2034</v>
+      </c>
+      <c r="AK90" s="14" t="s">
+        <v>2057</v>
+      </c>
+      <c r="AL90" s="14" t="s">
+        <v>2058</v>
+      </c>
+      <c r="AM90" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="AN90" s="14" t="s">
+        <v>1923</v>
+      </c>
+      <c r="AO90" s="14" t="s">
+        <v>1924</v>
+      </c>
+      <c r="AP90" s="14" t="s">
+        <v>2059</v>
+      </c>
+      <c r="AQ90" s="14" t="s">
+        <v>1966</v>
+      </c>
+      <c r="AR90" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="AS90" s="14" t="s">
+        <v>2060</v>
+      </c>
+      <c r="AT90" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="AU90" s="14" t="s">
+        <v>2061</v>
+      </c>
+      <c r="AV90" s="14" t="s">
+        <v>2062</v>
+      </c>
+      <c r="AX90" s="14" t="s">
+        <v>2063</v>
+      </c>
+      <c r="AY90" s="14" t="s">
+        <v>2064</v>
+      </c>
+      <c r="AZ90" s="1" t="s">
+        <v>613</v>
+      </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
+      <c r="B91" s="8">
+        <v>44859</v>
+      </c>
       <c r="C91" t="s">
         <v>51</v>
       </c>
+      <c r="D91" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E91">
+        <v>11</v>
+      </c>
+      <c r="F91">
+        <v>9</v>
+      </c>
+      <c r="G91" t="s">
+        <v>2067</v>
+      </c>
+      <c r="H91" t="s">
+        <v>1856</v>
+      </c>
+      <c r="I91">
+        <v>25</v>
+      </c>
+      <c r="J91">
+        <v>48.4</v>
+      </c>
+      <c r="K91" t="s">
+        <v>2069</v>
+      </c>
+      <c r="L91" t="s">
+        <v>2068</v>
+      </c>
+      <c r="N91" t="s">
+        <v>1904</v>
+      </c>
+      <c r="O91" t="s">
+        <v>1882</v>
+      </c>
+      <c r="P91" t="s">
+        <v>2086</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>2087</v>
+      </c>
+      <c r="R91">
+        <v>999</v>
+      </c>
+      <c r="S91">
+        <v>999</v>
+      </c>
+      <c r="T91" t="s">
+        <v>54</v>
+      </c>
+      <c r="U91" s="1">
+        <v>999</v>
+      </c>
+      <c r="V91">
+        <v>999</v>
+      </c>
+      <c r="W91" t="s">
+        <v>1999</v>
+      </c>
+      <c r="X91" t="s">
+        <v>2070</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>1861</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>1911</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>2071</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>2072</v>
+      </c>
+      <c r="AC91" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD91" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE91" t="s">
+        <v>2073</v>
+      </c>
+      <c r="AF91" t="s">
+        <v>2074</v>
+      </c>
+      <c r="AG91" s="14" t="s">
+        <v>2075</v>
+      </c>
+      <c r="AH91" s="14" t="s">
+        <v>2076</v>
+      </c>
+      <c r="AI91" s="14" t="s">
+        <v>2077</v>
+      </c>
+      <c r="AJ91" s="14" t="s">
+        <v>2078</v>
+      </c>
+      <c r="AK91" s="14" t="s">
+        <v>2079</v>
+      </c>
+      <c r="AL91">
+        <v>999</v>
+      </c>
+      <c r="AM91" s="14" t="s">
+        <v>1963</v>
+      </c>
+      <c r="AN91" s="14" t="s">
+        <v>2080</v>
+      </c>
+      <c r="AO91" s="14" t="s">
+        <v>2081</v>
+      </c>
+      <c r="AP91" s="14" t="s">
+        <v>1875</v>
+      </c>
+      <c r="AQ91" s="14" t="s">
+        <v>1926</v>
+      </c>
+      <c r="AR91" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS91">
+        <v>999</v>
+      </c>
+      <c r="AT91" s="14" t="s">
+        <v>2082</v>
+      </c>
+      <c r="AU91" s="14" t="s">
+        <v>2083</v>
+      </c>
+      <c r="AV91" s="14" t="s">
+        <v>2084</v>
+      </c>
+      <c r="AX91" s="14" t="s">
+        <v>2085</v>
+      </c>
+      <c r="AY91" s="14" t="s">
+        <v>2019</v>
+      </c>
+      <c r="AZ91" s="1" t="s">
+        <v>1496</v>
+      </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -17819,23 +20721,311 @@
         <v>51</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
+      <c r="B93" s="8">
+        <v>44859</v>
+      </c>
       <c r="C93" t="s">
         <v>51</v>
       </c>
+      <c r="D93" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E93">
+        <v>11</v>
+      </c>
+      <c r="F93">
+        <v>11</v>
+      </c>
+      <c r="G93" t="s">
+        <v>2089</v>
+      </c>
+      <c r="H93" t="s">
+        <v>1856</v>
+      </c>
+      <c r="I93">
+        <v>25</v>
+      </c>
+      <c r="J93">
+        <v>48.4</v>
+      </c>
+      <c r="K93" t="s">
+        <v>2090</v>
+      </c>
+      <c r="L93" t="s">
+        <v>2088</v>
+      </c>
+      <c r="N93" t="s">
+        <v>1904</v>
+      </c>
+      <c r="O93" t="s">
+        <v>1882</v>
+      </c>
+      <c r="P93" t="s">
+        <v>2101</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>2102</v>
+      </c>
+      <c r="R93">
+        <v>999</v>
+      </c>
+      <c r="S93">
+        <v>999</v>
+      </c>
+      <c r="T93" t="s">
+        <v>90</v>
+      </c>
+      <c r="U93" s="1">
+        <v>999</v>
+      </c>
+      <c r="V93" t="s">
+        <v>1753</v>
+      </c>
+      <c r="W93" t="s">
+        <v>2091</v>
+      </c>
+      <c r="X93" t="s">
+        <v>737</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>1977</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA93" t="s">
+        <v>2053</v>
+      </c>
+      <c r="AB93" t="s">
+        <v>2092</v>
+      </c>
+      <c r="AC93" t="s">
+        <v>479</v>
+      </c>
+      <c r="AD93" t="s">
+        <v>1914</v>
+      </c>
+      <c r="AE93" t="s">
+        <v>1915</v>
+      </c>
+      <c r="AF93" t="s">
+        <v>1916</v>
+      </c>
+      <c r="AG93" s="14" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AH93" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="AI93" s="14" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AJ93" s="14" t="s">
+        <v>1920</v>
+      </c>
+      <c r="AK93" s="14" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AL93" s="14" t="s">
+        <v>2096</v>
+      </c>
+      <c r="AM93" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="AN93" s="14" t="s">
+        <v>1923</v>
+      </c>
+      <c r="AO93" s="14" t="s">
+        <v>1767</v>
+      </c>
+      <c r="AP93" s="14" t="s">
+        <v>2059</v>
+      </c>
+      <c r="AQ93" s="14" t="s">
+        <v>2097</v>
+      </c>
+      <c r="AR93" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="AS93" s="14" t="s">
+        <v>2098</v>
+      </c>
+      <c r="AT93" s="14" t="s">
+        <v>2015</v>
+      </c>
+      <c r="AU93" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="AV93" s="14" t="s">
+        <v>2099</v>
+      </c>
+      <c r="AX93" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="AY93" s="14" t="s">
+        <v>2100</v>
+      </c>
+      <c r="AZ93" s="1" t="s">
+        <v>613</v>
+      </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
+      <c r="B94" s="8">
+        <v>44859</v>
+      </c>
       <c r="C94" t="s">
         <v>51</v>
       </c>
+      <c r="D94" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E94">
+        <v>11</v>
+      </c>
+      <c r="F94">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>2103</v>
+      </c>
+      <c r="H94" t="s">
+        <v>1856</v>
+      </c>
+      <c r="I94">
+        <v>25</v>
+      </c>
+      <c r="J94">
+        <v>48.4</v>
+      </c>
+      <c r="K94" t="s">
+        <v>2024</v>
+      </c>
+      <c r="L94" t="s">
+        <v>2104</v>
+      </c>
+      <c r="N94" t="s">
+        <v>1904</v>
+      </c>
+      <c r="O94" t="s">
+        <v>2129</v>
+      </c>
+      <c r="P94" t="s">
+        <v>2130</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>2131</v>
+      </c>
+      <c r="R94">
+        <v>999</v>
+      </c>
+      <c r="S94" t="s">
+        <v>2132</v>
+      </c>
+      <c r="T94" t="s">
+        <v>307</v>
+      </c>
+      <c r="U94" s="1">
+        <v>999</v>
+      </c>
+      <c r="V94" t="s">
+        <v>2105</v>
+      </c>
+      <c r="W94" t="s">
+        <v>2106</v>
+      </c>
+      <c r="X94" t="s">
+        <v>2107</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>2108</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>2109</v>
+      </c>
+      <c r="AA94" t="s">
+        <v>2110</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>2111</v>
+      </c>
+      <c r="AC94" t="s">
+        <v>479</v>
+      </c>
+      <c r="AD94" t="s">
+        <v>2112</v>
+      </c>
+      <c r="AE94" t="s">
+        <v>2113</v>
+      </c>
+      <c r="AF94" t="s">
+        <v>2114</v>
+      </c>
+      <c r="AG94" s="14" t="s">
+        <v>2115</v>
+      </c>
+      <c r="AH94" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="AI94" s="14" t="s">
+        <v>2116</v>
+      </c>
+      <c r="AJ94" s="14" t="s">
+        <v>2117</v>
+      </c>
+      <c r="AK94" s="14" t="s">
+        <v>2118</v>
+      </c>
+      <c r="AL94" s="14" t="s">
+        <v>2119</v>
+      </c>
+      <c r="AM94" s="14" t="s">
+        <v>2120</v>
+      </c>
+      <c r="AN94" s="14" t="s">
+        <v>2121</v>
+      </c>
+      <c r="AO94" s="14" t="s">
+        <v>2122</v>
+      </c>
+      <c r="AP94" s="14" t="s">
+        <v>1925</v>
+      </c>
+      <c r="AQ94" s="14" t="s">
+        <v>2123</v>
+      </c>
+      <c r="AR94" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="AS94" s="14" t="s">
+        <v>2124</v>
+      </c>
+      <c r="AT94" s="14" t="s">
+        <v>2015</v>
+      </c>
+      <c r="AU94" s="14" t="s">
+        <v>2125</v>
+      </c>
+      <c r="AV94" s="14" t="s">
+        <v>2126</v>
+      </c>
+      <c r="AX94" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="AY94" s="14" t="s">
+        <v>2127</v>
+      </c>
+      <c r="AZ94" s="1" t="s">
+        <v>2128</v>
+      </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -17843,7 +21033,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>

--- a/Data/DWA_JH.xlsx
+++ b/Data/DWA_JH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24CD170-EDE6-40F9-B060-73E606991613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4D3275-8B76-4C1A-96CE-8A00DF85A5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8470" yWindow="1950" windowWidth="14400" windowHeight="7250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3654" uniqueCount="2133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4040" uniqueCount="2295">
   <si>
     <t>ID</t>
   </si>
@@ -6651,6 +6651,492 @@
   </si>
   <si>
     <t>U./Els.</t>
+  </si>
+  <si>
+    <t>III_8_0042</t>
+  </si>
+  <si>
+    <t>Dimbstal</t>
+  </si>
+  <si>
+    <t>i-d</t>
+  </si>
+  <si>
+    <t>Atsel (w)</t>
+  </si>
+  <si>
+    <t>Ant (w)</t>
+  </si>
+  <si>
+    <t>Ardapfel (m)</t>
+  </si>
+  <si>
+    <t>Katz (w)</t>
+  </si>
+  <si>
+    <t>Müllwerfer (m)</t>
+  </si>
+  <si>
+    <t>Galrüewe (w)</t>
+  </si>
+  <si>
+    <t>Krachelsbeer (w)</t>
+  </si>
+  <si>
+    <t>Stopfnodel (w)</t>
+  </si>
+  <si>
+    <t>Haafe (m)</t>
+  </si>
+  <si>
+    <t>Warthorst Marie</t>
+  </si>
+  <si>
+    <t>Birkenau i. Hessen</t>
+  </si>
+  <si>
+    <t>ein Erwachsener</t>
+  </si>
+  <si>
+    <t>III_8_0044</t>
+  </si>
+  <si>
+    <t>Salental</t>
+  </si>
+  <si>
+    <t>i-f</t>
+  </si>
+  <si>
+    <t>Brumbeere</t>
+  </si>
+  <si>
+    <t>Antevöjel</t>
+  </si>
+  <si>
+    <t>Fladdermüss</t>
+  </si>
+  <si>
+    <t>Uhmt</t>
+  </si>
+  <si>
+    <t>Gockelhahn, Huahn</t>
+  </si>
+  <si>
+    <t>Gallerüab</t>
+  </si>
+  <si>
+    <t>Krachelsbeer</t>
+  </si>
+  <si>
+    <t>Strecknodel (w)</t>
+  </si>
+  <si>
+    <t>Stieknodel</t>
+  </si>
+  <si>
+    <t>Margarete Bloch</t>
+  </si>
+  <si>
+    <t>Pfalzburg</t>
+  </si>
+  <si>
+    <t>III_8_0045</t>
+  </si>
+  <si>
+    <t>Singrist</t>
+  </si>
+  <si>
+    <t>i-g</t>
+  </si>
+  <si>
+    <t>Licht, Begrabnis</t>
+  </si>
+  <si>
+    <t>Fladermüß</t>
+  </si>
+  <si>
+    <t>Ohmt</t>
+  </si>
+  <si>
+    <t>Hahn, Hüen</t>
+  </si>
+  <si>
+    <t>Andepfel</t>
+  </si>
+  <si>
+    <t>Müllwarfer</t>
+  </si>
+  <si>
+    <t>Galrüeb</t>
+  </si>
+  <si>
+    <t>Spaatz</t>
+  </si>
+  <si>
+    <t>Kraachelsbeer</t>
+  </si>
+  <si>
+    <t>K. Feidt Lehrer</t>
+  </si>
+  <si>
+    <t>Tomastal</t>
+  </si>
+  <si>
+    <t>Neuweiler</t>
+  </si>
+  <si>
+    <t>Elsaß</t>
+  </si>
+  <si>
+    <t>III_8_0046</t>
+  </si>
+  <si>
+    <t>Liecht</t>
+  </si>
+  <si>
+    <t>Brumbeera</t>
+  </si>
+  <si>
+    <t>Entavöjel</t>
+  </si>
+  <si>
+    <t>Gankommer</t>
+  </si>
+  <si>
+    <t>Bütt</t>
+  </si>
+  <si>
+    <t>Güler, Huahn</t>
+  </si>
+  <si>
+    <t>Hewamme</t>
+  </si>
+  <si>
+    <t>Krumbeera, Erdapfel</t>
+  </si>
+  <si>
+    <t>Katzaroller</t>
+  </si>
+  <si>
+    <t>Galrüab</t>
+  </si>
+  <si>
+    <t>Krachel, Grüßelsbeera</t>
+  </si>
+  <si>
+    <t>Strecknodel</t>
+  </si>
+  <si>
+    <t>[Tass</t>
+  </si>
+  <si>
+    <t>zwia</t>
+  </si>
+  <si>
+    <t>Kussmaul May</t>
+  </si>
+  <si>
+    <t>Schlettstadt</t>
+  </si>
+  <si>
+    <t>Kussmaul, Faust</t>
+  </si>
+  <si>
+    <t>III_8_0047</t>
+  </si>
+  <si>
+    <t>Jettersweiler</t>
+  </si>
+  <si>
+    <t>i-h</t>
+  </si>
+  <si>
+    <t>Ameis (a, w)</t>
+  </si>
+  <si>
+    <t>Licht (e, w)</t>
+  </si>
+  <si>
+    <t>Muck (e, w)</t>
+  </si>
+  <si>
+    <t>Gaggumer (w)</t>
+  </si>
+  <si>
+    <t>Gügelhahn (m), Huan (w)</t>
+  </si>
+  <si>
+    <t>Grumbäre (m)</t>
+  </si>
+  <si>
+    <t>Ruab (w)</t>
+  </si>
+  <si>
+    <t>Moor (w)</t>
+  </si>
+  <si>
+    <t>Pfädder (m)</t>
+  </si>
+  <si>
+    <t>Gaischel (s)</t>
+  </si>
+  <si>
+    <t>Pflümme (w)</t>
+  </si>
+  <si>
+    <t>Spåtz (m)</t>
+  </si>
+  <si>
+    <t>Kråchelsbeer (w)</t>
+  </si>
+  <si>
+    <t>Dass</t>
+  </si>
+  <si>
+    <t>Dallerle (e)</t>
+  </si>
+  <si>
+    <t>Hååfe (m)</t>
+  </si>
+  <si>
+    <t>Åtzel (w)</t>
+  </si>
+  <si>
+    <t>O̊hmt (s)</t>
+  </si>
+  <si>
+    <t>Weber</t>
+  </si>
+  <si>
+    <t>Wasselnheim</t>
+  </si>
+  <si>
+    <t>Els.</t>
+  </si>
+  <si>
+    <t>Schüler und Dorfbewohner</t>
+  </si>
+  <si>
+    <t>III_8_0048</t>
+  </si>
+  <si>
+    <t>Zehnacker</t>
+  </si>
+  <si>
+    <t>i-q</t>
+  </si>
+  <si>
+    <t>Ameyse</t>
+  </si>
+  <si>
+    <t>Brombeere, Bronbeere</t>
+  </si>
+  <si>
+    <t>Ante</t>
+  </si>
+  <si>
+    <t>Gagumere</t>
+  </si>
+  <si>
+    <t>Gückelhohn</t>
+  </si>
+  <si>
+    <t>Katz</t>
+  </si>
+  <si>
+    <t>Gelrüwe</t>
+  </si>
+  <si>
+    <t>Pfätter</t>
+  </si>
+  <si>
+    <t>Geyschel</t>
+  </si>
+  <si>
+    <t>Pflüme</t>
+  </si>
+  <si>
+    <t>Grachelsbäre</t>
+  </si>
+  <si>
+    <t>[Tassel]</t>
+  </si>
+  <si>
+    <t>Hofe</t>
+  </si>
+  <si>
+    <t>Baumann</t>
+  </si>
+  <si>
+    <t>III_8_0050</t>
+  </si>
+  <si>
+    <t>Knörrsheim</t>
+  </si>
+  <si>
+    <t>i-r</t>
+  </si>
+  <si>
+    <t>Attsel</t>
+  </si>
+  <si>
+    <t>Entevöjel</t>
+  </si>
+  <si>
+    <t>Fladdamüs</t>
+  </si>
+  <si>
+    <t>Ohmt, Uhmt</t>
+  </si>
+  <si>
+    <t>Hohn, Hüan</t>
+  </si>
+  <si>
+    <t>Gromber</t>
+  </si>
+  <si>
+    <t>Mühlwalfer</t>
+  </si>
+  <si>
+    <t>Galrüewe</t>
+  </si>
+  <si>
+    <t>Muhr</t>
+  </si>
+  <si>
+    <t>Spåtz</t>
+  </si>
+  <si>
+    <t>Krachelsbeere</t>
+  </si>
+  <si>
+    <t>Kåffeeschissl</t>
+  </si>
+  <si>
+    <t>Dallale</t>
+  </si>
+  <si>
+    <t>irdena Hafe</t>
+  </si>
+  <si>
+    <t>Geihs</t>
+  </si>
+  <si>
+    <t>E. Baumann</t>
+  </si>
+  <si>
+    <t>Hara Diebolt</t>
+  </si>
+  <si>
+    <t>III_8_0051</t>
+  </si>
+  <si>
+    <t>Westhausen</t>
+  </si>
+  <si>
+    <t>i-s</t>
+  </si>
+  <si>
+    <t>Ameiis</t>
+  </si>
+  <si>
+    <t>Brumbeer</t>
+  </si>
+  <si>
+    <t>Dischl</t>
+  </si>
+  <si>
+    <t>Entevöjl</t>
+  </si>
+  <si>
+    <t>Omd</t>
+  </si>
+  <si>
+    <t>Gückelhohn, Hüen</t>
+  </si>
+  <si>
+    <t>Mülwälfer</t>
+  </si>
+  <si>
+    <t>Kellerüebe</t>
+  </si>
+  <si>
+    <t>Pfeddr</t>
+  </si>
+  <si>
+    <t>Geiischl</t>
+  </si>
+  <si>
+    <t>schaelde</t>
+  </si>
+  <si>
+    <t>Spoatz</t>
+  </si>
+  <si>
+    <t>Kroachelbeer</t>
+  </si>
+  <si>
+    <t>[Toass]</t>
+  </si>
+  <si>
+    <t>Schissl</t>
+  </si>
+  <si>
+    <t>Geiis</t>
+  </si>
+  <si>
+    <t>Oskar Kem</t>
+  </si>
+  <si>
+    <t>Meßkirch</t>
+  </si>
+  <si>
+    <t>III_8_0052</t>
+  </si>
+  <si>
+    <t>Lochweiler</t>
+  </si>
+  <si>
+    <t>i-k</t>
+  </si>
+  <si>
+    <t>Uhmd</t>
+  </si>
+  <si>
+    <t>Gückelhohn, Hüohn</t>
+  </si>
+  <si>
+    <t>Krumbeer, Ardäpfel</t>
+  </si>
+  <si>
+    <t>gäl Riwe</t>
+  </si>
+  <si>
+    <t>Muur</t>
+  </si>
+  <si>
+    <t>schalte, haandle</t>
+  </si>
+  <si>
+    <t>Krochelsbeer</t>
+  </si>
+  <si>
+    <t>Schtopfnudel</t>
+  </si>
+  <si>
+    <t>Schtricknudel</t>
+  </si>
+  <si>
+    <t>irdener Hofe</t>
+  </si>
+  <si>
+    <t>äje</t>
+  </si>
+  <si>
+    <t>Scheffold Maria</t>
+  </si>
+  <si>
+    <t>Rottenburg/Neckar</t>
   </si>
 </sst>
 </file>
@@ -7080,10 +7566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA96"/>
+  <dimension ref="A1:BA112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView tabSelected="1" topLeftCell="M68" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N68" sqref="N68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -21029,16 +21515,1440 @@
       <c r="A95">
         <v>94</v>
       </c>
+      <c r="B95" s="8">
+        <v>44861</v>
+      </c>
       <c r="C95" t="s">
         <v>51</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E95">
+        <v>11</v>
+      </c>
+      <c r="F95">
+        <v>13</v>
+      </c>
+      <c r="G95" t="s">
+        <v>2133</v>
+      </c>
+      <c r="H95" t="s">
+        <v>1856</v>
+      </c>
+      <c r="I95">
+        <v>25</v>
+      </c>
+      <c r="J95">
+        <v>48.4</v>
+      </c>
+      <c r="K95" t="s">
+        <v>2135</v>
+      </c>
+      <c r="L95" t="s">
+        <v>2134</v>
+      </c>
+      <c r="N95" t="s">
+        <v>1904</v>
+      </c>
+      <c r="O95" t="s">
+        <v>1882</v>
+      </c>
+      <c r="P95" t="s">
+        <v>2145</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>2146</v>
+      </c>
+      <c r="R95">
+        <v>999</v>
+      </c>
+      <c r="S95">
+        <v>999</v>
+      </c>
+      <c r="T95" t="s">
+        <v>191</v>
+      </c>
+      <c r="U95" s="1" t="s">
+        <v>2147</v>
+      </c>
+      <c r="V95" t="s">
+        <v>1753</v>
+      </c>
+      <c r="W95" t="s">
+        <v>1180</v>
+      </c>
+      <c r="X95" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>2002</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>2136</v>
+      </c>
+      <c r="AA95" t="s">
+        <v>2137</v>
+      </c>
+      <c r="AB95" t="s">
+        <v>2054</v>
+      </c>
+      <c r="AC95" t="s">
+        <v>479</v>
+      </c>
+      <c r="AD95" t="s">
+        <v>1914</v>
+      </c>
+      <c r="AE95" t="s">
+        <v>1915</v>
+      </c>
+      <c r="AF95" t="s">
+        <v>1916</v>
+      </c>
+      <c r="AG95" s="14" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AH95" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="AI95" s="14" t="s">
+        <v>2138</v>
+      </c>
+      <c r="AJ95" s="14" t="s">
+        <v>2139</v>
+      </c>
+      <c r="AK95" s="14" t="s">
+        <v>2140</v>
+      </c>
+      <c r="AL95" s="14" t="s">
+        <v>2141</v>
+      </c>
+      <c r="AM95" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="AN95" s="14" t="s">
+        <v>1923</v>
+      </c>
+      <c r="AO95" s="14" t="s">
+        <v>2038</v>
+      </c>
+      <c r="AP95" s="14" t="s">
+        <v>1925</v>
+      </c>
+      <c r="AQ95" s="14" t="s">
+        <v>1966</v>
+      </c>
+      <c r="AR95" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="AS95" s="14" t="s">
+        <v>2142</v>
+      </c>
+      <c r="AT95" s="14" t="s">
+        <v>2143</v>
+      </c>
+      <c r="AU95" s="14" t="s">
+        <v>2158</v>
+      </c>
+      <c r="AV95" s="14" t="s">
+        <v>2062</v>
+      </c>
+      <c r="AX95" s="14" t="s">
+        <v>2144</v>
+      </c>
+      <c r="AY95" s="14" t="s">
+        <v>2019</v>
+      </c>
+      <c r="AZ95" s="1" t="s">
+        <v>2044</v>
       </c>
     </row>
     <row r="96" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
+      <c r="B96" s="8">
+        <v>44861</v>
+      </c>
       <c r="C96" t="s">
         <v>51</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E96">
+        <v>11</v>
+      </c>
+      <c r="F96">
+        <v>15</v>
+      </c>
+      <c r="G96" t="s">
+        <v>2148</v>
+      </c>
+      <c r="H96" t="s">
+        <v>1856</v>
+      </c>
+      <c r="I96">
+        <v>25</v>
+      </c>
+      <c r="J96">
+        <v>48.4</v>
+      </c>
+      <c r="K96" t="s">
+        <v>2150</v>
+      </c>
+      <c r="L96" t="s">
+        <v>2149</v>
+      </c>
+      <c r="N96" t="s">
+        <v>1904</v>
+      </c>
+      <c r="O96" t="s">
+        <v>1882</v>
+      </c>
+      <c r="P96" t="s">
+        <v>2160</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>2161</v>
+      </c>
+      <c r="R96">
+        <v>999</v>
+      </c>
+      <c r="S96" t="s">
+        <v>2048</v>
+      </c>
+      <c r="T96" t="s">
+        <v>90</v>
+      </c>
+      <c r="U96" s="1">
+        <v>999</v>
+      </c>
+      <c r="V96" t="s">
+        <v>1753</v>
+      </c>
+      <c r="W96" t="s">
+        <v>1859</v>
+      </c>
+      <c r="X96" t="s">
+        <v>2151</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>1861</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA96" t="s">
+        <v>2152</v>
+      </c>
+      <c r="AB96" t="s">
+        <v>2153</v>
+      </c>
+      <c r="AC96" t="s">
+        <v>479</v>
+      </c>
+      <c r="AD96" t="s">
+        <v>2154</v>
+      </c>
+      <c r="AE96" t="s">
+        <v>1895</v>
+      </c>
+      <c r="AF96" t="s">
+        <v>1867</v>
+      </c>
+      <c r="AG96" s="14" t="s">
+        <v>2155</v>
+      </c>
+      <c r="AH96" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="AI96" s="14" t="s">
+        <v>1723</v>
+      </c>
+      <c r="AJ96" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="AK96" s="14" t="s">
+        <v>2009</v>
+      </c>
+      <c r="AL96" s="14" t="s">
+        <v>2156</v>
+      </c>
+      <c r="AM96" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="AN96" s="14" t="s">
+        <v>1941</v>
+      </c>
+      <c r="AO96" s="14" t="s">
+        <v>1964</v>
+      </c>
+      <c r="AP96" s="14" t="s">
+        <v>1278</v>
+      </c>
+      <c r="AQ96" s="14" t="s">
+        <v>1966</v>
+      </c>
+      <c r="AR96" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS96" s="14" t="s">
+        <v>2157</v>
+      </c>
+      <c r="AT96" s="14" t="s">
+        <v>1900</v>
+      </c>
+      <c r="AU96" s="14" t="s">
+        <v>2159</v>
+      </c>
+      <c r="AV96" s="14" t="s">
+        <v>1902</v>
+      </c>
+      <c r="AX96" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="AY96" s="14" t="s">
+        <v>2064</v>
+      </c>
+      <c r="AZ96" s="1" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="97" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="8">
+        <v>44861</v>
+      </c>
+      <c r="C97" t="s">
+        <v>51</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E97">
+        <v>11</v>
+      </c>
+      <c r="F97">
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>2162</v>
+      </c>
+      <c r="H97" t="s">
+        <v>1856</v>
+      </c>
+      <c r="I97">
+        <v>25</v>
+      </c>
+      <c r="J97">
+        <v>48.4</v>
+      </c>
+      <c r="K97" t="s">
+        <v>2164</v>
+      </c>
+      <c r="L97" t="s">
+        <v>2163</v>
+      </c>
+      <c r="N97" t="s">
+        <v>1904</v>
+      </c>
+      <c r="O97" t="s">
+        <v>1882</v>
+      </c>
+      <c r="P97" t="s">
+        <v>2174</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>2175</v>
+      </c>
+      <c r="R97" t="s">
+        <v>2176</v>
+      </c>
+      <c r="S97" t="s">
+        <v>2177</v>
+      </c>
+      <c r="T97" t="s">
+        <v>90</v>
+      </c>
+      <c r="U97" s="1">
+        <v>999</v>
+      </c>
+      <c r="V97" t="s">
+        <v>1753</v>
+      </c>
+      <c r="W97" t="s">
+        <v>2165</v>
+      </c>
+      <c r="X97" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>1861</v>
+      </c>
+      <c r="Z97" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA97" t="s">
+        <v>2152</v>
+      </c>
+      <c r="AB97" t="s">
+        <v>2166</v>
+      </c>
+      <c r="AC97" t="s">
+        <v>603</v>
+      </c>
+      <c r="AD97" t="s">
+        <v>2167</v>
+      </c>
+      <c r="AE97" t="s">
+        <v>1895</v>
+      </c>
+      <c r="AF97" t="s">
+        <v>1867</v>
+      </c>
+      <c r="AG97" s="14" t="s">
+        <v>2168</v>
+      </c>
+      <c r="AH97" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="AI97" s="14" t="s">
+        <v>2169</v>
+      </c>
+      <c r="AJ97" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="AK97" s="14" t="s">
+        <v>2170</v>
+      </c>
+      <c r="AL97" s="14" t="s">
+        <v>2171</v>
+      </c>
+      <c r="AM97" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="AN97" s="14" t="s">
+        <v>1941</v>
+      </c>
+      <c r="AO97" s="14" t="s">
+        <v>1874</v>
+      </c>
+      <c r="AP97" s="14" t="s">
+        <v>1875</v>
+      </c>
+      <c r="AQ97" s="14" t="s">
+        <v>1966</v>
+      </c>
+      <c r="AR97" s="14" t="s">
+        <v>2172</v>
+      </c>
+      <c r="AS97" s="14" t="s">
+        <v>2173</v>
+      </c>
+      <c r="AT97" s="14" t="s">
+        <v>1900</v>
+      </c>
+      <c r="AU97" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV97" s="14" t="s">
+        <v>1902</v>
+      </c>
+      <c r="AX97" s="14" t="s">
+        <v>1495</v>
+      </c>
+      <c r="AY97" s="14" t="s">
+        <v>2064</v>
+      </c>
+      <c r="AZ97" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="98" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="8">
+        <v>44861</v>
+      </c>
+      <c r="C98" t="s">
+        <v>51</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E98">
+        <v>11</v>
+      </c>
+      <c r="F98">
+        <v>17</v>
+      </c>
+      <c r="G98" t="s">
+        <v>2178</v>
+      </c>
+      <c r="H98" t="s">
+        <v>1856</v>
+      </c>
+      <c r="I98">
+        <v>25</v>
+      </c>
+      <c r="J98">
+        <v>48.4</v>
+      </c>
+      <c r="K98" t="s">
+        <v>1610</v>
+      </c>
+      <c r="L98" t="s">
+        <v>2021</v>
+      </c>
+      <c r="N98" t="s">
+        <v>1904</v>
+      </c>
+      <c r="O98" t="s">
+        <v>1882</v>
+      </c>
+      <c r="P98" t="s">
+        <v>2193</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>2194</v>
+      </c>
+      <c r="R98">
+        <v>999</v>
+      </c>
+      <c r="S98">
+        <v>999</v>
+      </c>
+      <c r="T98" t="s">
+        <v>191</v>
+      </c>
+      <c r="U98" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="V98" t="s">
+        <v>687</v>
+      </c>
+      <c r="W98" t="s">
+        <v>2179</v>
+      </c>
+      <c r="X98" t="s">
+        <v>2180</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>1861</v>
+      </c>
+      <c r="Z98" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>2181</v>
+      </c>
+      <c r="AB98" t="s">
+        <v>1864</v>
+      </c>
+      <c r="AC98" t="s">
+        <v>603</v>
+      </c>
+      <c r="AD98" t="s">
+        <v>2167</v>
+      </c>
+      <c r="AE98" t="s">
+        <v>2182</v>
+      </c>
+      <c r="AF98" t="s">
+        <v>2183</v>
+      </c>
+      <c r="AG98" s="14" t="s">
+        <v>2184</v>
+      </c>
+      <c r="AH98" s="14" t="s">
+        <v>2185</v>
+      </c>
+      <c r="AI98" s="14" t="s">
+        <v>2186</v>
+      </c>
+      <c r="AJ98" s="14" t="s">
+        <v>2187</v>
+      </c>
+      <c r="AK98" s="14" t="s">
+        <v>1870</v>
+      </c>
+      <c r="AL98" s="14" t="s">
+        <v>2188</v>
+      </c>
+      <c r="AM98" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="AN98" s="14" t="s">
+        <v>1941</v>
+      </c>
+      <c r="AO98" s="14" t="s">
+        <v>1874</v>
+      </c>
+      <c r="AP98" s="14" t="s">
+        <v>1875</v>
+      </c>
+      <c r="AQ98" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="AR98" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS98" s="14" t="s">
+        <v>2189</v>
+      </c>
+      <c r="AT98" s="14" t="s">
+        <v>2082</v>
+      </c>
+      <c r="AU98" s="14" t="s">
+        <v>2190</v>
+      </c>
+      <c r="AV98" s="14" t="s">
+        <v>2191</v>
+      </c>
+      <c r="AX98" s="14" t="s">
+        <v>762</v>
+      </c>
+      <c r="AY98" s="14" t="s">
+        <v>2192</v>
+      </c>
+      <c r="AZ98" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="99" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="8">
+        <v>44861</v>
+      </c>
+      <c r="C99" t="s">
+        <v>51</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E99">
+        <v>11</v>
+      </c>
+      <c r="F99">
+        <v>18</v>
+      </c>
+      <c r="G99" t="s">
+        <v>2196</v>
+      </c>
+      <c r="H99" t="s">
+        <v>1856</v>
+      </c>
+      <c r="I99">
+        <v>25</v>
+      </c>
+      <c r="J99">
+        <v>48.4</v>
+      </c>
+      <c r="K99" t="s">
+        <v>2198</v>
+      </c>
+      <c r="L99" t="s">
+        <v>2197</v>
+      </c>
+      <c r="N99" t="s">
+        <v>1904</v>
+      </c>
+      <c r="O99" t="s">
+        <v>1882</v>
+      </c>
+      <c r="P99" t="s">
+        <v>2217</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>2218</v>
+      </c>
+      <c r="R99">
+        <v>999</v>
+      </c>
+      <c r="S99" t="s">
+        <v>2219</v>
+      </c>
+      <c r="T99" t="s">
+        <v>1056</v>
+      </c>
+      <c r="U99" s="1" t="s">
+        <v>2220</v>
+      </c>
+      <c r="V99" t="s">
+        <v>2199</v>
+      </c>
+      <c r="W99" t="s">
+        <v>2200</v>
+      </c>
+      <c r="X99" t="s">
+        <v>1910</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>2002</v>
+      </c>
+      <c r="Z99" t="s">
+        <v>2215</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>2053</v>
+      </c>
+      <c r="AB99" t="s">
+        <v>2092</v>
+      </c>
+      <c r="AC99" t="s">
+        <v>2201</v>
+      </c>
+      <c r="AD99" t="s">
+        <v>2216</v>
+      </c>
+      <c r="AE99" t="s">
+        <v>2202</v>
+      </c>
+      <c r="AF99" t="s">
+        <v>1916</v>
+      </c>
+      <c r="AG99" s="14" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AH99" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="AI99" s="14" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AJ99" s="14" t="s">
+        <v>2034</v>
+      </c>
+      <c r="AK99" s="14" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AL99" s="14" t="s">
+        <v>2205</v>
+      </c>
+      <c r="AM99" s="14" t="s">
+        <v>2206</v>
+      </c>
+      <c r="AN99" s="14" t="s">
+        <v>2207</v>
+      </c>
+      <c r="AO99" s="14" t="s">
+        <v>2208</v>
+      </c>
+      <c r="AP99" s="14" t="s">
+        <v>2209</v>
+      </c>
+      <c r="AQ99" s="14" t="s">
+        <v>2097</v>
+      </c>
+      <c r="AR99" s="14" t="s">
+        <v>2210</v>
+      </c>
+      <c r="AS99" s="14" t="s">
+        <v>2211</v>
+      </c>
+      <c r="AT99" s="14" t="s">
+        <v>2041</v>
+      </c>
+      <c r="AU99" s="14" t="s">
+        <v>2158</v>
+      </c>
+      <c r="AV99" s="14" t="s">
+        <v>2212</v>
+      </c>
+      <c r="AW99" s="14" t="s">
+        <v>2213</v>
+      </c>
+      <c r="AX99" s="14" t="s">
+        <v>2214</v>
+      </c>
+      <c r="AY99" s="14" t="s">
+        <v>1903</v>
+      </c>
+      <c r="AZ99" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="100" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="8">
+        <v>44861</v>
+      </c>
+      <c r="C100" t="s">
+        <v>51</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E100">
+        <v>11</v>
+      </c>
+      <c r="F100">
+        <v>19</v>
+      </c>
+      <c r="G100" t="s">
+        <v>2221</v>
+      </c>
+      <c r="H100" t="s">
+        <v>1856</v>
+      </c>
+      <c r="I100">
+        <v>25</v>
+      </c>
+      <c r="J100">
+        <v>48.4</v>
+      </c>
+      <c r="K100" t="s">
+        <v>2223</v>
+      </c>
+      <c r="L100" t="s">
+        <v>2222</v>
+      </c>
+      <c r="N100" t="s">
+        <v>1904</v>
+      </c>
+      <c r="O100" t="s">
+        <v>1882</v>
+      </c>
+      <c r="P100" t="s">
+        <v>2237</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>1478</v>
+      </c>
+      <c r="R100">
+        <v>999</v>
+      </c>
+      <c r="S100">
+        <v>999</v>
+      </c>
+      <c r="T100" t="s">
+        <v>54</v>
+      </c>
+      <c r="U100" s="1">
+        <v>999</v>
+      </c>
+      <c r="V100" t="s">
+        <v>2224</v>
+      </c>
+      <c r="W100" t="s">
+        <v>1859</v>
+      </c>
+      <c r="X100" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>1861</v>
+      </c>
+      <c r="Z100" t="s">
+        <v>1520</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>2226</v>
+      </c>
+      <c r="AB100" t="s">
+        <v>2153</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD100" t="s">
+        <v>2167</v>
+      </c>
+      <c r="AE100" t="s">
+        <v>2227</v>
+      </c>
+      <c r="AF100" t="s">
+        <v>1867</v>
+      </c>
+      <c r="AG100" s="14" t="s">
+        <v>2228</v>
+      </c>
+      <c r="AH100" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="AI100" s="14" t="s">
+        <v>1961</v>
+      </c>
+      <c r="AJ100" s="14" t="s">
+        <v>2229</v>
+      </c>
+      <c r="AK100" s="14" t="s">
+        <v>1870</v>
+      </c>
+      <c r="AL100" s="14" t="s">
+        <v>2230</v>
+      </c>
+      <c r="AM100" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="AN100" s="14" t="s">
+        <v>2231</v>
+      </c>
+      <c r="AO100" s="14" t="s">
+        <v>2232</v>
+      </c>
+      <c r="AP100" s="14" t="s">
+        <v>2233</v>
+      </c>
+      <c r="AQ100" s="14" t="s">
+        <v>1966</v>
+      </c>
+      <c r="AR100" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS100" s="14" t="s">
+        <v>2234</v>
+      </c>
+      <c r="AT100" s="14" t="s">
+        <v>2082</v>
+      </c>
+      <c r="AU100" s="14" t="s">
+        <v>2190</v>
+      </c>
+      <c r="AV100" s="14" t="s">
+        <v>2235</v>
+      </c>
+      <c r="AX100" s="14" t="s">
+        <v>2236</v>
+      </c>
+      <c r="AY100" s="14" t="s">
+        <v>2064</v>
+      </c>
+      <c r="AZ100" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="101" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="8">
+        <v>44861</v>
+      </c>
+      <c r="C101" t="s">
+        <v>51</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E101">
+        <v>11</v>
+      </c>
+      <c r="F101">
+        <v>21</v>
+      </c>
+      <c r="G101" t="s">
+        <v>2238</v>
+      </c>
+      <c r="H101" t="s">
+        <v>1856</v>
+      </c>
+      <c r="I101">
+        <v>25</v>
+      </c>
+      <c r="J101">
+        <v>48.4</v>
+      </c>
+      <c r="K101" t="s">
+        <v>2240</v>
+      </c>
+      <c r="L101" t="s">
+        <v>2239</v>
+      </c>
+      <c r="N101" t="s">
+        <v>1904</v>
+      </c>
+      <c r="O101" t="s">
+        <v>1882</v>
+      </c>
+      <c r="P101" t="s">
+        <v>2256</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>1478</v>
+      </c>
+      <c r="R101">
+        <v>999</v>
+      </c>
+      <c r="S101">
+        <v>999</v>
+      </c>
+      <c r="T101" t="s">
+        <v>90</v>
+      </c>
+      <c r="U101" s="1" t="s">
+        <v>2257</v>
+      </c>
+      <c r="V101" t="s">
+        <v>1858</v>
+      </c>
+      <c r="W101" t="s">
+        <v>1859</v>
+      </c>
+      <c r="X101" t="s">
+        <v>1860</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>1861</v>
+      </c>
+      <c r="Z101" t="s">
+        <v>2241</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>2242</v>
+      </c>
+      <c r="AB101" t="s">
+        <v>2243</v>
+      </c>
+      <c r="AC101" t="s">
+        <v>603</v>
+      </c>
+      <c r="AD101" t="s">
+        <v>2244</v>
+      </c>
+      <c r="AE101" t="s">
+        <v>1959</v>
+      </c>
+      <c r="AF101" t="s">
+        <v>1867</v>
+      </c>
+      <c r="AG101" s="14" t="s">
+        <v>2245</v>
+      </c>
+      <c r="AH101" s="14" t="s">
+        <v>1272</v>
+      </c>
+      <c r="AI101" s="14" t="s">
+        <v>2246</v>
+      </c>
+      <c r="AJ101" s="14" t="s">
+        <v>1962</v>
+      </c>
+      <c r="AK101" s="14" t="s">
+        <v>2247</v>
+      </c>
+      <c r="AL101" s="14" t="s">
+        <v>2248</v>
+      </c>
+      <c r="AM101" s="14" t="s">
+        <v>2249</v>
+      </c>
+      <c r="AN101" s="14" t="s">
+        <v>1941</v>
+      </c>
+      <c r="AO101" s="14" t="s">
+        <v>1874</v>
+      </c>
+      <c r="AP101" s="14" t="s">
+        <v>1965</v>
+      </c>
+      <c r="AQ101" s="14" t="s">
+        <v>1876</v>
+      </c>
+      <c r="AR101" s="14" t="s">
+        <v>2250</v>
+      </c>
+      <c r="AS101" s="14" t="s">
+        <v>2251</v>
+      </c>
+      <c r="AT101" s="14" t="s">
+        <v>1900</v>
+      </c>
+      <c r="AU101" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="AV101" s="14" t="s">
+        <v>2252</v>
+      </c>
+      <c r="AW101" s="14" t="s">
+        <v>2253</v>
+      </c>
+      <c r="AX101" s="14" t="s">
+        <v>2254</v>
+      </c>
+      <c r="AY101" s="14" t="s">
+        <v>2064</v>
+      </c>
+      <c r="AZ101" s="1" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="102" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="8">
+        <v>44861</v>
+      </c>
+      <c r="C102" t="s">
+        <v>51</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E102">
+        <v>11</v>
+      </c>
+      <c r="F102">
+        <v>22</v>
+      </c>
+      <c r="G102" t="s">
+        <v>2258</v>
+      </c>
+      <c r="H102" t="s">
+        <v>1856</v>
+      </c>
+      <c r="I102">
+        <v>25</v>
+      </c>
+      <c r="J102">
+        <v>48.4</v>
+      </c>
+      <c r="K102" t="s">
+        <v>2260</v>
+      </c>
+      <c r="L102" t="s">
+        <v>2259</v>
+      </c>
+      <c r="N102" t="s">
+        <v>1904</v>
+      </c>
+      <c r="O102" t="s">
+        <v>1882</v>
+      </c>
+      <c r="P102" t="s">
+        <v>2277</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>1288</v>
+      </c>
+      <c r="R102" t="s">
+        <v>2278</v>
+      </c>
+      <c r="S102" t="s">
+        <v>234</v>
+      </c>
+      <c r="T102" t="s">
+        <v>90</v>
+      </c>
+      <c r="U102" s="1">
+        <v>999</v>
+      </c>
+      <c r="V102" t="s">
+        <v>2261</v>
+      </c>
+      <c r="W102" t="s">
+        <v>1213</v>
+      </c>
+      <c r="X102" t="s">
+        <v>2262</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>2263</v>
+      </c>
+      <c r="Z102" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>2264</v>
+      </c>
+      <c r="AB102" t="s">
+        <v>2243</v>
+      </c>
+      <c r="AC102" t="s">
+        <v>603</v>
+      </c>
+      <c r="AD102" t="s">
+        <v>2265</v>
+      </c>
+      <c r="AE102" t="s">
+        <v>1199</v>
+      </c>
+      <c r="AF102" t="s">
+        <v>625</v>
+      </c>
+      <c r="AG102" s="14" t="s">
+        <v>2266</v>
+      </c>
+      <c r="AH102" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="AI102" s="14" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AJ102" s="14" t="s">
+        <v>2034</v>
+      </c>
+      <c r="AK102" s="14" t="s">
+        <v>2267</v>
+      </c>
+      <c r="AL102" s="14" t="s">
+        <v>2268</v>
+      </c>
+      <c r="AM102" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="AN102" s="14" t="s">
+        <v>2269</v>
+      </c>
+      <c r="AO102" s="14" t="s">
+        <v>2270</v>
+      </c>
+      <c r="AP102" s="14" t="s">
+        <v>1875</v>
+      </c>
+      <c r="AQ102" s="14" t="s">
+        <v>2271</v>
+      </c>
+      <c r="AR102" s="14" t="s">
+        <v>2272</v>
+      </c>
+      <c r="AS102" s="14" t="s">
+        <v>2273</v>
+      </c>
+      <c r="AT102" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="AU102" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="AV102" s="14" t="s">
+        <v>2274</v>
+      </c>
+      <c r="AX102" s="14" t="s">
+        <v>2275</v>
+      </c>
+      <c r="AY102" s="14" t="s">
+        <v>2064</v>
+      </c>
+      <c r="AZ102" s="1" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="103" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="8">
+        <v>44861</v>
+      </c>
+      <c r="C103" t="s">
+        <v>51</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E103">
+        <v>11</v>
+      </c>
+      <c r="F103">
+        <v>23</v>
+      </c>
+      <c r="G103" t="s">
+        <v>2279</v>
+      </c>
+      <c r="H103" t="s">
+        <v>1856</v>
+      </c>
+      <c r="I103">
+        <v>25</v>
+      </c>
+      <c r="J103">
+        <v>48.4</v>
+      </c>
+      <c r="K103" t="s">
+        <v>2281</v>
+      </c>
+      <c r="L103" t="s">
+        <v>2280</v>
+      </c>
+      <c r="N103" t="s">
+        <v>1904</v>
+      </c>
+      <c r="O103" t="s">
+        <v>1882</v>
+      </c>
+      <c r="P103" t="s">
+        <v>2293</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>2294</v>
+      </c>
+      <c r="R103">
+        <v>999</v>
+      </c>
+      <c r="S103">
+        <v>999</v>
+      </c>
+      <c r="T103" t="s">
+        <v>90</v>
+      </c>
+      <c r="U103" s="1">
+        <v>999</v>
+      </c>
+      <c r="V103" t="s">
+        <v>1953</v>
+      </c>
+      <c r="W103" t="s">
+        <v>2179</v>
+      </c>
+      <c r="X103" t="s">
+        <v>2262</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>1861</v>
+      </c>
+      <c r="Z103" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>2152</v>
+      </c>
+      <c r="AB103" t="s">
+        <v>1894</v>
+      </c>
+      <c r="AC103" t="s">
+        <v>603</v>
+      </c>
+      <c r="AD103" t="s">
+        <v>2282</v>
+      </c>
+      <c r="AE103" t="s">
+        <v>1895</v>
+      </c>
+      <c r="AF103" t="s">
+        <v>625</v>
+      </c>
+      <c r="AG103" s="14" t="s">
+        <v>2283</v>
+      </c>
+      <c r="AH103" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="AI103" s="14" t="s">
+        <v>2284</v>
+      </c>
+      <c r="AJ103" s="14" t="s">
+        <v>1805</v>
+      </c>
+      <c r="AK103" s="14" t="s">
+        <v>1870</v>
+      </c>
+      <c r="AL103" s="14" t="s">
+        <v>2285</v>
+      </c>
+      <c r="AM103" s="14" t="s">
+        <v>2286</v>
+      </c>
+      <c r="AN103" s="14" t="s">
+        <v>1941</v>
+      </c>
+      <c r="AO103" s="14" t="s">
+        <v>1874</v>
+      </c>
+      <c r="AP103" s="14" t="s">
+        <v>1875</v>
+      </c>
+      <c r="AQ103" s="14" t="s">
+        <v>2287</v>
+      </c>
+      <c r="AR103" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS103" s="14" t="s">
+        <v>2288</v>
+      </c>
+      <c r="AT103" s="14" t="s">
+        <v>2289</v>
+      </c>
+      <c r="AU103" s="14" t="s">
+        <v>2290</v>
+      </c>
+      <c r="AV103" s="14" t="s">
+        <v>1902</v>
+      </c>
+      <c r="AX103" s="14" t="s">
+        <v>2291</v>
+      </c>
+      <c r="AY103" s="14" t="s">
+        <v>2292</v>
+      </c>
+      <c r="AZ103" s="1" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="104" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="C104" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="105" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="C105" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="106" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="C106" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="107" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="C107" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="108" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="C108" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="109" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="C109" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="110" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="C110" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="111" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
